--- a/Personality Prediction - Analyze/Dataset/Personality Prediction/Dataset/chamndod/dataset_applymagicsauce.xlsx
+++ b/Personality Prediction - Analyze/Dataset/Personality Prediction/Dataset/chamndod/dataset_applymagicsauce.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="310">
   <si>
     <t>user_id</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Willy Oktaviano</t>
-  </si>
-  <si>
-    <t>Halo</t>
   </si>
   <si>
     <t xml:space="preserve">"Hey guys, I don’t normally post stuff but this is pretty important. Last year my cousin got really sick. She then suffered a stroke which resulted in her being paralysed on her left side. This has obviously been really tough on the family so my sister and I have set this up to try and raise money and gain some support for Jess.
@@ -962,195 +959,51 @@
 Oh against you?! Haha</t>
   </si>
   <si>
-    <t>I think it will run out 20 ulan will bk ckckckck theme tomorrow must bring a handkerchief for Kevin Immanuel Hp Vincent San Marino wkakakakkk LOL coming home with a joyful school together Samuel Gilbert and Vincent San Marino so My Top Profile Viewers Angelica Lumamig 436 views Albertus Kelvin D'Electron 83 views Chris Ithu James 42 views Aloy Renaloy 30 views See who views your profile at sms again nyolotan sama Drama Permai seru lohh mau iktu tidak Vincent San Marino Samuel Gilbert oi Vincent San Marino Samuel Gilbert B 71 JL car anyone wkwkwk bosen Adeline Jap Smart Albert Julian Adrian Renaldi Adriana Clarisza Adam Lambert w oh really w rks This gl tch giv s you fr e facebook way in author Up to 750 why you can le rn hwhr good always remember the voice of the teacher hha tlong do not have the fuel and sms i dluu so Kangen sama fs hha Tomorrow school swt copas from Vendria Tanuwijaya nnyatntang Vincent San Marino move house hha if every there january mop februari mop maret Mop and sterus na enk it suffer rain and stupid all of this time jokes and laughter the day you went away numbers blakang na 7 all dehh make myspace dong 21abf9bb sorry nyemplung to toilet in rikimaru801 ccad download 1GB i gabby kurniawan sjarah dtempel di bku tidak In hvs only pertamaxx 'xpa who play battle station comment plis there just ye complained jeremia ivan said oi already came out this white to llt wkwkwk open new calendar open new day open new spirit open new school open new city open new card open new house DISAPPOINTING Tiger opponent garuda di rikimaru80 Ga no movie Boring ijo what sii wkwkwk Malay mrs krna laser brrr it's time to sleep Woy This facebook owner let's we pernag who belongs inib this Fb prove if you are the owner of this facebook is important CARD OF DEAD LO UDAH THERE IN HAND Gw Useless you fight i know all of it if you know i sebener its sure you know me I know all i also 1 school with you i ancurin Facebook you if necessary I close his account asik na spaa wkwkwk Ckck Tu child ska bnget sihh follow my stats Wkwkwk Ckck Tu child ska bnget sihh follow my stats Wkwkwk ledgermyane 42339hp wkwkwk It's my life thanks God Red 1 Wkwkwkwk Wolver balls Wkwkwk Class 4 5 His era friendster class 6 7 facebook class 8 era twitter class era</t>
-  </si>
-  <si>
-    <t>Like on TS Puri 160 Make your own jersey Wow my boots time is very competitive pcfaster Hmm Want to watch nihh The gamau galaau galaau status wrote the status of a musingin pacaran mluu kinds pentingg right have a girlfriend gedek lama2 liatnya Have Fun D Traffic jam watch Despicable me 2 pnasaran jdnya Christian Is not a religion but its the way of life Erastus Sabdono RehobotMinistry You dont turn your back on family even if they do Dominic Toretto good enough must be better 10th I need somebody to love tomorrow who joined classmet wakilin my class smangat yah maennya good luck for You all Borobudur Temple Borobudur Temple Borobudur Temple Borobudur Temple Borobudur Temple Museum Vredeburg Fort Alun2 Selatan Jogjakarta at Malioboro Jogjakarta Ahmad Yani Airport Semarang 4days in Central Java Everyone has come into your life for a reason some for good or bad they may shape us Break us but in the end they make us the Real Madrid unveiled the deal with Emirates and the 13 14 Kit want to break the head it feels I'm 19 years old I think I'm doing a pretty good job Justin Bieber Justin won Top Male Artist and Milestone Award on Billboard Music Awards 2013 Real Madrid 1 2 Atletico Madrid Again2 krna hockey win from madrid You know My name but not my story You see my smile not my pain You notice my cuts not my scars You can read my lips not my mind Bestfriends are for you brightest when you're at your darkest moments Never cry for the person who hurts you just smile thank you for giving me a chance to find somebody better than you nice tattoo Coming soon i better not talk but talk but not dtepatin laugh LOVE it arise from EYE down to my HEART LOVE It arises from the EYE rises to the BRAIN down to the HEART of shock madrid to lose Everything you want Action speaks louder than word Sometimes when you wonder why you can not hear God's voice during your trials Remember the teacher is always quiet during t He test Be you believe in you and allow for tomorrow's dreams Vin Diesel I'm everything I am Because you love me enough for today thanks God Lonely Lesson from crayons some are sharp To live in the same box Coming soon Happy Birthday Justin 19thBIEBERBIRTHDAY There is a difference between giving up and knowing when you have had enough Forgive me if I was wrong Im just normal human Nothing's perfect thats why pencil need eraser You can not be real with Do not judge me unless you know me Do not talk about me unless you've talked to me Happy Valentine Maybe it's not always about trying To fix something broken maybe it's about starting over and creating something better I like to be there for people because I know what it's like to have a number one smoga bisaa tampilll aminn exit Happy Chinese New Year 2013 Perfect is not when tw O people are together If you want to trust it, you trust my ability If he does not help you it means he trusts yours Everybody knows how to love but only Few people know how to stay in love with one person for a very long period of time I'm far from perfect but I will be perfect for that imperfect someone who is perfect for me Saying I'm fine when you're not it's nothing When it's everything I'm done when you know you still wanna try I do not need a perfect relationship I just need someone who will not give up on me ohhh i know laugh Before you assume this method called ask Emang makan indomi malem2 Wrong yoo All around the world 'Cause nothing could ever ever replace you Nothing can know you're the number one I can relate to you know you will not find a love that's so true</t>
-  </si>
-  <si>
-    <t>Merry Christmas everyone The Cross before me the world behind me John 14 6 Jesus answered I am the way and the truth and the life No one comes to the Father except through me Welcome 2013 I'll be there for you Family is important I care That you talk to me Thank You Sweat results are more satisfied than the results of other people's sweat Everything we do must have positive and negative effects Soin mistake this year as the experience ditahun dpn Do not be afraid to fail if you want to succeed If it has failed g need tkt fail again Stay thinking way to succeed a Power of God is greater than any Karma is valid boss Satisfied please just regret dtgnya end Jd slow only Live in the world Just for a while so do not waste your life with negative things helping others Who needs that the joy of life there is happy there is hard Cry before someone else crying for us Mengalah does not mean lost W not robo T that can be ordered Better to live poor that is important happy than rich unhappy Wkwkwk P Wolves hunt sheep Blm is of course people who often laugh today will often laugh in there The basis of the success of honesty Although cheap places are important togetherness P Sometimes we ever feel falling Not forever our situation above so g ush show off thank you Do not be afraid to face things that seem frightening 1x make a fatal mistake consequently g sh carmuk thank you g influential Forgive it more fun than revenge is useless Just make yourself cape Forgive not a difficult thing Very Ok without you P can be important lessons from money singers not everything is life with positive Everything is definitely over P Above the sky there is still sky hoam Talk to my hand in Karma it applies Focus on one goal O Ultramilk for today Wkwkwkwk P Same as the globe of the world Definitely spinning slur Who the hell g ever made wrong hha intros Peksi herself just Less Lucky Life Kyk Ice cream Enjoy before liquid X3 Happy Vesak day If feel suffering happy happy wqwqwq means we are still alive in this world G sh alot of proof it alone I want to kill Sality Success requires effort hard unlike magic directly successful hha G this way i Ampir overslept on angkot Hahaha GG Klo you do not ngehormatin me i more can not ngehormatin you jiji hii Do not be afraid to make mistakes Failed the first step towards success Successful g means if g there fail wkwkwk Love in your eyes sitting silent by My side going on holding hand walking through the nights hold me up hold me tight lift me up to touch the sky teaching me to love with heart help me open my mind I can fly I'm proud that I can fly to give the best of Mine till the end of the time believe me i can fly i'm proud that i can fly to give the best of mine the heaven in the sky lgu lama Azzz Japan tsunami 8 9 SR YY Azz BT at home hoam mening play jiji lah Te Man who can only make us rise time Falling down Shock wkwkwk Bljr again XP Mls bljr Wkwk to reset all 2550FD6C O yey kereset wogh wkakwakwa Jd solid kayak tree hard to fall down despite the rain hot wind but can be sweet fruit Cap go meh ujan first clean the way wkwkwk XP GG If the problem is big Small If the problem is small assume no problem If there is no problem do not look for trouble If you get into trouble do not ever run away from problems Just wkwkwk XP All that begins with sense mrh will end with shame According w valentine not Just 1 day doank but every day P Feeling my heart Faithful true friend is lbh brnilai drii s'mua gold in this world XP Open New Life wkwkwk Starting day with smile Emotions High Level grr Cuman need honesty Because of you I'm so far survived Smile even though grief Do not Leave Me Alone True treasure is health not silver gold Lost direction o Only You In My Heart XP Now I know the matter number what the question love is do not have By having something i dont need MUD p Kick Kick it wkwkwk p Nothing Lives without Failure Defeat and Fall River Water Towards the Sea though passing the winding road Stand Upright Do not Look Back Back The Past Is Passing Remember 1 thing Life goes on 0 Trying To be patient Those who can give without remembering and receiving without forgetting will be blessed Smile is a Melody Of Soul Only a stupid fish that can be hooked 2x with the same bait One Day Later Better appreciated than being praised Up To You MUN p Survived by my Destiny little They who see with their own eyes and feel with their own hearts We are born with two eyes in front of our faces Because we should not always look back but look at it all in front of us look at our future There was number point any More Remove the Burden deepest hoam 1 2 3 p G need people '' Gajelas '' Bad day Baby come together neoege nest bakke nan jul su eobseo baby girl ueo neol wihan i noraereul deureojullae It's night bobo used ah OTW Sukabumi Huh Cape Ccd already driver gebleg BRB eating Aaa there is a dead cat on the highway YY Ngantuk w zz Pegy first The First Time a Say O Wkwkwkwk I Give Anything For U hha You cry I cry You smile I smile Endure to the end Listen to me I 'll stay until whenever Wkwkwkwk Time goes by a lot slower when you miss the one you love P Feel So Good</t>
-  </si>
-  <si>
-    <t>have a motorcycle handlebar rich so GG Fidelis Andryanus Andri Agasi Jonathan JeremiaRoyberco Subastino GoJefry Yan Awww Bryan Andoyo ahh Ateng Awww Bryan Andoyo ahh Ateng Jonathan JeremiaRoyberco Subastino GoJefry Yanapa is v free CHICKEN NUGGET FedryJefry YanRoyberco Subastino GoJonathan JeremiaHadi Purnama best song ever Chris Royberco Subastino GoFedryJonathan Jeremia when Can Y may uga core 0 disappear laugh v life support me handsome nobajak giveaway Please help my friend dong Hpnya lost Sony xperia z1 wearing black bumper and background skin anime Performers in jakarta Please help Klo ktemu context here only pm pc creation from AMD AMD300 users AMD300ID ane feeder bang v dog WKW giveaway Jonathan Jeremia giveaway enough with AMD A8 6600K 8GB RAM 2x4GB 1600 was able to play GTA V view benchmarknya here skipper giveaway why v starting to consider that this physical kyaknya mah v soon r4x are moved redeployed to the car Delvac mx kaka knya fiesta 3 ahhh how beautiful the water pump why Sanyo opponent Cindy Sheren game dev tycoon i'm coming tupac merry christmas happy new year Richard Alison Fedry Lauw Epan Jonathan Jeremiah Hans Purnama Hadi Kurniawan MSIIndonesia NXAGiveaway Year exceptional Thanks for being a part of it fiesta why giveaway wuutttt giveaway for the last year has not been a member AMDRedTeam can follow this back ready in select only 200 people come follow gannn AMDRedTeam Cindy Sheren Jonathan Jeremia Fedry Hadi Purnama Jonathan Jeremia Jefry Yan already ABS broh wih kawasaki ninja machine base pulsar behh actually been so this kind of movie Dora's Jonathan Jeremiah sue kwkw ad Plarm Minolta alolololo giveaway Jonathan Jeremia waduh fate no boyfriend le me GAY D alololololo Cortana bajaks not already exist in windows 9 alolololo giveaway I'm now ranked Experienced in Pid on Raptr giveaway WTF seems Must have this game move to diesel oil hopefully all beings Happy life giveaway Radeon SSD hmm interesting bohh car carry Add my fuel 7DB17F8F iam guy i'm now ranked hardcore in PAYDAY 2 on Raptr I'm now ranked Dedicated in Counter Strike Source on Raptr give away now ranked Dedicated in PAYDAY 2 on Raptr I 'M now ranked Experienced in PAYDAY 2 on Raptr I'm gay v I'm honest I'm not on the same plow si Fei kok Honest loh alololololololo Hans Kurniawan buy vroh hahaha I'm now ranked Dedicated in Watch Dogs on Raptr hmm motor oil on nyaranin HDEO oil use is necessary to prove efficacy of this I'm now ranked Experienced in Counter Strike Source on Raptr laugh Hahaha good job Ahok Royberco Subastino Go Jonathan Jeremia Sandy Sandy Roosevelt Akhoi noh Fedry No community can ask ajarin vroh hahha I'm now ranked Dedicated in Half Life on Raptr FinallyMilihJokowi Salam2Jari ana tamfan v I'm now ranked Experienced in Counter Strike Condition Zero on Raptr wooo this cool I'm now ranked Experienced in Half Life on Raptr I'm now ranked Dedica Ted in Frozen Synapse on Raptr Si A Love si B Si B love si C But si C love si A Hmmm one must have a homo WTF I'm now ranked Experienced in Frozen Synapse on Raptr wooooo while rocking Hans Kurniawan I'm now ranked Experienced in Watch Dogs on Raptr do not have to save for this buy game welcome zhang family life without love like a flowerless garden spertinya I need hdd lbh big again new ratjun ratjun new this new product Hans Kurniawan poisoning audio CD ori this time huaaaa I'm Now ranked Experienced in Battlefield 4 on Raptr dbe cable already bought live mogami cables same jack vermouth beh eating tai this orng I'm now ranked hardcore in Euro Truck Simulator 2 on Raptr wkkw cwe anyway cwe what kind you cwe not what just cwe invented You have died and now there is noise in the speakers Wtf seller first buy new ginian woohh cool vroh what the fuck wkkw I'm now ranked Dedicated in Euro Truck Simulator 2 on Raptr giveaway kwkwkkw giveaway I'm no W relevant Experienced in Euro Truck Simulator 2 on Raptr beh donlod 1 gb v ohh fuck forced to donlod Yeey kebeli also game</t>
-  </si>
-  <si>
-    <t>This FB has gone unhealed open R9 290X much faster than GTX 980 in dx12 can even compete GTX Titan X which cost much more expensive VGA AMD more future proof than nvidia so do not hesitate to wear VGA AMD Rama Sendjaya Luki Wiradinata Fernaldi Willy Lesmana Andy Wijaya Hore I am already elected to be an exclusive member of AMD Red Team Yuk immediately join on Facebook and Twitter AMD Indonesia to be able to offer and other interesting surprises from AMD Steven Ricard Steven Minolta Rama Sendjaya Hore just won a prize from AMD Indonesia Want like me Yuk like AMD fanpages now Also now ranked Dedicated in Heroes of Newerth on Raptr I 'm now ranked Hardcore in Assassin' s Creed IV Black Flag on Raptr I 'm now ranked Experienced in Heroes of Newerth on Raptr I' m now ranked Dedicated in Assassin 's Creed IV Black Flag on Raptr Wew Top 3 Game Console currently Sony Playstation 4 Microsoft Xbox One and Nintendo Wii U have used Processor and Graphics Card Ri AMD how about you Yuk join AMD at AMDTopConsole I'm now ranked Experienced in Assassin's Creed IV Black Flag on Raptr PS4 i think it's better than xbox one Sony Xperia competition Sony Xperia Competition Have you Assassin's Creed III I have entered this week's Sony Xperia competition Have you I have entered the Sony Xperia go Sony Xperia competition Have you I have entered this week's Sony Xperia competition Have you know the schedule TO not Bner it senen TO Bosen Confused what to do Photos of The Sims 3 Finally today finished the exam D Little free than yesterday According to survey w slama 3 Year Toilet dp studio photo wkakaka D Spirit of Confused I do not know what must i do now oo abcdefghijklmnopqrstuvwxyz Zzz dynamic ip Kok Profile Picture on to r Eset so nothing when w new w plug it again ZzZ SMS From 6283876434498 ma buy first pulse As 50 thousand in number 085219763567 cpat important Wkaka w spelled ma2nya Bosen zzz Jd bolang in seal Wkwk 8 Symmetry Amudo nae mameul moreujyo I can not stop love love Love Apado gyesok banbokhajyo I can not stop love love love I found the way to let you it I can not believe the sigh of you I want you to stay away from my heart 'There are people not clear ngefans Bnget same w zzz W got the alpha cacar Mndarin zzz Smoga ips gmpng Best days again to be free Study hard Super fast mode on 3 more days SPG Go Go Go ZzZ lks ipa lost TT Finally can signal 3g again Power of Friendship laugh ya Know NISN can see in Do not forget love thumb Maen Conver not ngerjain 1 month laugh Good Holiday tgs little kmn sih Bosen w not da tmn ZzZ ZzZ Hd skrng bsa 4x SS gp in shop skrng smpe 60 Bsa craft evilis weapon thanatos set and others Evilis Weapon tha Natos set dropan rare 50 and up if not slah epic black Change job 1 in berme job 2 in silver job 3 w have not seen Mission let dikamiki Haha Etc Create blue status post comment Visit update GC Chaos Pre Event same Arme Skill Tree Finally w can also Gnosis Best Holidays cmn 3 days zzz ready for the future a Counter Strike Online CBT July 15, 2011 OBT July 22, 2011 Ready to download w class 9 what know love know complicated make chat new zzz Elsword go cf gc lonely on what the hell bosen zzz Hmm Zombatar from Plants opponent Zombies Yee laptop and kom w already correct Kom was'a already right file win'a corupt Emank gloomy zzz Ah sial laptop damaged but com flame zzz Finally i have finished the test Tommorow is the last day of the test I Still confuse about it 1 day again 5E Browser is slow to think but game on not lag Weird Wait for exam finished 2 days again Home on facebook w kok error was more strange just facebook sma where yh Weekend pr many bangs repeat 2 Cape Bntar again test and N Aek class does not taste already 1 year in kls 8 Cpt really Hore Knp there is a text call message feature in the profile itself and not bs in pke Weird Boring zzz Watch ovj ah Ah sial wear sick all zzz Fb quiet want to sleep will be what yh not clear Gw Confused want to change what pp What yx Thx who already ngucapin Cape if the comment 1 he w want to holiday again D ot yrmtfmt aaa Help me get exclusive black from Megaxus Referral by click the link below What your favorite character in grandchase w confused want to change the PP what a there Want to nemenin w play audi is not Hot so cora is hard also abcdefghijklmnopqrstuvwxyz1234567890 'on the half-holiday TT again change the day of sleep ah ZzZzZ 23 50 is still a seger If you can not do anything do not do anything Hot body w ho wanna be what yah confused this' New open facebook 'Maen GC ayo Hmm sleepy Sleep ah ZzZzZz Bsk must be D bored this Patch GC Ntreev very bad old gc ntreev patchnya old bner Just answered the question from MegaQuiz Maen Facebook while listening to GC songs in Dp Chaser Nice Blog also Just answered the question from MegaQuiz Update GC Ntreev Season 3 DP Chaser Grand Chase Guild Blog Any Bug or Error please PM me Download GC Ntreev has 1 002 967 KB of 1 894 MB 51 Recently Answering questions from MegaQuiz Progress Love Story Hard FM got great Grand Chase from SG Interactive bored also open facebook no friends chat hwa Cry dw online from koei this bad luck my seat was moved no friends chat TT ah i play gc until attendance is already Bosen Nyoba play Resident Evil 4 wear armax in computer ah bosen no friends play online game confused want to write paan ABBAACC dark Anyone want to nemenin me play GC now Yg online bit very 25 but many do not know all hehehe D if AB then B Kalo want to answer please comment here Gw confused would be what if you want to comment suggestions here Anyone know the duty of Civics Minimal how much There are abbreviations DotA Kalo Know please comment here thank you yah all sorry yah so ngerepotin ngucapin still old kok ultahnya D FB very quiet i am confused what to do on facebook ZzZ Receive ampao starting on February 3rd onwards If you want to love ampao today also not what what Thanks D Sorry Well so on ngerepotin ngucapin Bsk who's ronan happy birthday in my opinion but still tetep champion sieghart Yee kom i live from the grave install the sims 3 old banget i confused make inbox new facebook Boring ZzZzZ Finally become Sieghart 2x dapetin kamiki own crystal mati2an until Pot runs Want to download GC but long Finally can Dragon Knight Gw can play Mako After so much time passed Finally open facebook and status updates again What is the number of numbers from 1 100 To avoid full notif because comment status photo album post and others 1 Clear all Comment you 2 Unlike 3 Photos Klo You have tagged tags Klo do not believe just try d I post this New clock segini facebook is deserted ZzZzZ</t>
-  </si>
-  <si>
-    <t>after wait wait weeks and weeks of excessive finally comes out is also a new all still sleepy zzz Indonesia lost penny horeeeee finally let's make-peace zzzzz steady Be Careful Get Free Ninja Saga Emblem Here Try your luck to get the Emblem Fellas sleepy wkwkkwkwk backfire wah this severe guritanya finally my token over 200 grab this please in the adoptee for that request for help in view of my free gift Dedicate why donk in ninja saga Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your Friends know t Hat you 've sent a free gift Let your friends know that you' ve sent a free gift 'Ve sent a free gift Let your friends know that you' ve sent a free gift Sent a free gift Let your friends know that you've got a free gift Let your friends know that you've Free gift Let your friends know that you've got a free gift Let your friends know that you've got Let your friends know that you've got a free gift Let your friends know that you've got a free gift Let Your friends know that you've sent a free gift Let your friends know that you've got a free gift know that you've sent a free gift url of your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift LARIIIIIIIII SYEREM tuh PHOTOS SO THE MONSTER OFF GALIH Let your friends know that you've sent a free gift Let your friends know that you've sent a Free gift Let your friends know that you've got a free gift Let your friends know that you've got Let your friends know that you've got a free gift Let your friends know That you 've sent a free gift Let your friends know that you' ve sent a free gift Let your friends know that you 've sent a free gift 've sent a free gift hmmmmmmmm passable passable wkwkwkwk steady kwkwkwkwwkwk steady sniper ane oh yeah can you beat it horeeeee so chunin eek ye who hack HELP ME SOME BODY HELP ME pleaseee filial filial please taken grates halal guaranteed 100 dEAR cHILD filial PLEASE HELP NEED HELP Finally Blood is still polllll kwkwkw winning opponent lvl 20 claim free cendol nich cendolnya mas one click this cendol w for for black uy take this hi hi la la laugh laugh great Ha HA HA see my aquarium See my aquarium Super Super kan kalo play pet society see my aquarium yach fab</t>
-  </si>
-  <si>
-    <t>Okay now what is NTR's number report first transparent terminal meme ancient meem kodama naoko's speciality black haired and cold hekel memory this good from new know fendem 2hu men not watch tuhu livebox hiks vigne x gab is the new mai x reo still believe this kosple miko someone Stop me from playing this edges2cat truly the pinnacle of AI cygames is secretly an indian company who is prolly support corrective rape like never forget rip lesbian ayylmao you major it now p now playing north lake parking technologies tm represent in guild war otsu cf loot i missed in Car friend oc from the ancient times the greatest ultimate yuri manga has gone nsfw yakuman irl if this manga was written by het author as well as hehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehehe The writer also write inugami and nekoyama it should be yuri ri right in the other side i'd love to see more men in yuri works fuck this gay earth if this Turns into het and i said too much for a manga that only came out first generation rice xDDDDDDDDDD the real issue was the weeb pape the story just know did you know that this pairing currently controls half of all manga dojin gbf in dynasty scan and the amount is only 1 Now manganya has also graduated definitely my kind of music chap 1 sama 2 lapse 6 months 10 10 lewd bird honk is a brother ayy HOTS days GW this time aw yiss best gaem yagakimi ch 17 life goals what is this yha after few months struggle fate Epnya bagus' just see my fucking god dlc like i'm interested 3 kok cute new conscious barusamiko su it balsamic vinegar hue W where is the friendly people who likes the purest form of love ffa best fashion throwback beautiful wakemeup flac o and fire shoot friend I miss ubuntu And ubunchu onfire days i listen to this everyday if i winning or not but today it's relevant Llest mountain and slay dragons i defend my galaxy from ruthless aliens never forget i can die in peace yea sick 1 year later and i listen to this with my friends it's not safe open the opening striker unit 3 10 10 best tfw not nyimpen source codenya tfw yesterday Can source code from web random shit i wasted my youth clash royale is a gateway to starcraft 2 and clash royale is inspired by warcraft 3 mod so let's go home shall we pure aesthetic you know sometimes you need to give one of your shipgirl a talk that Talk First eSports indonesia what is gituan joining anonemes and making memes Siake cheeki breeki i cried my ability as anime character slackware days</t>
-  </si>
-  <si>
-    <t>XD Leh uga Lol each generated always change Lollll Lollll salute for his intention ngedukung ahok Keliatannya would be a pretty inspiring movie Weight really XD Laser laser it bought in Glodok with the price of Rp 80 thousand and sold again with price Rp 125 thousand What theee news inkompass Wkwkwkw And I never bought this sweet ice tea in monas TT Si pea wkwkwk Believe not yes There is an accident still sempetnya ngajakin selfie This new intelligent ngak kayak opponent one country that's it There are rules not followed direct karna own karma P Leh uga V wwkwkw The mockery It's not the current Yes Yes this is the average media in Indonesia The title of negativity may let fishing viewer Sure do not need to pay So if necessary to use the police services using the police services do not pay at all Come to the police say sir I want to sell our car there is a message via online Use police services Iqbal Thanks goog D Kalo in indonesia tetep not bs ngejar Macet V Netflix pirated Njirrr katro b Anget dahhhh V Busy cyanide V Wew my hand line turns out V Busyet is very fast SULTAN BENERAN V Just relax the origin of the complete mah when it is starting new kind deh nanyain letter of duty Do not know why this webapp goes viral 2016 goal make an app can goes viral Like this 2015bestnine Bener also V wkwkwk Your tiger's mouth beckons look where it used to be Dak Wakakakak D Hopefully no problems fit left XD Once selfie same ade hairsblew christmas christmaseve christmastree christmas noedit nofilter Full moon rare on christmas night Sampe light bleeding result of his photograph moon Pantes was The moon is rich in led lamps glare XD Bantuin like yes friends D Stabilizer champion once V Shied wkwkwkw Wait short tempered not wrong this Wkwkwkw What dream my dog ​​smalem arrived told to be santa claus malubanget christmas xmas paud santaclaus dominopizza pizza latepost dominopizza pizza latepost meatzza escaperoom binusalsut Finally, his microcode protection burst also heroes2015 binusal Sut Again awaiting inspiration binusalsut heroes2015 Mantep wkwkwk First day teaching paud not understand what throwback latepost Once a night play to Jakarta latepost noedit martabakboss martabakmanis ovomaltine oreo Videlish latepost noedit starbucks coffee noodles with roasted chicken latepost noedit instafood foodporn noodles kopitiam</t>
-  </si>
-  <si>
-    <t>14th generation 3 110612 we are 9c 3 i dont want to lose you ever thanks for today D someday someone's gonna take your place and i'll forget about you you've changed 9c e hai you're taking my heart can i have Yours too it turns out Julius Frederik likes same Christian Gunawan laugh 19 You told me you'll love me forever how long is forever to you why am i afraid to lose you when you're not even mine what i'd do to have you here heart Not a toy time ck sorry Temen 9c bu win had told me to send the test run 2 in the book of PM Monday in the same collect with the BI penalty Please have a number of other 9c children are told yaa Thankyou soon valentine imissyousodamnmuch go away from my life You are happy chinese new yearr D co cweet iya guys i do not caree '' '' just know me mah up to youu you are funny luu do not let us save the word love to the dearest people mario teguh big girls do not cry Thank you all for 'pati patiently O God must have a beautiful plan Other in the mouth of another in the heart so it's not good There can be miracles when you believe How is this church if this big ujan gede 13 12 10 I want to make you happy because seeing you smiling makes me happy 'Just can Dear sorry Shasha p Just go HAHA Keep smile Just can sayang thanks' When life looks you in the eyes and tells you You can not God is holding your hand telling you You can My inbox is not in reply but inboxan same people can HAHA When you're STRESSED you eat ice cream cake chocolate and sweets Why Because stressed spelled backwards is DESSERTS Lolipop Thanks God for today 4 'Malming with gaby D If I have either wrong on purpose or not I ask maa yaa Dead light A smile is Nice to as it is to receive So start your day witha big smile Sepii e thank you compliments patiently I have mah people are patient in dear God D ngatain ade class but do not feel what you own also rich so same brother Ck class you do not know the beginning of the story so do not be knowledge know if you do not know what does not need to talk want to know the business people want to know the affairs of people if you do not know what does not need to know the affairs of people you just denger from the side of the front I'm really bae but It turns behind the noodle Makasih loh Important so Ngok Demen very already looking for problems Wonder Serah lahh Make a class 9c maap yes if there is a summary of his tears bolong Because the rich father's writing docs not kebaca So afraid wrong Tomorrow I love to know it's what it's writing in In jen from jm 3 to jm stengah 6 gara gara gara same religion paint TIK ya udahlah enough know Said people change when own also Memories will never disappear like dew hidden the sun darkened moon awakened dawn small writing Dig a well before you become thirsty o akirnya task Pkn slese also bosenn di in koko ku indeed best world OO leba why Happiness depends on what can You give it not on what you earn even though my father and my mother leave me but God welcomes me without Jesus we are nothing I believe you are God who never neglects to keep promises Mu promise of them the strongest strongest who will be able to maintain its existence But only those who are capable Adapt to class changes the same again D Weight deh rival Know the most beautiful things in this world sometimes not bs seen in sight or palpable with their touch only bs felt with heart Healthy and happy people are those who face the reality of their lives directly But not Hope it changed directly The danger of small mistakes is that the mistakes are not always small no need to bohongin I also I will not follow you kok Ckck Beautiful memories of the past just to be remembered not to remember remember if not say not delivered If not delivered Then it will not pop Ai any sadist is very bored film Many people will walk in and out of your life But only true friends who leave footsteps in your heart in elephant village D 2 stengah jm just play 2 game 'in trans studio why D on the way to Bandung D bored dead lights I'm a big big thing if you leave me 'delicious cold' 'eat skoteng with my lovely sister 9 bosen hape quiet i naek class 10 big why D receive Love God DD Create a grade 8c Klo already lost yodalah confessed losing the heck of the basketball was lost in not seneng Ga need to play better if rich gtu Create a 7a class Yodalah if if children cls 8c indeed cheat Biarin alone Said better better sportsman out of Pda win cheats Trus knapa still in anger So it is better on ktemu directly continue slesein bae Dr on just kesel continue to write status Ga to Create a grade 7 children the same class 8 What is just rich gtu only ampe noisy Ga Important Small problem in gedein Lagian win also just can sponge cake better lose sportsmanship than win cheats hape deserted</t>
-  </si>
-  <si>
-    <t>So keinget wkwkwk Coding Everytime ngoding dota ngoding dota so plakk Java BufferedImage if only can talk but make class just not better bsa not need to ngoding just want to make normal coordinate jump even coordinate wave mager enter sprites object to main frame wkwkwkwk not yet make collisionnya Because dog kwakakakak BOOM wumbo combo same laughing awkwkwkwk laugh Preparation time udah calculus kmaren learn it until 3 am wkwkwkwk already like training Moga2 on dpet good results laugh though failed but can something new bsa know fellow friends sekobby coding also and hari2 ngoding Together alone I am grateful to know the same class of brothers who have a lot of science together learn new science from there all learn what the meaning of teamwork for the army and willing to admit the mistake of a mistake even though failed but I learned many things miss LS so dregs awkwkwkwk laugh between willing Same t Tawa yearinreview2016 Hafiz Ikhsan Atallah Raditia maybe you are interested in joining wew njirr wkwkwk remaining live line v nice one Just want to give just know who ask ngapus not me proof PM only Adhi Prakoso Nostalgia wkwkwk Ngakak wkwkwkwk Lost but still there year dpn Ewww Adhi Prakoso this loss Money for buy ginian wkwkwk v Adella Ryou Duck v CAS02 alalalala v wkwkwk ComputerScience Adhi Prakoso Lol v Awww nice Ahhh first sai xD daaammnnnn XD this is my rasain just now XD Adella Ryou Rian Ariyanto rolling on the floor laughing XD Rian Ariyanto like you this wkwkwkw Adhi Prakoso must have a new tompel first dhi wkwkwk v Adella Ryou laugh XD tumben jokes funny but there are scenes that are too forced anyway 3 Adella Ryou try this xD Adhi Prakoso v make a hand version of the version is dhi v tomorrow version sai deh wkwkwkw v hope more tidy Adhi Prakoso Spread v Jarang2 is open already lvl 8 course its work ngerusuh at gym plaque person Hahaha xD Klo not gr2 k Oneksi fucking already dpet this without having to evolve T T While hunting pokemon go wkwkwk v Adhi Prakoso ccd shoot you again here v waarrr</t>
-  </si>
-  <si>
-    <t>Reward each day must get the money Reward everyday must get the money OTW to Bangkok Semester 2 solid schedule in at Capek LDK but still exciting Indo 1 4 inter milan Madrid 2 1 munchen munchen to final win penalties meet chelsea Barcelona 2 2 chelsea chelsea Escaped Arsenal 0 0 chelsea My idol Van Persie Merry christmas merry christmas 2011 by lucky please grab it gong xi facai aaaaaa Say something about this Say something about this uluya</t>
-  </si>
-  <si>
-    <t>IG eykln Twitter elisabetthh Hacked Night with the STARS Happy Birthday STRADA just hoping Why so serious laugh How lucky me I have you in my life Sorry The Day Unyuuu SMtown Err test M1 Cerpen No one tells the truth anymore s You look fabulous eon RT on mingkki21 Pic twitter com 1I275Z3d I was just disappointed RT on Ju Juannita 17 August that misses me Sometimes you miss the memories not the person dear 8D always in elsa elisabethh Follow yaaa '' Mention for followback '' Gomawo Japan 3rd Single 'Opera' Limited ver Jacket Yesung via ELFsInJapan Weh Stella Haryadi open facebook Liat message Shock I was reading dear everything oo Please yah your attitude is guarded than later you stamped girl do not know yourself Kasian really only can be a plagiarist o yes no Vitta Seul Felisita Keep your mouth Lu think you who Gatau Self np NN 2NE1 Scream Error kan The good and generous contents i pulse dong poke Vitta Seul Felisita Pray for Aceh Bales tweet he can reply sms I can not dingy holiday where not where holiday month ask for hdiah what iya abiz naek class 3 My New Brother 3 Kpan when latihn lge yes Odilia Nararagil Astikasiwi Regita Aditya Ivana Fitri Amelia Simanjuntak Cicilia Andreani Awani Munthe W spelled cute Asekk wkwkw Mee Lumayan if holiday W can be online ampe 1 hour every day wkwkkwkw Why should he Why try to have to go at 1 o'clock why kgg diliburain just try lazy I must nnt drowsy deh Gila dpet 2 at once cckckckckc Finally can ptong hair bgus also dipendekin D not bad nor report card g nothing empty Very happy finally after so long g pny ade cowo also wqwq want UTS a lot of minjem bku i ILOVE SM SH ride elephant Rest in Peace iya ko Good bye koko must be happy there pgn pb BB alone I love jesus bsa open computer also finally pgen main Ninja saga but not bsa Gong xi fat cai all huuhh ninggalin niee not invited TT yet brangkat niee already fa sbar can anggpaoo bsk can angp Ao moga mogga g dpet the bnyakkkkkk wqwqwqwqwQ Similar but not the same hehehhe today road ma way cousin fun mnurut g lbih twitter frompda facebook DD Stiap bka sms there sms bsk no pr ehhehehe skarang can open facebook and twitter from hp SEbel gara gara gara gara Chatting ma he alone in cieee in g people do not like Ni cough can not be compromised bkin neck g skit TT Finally can upload also Seru was pensi But my face diitemin TT bored holiday cmn at home not road PERHATIAN To passenger psawat Christmas AIR with number 25 12 10 p'jalanan akn taken within 24 hours with jaminn kslamatan 100 from JESUS ​​mnuju live dmi and bhagia passengers hrap m'makai belt p'caya fly bbs as soon as possible rkok spite disputes On behalf of my cabin that b'tugascaptain ELISABETH mngucapkn MeRrY X 'MAs GBU the help later g ksih gift blang it to g Gila gara tu security unit dongo g so not bsa mkan in KFc Sial is cute right In the skol just play doank Ga At work Mening at home bsa play computer wqwqwq bat lge ahhh Hiks G want to have pcar 'why hard is it cri boyfriend 4 days ge g bsa free from blajar 1 semester TanPa HumOr HiDUp So SePii TaNpa Love HIDup Jdi hampa And Without people yaNG BaE and lUcu Rich We Live So maKin MEmbosanKan wqwqwq later fit UAS may OL not Yes g like ma him but he likes g not yeah do not gtu DONK Kalo MaeN Secret all over G MALES Tema maaaan ma U again Mnurut you smuaa G tu properties'a like how Answer please Yeee today jln2 asyk woww Tq yes for everyone who already ngucapin met anniversary TQ VERY MUCH</t>
-  </si>
-  <si>
-    <t>Idul Fitri This album was created by PhotoMania facebook sepi bangeet yaa Tomorrow can not see demo ekskul same pensi Download kgk finish downloading plurk i apakabar this laughed earlier on twitter mention i am full laugh Quota modem is gone so slow thinking deh Still online but not Watch naughty kiss too long not on pc Holiday soon pp my time out no longer batre already if again rapot value no one is written wearing a pencil why Alhamdulillah rapot me how neh impatient Thursday Thursday impatient Yeah live 1 day Semangaaat D in Ainooooyy pr banyaaak ish slow to think yee Lo CHANGE BEFORE we FRIENDS OTW otwt lippo holiday 3 days delicious where yah ouch oath online on PC LOLA its not nahan LOLAA Hape was crowded skrng quiet come sleepy 3 Apparently you do not pren same me Lo me end Di The month of May a lot of birthday yah ck Not forgiven yasudahlah Rusuh you Klau already hold hape must forget everything Laughing I do not feel today Monday batre gece really abisnya slow connection thinking invite pin me yah 21CADA81 thank you yeah cana D online bosenn Holiday soon to be out not yet ngerjain PR at all OMG Not bathing XD Kok I'm confused sihh Hoaahhm Behind Alhamdulillah Yeah finally Sbntar again change the phone D Hujann D Hujann D OTW Holiday is boring Waaa was really great aha O Shhaaahhhh pedes really this rujak Want to play your guitar aah that open my FB rese very ckckc Love And Hate Hot weather bangeet sihh Off ahhh Aaaaahhh wear Do not take charge hape sgala Huhhh Aaaaahhh wear not take charge hape sgala Huhhh At want to isqom I can not ikuut 'Can not go to Isqom Gak can to Isqom Again home alone holiday a week in Jakarta bosenn daahh Malming yaa Online ahh Holiday week yeeyy Everything changed Gara Gara LO Regret is coming late Ckck Koq so skarang like this yaa On Changed Because my heart is only to Mu oh sound so bindeng garagara pngn pilek aihhh an hour in the car diesaaaaaaaa trapped maceet parahh beehh maceeet bangeet on toll off ready to go back to Tangerang Belomm Makann Home Alone Gila Hospital from 6 o'clock to new skrng pulangg ck woooooo LOLA rampant my ahhh no No money inspiration buaat make poetry oh utuhaduh uts value there are 3 under the existing KKM who can be invited smsan not hape quiet nihh Loved Tuk Disakiti Elevate others and humble yourself Bosenn vv Yaahh bonus sms nyaa already want to run out parahh That RIGHT wehh Elu is What is NGATUR GUE Hah O prayforjapan good bye card lamaa p welcome new card weh i pngn change this number but what number yaa durable inefficient en irit Yasudahlah Forget it alaah lamalama me more kesel ajee this sm ntu orangg grrggghhh bedeeh was fitting out sports My legs lemes pegel sick bangeet ck GA to the LAU GALAU bismillahirohmanirrohim smoga UTS today can alla Ko 'look facebook d Ihape is ugly even worse yaah ck aduhh tomorrow PKN scare ajee i ck alaah daritadi I am mistyped only pngn wrote stat so wrote on the wall pngn people erased even my stat is deleted ck angry mode on ck dasaar cengeng p Nyesek me woyy O sumfehh I gedek Enek empet bangeet sama kamu O tomorrow 4 replicates of the nature yaah my wall is quiet again dahh ck I do not nyangka 'The more I think about you the more I crazy you O At Jakarta with Grandma 3A exit pengen sleep was sleepy hoaaaahmmm o want to sleep but lazy eye ck already sore nihh' 'Ko' my eyes perihh i still bosan sm my mom 'is just SEBATAS DREAM' you are my last love ngek 'Monday is UTS ajee Blajar blajar blajar tomorrow there are 2 repeat mantaaapp P Jam segini i was sleepy Payaahh sleep aahh Off ahh Modem Ngajak Thousands O Seet from the morning ujan not brenti Dingiinn coyy OTW at Rumah Jakarta Hari senin bring food enn beverages yaa Binguung Hadeeh my fingers pegelain garagara reply sms Hape era First sihh still wear keypad Try my hape samsung not taken azeek my bangeet style Wkwk Notif Sepi Mention was also Sepi huhh The fate of fate ck Gw had sabaar for 3 tauunn 'Modem LEMOT Mnding on dihape ajeelah' Sumpaah I kageeet bangeet Aaaaaaaa there is a cockroach in Alhamdulillah Akhrnya My legs are not Red anymore But I was wrong when I feel this I D I like him may I akuang But is it possible you become mine Kangeen dehh Left parent trujud gaenak also yaah kangeeeeeeenn 3 So MPK Pas body I heat my trends kangeen same old man I am proof fitting parents come my body is not hot anymore 'hmm I must check the blood aduuhh aaahh my body hot Ngakak with Salma Melisa Sasa enn Ami laugh tomorrow replica want blajaar but not concentrate' but turn to hape ajaa behh already can not escape from Hands laughing D My eyes are sore my head is aaaaaaaa aaaaaaaa O kyknya kyknya bntar again pngn Pilek dahh 'Exit Beloom makann Mau off ahh online disturbed garagara lot nyamukk O Akhhh banyaak nyamukk huuuuhh my head puyenngg bangeet hadeeehh' signal 3 gembelelee hohoo nyuri chance let me play hapee wkakak Tomorrow go 'no fun ahh Gajadi go Senen Masuuk dahh hahaa D Akkhh gajadi go Siaaal So what enggk sihh Ribeet bangeet already hhhhh garagara adek ill brangkatnya delayed dahh wheheheh tomorrow will OTW to the village till Tuesdaya hahaa D akhhh Bokap gaadil masaa which made my adek mistake but confiscated even hape me huhhhuuu At home not calm me 'Gaada Hape But still no Laptop hahaa D not smsan but still can Online laugh hadeeh garagara my adek hape me so confiscated bokaap calamity bangeet already i start tomorrow I do not hold hape again deeh not easy untk ngelupain people who saangaat usa dear 'Gantian bisaa times p modem me Ilaang Tumbeen bangeet i have already been literate hours not usually at this hour dahh in 7 1 there is anaak ba Ru again huuhh 'it's time ready to go skolaa world so tentram if ade' have sleep hahahaa p Back to Tangerang ahh in Jakarta instead of jalanjalan malaah dimarahin not clear betaah become in mnding me back to Tangerang '' LOLA akhrny signal modem full hahaa can online Deh D</t>
-  </si>
-  <si>
-    <t>SAMP Alay Bitch Please empet me see the writing ALAY Eyes HEY oy Ayodance This sissy Toys who want to play on the server CS 1 6 w this ip 111 94 86 43 27020 basic this boy for email verification pb aaaa lapeerr that's maybe all I need 2337334A cape also Out street 18 Wos Haulin Mod Bus 18 Wos Haulin Mod This LED computer download pack bus 18 WoS haulin not bener2 already cape deh that boy dibilangin believe very already I got the moves like jagger I can not smile without you that someday it would it me Back to you need char major to top title neat baret complete and complete data2 price below 50k eem WTVM oVo '' et already G a to e net gara2 ill Hadeh pending neh BBM h YG MINTA CHAR AQW W BOCAH laptop screen wear can not flame again TT Najis left 4 dead 2 can not install undeadslayer is the best class D finally internet can also D take a bullet straight through my brain yes i will die for you baby zzzz MY CHAR IN earned the 'Ctrl Alt Del' Badge in this AQW all that Want P Bnya can be 20 000 points in darkness she is all I see I have a bad day 'speed of sound zzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzz this more steady My char D you lipstick stains on the front lobe of my left side brain I earned the' Level 30 'Badge in AQW Et is still 80k again rising to rank 10 THIS ARE KEREN D damn GM is tomorrow maintenance now also maintenance My Ungodly Reavers Of Nulgath yey doomwood rank 8 D 10 000 again rank 8 rep doomwood alas still 5 rank again My Char yuhuy PB point is perfect D versus NO Mercy is opposite No Mercy lalalalala yey laptop already in service DI hear Jerusalem bells are ringing Roman cavalry choirs are singing be my mirror my sword shield my missionaries in a foreign field steady MAGNUM SNIPER RIFLE god god char this final result v1 tero Nicknya VOC just ngatain w merely direct w tunjukin skill w new cengo he wkakkakaka nice what iya Relaunch Kriss SVR cool is not yes Justin Bieber foolish and stupid off mode on i'd Catch the grenade for iya char god this is my maenin facebook i have aqw again this lag najis JB ugly really ugly just ugly mah mah JB I jump in front of the train for iya sial aqw lag really unlucky PB dc masal buset connect server old Very skill test cf is a long time not play cf no brani play aqw since laptop got a laptop virus can finally also bored no laptop akh laptop wear virus hit again gara main aqw hahahaha norman in ovj excited wakakakakka he ngamuk I got a MISERY cit aso char Geek me TT first I can feel you there yey a week off D download amx x mod from server USA old amat off online off online keep confused i astaga lag gone go go go CS buset cs old very bunch a lot of traps on facebook now just you ngatain w Ccd pas already see original new cengo man rarely perfectaaaaaaaaaaa D she so beautiful kutrima not what it is D man many perfectaaaa D yuhuuu daper class dragonslayer D laptop looking for this problem ye S can be class number in aqw D why g replied yes smsnya today haridinnya rapot shadow nice g iya exciting uy play lost saga left 4 dead 2 hahaahahahahahahaahahahahaha alam'a ngeri kaliiiii cihuy finished download lost saga D we must be patient in all problems Started already it's a tacky movie SM SH MY MAHO MY HOMO yes UTS nice D Girl you amazing yes jum'at and saturday holiday D scared the same god is not the same devil who si it cwo good value UTS good amien steady I do not mind spending everyday begh Repeat religion islam hard f1 car F1 from lego do not dong pliss MAMAM is delicious this song even though time comes and passed until you do not survive do not finish my history open up you're mind and she like me 2337334A shit laptop lag amat I feel sad when your Sad all night long Life is a highway I wanna ride it wew bike racing cost 95 000 000 cuy crazy bike racing cost 95 000 000 cuy pray maghrib hayo do not FB'an keep on hoy hoy hoy you this stop and stare laugh DI Can not smile without you this day is my brother birthday Life is a highway when cwe bacodnya gede wkaakkakaakak lose bacod him until there ngerebut just mention you you're every minutes of my every day lucky beans lucky to be comin 'home again there's Not a thing that i would change install call of duty 4 modern warfare long time very</t>
-  </si>
-  <si>
-    <t>Test on tierisline Learn Forex trading on Check this out friends very useful Great website Today stats One follower No unfollowers via stats 2 followers No unfollowers via in samuelgalla mane foto laugh Today stats One follower No unfollowers via stats One follower No unfollowers via stats One follower No unfollowers via stats One follower One unfollowers via stats One follower No unfollowers via stats One follower No unfollowers via english tgs eko gwrs at Mirandaalissya D Today stats No new followers One unfollower via ada moodboster Iyaa min laugh at tenfouresian Evening X4 Bsk do not forget bw clothes OR yaaaa Retweeted manda in Mirandaalissya in graceegisella yasudah lah lah baikan wkwwwkwkwkkwkwk Today stats One follower No unfollowers via stats One follower No unfollowers via stats One follower No unfollowers via Stats 2 followers No unfollowers and followed 4 peop Le via night sleep we how loren in LorenSetiawan again my weh injuries in anindya maria in princess PA What ges Many who asked your number ges Lol at graceegisella in Princess PA in anindya maria cemplu eh nando hahaha at nando158 Sip already set in graceegisella sip2 set Just sip2 set it ya sama2 nad hahaha at ndynana in graceegisella makasii yaa done nad at ndynana in graceegisella follback yaa gracee thank you done at Umbrella Bond in this graceegisella follow back me donkzzzz Today stats 2 followers No unfollowers via stats No new followers One unfollower via Stats One follower One unfollower and follow one person via the sheet again Today stats No new followers One unfollower via stats No one follow followers One unfollower via stats One follower No unfollers via stats One follower No unfollowers via God Almighty at Godstagram Do not let Peoples Opinions about you bring you down The only opinion On that Truly Matters is God's Retweeted God Almighty in Godstagram Thank God for Another Day Retweeted Sports Quotes on Sports Greats Retweeted God Almighty at Godstagram Give God your worries doubts And frustrations and let Him give you peace and rest Retweeted God Almighty on Godstagram No statements No one follow me 2 One unfollower via stats No new followers 2 unfollowers Via stats No follow followers One unfollower via stats One follower No unfollowers via Dian di Dian98 Merry christmas in clarintaaaa on graceegisella at feliciaongg in josephinecpin XD Retweeted nadharuth ancient in ancient nadha in VirgagaWasser on gerardalintang in anindya maria in daughter what in forny kintiii in soniafrieden in Graceegisella di yosephinatalia di esteraspin christmas D Retweeted fel in FeliciaIvana Merry Christmas geblek di mari Ajes di Dian98 di josephinecpin di graceegisella Retweeted Putri Ayu at Princess PA at anindya maria di gerardalintang at Yosephinatalia at forny kintiii on graceegisella in SoniaFrieden hope you all get the Precious Gift in this Xmas D Retweeted Maria Novirandra AP at anindya maria di gerardalintang at Yosephinatalia in Forny kintiii di graceegisella di SoniaFrieden at Princess PA Merry christmas Hope you'll be the light of others GB Retweeted Lintang Gita di gerardalintang Merry Christmas peace Christ accompanies us at anindya maria in Yosephinatalia at forny kintiii di graceegisella di SoniaFrieden in Princess PA Retweeted Dian on Dian98 PeopleWhoMadeMyYearGood at mariajes in FeliciaIvana in feliciaongg at graceegisella at josephinecpin in clarintaaaa and friends Today stats 2 followers No unfollowers via stats No follower No unfollowers via God Today stats One follower No unfollowers via stats One Follower No unfollowers via claradwiol Ivia at claradwiolivia at graceegisella thank youu Today stats No follow followers One unfollower via stats One follower No unfollowers via how this at Ryan Supriadi Today stats No new followers 2 unfollowers via stats No new followers One unfollower via stats 8 followers No unfollowers and followed 11 people via bos RT on Ryan Supriadi Okay boss RT at graceegisella on Ryan Supriadi follback Today stats 3 followers No unfollowers via samsung you dong fel at feliciaongg iri nice view bngt Today stats 2 followers No unfollowers and followed 2 people via Stats One follower No unfollowers via stats One followers One unfollower and followed one person via God Almighty at Godstagram You are here for Retweeted God Almighty in Godstagram Smile things are working out You may not see it now but just know God is directing you To a much greater happiness Retweeted Love in JournalOfTeens No matter how far apart we are you will always be in my heart Retweeted Damn Its True on damnitstrue One unfollower One unfollower via stats No new followers One unfollower and followed one Person via Love in JournalOfTeens Don t chase people Daily stats 3 followers No unfollowers via Dailyteenwords on dailyteenwords Its hard to pretend you love someone when You do not But its harder to pretend you do not love someone when you really do Retweeted Love in JournalOfTeens Sometimes smiling is just easier than explaining why you're sad xD RT in feliciaongg Ih celem kak RT in graceegisella wkwkwk my story ngebelain him This p RT in feliciaongg Yeah do not upset sister Retweeted Katarina Caetleen in etinn at graceegisella my story ngebelain she is p RT in feliciaongg Yeah do not Angry brothers serem ih laugh RT in graceegisella ok wkwkwk wah do not be so wkwkwk wah not so dong emotional p RT in feliciaongg Iya dong definitely p you also diem2 just yes iye katro RT in graceegisella diem2 just diem2 yes yes p did not have medsoc That people laugh RT in feliciaongg It could be pRT in graceegisella do understand fel laugh RT in feliciaongg G do understand fel laugh RT in feliciaongg Gapapa pRT in graceegisella what a laugh RT in feliciaongg Ehem RT in graceegisella I think it is ditakdirka what laugh RT in feliciaongg Ehem RT in Graceegisella i think it is destined to directly p it is destined to seca</t>
-  </si>
-  <si>
-    <t>Carlleon XuLevel rises to the level of Struggle The fighting ants rise again The mix will attach the rock properties to your equipment and improve the quality Strengthening will increase your attack power and resistance level higher the fighting power the stronger the likelihood of winning greater in the struggle Carlleon XuLevel rises up in the Power Anth Struggle Fighting up again Strengthening will increase your attack power and endurance higher level of fighting power increasingly strong likelihood of winning bigger in struggle Carlleon XuLevel rises up in Empire Ants fighting power up again Carlleon XuLevel rises up in Empire Ants fighting power rises again Strengthens will increase attack power and Your resilience is higher the fighting power the stronger the likelihood of winning the greater in the struggle Carlleon XuLevel rises up in the Empire Ants fighting power up again Carrying a reward every day must earn his money Carlleon Xu Heni Puspita Sari 212</t>
-  </si>
-  <si>
-    <t>Hallohallo D 'Love is an easy thing to love somebody love you somebody love you' someone there Sometimes when I love 'I'm okay 'I want you to look at me in the eyes hug me tight and dear' I know you're not 'yeyeyeyeyeyye I hope so Fallforyou I need you so Iloveyousomuch I love him I love him Sleep good night someone There 12 20 'in 4 4 2 4 6 you are there bsok birthday yes haha' 54 '' '' Keep your proud e25 and 1 I do not why All apologize inner birth yes All sorry for all my mistakes yaa good willful Or unintentional Just woke up Cave you feel normal ajaa deh Confident you killing me slowly Gua kill also you lama2 Sumpah yes yes you know kga hell me it kesel banget sma you knapa try you are still there in my house where you are in belai merely sma My mama just die you are there Wtf ups my bales messages bus A time Need more time Forget and forgive his mistakes to you GALAU Gara Gara gara Anda Then I Uring2an tweetFAKTANYA I'm singgle now hehehe for what we persiapin the future if we have to forget the present good morning just woke up It's not different school paaling just smsan Aaja something special So I say a little prayer and hope my dream will take me there where the skies are blue to see you once again my love oversees from coast to coast to find the place i love the most where the fields are green to see you Once again my love ehh if kga know jngan ngatain dog dong bitch I'm warning you once you're grown up you can not come back Peter Pan I Love You 3 Words 2 People 1 Commitment To be without you is like facebook without friends Myspace without bands youtube without music google with number results sodamntrue Many questions yes i Follow iya in laila 26 if you want to follback mention it where are you and I'm so sorry i can not sleep i can not dream tonight So wha T should I do not want to be a part of history I want to be a part of his story Ngeselin iya I can be better I hope so 01122010 Just5wordsforyou'ILYSM 'Pisces want their dreams to come true and their fantasy to become Reality Xstrology Just stay on where ninggalinnya not say2 again Everyone with you is a sweetest one Wish I luck for my exams Will you remember me the way I remember you Can not smile without you Mau sms But afraid to bother e Gak tired what les merely Someone who understands me Someone who understain me Sorry sorry I'm sorry Forget it if it runs away so I just wanna be with you till the end of time Love is old love is new love is YOU Sometimes smsan sma He likes to disconnect I am still discussing this issue he has moved to another problem my headache Girls need LOVE boys Trying to forget my past time and trying to remember my life right now I love the way you called my name Its hard to look for so Meone who has the magic to make you fall in love viatumblr His life has changed Stay away from his Wealth but his Words Do not judge a woman from her Beauty but her Personality Learn from your Past live your present and prepare for your future Life is like a taxi The meter just keeps a ticking whether you are getting somewhere or just standing still Hearing the words I love you is a great reassurance to a girl That she is beautiful When a girl says she's sad but she is not crying it means she's crying in her heart My plan is to forgive and forget Love is just a word for it's proven to you You need LOVE girls You make your own life Make It shine Do not let people change your life Be your self Try it time it can happen again I want to redeem all my mistakes Love is not about them Patience reveals deception In any well thought out plan ihatequotes Life Drawing without an eraser DamnltsTrue Dreaming about the day when you wake up and find I'm going to make it Proud I'm never gonna be good enough for you I can not stand another fight And nothing's alright Life is like making a cake if when it's so cake it's not good we have to repeat it from the beginning Eh eh sorry just want to remember do not forget nnton ccc love Cenat cenut iya If we stop trying that means we are better than a coward number on bepe20 God shivering kya kya not strong live again God cold bnget I just wanna be with you And you've got a smile that could light up this whole town I haven 'T seen it in a while since she brought you down I'm the one who understands youBeen here so you can see me I will fly to your heart Yes the smsnya not in reply Out See oranag cried was Cold really cute pengen Nice yes nice sister Ngakak congregation with rika bena and dinda Nothing special Me lowbat Jibril Jibril Just In time Bummer Tonight will be the night that I will fall for you over me do not make me change my Mind I do not want to miss a single things you do tonight I can not give you everything what you want Can you tell me how I can make a change Firework I'm sorry I can not be perfect We can not be back Down What do you think about me Down to earth I am not waiting for a long time to live in a house oath is not good TT Aaaaaaaaaaaaaaaaahhhhhhhhhhhhhhhh he sorry I am not waiting for a price I am not waiting for a price But I am waiting the one who things I am his princess Happy new year friends Dont forget to love yourself Dream is a desire in the heart to reach it but if there is no spirit of consistency and effort the dream will not be Become what the dream will just be a fantasy Not any more Not feelings yes That I talk that you Ihh you nyebelin Huh annoying Your smile beautiful like a rainbow Ktanya saucy again but unfortunately he rarely see because cwenya school in Lampung kasian I mah dengernya nyesek Terrific Om I just broke it now has a new boyfriend again high school boy again dizzy my mah arrogant you Gmn news he is so skrang Cave forgot because Kpan yes Honestly i have a taugk kta2 it's surprise please comment So what is my guy cma just ask me kok I'm sorry Offline friends of friends Bye The first lesson and the first day is Math fufufu Face this mid with smiling ok Bsok want mid ayo smangat Laila ok And also have to bgus yes its value I'm sorry friend friend Start hri senin this smpe hri jum'at i not bka facebook First because the mid want to focus on learning God Kpan hell nyampenya nygenya mna jammed again Oh my body pegel pegel kayak crush all You're my guardian angel Basic PR Th the most annoying time 10 number there is his son abc di until e if diitung2 still more than 50 da 50 how I want ngerjain liatnya already puyeng So what Minta at hajar times iya tu people I'm yours He's yours My love and friendship story You Will be the prince and I will be the princess DeMi Lovat0 3 seLena 3 Defeat is not the end of everything but defeat is the beginning of success Victory and success are delayed Mama pick her very old sihhh uhhh this pegel nungguinnya Friendship and love is the shortest way from heart to Heart Follow your dream Fuck the bastard Yogun pda kmana this is rmah msa people quiet here basic What's wrong in my brain Please follow my twitter in laila 26 I'm offline Yes mercy event on isvil lma bnget hell boring this Come on where are you Now friends friend I'm missing you friends Wish you all the best friends Sometimes you make me cry</t>
-  </si>
-  <si>
-    <t>For ayodance player there is mautukeran not the same id q lvl 17 lho hy all can not wait for tomorrow because I play audition ok I am very same fans of him I am salute bngt same mu only me again kesel why you mu klh opponent barca final enough teklak 2 0 Ok I also like the laguna title lets make love ok I also like the laguna title lets make love yahoooo ahhh i am just playing but already lvl 10 iya is okay although i do not like ye iyalah i ain audit pretty its its cool arigato oh my shame Cool this cool is already free uu Click here to play Pet Society why always alway cause because never never test is waiting 18june D kimchi Ye pet sos ku lvl 8 kimchi wdh my pet society destroyed What material Mls nich all next week gempor every ari Bljr 4 jm I love 4 ever There is no online Ne facebook orng gntng hihi Duh pengen tdr capek abs main audit sama geta Anybody play audition Dh ampe jumat Aduh malas nich bntr more test competency test HY All</t>
-  </si>
-  <si>
-    <t>BzzZzzZzzZ Mi xiibi C halvin Quieres un xiibi visita zzz zzz zzz cheat learm jutsu cepet 1 open CE 2 buy jutsu 3 tick enable speedhack 4 speedhack it is up to you NB do not go out academy later repeat good luck OOOMGG these friends friends are visiing my profile o Alam Uciha 1136 views Aciell Sullivan Portnoy 983 views Akmal Ghafari 542 views Adira Kotek 300 views See who views your profile at friends are visiing my profile o A Hun Coolz 1136 views Achmad Satria Nugraha 983 views Adam To Mooshimasu 542 views Afra Bilqist Hendrawan 300 views See Who views your profile in the morning has been to the doctor What You Think Bosen thank's friends q thank's all GARUDA in my chest GARUDA my pride i'm sure today must be overcome laos 0 3 indonesia SENIN Repeat Upload Cellular 3 15112010 3 one day againt good morning everything is good morning Friends two days againt add pin my bb 22BB3560 four days againt five days again five days again five days again Who you think zzzzz sleepy want to bobo first achhhh mmo ccd that play farmville add neighbors i donkkkk teacher BL flood wkwkwkwkwk dear number to cheat what you think Gemscool Point Blank 'Kriss SV' 'By ApHiN elephant skinny wkwkwkw MatI LamPU What do you think task B indo in kumpulinnya when what you think wkwkwkwkwwkwkwkwkwk ccd wkwkwkwkwwk justin lip jontor turns its age 51 years wkwkwkwkwwkwkwkw very old andy ccd who want by 1 MT same i njink Z 1 2d god god PB e017 eo17 sahur sahur</t>
-  </si>
-  <si>
-    <t>Well Wow b Hmm Hmm Thank you my friends for saying happy birthday to me Otw to tanggeng cianjur We are sorry to be born And inner friend if w there is wrong And if the words of deeds w that offend met Idul Fitri lgh his Maen DotA lost only already Praying Friday Anyone knows the link bwt minecraft no one knows the link bwt donwload minecraft not Lass Striker Sol Badguy Wish me luck for final examination game Minecraft w in apus ma abang w LS in nine store can no longer Shit 'NP Avenged sevenfold Blinded in chain while reading The lyrics of his hard song NP Avenged sevenfold seize the day in bogor Finally BBM on hp at the service Arsenal opponents stoke city in britannia stadium global tv Smoga bsk can play GC amin O Good arsenal 2 good arsenal 2 R van persie liverpool 1 goal backnya arsenal Go arsenal Eminem Anybody know the right black bwt ereder not Bruno mars Char pb w to hack the diamond again fucking it hacker Pr ktk w lost gloomy 'in c Iater in tegal Hard lass drawing Waiting Let 4th job Gr2 play dota this throat so sick Hypnosis TT Why w so colds yes Why the former paint ball is still There yes Add pin w yes 32267655 now playing west life miss you Why should there be pr There pr is not yes Finally my lass so job 1 and elesis would be job 2 yeah Yeah persib win opponent persija 1 0 Yes mu lost opponent liverpool alhamdulillah Finally elesis w so spearman job 1 Otw to subang with my friend Well internet cafes close Yes later again elesis want job 1 Oh yeah Why do I become addicted to play GC yes Whereas first most lazy play GC Azzz Nastarnya good Stomach pain Good bye all see you next time Astagfirullah children today do not say sin sin Maen internet cafes no money watching nothing exciting naek spedah do not know What are you playing football again sick sleep can not sleep Bosen do not know what to do Finally after months of spirits washing watu also even though finally pungung w sak It TT Sickness now playing koes plus Kenyang Good bye surabaya hello jakarta D Mu lost this lousy Mu opponent blackburn rover Dead lights Tired road road mlulu Gk kerasa was a Friday jum'at Tar went to school in BNS Holiday exhausting Good morning all D Kepengen Play ball in soko adventure blitar play arum jeram Mantab now play in my brain miss you Now Picked it up free but do not know want to apain at sidoarjo go surabaya mancab why new visualista clothes are lost in wiz TT well tomorrow repeat yah there New tasks want to relax keingetan no pr Well Minecraft its gg can be in kom w TT May tomorrow is better than today amin why this could happen to me puyeng PR b indo blom in the same work TT Gk this exciting no exciting status Good job Indonesia I like your style Why mulesnya pas malem2 update status They Say I'm a Monkey goodbye all time for sleeping david silva is playing the ball hit the glass running running lost saga asik Once there are people pursued by police pursued chase so kayak artist strange today tumben again exist wkwkwk ball bekel in kick nani got glass in pursuit strange dog today tumben not boring wkwkwk gokil2lan together Kent Demas Kynan produces PP that make me laugh wkwkwk D Early morning Gymnastics Do not get stoned Diem Make bored Sick wkwkw kasian yes mentor2 who participate in his voice wit wkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkk Vs Liverpool Azzz TT Gk play lost saga 3 days deh at bogor Sleepy annyeong halo Cold Pilek Eui Huam Sleepy Lan LS comeback dying head sorry yeah dra so do not play together if people have a good headache what is it Hiks' Bsk what is the lesson Bku List of lessons w w ith know how to know w why 8 2 bsk wear what clothes All apologize ane ye if ane got one Minal aidin wal faidzin please m Aaf was born and inner Okay TT Well the grim reaper was out TT Geje 'It's nice what ya complain Want to listen to the song but gg there hp boringnya my life TT Ngantuk eui Ngehias tired class also TT Teehee can be quite money 3 rebu cman working nyetrika Why yesterday night now night ujan TT have eaten rice eggs eh Forcibly participate in a contest to eat rice Tumpeng deh TT Kepengen play internet cats Kentnya kent funny want me pinch but nti in claw Hehe Hr this day plng tired abang w TT ngelag again is not magic not magic but to be tu Lan ngelag TT really sick at slander TT Time to sleeping good bye Bt eui Yg want to paint a new number w this 085697257203 that gg want to paint gg need protest Wow it must be orng ngebajak facebook me again Narnia in my house earlier in school naek skateboard even jatoh Continue to swollen hold table at kya tasya k it w really hurts TT it's time to play home from playing foot futsal w directly ill TT finally replication is finished also smoga result Nice amin RS Sari Asih aqw i'm coming kepengen bk facebook in kom TT Which snowflake do you still need ouch lonely this is no way road TT plow facebook kiki ah hahah vika pirate FB kiki laugh vika TT hair should be 3cm ck time to go sleep bye Tomorrow from batam to singapur From jakarta to Batam to i do not know time to go offline bye all why a lot of online night iya time to go online again time to go offline bye time to go online oops dizzy cocks ck delicious what are iya lucky Pr b indo w deh finished fiuh kwokwok sed h wh t O o prt tt hard tT and w i'am tired mms kiki in 'tt ch m sh s seker me wh t ever What ev r yes god hopefully my neck is not gatel amin bem Sister and B ring bs in rm w lonely yes internet dead pulse want to run out tv less exclaimed cape deh finally get back to play facebook what ever sad really almost just ipa remed huf What happened to my internet yes there is a play www canaan web id Justin Bieber somebody to love Justin Bieber favor Ite girl Simple Plan welcome to my life Sean Kingston Beautiful girl N'sync it's goona be me nice what is ya OowH YeaH at coment ma JB just be proud</t>
-  </si>
-  <si>
-    <t>I love novia forever I think I want to do something deh same as someone who lives in bsd hehehehehehehe Mice cartoon Morning Balloteli can also be angry Xaxaxaxa Follow twitter me why her name in Junga sm do not forget also promote also why my birthday today Abis learn watch one stop football mind refresh deh My Dog photo album Do not believe with bad news but believe with your imagine and future Rain is so good to eat what is why the futsal Cdi peknya ask for mercy l 000 EEEEE I 0 0 EI 0 0 EEEEE I 0 0 EI 000 EEEEE bacod you junga dizzy I am this month many reps same pr from watch you wrote that kind of on my wall watch your basic ampass at home sweet home is busy fights again this is gonna want ngepain yes Dead rising 2 Titanic commercial Titanic commercial Test Serem why I just realized why I hijacked Same sodara me Ahhhh Mobile Uploads Woi Do not call that name again My piano My first guitar baby dog ​​Mobile Uploads BIG Bottle jun94 p3c1nt4 w4n1t4 CeLaLu WTH M Obile Uploads The formulation of this proclamation text formation ball that most have no money basically Indonesia should menag anything that happened this strange picture my video HUT RI why the 66 hopefully more advanced and glorious Merdeka Merdeka Merdeka This morning not enk bngt time was going to play WII just 15mnt just sebel tekken 6 it's all finish help me please oh this day tired really abiz from ITC Mangga Dua capeeeek help me today unfortunately 1 internet slow thinking 2 update PB about two and a half hours 3 no one ngechat me if there is not answered Add pin bb 309FPA73 follow why in the monster house Si sister nyimpen cici photo was not deleted again in the newly purchased BB may be missed so deh Wkwlwlwk my dog ​​again stunned munkin again mikirin cewenya biasa still do not have boyfriend hehehehe hehehehe finally cs life or die can Wild ones woy the 7th grade I just remember if tomorrow PE bring steel gantii eh please tell the other yes for those who do not know ehm kevin Congratulations to take a new life with inka likes deh jailin bad junga friends</t>
-  </si>
-  <si>
-    <t>No what is important to the event successful Well hopefully the funds can reach the target Nice day hehehe</t>
-  </si>
-  <si>
-    <t>Yoi Be yourself do not be somebody else to try get someine you want Thankyou all who already say 'Happy B'day' Sorry yah g bs blsin all kbykan D Thanyou who already ucapin Happy B'day all to me Sorry g bs blsin all Byk tentangny D When I See You Smile J Kaos Ball on 150rb net Info add pin 231788e0 Comment Dianter in Gading Serpong Again gather together And exclamation exclamation Sleep Do not be afraid of mistakes Kebikjasanaan usually born from mistakes why Like If You Agree why Go The Miami HEAT Bwt who already ucapin Happy B'day Mkasih why D sry g bs reply all Kbykan D New Facebook On Blackberry why Gadeliv xe G on Lagone on facebook twitter facebook bbm slow thinking g already Some Like You Adele Udh long g bka facebook Wkwk xP Never Mind P Best Day Ever Ada Alay no deliv Gw homoin suck 3 Jesus my Lord magic DO ngguin M update I Just Call To Say I You singg TT Pusing Pegel bdan me Wrong in this Indonesia Naek busway digrepe Naek train stolen Naek angkot in Rape Walking was crashed Xenia Even Ngesot just still kicked security unit Silent cape Just The Way You Are zzz Rain when g not tpat Gw bgung pda say God ngsih trials emngnya God ngsih trials yak a Need Chat Because I'm proud of my 1 Friend Jesus I click LIKE Bntr again go to school Just The Way You Are 'Jesus Inside o Winning Without D' Big Three why '' oo o0o U o0o Have You See Any Forum For Every Member Required Viewing Forum Every OnLine No Pain No Unified Game We are steadfast Divorced We Fall Ohh baby all i want for christmas is you All I Want For Christmas Lyrics CUPAU and D Backstreet Boy I 'll Never Break Your Heart GALAU why Say Yes to say Yes to GOD Gbu All Happy New Year 2012 Goodbye 2011 Which is full of hope and welcome 2012 hopeful Get Ready Set Go Run Ntr mlm in SMS 5000 fireworks glide why Just Be Yourself A Your father gado2 why B kq know A Psen 1 why go to home janga N pedes B Gubrak D Misery Maroon 5 N Alliance at Travian Speed ??x3 BIKE xx LIKE IF YOU LOVE JESUS ??'I LOVE JESUS ??kpla chamakh bcoor Wkwk When life is hard thank God when it makes you grow When it seems to be the number way find God for He knows the way Dear God I wanna take a minute not to ask for anything from you But just to say thank you for all I have Sleeping Merry Christmas All D Life is about trusting your feelings taking chances losing finding happiness learning from the past and realizing People change GOD always has something for you a key a light for every shadow a relief for every sorrow a plan for every tomorrow Wtv Wtv Fast replies make me feel like you want to talk to me but slow replies make me think you 'Re talking to someone better My problem is that I can not stay mad I always end up forgiving people even if they do not deserve it Hey you yeah you The one reading this status Wanna know somethin You're beautiful Do not ever Give up That awkward Moment when you fail at being mad at someone because they make you laugh YugiOH Capsul Monster why The number one rule of love you can never be just friends with someone who you reply in love with Arsenal 0 1 Man City Apian DI Do not Mind Standing Every day I'm not asking for someone to listen to me. I just need someone to listen Someone who cares Is that really too much to ask Sleeping Take me to ur heart Take me to ur soul sing Test 3 Easy Come Easy Go 3 Miss you Jgnlh mlihat ke msa lalumu g whatever it is Krna it just msa ago Now we are now Jdi seelh msa dpn Jgn slalu brgntung with msa lalumu Annoying I'm Sad Take Me To Ur Heart Sing No one is too young for love because love Does not come from your mind who knows the age number Can Hardly Believe Those random moods when you just want to kill everyone for the number reason Although you are the aggrieved party he always managed to make you feel guilty for having Men I'm just afraid to Getting hurt for the same reason Twitter Sleep Not yet D Hey soul sister Glee cast Hey Soul Sister Glee Version I love my number one rule of love You can never be just friends with someone that you reply in love with It's amazing how one day someone walks into your life and you cant remember how you ever lived without them What's on your mind Damn My Heart Has Been Destroyed By You Whenever that certain person Gets online your heart beats faster UGD Unit Galau Emergency We Never Be Same Do not tell me you scare No Me Later I'm not a perfect Wish Person I make a lot of mistakes but still I Love those people who stay with me after knowing how I really am jgnlha you brubah Dlam m d honey i understand Ran yeay lmpu'a flame yeay lmpu'a nylh dead lights Trying to forget someone you love 'M Flying Without Wings West Life Talk Last Do More Smua g already I lkuin Trnyta just wi dn mmbuang wktu I e G IPS Hrus maximize Chayooo Smngt Y IPS must maximize bljr'a why Chayooo IPS Mandarin in process DD So Difficult Hala this Sea Games Rese already b Oh No Bsk UAS IPS and Mandarin Ahhh Bsk Ul IPS If I can I will do anything for you Amazingzangzong Week UAS mlai bsk Miss You Were Here Shock s What's the matter Do not tell me you scare D Ila Ila Ila D Gk Ad Signal Without You There's Number Me 'Without You There's Number Me JGN NEVER FORGET THE ORGANY WHO DO NOT MAU GMT Byk Pr e G</t>
-  </si>
-  <si>
-    <t>what the fuck v laughing teamwork v laugh laugh sad v laughing true lolol face'm struck Wkakakakkaka laugh Michael Setiawan Dharma Tunggal Agus Aditya Pramana Andhika Prawira true Michael Setiawan Dharma Tunggal Uaaaa cool Michael Setiawan LOL Dharma Tunggal Dharma Tunggal could not sister LOL jerk park ji sung Serem ci xx we wish you happy merry christmas we wish you happy merry christmas and happy new year D azzzz aaaaa tomorrow take rapottt my value ancurr no yaa TT Creepers green things with four legs They will stalk you and follow you and sneak up on you making numbers sound Then when in range they start to hiss like a bomb and then boom They blow up hacked I unyuuuh 3 woooo xabi alonso was 30 years today O o ahh ZZZZZZZ these days so many problems TT crepeer oh man wkakakakka new friends ZzZzZzZzZzZZzZzZzZzZzZzZzZzzZzZzZzZzZzZzZzZzZzZzZz hope not There is another aftershocks amin quake again ccd wow wow conflict more and more O o D LOL richardo sister O o l6'2 3 36 barcelona losing wkwkwkw wew playing tekken 6 tomorrow pedaling bike to renon why i just want to be a good person but there is just me who say i am a bad guy 'makasi all that ucapin selamat waisak Money is not everthing but Money Everthing is nothing i dont have anything to share p hooooaaaaaaaammmmmm Day Nyepi many online hope hope next year the internet dimatiin D wkaakkkakakaak Day Nyepi many online FB you closed aaaaaaa counter stike long download times its grrrrr 9 hours modemnya slow to think again and A uber twitter can not i open cuy I don 'T have time for you talk to the hand wew my bb is slow thinking and wiw q is slow to think and oh my cold TT you breath alone hard TT bli bayblade aquila bli bayblade aquila my friend there is this cool link useful in open yes i will not Syesel bukany this link its fitting wew on w2w lan all losers remain the loser and jfjeddfujerndfjsaugjhqlwqkgjdskgjgfolqloed mcv and ndkhgolwqoituykm dsjhgflkuj cc you now me so well ouch boringgggg oiiiiii follow twiter q donk in dicky ankaasa later I foolback certainly D WTF wiw mm in a forgotten on the way being on the way to school D hope is not true that i bolckir amin TT boring time 'please follow my twiter dicky ankaasa I want to fly D But I can not fly 'Abcdefghijklmnopqrstuwvxyz What's on your mind what's on your mind what's on your mind at changi airport why Ngurah rai airport why njudfjhdsldfrtuwqklwbfnwlfjiriswqndsq Wkdxejenwjkwjcbf wahhh I gilaaaaaaa TT 2 days again I can not Wait go to malaysia singapore dancing time to sleep characteristic of deprisi sad person always nagis tampa because you do not do activity and other characteristic character same as me who lost 2char in xian seremmm bali ujan esssss may be you go but iget house also may You may go but the house iget may also be okay you go but iget home also home jak khe pilipin can not win khe come bantaii I fili seremmm bali ujan esssss' xian can not be opened asyuuuuuuu dog why else are you hunt asuuuuu gtu mu ok fineeeeee all if i am wrong please forgive me miss you all all if i have a pda you guys are now outing D to ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke ke To go to ke ke ke D aa Haa Haa HAA HaA Haa Haa HAA to go to to ke ke ke ke ke ke ke D aa Haa Haa HAA HAA Haa Haa Haa allo all I have a new ym there yoo dickyangkasadi Rocketmail com fuck you bitc add my pin 232F7A5B unnecessary yes take it name ORTU god help me for this test its a game you now if win or lose you do not get anything so do not talk much ahhhhh senin repeat general eeq I love mira no man is immortal will also be old and die so do not be attached to worldly yeee oiiiiiiiiiiii no links cool chick cute jit mu wihhh P 3 Hadoh Ga know what to write any status hahha a Sob sob bones cracked sob sob YYYY sob sob cacaddd disability Aq hate someone Let your friends know that You've sent a free gift aa dahh start schoolhhh T T go spain hore win BRASILLLLL wkwkwkwkwk hahahahahh heh</t>
-  </si>
-  <si>
-    <t>Why is not it true?</t>
-  </si>
-  <si>
-    <t>Bangkok bkk siamoceanworld latepost Thx all D Thx All Hehehe D Yakkk Ride Class v Ad maw FUTSAL Sorry errors TECHNICAL Aaa My national trousers oversize wkkwkwkwkwkwkwk AHH My pants my national greatness Taek Lah great Near my rmah there are people playing mercun Surprised to keep lama2 jantungan neh Wkakakakaka Thx Yes All kwkwkwkwkwkw D Thx yes All hehehe DL Son who has graduated junior high school bsok come skull iya Bosannyaa Tah Mw NgapaeN BAD MOOD Lonely at internet cafe Wah Tk sbr menggu hri bsk o Trobsn physics Cpd Dead lmpu Cpd Cpek sX Pgi already mti lamp Krng ajar tu Pln Time To Sleep Mmm Mw coment what is it Mmm Plg from trobosan cpk x Skt prut again Wew mlai bsk already trobosan Cpd ZzzZZz Nokkkkkkkkkk Great earthquake Hri yG MmbsNkan Bsann tah want to be what WeQ bsk daH skulL Malez go to school Bored zzz Go Home Yeah Padang i'm coming Lalalalalala Ea Oh yeah Uah KynG TV broadcast it's really sholat all Bored already know what to do Pgi mmbsnkn Bsk mW nGap N yA Kok gK aD yG O Dark LTT banGeT aWannyA Bored Ntah want nGapaEn Bored Hoamm Ea Bntr again liburrr XD I have just adopted a puppy MypUppY is so cute Mw nGp N yA In Hum Bosann Huh Males kaLi hR nE mSk sKulL Bsnnn Weq Bsan kle on skull Doh Malez bsk to skull Tired of Cpek neH Ap again ps upcra MeRdeKa ZzzZzzZ Ea Hri is very menyngkan Hoamm Hoammm AntuQ tdR dL aH ZzzZzZz BORING BORING BORING Hoamm Tumben hri is not dead lights Hoamm Msi bsn Wkwkwk Dohh Bsan neh Hoamm SmoGa hri Ne gA maTi LamPu I LiKe's ToDay NeeD CommenT Adohh Prh neh Ms as soon as possible seTeBaL tu skull not at ly let it klo holiday it enkkk Adohh Prh neh Ms as soon as possible seTeBaL tu skull not in liburkan yes Klo holiday it enkkk Waa Bozan really hri this s s s s s</t>
-  </si>
-  <si>
-    <t>We are planning a decisive god needs a miracle if it is a miracle there is effort2 just so nga menyerah nga may principal na accept the bitter fact that nga easy already berkali2 in feel tetep just nga can be used there is a brubah from smalam or prasaan wa only but wa also The stupid TT I'm nga as bad as kaatan na kan D but enth is ta where but where love still be in prjuangkan not enough brani to do it slagi there he is zzz Nightmare Do this ampe trjdi '' people in the middle of the fuss x 'o '3 indeed ssh prtmanan skrng zz you make me so restless whahahah 3 2 1 Buuuaaarrrr My Head has been exploud history win head already fired up fireworks on at I want the world see you be with me Disappointed heartbroken feel lost all the feeling in the jumble TT Ndeh Mw where is this face again 9000 laptop Zzzz MY virus hit MAHO</t>
-  </si>
-  <si>
-    <t>I'm playing Valkyrie Crusade Let's go on an adventure in this world together Valkyrie Crusade Subdued the current archwitch ORIHIME Valkyrie Crusade Come and join us The Journey celebration march24 1stanniversary GBIJ2 1pm Agustina Kris Evening sky forfun cool view instalike instagram instamood instaphoto instacollage Raindrop forfun rain Water car phone instal instagram instagram instagram instagram instagram instamood instacollage instaphoto Birthday Rizky Suram p LOL XD At pv 17 8 2011 XD Change teeth wkakaka Rizky pregnant wkakaka grade 9 schedule SMPK Almasih snen bio religion mate native ingg slasa physics ingg tik penjas pkn rabu indo eko kimia ingg Christmas history geo mulok plkj mate jumat indo mandarin arts culture mate mulok ket services Following LYTOGAME Smart Quiz Following LYTOGAME Smart Quiz Following LYTOGAME Smart Quiz Jay chou wkawkwka on the plow estella Add this pin 2293005F she is friendly Mobile Uploads in the unlucky xory why Tha if you mrh p Ujan gde really si ckckck malingggg Gg no concentrations bljr 'Narziz on pv xD Narziz on pv xD part 2 deh want ujan D raining anh bbm i bsa lost myself ckckkc boring lma amd sie wktu walking bz biz watch prince 0f persian Kren biz watch prince 0f percian Kren hjan ge D finally Tgaz selese also audid ilank xwt 'sllu cleansing come blakangan D bxk deh mid trakhir hrx xmangad ioo hjan sun draz gledeg ckckck in sentul city Bsennya cpenya les complaining Photo taken in Pet Society there asep tbel nga jlz yeah smbuh gla hbz mta mrh Argh Mg2 cpd smbh dhe mta my mrah xial Untung cmn 1 Knp shi bsg no holiday just bear banget byar rbu just msknya argh on the way is on the road 2 skid tired house lper 'tired this bsk is school ge bt pngen jln2 even in srh berklah On the way is on the road 2 my grandma and grandpa house D slam game online at home no bs hbz plg lngsung online wkwkwk complaining tired on the way being on the street 2 museum zoology D knyang shyok Well bsg already School again mlz bte rain agk rda pretty lha than on that tired xngad hufht Hbs from ondangan tired abz hpmh go to school dated how many shi there say dated 5 and 6 so confused o 0 Comment plis Happy New Year all mg2 years in mnjd lbh baek Again GBU D mari dnd in jakarta D Hufft Finally got to bandung i'm coming pmy our god has been born in our heart so we must thank him with love merry christmas GBU D slamat hri mom Love you mom D Kren nyam nyam enq mlz Want bljr bt this zzz how i ikt shooting my bguz gq in plh yeah should be how this is so candidate chairman OSIS Mg2 gq in plh dhe net at home not bs TT lm really sampz zzz plng from ret2 dhe thank you bu sleepy bt bt sleepy really Yesh bsk retreat eat friend lmpu Knapa must mti lamp Dah bsk and deer repeat many more huh Bt Die lights again Cpe dhe gq bs online dhe must from hp TT tkr if there Cp dhe restaurant friends light so pnz dhe TT Plg school also object Object which exists Tuker why Plissssssssss existing tuker yes aduhh again this pain huhuhuhuhu T T make new facebook niehhhh for who know add yaaaa thank you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep a smile on your face </t>
-  </si>
-  <si>
-    <t>Bad day Am I happy Or what All will be beautiful in time Ayoayo GallerySport Shop Selling A wide range of Sport shoes and also Jersey Basket Info and Order 0878 9322 6668 Pin 27ECA1EC Second place Well I'm ready Hey this is not a game God please show me the way With us bsa More SPIRIT '' 'Martin TOLOL GalauLoka oi this status cmn we ber 3 who can read Venyany Listya Setyawan Davin BecKs Anukula Atmaja Abhipraya Wijaya want to make Shift galauloka has twitt never waiting satisfied with what own work hide talking to the moon badmood apabolebuat illnyee pucaaat soi the first and the last stupid x you tin nyesek</t>
-  </si>
-  <si>
-    <t>My FB who Hendro Ndod Hendro Cau is not using ge now move to FB this Iseng course StickMannya good at basketball too</t>
-  </si>
-  <si>
-    <t>Getmimo Complexity 94 neng dating trtunda 34 years old Davin BecKs What does 'Always' means Luke Lee I wuv you 3 Jorge Sunderland Justin Vato Patricia Hardjono Jeniefer Muliadi Carin Winarta Jodie Main guess who am i woof woof Kevin is starting to learn a language on italki Explain this to me Shane Hanson Cai Si Peng Fino Fetrian Lim Davin BecKs Tin Triyono Nico Wilson Marco Yani Wesly Putra I feel so nervous and shy whenever i see him 3 Back to Facebook IF YOU WILL LOVE 3D version EVEN MORE We are well known Geography Quiz MORE is well known for its top 3D versions of EVE MORE We are well known Geography Quiz game that has achieved great success and reached the top of the iTunes app charts all over the world is available now in 3D Try it out Kevin Khuang is using mig33 for Facebook Indonesia's internet connection can destroy a Relationship Emang flu season nose Eex Learning Hm no deh Sleep alone Kurnia Meiga PATEN why lose again lose again Taik Gigi ku crack Lbih important exercise dripada blajar for repetition bsok Ckckc Restore my wallet If you want to take his money take is his wallet TT I WILL NOT LOST Finishing cam cirik Gak believe high school already bsa nge dunk ckckck I bald bald Want ptong rmbut model what iya There are suggestions Olang This is Madness Leonidas Madness Thiis is SPARTAAAN Thanks all for His speech Hahah D Kalo every day practice like gne a month must mantapp feel him I'm sure this will bear fruit Success Loss was late ekskul Uda satisfied tdur noon D Some who want to play basketball later The body has emergency Need a rest that ckup My face was merely Bntar again so itam This There are numbers perfect Fathers but a Father will always love why his cure sufferers should not eat nie ins Tan wearing high heels eating chicken races and eggs chicken Kmarin 40x This day must be 50x I want to excel 'TOMORE BOARD I'm 3L Weak Limp Lost louder I play more cruel haehh Bio no Essay no As long as still breathing must have a chance 2 Knpa Iah every ready skipping my thighs slalu hurts Kevin whispering yugi yug yug bother hendra yok Yugi bother what Kevin biasaaa push n n D Yugi sep sepu me from left imitation from right Sip Kevin okay Sep Wkwk teettott Hendra ueh Imitation yug yes geseg yugi Nyesal i'm born In this family Trio 2nd bastard Mobile Uploads Do you know why i do not let you go Still not enough More practice and practice D who adha joined HSK have to take certificate na msing Pengen join Club My ankle eyes '72 kg D Add my pin 24B78ECB Tq no effort at all' Getting started Exercise with ballast Bruce Lee Liat this nothing gonna changed my Love for you hey i r eu epy today Ag Ooess Ciapigra D i just want you to love 'sorry' and promise me that you will not do that thing again 'aLways Lavd euu Quiet Lah our friend is just not bruntung betuL right D Did you know that i am waiting you trained for under ring And Lbh Lhh high kmu xma sx tdak respect me when i open facebook i just see ur profiLe if there are not anything new about eu i wiLL cLose the facebook soon noon i am teringad snyum mu maLam i am so my face is always remember It's your self wahai my lover haii agan all my profiLe facebook com 4Guz L0perZz udha not in pke lge this profiL my new thanks</t>
-  </si>
-  <si>
-    <t>Hmmmm I'm just an ordinary folk do not equate me with you Wew '' Create I'm from a small thrift taught to give to others click help me help me help me help me please help me pliss Pain my feet o O PRance versus SPain BB missing pass D DaG DiG DuG D Person Idiot invite 2960880c</t>
-  </si>
-  <si>
     <t>Henry Prasetio</t>
   </si>
   <si>
-    <t>Kamisama Suzu derp face v 13 April 2014 please ask for information dong title song that time the Ricci to the discotheque then kill the person wear cyanide spray there is a disco song there yanhg know what title it For those who are wondering this is Misa 2 0 has her own page On Facebook Official ENOZ banner not turn off your speakers Yeah sure A good tip Half naked batman with batman shorts drinking something while rollerskating Your argument is invalid But does not your phone ring or something DAT LEGS Lucky panda The first one is actually kinda cool Leopardwoman Maybe Teach me master Still ugly Where dafuq is his head in pic 2 Do not cry because it's over Smile because it happened Dr Seuss At SMP 45 for MGMP At SMP 45 for MGMP teman2 cb copy this code and paste it in google search sqrt cos x Cos 200 x sqrt abs x 0 7 4 xx 0 01 sqrt 9 x 2 sqrt 9 x 2 from 4 5 to 4 5 please see the result 9gag Everything is okay in the end If it's not okay then it's not the end aLoNe SaMa 4 11 11 Just an usual dinner With friends at Cafe 12 Do not expect things to happen It's better to feel surprised than to feel disappointed aLoNe SaMa Deal with what I ve dealt with feel what I've survived what I've survived and overcome what I overcame then you can judge Me aLoNe SaMa I know life is not easy but this f ing ridiculous aLoNe SaMa It is not hard to find the truth What is it?</t>
-  </si>
-  <si>
     <t>Oscar Edward</t>
   </si>
   <si>
-    <t>Rip indognesia gaming Ngok2 Happy CNY for the notes Nidji Clear me dong good good good Freak Nigga aw shit nigga Hugo well fuck you biatch Blood lad why love is such a sweet illusion bosen main pokemon own pokemmo eu pokemon Online happy happy happy cresent friend On FB grew more gajelas 3 biatch you're fabulous guren yumiya full number It's just repeated 4x</t>
-  </si>
-  <si>
     <t>Qaul Siregar</t>
   </si>
   <si>
-    <t>Unfettered individualism of the United States that does not free health care or high education Wealth is rich and into modern Chinese-style environmental degradation Economic difficulties and internal tensions in Europe The Mexican-style narcotics watch whatever it says still MU in the heart Someone knows not MU opponent Chelsea when his teeth offside his cheek kayak runway plane Who is that Wkwkwk Finally Indonesia wins also 2 1 thailand YESSS Wah steady kalipun this PLN Say no da again die lights I hate all the people of Indonesia 6 0 laos Menanggg telakk Why why everyone's status about love Hahahaha Goool Indonesia 5 1 malaysia indonesia win Gooool Indonesia 4 1 malaysia AYOO INDONESIA Bkn I mean to like that Cuscus Every time I see your face it's like to spit in your face Wkwkwkwk MU 7 1 Blackburn Won the landscape I'm sorry that has hurt your heart is not my intention to hurt you You always make me smile MU take MU 2 0 Wigan Round p First MU 1 0 WIGAN MU VS WIGAN Yesss Indonesia wins Come on Just kyak was groggy Ooh Stupid times any fabregas Gara2 he's a penalty do not want to cut the bull Go to berastagi in wajir Hope so much in kFC walkot Yes allah Make it easy me in facing exam tomorrow If i wrong talk to me Today is the most unpleasant Day Wrong Gk bsa watch ball Dsr adek ugly Mantaaaap MU wins Bravo in dome Otw to terrain Widih Macet banget this on the way going to long fields Otw to high hill Hemmmm For everything thanks why Hopefully qaul become a better person and become the pride of both parents Salut for PLN There will be a fasting in there pulak mati lampu Nunggu kakak kesia pulng lecture at kfc petronas Waduh Log in 8 16 Wuih cantiknya this bandung jogja I am coming wkwkwkwkwkwkwk Yes gods Give The strength and ease of our hungry brothers in NTT finally hp ku true also wkwkwkwkwkwkwk Mw prayer but no sarna sna mna ini In the perjal N rantau prapat I'm a walking animal on my way to hell Aghhhhhhh Why to lose You're beautiful Dead lamps In fact want to learn mandarin I think my mama is never too late byr electricity is really like this your service PLN Do not cry I do not see facebook Komen Kalok kayak like this continue what the word bad world imitation time so people Ma go ayo Likes you Class is not open no friends Complete is my suffering you have a sissy kreak anyway again Huhhh dtng speed so no friends Why You do not care me Kesiannya adek Me 2 days in hospital rapidly heal ca Mau makan2 It's boogie time Lapers Eating fried bird steady Eating steady fried birds Home back to die lamp cape deh How happy to have a sister You give me support Do not KREAK time is so people Bored wait Main facebook use HP people Do not have capital WADUH There is a giant in front of me KABUR Lg jalan2 ini da yG Mau iKut g Tp jalan2 antar la la laughing laugh laug N porridge and ketoprak steady Dead lights Education is war Finally GILA les mornings play FB Ouch brother sick Duh my brother sick Pengen eat pempek cheat is beautiful Difficult exam times from the planet mananya that make this problem Test exam ujiaaaaaan lagiiiiiii mau exam monday matila aku ini ada Test mandarin also aduuuuuuuuuuuuuuuuuuuuuuuuuuu Yo gabba gabba Thanks for all that ngucapin waiting for his prize why hehehehe I'm thirsty Woy do not eat in front of me lah so want this Laper Ouch Do you want to be my girlfriend Please accept me Today exam physics Doain why woi Gg Hurry Hurry already can not stand this anymore in mdn want plg kemedan Lg in jogja</t>
-  </si>
-  <si>
     <t>Fajar Jauhari</t>
   </si>
   <si>
-    <t>Shapenya masya allah 3 laugh first lah There is a meaning behind all the signs Fuck you jar just fuck you jokes era smp Turn dream dreams again dream long self-immersed Ironically that answers everything and I hope you're the one I share my life with HOLY SHIT Drunk brother boooommmmmmmmm Write something</t>
-  </si>
-  <si>
     <t>Abimanyu Anggito Pramukti</t>
   </si>
   <si>
-    <t>Happy New Year 2017 Easy peasy Purwokerto beach vacation Artruckstic artistic truck It's where my demons hide demons imaginedragons Every way to a tourist attraction must always be asked the same thing In Jakarta there is a place like this not Jogja peaceful holiday pure Welcome 2016 Eliminate a moment of trouble in your mind Enjoy Your life is the holiday peak it binus The bitter experience will be a sweet thing to tell Fighting for your live reagge bobmarley Children today have trouble even being photographed instead of assisted Eid al-Adha 1436 H iduladha 1436h Indonesia is not to be acknowledged but to be fought Merdeka Hello Path myfirstPost Hello Instagram myfirstPost Hello Facebook myfirstPost</t>
-  </si>
-  <si>
     <t>Rizky Oktafiani</t>
   </si>
   <si>
-    <t>Eighttwenty hm can i just asdfghjkl i know that i should not do that how crazy i am THE MEANING OF LIFE HD Indonesian Subtitles for how abah ngeupload photos pke facebook his son forgot in logout kaaahhhh Homesick laugh FINISH What do you think laugh out loud maybe you can not Changes me give up astagfirullah bungas banar pian is suitable dear friend crazy crazy crazy banar opponent pian hypocrite is ahay 3 thanks that sorry ngucapin can not reply one one yaaa D Makasih who ngucapin Sorry can not reply one one yaaaaa D I hate my hair Now ask for effect again if anti laughing is waiting there cally p i say you what the hell son patiently grave wide child science is fun fun and fun not stiff and not lose the same social child Big bang big bang we're back again One more time unfortunately No way way neomu swipge tto nami dwae m now it's dated how many inspirations can not kill me mamaaaa TT Behamukan on facebook cba lngsng behdpan plng betamparan He he bonjour boomerang m Because I'm not a robot do not ever scold me when my nilaiku plummet slahkan time given very short network babsssssss what's wrong nahh Risks gamers lalala suddenly this comp lab became hot die dear gin kam there aahhahahaha Moon sorry to be born and inner friend of m the difference of high school Banua sma high school GIBS apadehh heyaaaa kampret sekretret kampretnya kampret this is more kampret drpda the most campret basic kampret thank you for giving a beautiful memories Alhamdulillah yaAllah what are you looking for own characteristic lahh do not ikut2 Diikutin so uncomfortable like this baby you light up my world like body number else wish me luck yes God bismillah yes God o not forever I'm caught and laughing because I'm happy no longer do you make lau lau lau because your self who do not menuu tuu tuuuuuu front Well behind him nauzubillah busukk Ha Ha manaa RT in la Ilatlr God Can I be as strong as God? Are there any friends like shbt2 keke Tuhan msih in ULYAULYAAA RT in WIWAAAY RT in syifaaayuniar '' I want to know after I'm not there how I am recalled '' SKUT UN last dilemma between passionate spirit 04 001 018 7 inshaAllah can ob Aaaaa RT in omgugel Who want to follow where the voice you think I'm stupid not deh gakkk HAHA in Alfacano in HarryPotterIndo HPIMop HPIfolback Slytherin rzkkyoktvia ravenclaw thank you brother Cakka pcar Draco fiancé Cedric Husband HAHAHAHAA make something ordinary become extraordinary D Stalker B stupid I am I'm smiling unconscious smile unaware myself it turns out I was daydreaming you why you always just you fill my brain krna you slalu sja you colonize my heart you you are you again oh god please cant'stop thingking about you stop talking about you b GOBLOK TAI MAMEH DOG PIG YG MAKE FB KU TADI KABABAK HAHA IBLIS JUA let's start playing PB again asekkk Kka i miss you so much lafyu 3 hahahaa goodluck my brother suksess who bner smangat play basketnya prayer CL's formuu p lafyu tomorrow has departed o hwahh dark night night xx HAHA be patient NHADIA PUTRI INDRI RIANTINA long time no play Pottermore once play cengo forget how HAHAA Who kada happy HAHAHA again bm worse if there klakuanku who do not accept mhon dimaklumi ii so no PD aku xx adohh adohh</t>
-  </si>
-  <si>
     <t>Yusuf Fathony</t>
   </si>
   <si>
-    <t>Asik iya speechnya Mudah2an all that is good that he want to materialize Science 3 years ago Woohohoho Aditya Gandhi Pratama this game D'mitry Adam N all Antania Shinta Yuwono Nurul Novianti Wijaya hai cockroach fans 8 years ago 4 years ago wandering in Frankfurt am Main Because of the diversity of Aditya Gandhi Pratama this kind of bike is cool for teaching Before up minimoto D Uuuuhh Mia Nur Ikhsanti Antania Shinta Yuwono this motoGP racer real Aditya Gandhi Pratama Aditya Gandhi Pratama Antania Shinta Yuwono look how beautiful is this Emmmh Wat Anyone can not see the situation cool Adenie Abubakar Alaydrus Rosita Evillya and friends everywhere are especially in Berlin hati2 Hope bad events do not happen 4 years ago Ooh how I miss this time Stress could be fuel for our progress Hoahahaha 3 years ago Beautiful place beautiful scenery Beautiful story First blue hour after Very long time Now I remember why I love it This place when it was built Tau know already so Today's snapshot Got the chance to get this place during blue hour Carbon fibeeerr OV Magnificent decoration by at 4sdecor High speed turning stoppie The redaction of smoke Wawan's signature Wawan Tembong ready Wawan Tembong asean freestyle champion ready to go Cool beautiful place to hold your Events Nice building in Alam Sutra decorated by at 4sdecor Explore What a place Old time no motret blue hour It used to be a little bored afternoon out for just any motret with the sky background like this Kok now it's hard Aditya Gandhi Pratama It's a cool person is really apal really I think he is the same trek Wedding Decoration by at 4sdecor Chakra a wedding hall found at sister Breeze BSD is one fine lace to hold your wedding In between Alhamdulillah brothers and the citizens are all enthusiastic with the ceremony and race of the race Proven little children can be a ceremony officer With minimal preparation The competition continues on the stairs Sunday 21 August 2016 Teamwork a T it's finest Anak2 is playing in the field of a school in West Jakarta Yap school field Awkward Hahaha Good morning Pitstop by Yamaha Racing Colorful Enjoy the beauty 2 years ago From the window of the boardroom Good morning from indonesia The house there is a empang Empang there his house In this area every house There is an average of one pond and one plot of rice fields This is a beautiful village and should continue like this Beautiful and simple home Comfortable there is always food D next to the rice fields next to the bed Sleep accompanied by the sound of frogs and crickets The path has been cemented But the scenery around tetep refreshing cool and cool The air Something I rarely see What comedy scene really bene Totalitas Lha kok kok This is the one who ever driven threatened to be killed it is normal May more and more that moved Adenie Abubakar Alaydrus 5 years ago hahaha Enterprises like this and people who watch sometimes the response Just so the period Hard to make DD Do kakean cangkem There are just anybody Acting Though he's cool singing Lens lens lens first buy Start ngerasain tajemnya motret wear DSLR start seneng toy depth of field narrow Now it's time move on Frankfurt am Main City where there is a tall building in germany After traveling around finally can spot a decent photo Memory several years Ago Money can not buy everything Aditya Gandhi Pratama is cool hahaha Early try HDR subuh2 from windows Dresden room 4 years ago Nemu rest unedited photos in folder IIMS 2016 Romantic candle and decor by at 4sdecor Who do not want to Have such a wedding place like this Art of welding Let's have dinner Decorations by at 4sdecor Ducati Scrambler IIMS 2016 This gonna be a long night in 4sdecor decorated room Long table decorated by at 4sdecor IIMS 2016 Hero of KSM Nyiur Booth at Islamic Development Bank 41st annual meeting Tomorrow will be the last day Come and visit us if you have a free Time in ksmnyiur Can panjaang hahahaha Drunk and Bike Much more interesting than drunk and drive Aditya Gandhi Pratama enak iya jalanan Sawarna Beach one of the most attractive tourist destinations only access which happened to be diutakatik so a little complicated time there But still recommended Travel back home from pantai sawarna Just happened to fit sunset pas on mount Hoo 4 years ago Aditya Gandhi Pratama capital D Aditya Gandhi Pratama ginian level also nyetut D'mitry Adam N You fit this like let's say apa2 when you drive you yak cc Antania Shinta Yuwono Aditya Gandhi Pratama there senggolannya also Ok So this ship ships ships to customer who waits for the shpping of their ship Simple but crowded euuuyy Aditya Gandhi Pratama Danielo Petrucci Who's that hahahahaha Take a look at the laugh hahahaha Aditya Gandhi Pratama this simple It can be applied not yes hahaha Okay he just added more variations Her skill Aditya Gandhi Pratama De Breeze BSD One of many interesting Places in South Tangerang One fine moment shared This is funny Bangam Pamulang is Antania Shinta Yuwono Anytime anytime</t>
-  </si>
-  <si>
     <t>Arifin Tan</t>
   </si>
   <si>
-    <t>Indonesian people must like this status O the jerk friend is not a friend we have to stay away but we have to embrace and give direction to the bottom chasm Trdekat eg true friend is not that can make all your problems disappear but that will not disappear when you have problem</t>
-  </si>
-  <si>
     <t>Jonathan Ryd</t>
   </si>
   <si>
-    <t>I wonder if it's horoscope who framed as wikipedia but I like what it says For the sake of free football 1 Cyber ??World OFFICIAL PAGE wrote HI DotA2 Gamers Blessed are you guys because mimin will be distributing GIVEAWAY 10 Immortal Items to 10 Lucky Winners so do not miss too well here are PROVISIONS and TERMS to be done by PARTICIPANTS Like Fanpage www facebook com Level1cyberworld SHARE this content to your profile Comment DOTA2Level1 easy wait wait Watch my awesome Battle Camp Replay Download Now my awesome Battle Camp Replay Download Now 2 friends who remember my birthday pfff Thks all Have Great bargaining ability accuracy and meticulous in calculation What work i have 10 years later out what color are you according to your birthday and what does it say about you at stuff battle skill soul pets et cetera make me enjoy this game 5 this prayer You may be worried about your sins with the jnji of Jesus still not brrti bhw You do not have to go to your denial room mngku sin oration letters 15 prayer and promise of jesus to st briggita prayer to st jude Thaddaeus as I remember before antichrist's time will happen Appointment where only good people who msuk heaven and yang msih sin will stay on earth truz yang Live on earth will face the antichrist's time mrpkn the most horrible period therefore do not sin from now and Repent continue 3 because by accepting the chip Your relationship with god akn permanent break therefore do not accept it but for those who do not accept the chip will be killed Remember Actually we are open from this world but in heaven just as jesus continue 2 Antichrist is anti khirstus and this is a great proof that the arrival of God is near a time antikris will offer to us all a Chip to be placed mendahi and hand chip name mondex if Not wrong If you take the chip to the forehead of the hand You then you WILL NEVER ENTER HEAVEN continue 1 Do not be too busy with your work do not be anxious your heart and REPENT because the kingdom of god is near may you not prcy bhw his arrival already dkt but actually the signs of his arrival already looks like murder rape kidnapping terrorist suicide emergence of phenomenon and the emergence of ANTIKRIS continue error all games Fb me swt OOOMGG these friends friends are visiing my profile o Axel Pratama 1136 views Andre Alogra Cilogi 983 views Ch Yvonne Noel 542 views Cornel Sakti 300 views See who views your profile in not to play bljr merely as imprisoned wkwkkw Komp Sealed pswrd lucky me bs open wkwkwk Final battles cpet slow akn unfortunately FB slow think so do you think What do you think What do you think What do you think shit UAS mat I must be ugly ah senin uas mlzzzz Merdeka holiday 2 days yesyesyeysyeses Play ' 'Pet Forest Online' 'in Facebookm Advebture Game SsSsS Sngt ca Pe at school try to go to sleep Jump tiur deh me zz Gme what yes in Fb again nge TOP Kiamat that Has been established Hoamm Yesterday fainted at home fitting home camping wokokokoko Kihrnya Merdeka Also dechhz Ah soon UAS iya Bentar again UAS Zzz Need Study Hard wui I was participating in the painting contest of the district but lost wkwkkwkwk burng ijau and red bird sdng sit wkwkwk Zzzzzzzzzzzz Gk delicious not to play on holidays Finally free from torture Uts wa this into 2kalinya ku publish blue duck wa Widih FB I changed '' Waduh owner Fb Stolen by a Hacker 'and ask for a copy of 1 Milliyar if it wants to be returned Kalo will not be infected Viruses just once click the virus it will spread to all Fb trmsk Fb you iw jijai Buzzz Please do nothhhhhhhhh if you meet hwn rare to publish also yes yes Please' 'Merry chirsmas Happy New Years 2010 all my friends '' ea Rare loh Spa cpet she can contents 30 sunflowers loh New game on NDS Black Ace Red Joker HOW WANT THIS BROWN EGG loh prefect Holiday present 100 100 lv 24 25 december 2009 kok Farm Ville I can not open yes WAA please who want to ambill FINALLY FREE OF MID STORE REVIEW Broommmm bullsed what paan neh yes Lv 21 twenty one XXI Brommmmmmmmmmm kura2 pink Wa Bullsed Collection Arthiqokes lot really wa going in golnya gila2an zzzz marinade I love you poison poison WKWKWKW aw take the kura2ini pity wii funny we yeesess yes YEA Collection rasberries lv 9 1 jedeng Of course I'm is Good Friend we Blupp take this 6 TIMES 5 TIMES 4 TIMES 3 Times twice jeng2 yea yes lv 19 pieces again Finally can also large while oioiooioi jeng2222 lv 16 zz For the sake of buying scarycrows lost green paper money 15 GroARRRRRRRRRRRR CENTER PUSING PUSING PUSING PUSING Kero kro kero iwiwiwiwi Hansen kok ADA cat how lazy how hard to ride lv Its already yes finally not EARTHQUAKE in waw who gangu my grave wkwkkw we Para2 animals yea make me neighbors in farm vile dong Full with Seed yes lv 11 gratisss owwwww yeaaa yee many animals thanks to Hansen and vincent thkzzzzzzzz If no quake I did that klr home and save lives and READY READY TO DIE wow wow My Happy Aquarium upgrade my aquarium Aduhh he said in the news there was an earthquake Saturday 24 09 2009 in jakarta with 8 5 scale ritcher National Earthquake OUCH how NIHHH MAY not be an earthquake Bring me some Anmals in the Farmville please Likes lag is FB I know lohh cheatnya farmville fndnfhcrcingnjfmc '' in on '' in in '' '' '' '' '' 0 oo 0 '' zz ZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZ moooooooo grass so the cow if the cow so RUMputt awakwkakwkwkwkw yeas wakkakakakak cpetnya I ride lv ye ye yes death ow yea silver this nice wakakkaka lv 7 wew qwq ow yea oww yea yes ewwer My Happy Aquarium lv 3 richard many EGH yes HELP ME how to BE UGLY ELEPHANT SWAN GOAT DUVK RABBIT WARNING For those who play Happy aquariummohon in check aquariumnya every day in order not MATE Wkwkwkkwkwkw k caveat w yes in my clean all aquarium there kucuing her to increasingly understand wkkwkwkw wow nice gfak games akirnya many animals also deh BULLSED ADA GEMPAAAAAAAAAAAAAA real LOH YES ride LV money dying dehh independent yes ow yeaaaaaaaaaaaaaaaaaaaaaaaaaa nice not finally lv 5 my lucky I suspected WA LR THIS RARE GOOD ow Monkey isisnya DRAGON DRAGON BIRD KALO GAK Phoniex AJA aaaaaaaaaaaaaaaa mlzzzzzz zsdfgsgfr zzz yes duck to rabbit dsfs</t>
-  </si>
-  <si>
     <t>Anton Hartanto</t>
   </si>
   <si>
-    <t>Face Aib when there is a birthday HBD Josephine moga2 close up though rarely who v GBU Heater v HBD Father Long live lahh Shop Jam Jaya Stay Berjaya Thug Life Ea thuglife father birthday boss s Boom Finally get together again Lama no meet Anjayy time friends quality monday holiday MAGER Silent For Jombs I HOPE THIS 'v May be tried Hmm The Lol's Rabbit How to eat instant noodles but do not want instant intention Qq v Again quiet period tiba2 new babe come v cumawow Learning Database is like learning History already term2nya it loh More cool fun Csgo tiba2 Duarrrr SiBiru out OO Tired of this v RIP Pak Sarjono I do not forget your Father and your message until now GBU Holiday with Project Quiz Tests Final Exam In telolet in lah lah The new learn Algo will know v Gw who tell you speak tep Because you bawel Stevandi Steve What do you think now facebook asking First Bekasi just to meet the leftmost man latepost bekasi Doggy Wow same v Asekkk v P At read Duh is already middle of the night still talking about 4 November keepcalm Accepting Artificial Intelligence o Homina Homina Homina spongebob artificialintelligence binus Our Indonesian Hai from IndoStoryCafe is doing market research about Cafe Konsep Sejarah Indonesia We ask for a moment to fill our kusioner according to each opinion Yes Ampunn sultan laughing v Mending nokia is still lbh battery saving v The temptation Nintendo is Coming 'Aaauuuuu v Really o Khilaf first lahh before UTS v Eaa v Impossible v That's Real Wihh this is sure coding again mwlakukan process if else laugh Finally Make Ngoding Game o So Programmer ajaa laugh Create sharing ajaa Mutually attacking their own cage zzz Abang Adek Winner Slow if ow w Ndut alreadyhh Kodingan eat master laugh Hamster can Drift v Hmm Hard yaa nge gotcha his laugh There is a horsea on the toll Cikupa laughing PokemonGo Ads yes yes Try every sales tablet Tabs have age restrictions on Ba usage This American football combined football is cool Flash is same This is a great new invention Less valak same kuntilanak ini mah Valak and lala galau gara2 dibully orang indonesia v Finally barbie choose a new career laugh Real Pokemon Eat Tampanan Mana laugh warTampvan B i F ng IGusti Bagus Agung Oka Berikunya Replace hp this is the bomat already if long laughing This is the name Chicken Egg Tube laugh</t>
-  </si>
-  <si>
     <t>Nicholas Franko</t>
   </si>
   <si>
-    <t>Plan want dual boot same ubuntu tb tb windows missing its real should i go 2 flb hmm what the fuck 1 step closer when god help you getting 5 sorn rip final testing water team for xeno ifrit gif when Mona Glisa life goal Solo p Baha done xd Imma use taiko class and change my name to hibiki laughing i prob will not go outside tomorrow frieza gg i prob should abandon my light and be fire lord i prob gonna regret this anyone know g this error why dhikip thanks tien xd when gbf want You to farm xeno ifrit vice mvp using uncomplete fire grid life goal sad day 1 progress sub accord 0 xd its possible to get 6 chest wut but sadly i got trash xd fate extra ccc collab event is really annoying i dont need gun anymore like Tien really Increased my luck xd my own sub makes me salty what the fuck i dont need you done 2017 XD wtb 10 tiamat anima Xd khilaf occasionally wkwkwk sale account gbf in reddit produce result button search in facebook group already g there why laugh man this is suc K disappointed already another gold moon gg im done with this game gacha gg It seems stephan chen back in action sadly typical indo ahok lose try gacha rainbow gold moon what the fuck p5 artbook scan laugh intention amer ripjakarta house without dp beneran efekif reference im bored laugh 10 more levels holy shit GG is nice persona 5 plot twist mind blown gg nice train huang long train perfect for mage creed farming yusuke is best persona 5 is a dating sim game with some rpg in it xd eng dub good also kwwk also question on P5 PS4share sad truth behind persona 5 what the fuck seriusan says this is Rip my luck finally bs solo dao xd finally on sub accord gg pretty is bs replacing the main accord xd worth it pingin ngetroll raid wear dsaru on 1 april xd the hair is really long xd Even dragon studying oop Steven Pram best part of the movie got all zeta 10 free roll bugs thank you kmr xd gold moon number and why it always dark chara rip me wrong use sendal person so in Tense next me my baha will be mlb i hope wow alexis open branch XD that diributin even armpitny later if picked new malaysia at protest XD XD finally primal summon number baha hl here i come dear g gotten dinaikin XD Therry Prayogo Finally Op sixxx xd last Step hope they giving blue crystal as 3rd anniv present laugh why sub so close thank you free 10 draw i dont need to suptix her anymore xd pacific rim xd Holy rip my gacha luck ggwp rip money dying indomaret grab new money conscious card atm left in pekalongan Home suddenly rain nyebrang slipper slippers off in the middle of the road g had time to take rip sandals event unk stat is so bad fml xd Saeful Ramadhan laugh just need to wait till 22 then good bye cosmo axe okay good bye ifirt must get ding dong girl how many possibilities korut Bakal nuke indo sad rip Collab part 1 Alisa is the freebie SR Wind Luna is gacha SSR Dark Character is this month's 5 SSR Collab main boss is Losari Hell special boss is Bell Angel Latter is Also playable by getting an achievement in Shadowverse Collab part 2 Play Shadowverse and receive Granblue in game items Likewise play Granblue Fantasy and receive coins elixirs and packs in Shadowplayer There is a time limit for this part 180 to go Therry Prayogo Time for getting sarasa why number Erune wrong alter shadowverse collab xd dark rate up not even one dagger when two monsters met ez done laugh lovin the event summon like just relaised i had enough money from cny to spark kinda want to unlock apsara for djeeta smug face holy another one unlocked this literally Caliogstro finally laugh koshka still op if every round like this solo 90 nm laugh dat katalina bonus is very effective when people are lying about phalanx rip saber venus laugh Gill prob hate his father rip luck how they programmed the girl's consciousness in c dao is so generous Laugh nge see this in animasiin so mixed feeling laugh laugh reroll accord can be between 2 this hold like rip i ve Failed you musashi laugh x got the chicken but i dont play earth xd lancelot got xd rip luck 2016 laughs cant even 2 man rose queen laugh ez game Anthony Nguyen</t>
-  </si>
-  <si>
     <t>Shandy Phodiansa</t>
   </si>
   <si>
-    <t>Asdf Hola Lel Say something about this Say something about this Say something about this At LGF 2011 Citraland D Say something about this CHU WHAT if you want to ngeraid know what my dolo like Si herder wokokok apa Bulldog Help Believe in JesusChrist One of my facebook friends challenged all believers to put this on their wall In the Bible it says If you deny me in front of yourpeers I will deny you in front of my Father at the Gates of Heaven This is a simple test If you love God you are not afraid to show it repost thisSee More Let your friends know that you 've sent a free gift Let your friends know that you' ve sent a free gift Let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your Friends know That you 've sent a free gift Let your friends know that you' ve sent a free gift Let your friends know that you 've sent a free gift 'Ve sent a free gift Let your friends know that you' ve sent a free gift Sent a free gift was the earthquake iya wee gold fish I is not afraid of ghosts number Are you party hard My raid unit and I have just entered the Sunken Ship raid location Let's see Bait check Mechanism check Magic circle check Now where did I put my Scuba tank alibi There is a regular whisky and there is Nessy's Golden Reserve it's distilled magic My raid unit and I have just entered the Sunken Ship raid location Let's see Bait check Mechanism check Magic circle check Now where did I put my Scuba tank I is not Afraid of ghosts number Are you weqs TT</t>
-  </si>
-  <si>
     <t>Albert CL</t>
   </si>
   <si>
-    <t>Joshua Santoso Casey Ediana Putra Stephanus Sk H 30 Albert just completed level 5 on Angry Gran Radioactive Runaway Play for free on iOS and Android oh social scientist is what better writers deh ouch english lab ugly already Happy Chinese New Year All woi the kids db 2 Make a book tikom already found a blom if you use cs 5 may not be selfish people tu same all yes just want to win alone if losing the same person who wins The A team really nice karate kid really better watch which again iya woi england opponent amrik who won and who eventually ragnarok graduated Cardinalnya copo eventually ragnarok graduated Cardinalnya copo tomorrow is a freedom 2 day to freedom let matnya Doain I can 100 shy maluin you're already big cry pantesnya you so children tk ci cici I copz the bio material is what the wah i Her jtn pkn ini Wah bsk ulum must be bluest cape mlz have been told to make the ulum no intention to meet ruben onsu at mall plizz my dream yesterday back and become m y dream today hockey really I kwkwkwkwkwk woi mandarin gathering today yeah woi mandarin kerjain not the two tasks are completed to stay 2 more kwkwkwkwkwkwk there was a yes seniors shameless seniors alone talk BACOD what else ade grade class brothers taught me that is not true The rich so CACAD wew today do not work novel gara2 scenario cool Ragnarok I am there again and now can download ds own game follow me dong on twitter albert kocakz aaaaaa when iya I can Rp 10 000 again no consent must be concise bi first new konsen should be USD 10 000 aaaaa also bleak can not consent gara2 Sodara masi baby Ragnarok already far in the smear each bABY less acidic hikz Rp 10 000 aaaaa suffering has been started already want kerjain bi there were four infants grrrrrrrrrr every Saturday came three baby again eh Who ever play ASG if got sick how sweet salty sour sour Ancol I forgot to enter at 7 30 grrrr I even at 6 30 the entry aaa Aa en to play BF from on to MAG is just liatin cici bli bli beha stuff anymore cacad sit sma mima ag exciting even though ag move old friends again in Bandung many strange events so confused me Dragon 3D cool out of profit not to watch hachiko plizz dong so go to bandung or rafting ouch plizz Bin PLKJ mandarin JTN and B Ing complete all no red plizzzzz aaaaaa crazy my grades ugly all do not grade my brother why this MID mANDARIN should HARD why Ngeselin not lerned I Grrrrr GOD GIVE mE MIRACLE aaa CF Laptop CF laptop CF laptop CF laptop laptop when DIBELIIN who yau use LAPTOP cici I can make play CF when LAPTOPnya DESTROY ancol CF really nice so want to play again blajar TIKOM not yes mlz also blajar RELIGION also the cin on last day to freedom hari akhir2 mid enak Dikasi 2 days for day 1 day make relax one more day later sks tae tae tae pkn pk pkn pkn pkn very hard God give me miracle tu my mandarin test aaaa mandarin sadis Her this i am this month its bad month i know something but blom surely that nyakitin my heart i never get rich like this before i was patient enough when i was so patient i lost so angry yesterday mampi what iya no core kok perverted yes diary confused contents AAAA little big soldier pertemanya funny but ultimately earned is not funny but it makes people weep loss not watch percy jackson kwkwwkwkwkw I had fismat heabt once if I had fismat I set paraturannya wkwkkwkwkw ngakank I say pinya fismat wkkwkwkwkwkwkwkkwk LOL great angpao this year more 1M From last year hahahaahaha sleep first yes all have been sleepy this let's eye hold up at 2 o'clock night must sembayang at 12 aghh all write status ah hahahahaah one hour longer must be at 12 o'clock in the evening Novel must every day concise 2 chapters battle why i often help him Appreciate in but he himself did not appreciate my son also leak tetep I appreciate but kok him do not appreciate me yes sissy you I'm not mistaken you salahin say just do not want hostility at Stefanny nastasyah yanetritien and teresa grace pansy you so all salahin to I do not have a brain you earned fool yay could FB on my hp misguided ouch this long homecoming gara2 si the The old banget yay mandarin finish hahahahaha woi anak db 2 kls 7 bahn 20sjarah for ulg bsk material what crazy lightning in my house cool alah resee you are proud of yourself dogs rich pig shameless already know want to play computer dimatiin kompinya dog Amin my english is not red yAY you are babu not me who babu have you say i coward you own pengcut ASBUN do not need so your sister base is not JANTAN LEBAY also senen lot pr males for me stupid not yes yay bsj a pretty good day PR Pkn astray Very hard to find ah not fisikanya somewhat easy but the last number is not careful just should be 0 0015 but I 0 015 unlucky just different zero 1 bad luck no isa les gara2 tutoring finally can english english same teacher Mr Ismet steady owl ink print defects abiz no kluar duty bi how this agh bsk sit with damar again bored me why not dipindahin sial bu surta rese Mantap today skull just a little blew yah Today's school luckily yah today sekilah Finally can nanganin through out bond wkkwwwkwkwkwkw Ooh really nyampe villanya wear bli mochi cake all for friends only wkwkwkwkw agh computer again in sefis can not play facebook from computer Merry Christmas all my cici cock rese i nungguin him Performances natal sister rese it seems like old Grrrrr take away rapot not afraid of the sad but mlz nunggunya already long agh aaaaa want to join LDK osis but should not be osisi agh I like the same again bzt jln2 oh puh religious hard really have mlz blajar again mlz blajar History and bio from print ouch today ilum ah mlz finally finished png task also has made 2 more times the first one is almost finished eh Dead blom lights in save again brash wado not bring the achievement card made for the task again mlz ah rese finally RED JOKER and BLACK ACE finished black ace yesterday redaksi joker today kwkjwkwkwkwk NI MAKE TMEN W DOANK mlz blajar jtn agh not ngafal for OR agi severe Agh confused want bli wii or laptop suggestion dong agh rain tae again on the shuttle rich in kapa seles netes netes enter the car agh ah kangen main geta so geek again this agh know not michael dwitama alias dede likes who happy happy halloween all woi who come To obake delicious can play me is gone 10 000 no longer play dogs tu queue crazy fun was brantem guy wlkwkwkwkwk crazy old bang on the bus blom get to school again in this theater pingin cepet study tour so wake up at 4 at last finally report raport my raport Lost or kebawa who has got me my love bsk dong skull again malez can finally be free even though 1 day agh 5 october day that sucks bad luck gara mid sial Class again free free again in free class well again school lame ah ma hitsugaya ouch crazy stress i gara want mid fitting holiday like this in order blajar luck ah who is jah zodiac i kluar kwkwkwkwkwk wkwkkwkwkwk can not if not god iya lucky ahhhh 6 days Again school males mid word who i support this hp whether this quiz is right wkwkwkwkkwk i dont think so or so nyampe jakarta again in crazy bandung eating at the top of the name of the resto anchor expensive very cute sad ah i same room sodara same child baby sleep luck my ds dipinjem Continue if batrenya out gg believe hard is villanya is good but hot cool again at the peak wkkwkwkwk again this free in class again play the main devil text pkn only 4 minutes at least 10 minutes more would make any invitation must come again lame yah not fit agh ulg Ingris her this cacad males bsk a lot of exciting duties again dirumahc GE again this school lesson english teacher again kluar tae class again play geta masa gemp A make people lose tae cacad already her mat 2 times kok can ya wah muzizat surely this boong ouch dizzy work BI BIES bangety told to mading again have rapot bad value all dimarahin ah capeeeeee already mading blom finished pairs day selkah cacad banget cape lah been to school Shame maluin par</t>
-  </si>
-  <si>
     <t>Jeffryanto Wijaya</t>
   </si>
   <si>
-    <t>She Back sick who is sleeping Who is this student is VERY SPIRIT learning Chemistry Eka Teguh D'SilverLance Acai Chandra Richie Ryan DjBilly Gautama this movie Infinity Infinity AldiFaiz This is my WeChat QR code Scan it and chat with me Just download WeChat at is our WeChat QR code Scan it and chat with me Just download WeChat at Albertus Alexander Cape not because nambang because shout Albertus Alexander Winston Marco Sofian Winardi Jonathan first school First day of school Tuh KC entrance She Love me Wait 5 seconds because image number Is not Nobody Got Time for That Tuh KC Results from last Friday Denger News Entering the long holiday My school tomorrow Oh god why First Day on the internet kid just the same as readyboost rape from someone Ry Hariman Sugara kyaaaaaaaaaa Wkwkk Hariman Sugara proud of himself cool cuyy Hariman Sugara crazy chef ken LOLOLOLOLOLOL PON Have not started the roof of the field Tennis Udah collapsed LOL meme jackie chan Character of old maids Kalo talk ti Can not stop up in scatter confident if selling a facebook account or just a trap Jackson I just ngucapin Happy 2nd Birthday LivingSocial Indonesia and can chance for winning iPod Nano iPad 3 Cool oath Packing Depart Find Vaastu mu won The new iPad is money laugh Basic crazy people laugh just like playing the tire looks dak powerful times Woohoo Gue managed Check In and add score Want to dapetin Toshiba New Satellite M840 Rp 8 million worth only Rp 1 million Antri just here Dead dog lights annoying message ckckckck Nothing Different skipper Same Just like IDM speednya Stress if there is no pulse is still another world excessively grass alone in zoom can not sleep open facebook laughing Who character would you be in the Avengers Find it out at Indonesian Life Roleplay 0 3e Address 210 247 242 83 7777 Players 25 75 Ping 55 Mode IL RP V3 99 Updated Map ILRP MAP He's The lord Fucking cool Oh My god Me Gusta He's Not A Gay D</t>
-  </si>
-  <si>
     <t>Ahmad Fahmi Taufik</t>
   </si>
   <si>
-    <t>Y test Y no alazka miami any so p Good is best Good let go best 21 Duncan Y ngung wakuncarOOO wakuncarOOwakuncar OOOOO ALAYTT Makasih yes all Enjoy the last day of the SSG 69 TH holiday The sniper game of Thailand Type A question right here Enter your text here Fire mode on slow download idm sori instead of direct promotion to TKP on PB Rain wind freezing Practice makes perfect Earthquake is completed also skk Ooo download time Funatastic Two Birds what's on your mind Running in circle Hooam facebook chat less accurate work at the time of bedtime sleep eat computer eat again sleep again denger song do not forget solat Abs fasting month kok lapel solely yeah holiday bored go school males apologize inner born a few hours to victory day jakarta ajib already What's on your mind Exactly short dense Heat bung Bentar again Ajib holiday is true Coming Clean Earth pali Ng nice waiting for breaking fast while drinking the best mixed ice waiting for breaking fast while drinking ice mixed cool up awake sleep facebook chat kok often error O o type my question right here I'd like to make it believe That planet earth turns slowly It's hard to Dear that I'd rather stay awake when I'm asleep Cuz everything is never as it seems We must be naked and really clean Download bntar again finish dead computer Fate awaits breaking fast on the internet Type a question right here fasting many trials The heaviest compositor of yahoo Msn Google search Engine ane just GOOGLE Little wonders Thinking forward soon fast fasting hhe Waduh ane kira bsk holiday Our lives are made in these small hours these little wonders these twists turns of fate time falls away but these small hours still Gerah uy Merdeka 15 40 Wake up sleep Vulnerable Straight body Yeah is basket time One word Optimist 'The season of flu struck ESMOSI Slow but sure O o Pag I directly denger sister fight Wkwkwk Jakarta hot Yesterday is history tomorrow is mystery but today is a gift Yesterday is history tomorrow is a new day Mbah surip goodbye Tak gendong Ngerjain pr bhs arab O o Glides to jakarta In bandung Capek Reach Buset cri hanger clothes question mark is very difficult because ane also wrong talk say it key ring shape question mark Pantes no O o From First to Last Out of the dark terbitlah debt O o I lop you pul O o Ask why I lop you pul Cool dong light's theme 3 Greetings super Entering a complicated day tomorrow to go to school O o Pengen cepet plng I buueetee he Ojan alhamdulliah Ehb finished bk ehb good luck well yah lost again wah facebook I can send an obscure sentence impatient with transformers 2 more holidays Uuooo unlucky holiday lm bosen joegaa duty lot of dehhh i want to shout ALIIIII Udh not sbr met him no groggy ngapa2in</t>
-  </si>
-  <si>
     <t>Arya Dharma</t>
   </si>
   <si>
@@ -1160,151 +1013,440 @@
     <t>Tesya Febby Lestari</t>
   </si>
   <si>
-    <t>In putrijaniviani Tesya The results of your temperament analysis is like below You are a serious type towards your friends also very care how the views of people around you So you easily feel sad because of little things and sometimes can be stored long in the heart and can not let it When you are angry often reluctant to hurt people often take other small things that are not concerned to blame others Although you mean good but others do not appreciate your kindness even say you are childless immature Suggestions People have the right to anger not anger does not mean you Good-hearted or a success On the one hand want to hold back on the side one lose control will only make you look cynical Anger is also one way to express yourself Tesya Analyze your financial concept is as follows For people who choose the middle fish stomach including shoppers when earned a salary month They are very popular as big buyers when there is a sale in department stores especially on food and clothes provided they like would not hesitate to spend their money then they are often entangled debt Tesya Results of your logic ability analysis as below you choose Number 4 Car driver In front of number 4 has seen he will stop Moreover the number 4 will be called stopped by the number 1 2 because the number 1 2 looked at him so good alright Congratulations you wrong guess I am lucky to have a friends like you friends Trip to belitung XII IA 3 With B'6 at prom night Prom Night SMA Santo Yosef 2015 Prom night 2015 The story just want to go mkn Ehh hbs mkn even to pantaii Serasa again in private beach Ga no person soalnya Wkakakak Tomorrow UN Pink B'6 Sinmung kadonyaa Luvv youu gaiiss Paraii Swim in Aston Always be friends forever Nal's bday party 25 My cutie niece New hair New hair My cute dogie black vie We can stay fore Ver young Full to the max Wish a miracle tomorrow Fighting GBM When when tired of learning Akyuu funny beudds Fans dephii celalluee her cretin polepell muachhh We call us LTC You're not my FUCKING friend Thanks friends B'7 nd my bestie Dessy Ling kesiah bella Aldo atung Dhanesa Prisilia My cute nephew B'7 crazy club studyhard test tomorrow history mandarin WML Mading mandarin Instaa TesyaFebbyL Study hard for bio Thanks mom Tasks numpukk tepukjidat Nothing to doo Lalalalalalaaa Apparently the world is narrow yahh Sick Welcome XI IPA 2 SOS Shoes o you ' Ve gotta get up and try Tomorrow's last day in sabang 'So sedihh Babii fangin tuu okk Throwing a sponge again da uma kuu Ka think we are home tu what Gak pnya otak mang Ortu brother dcd ngjar kakak e Bangsat mang kakak too Fuck Bye XB I will love Nd miss the moment with you friend Thanks for evrything 'Welcomee XI IPA Biology pasrah B indo original ngarang Ntah what a result tomorrow Hahahahh Let it flow alone First day B english Mtk OR Wish me luck Dwea Goodbye Dwean Good yes there So a good dog We love you Hey loo Behind my dog ​​Don can not be so shy sich loo If you want a dog do not buy donk do not stop people Shit Flu melandaa Class party Makann Nge ' Discoo Hahahahh Nothing to do Rainy night D Economy Everything on stress Child XB on crazy oii Org again UTS even ngechat in group Ahahahh Lucuu Biology mandarin high stress I wish I could do the best today Materials Geo bnyak bnerr Bljr just new Blng belajr religion Blm memorized chemistry formula Aduhh High School Saint Joseph Senior High School Happy Brithday Saint Joseph Senior High School 50th Wechat line nd whatsup ID Tesya Cenn Still want tidurr Hoamm Holiday effects Hahahh D 3 Smue goods lost Gatau kmnaaa Ringemm Bntar agc killed aa D aa DD Geo like sosio Ohh noo Chocolate betambun Cmne let ah Kek melarr kuu nee Hahahh Thank's her chocolate friend D Happy chocolate day overcast Males wake up o Gong xi fa chai Happy chi Nese year Yeeyy Capek Smua on stress Hahahh s Galau because physics Biologyi Hahahh Lo think itu lucuu Gag there is the slightest bit lucuu Fuck Be strong D Back to school Last day Miracle D Pasrahh B English Physics Wish some miracle Pray for physics and history tomorow UAS in In front of this Study Hard Rasa muncull againi Hell Ngpe sich ikak ngte ku d'rear Mang what wrong kuu Only gara msalah spele g soi cmnii complic a a Kuu dc ngrtii what ade d'otak ikak too what g always me that slah a Pening kuu Cmne care a clear like ikak Mn ikak g agc cmtuu like kuu Not walking according to plan nyesek Learning sambill in accompanied by KITKAT OO c in the park Lintass alamm Make the d sna HBD yaa D Moga pnjng shat age always nd more suksess GBU Sanyo's expoo</t>
-  </si>
-  <si>
     <t>Andika Kandrianto</t>
   </si>
   <si>
-    <t>Working not about money but about whether or not it is good to do the job When he does not know people well he will be surprised when the person shows his true self The thing that makes humans develop is the dissatisfaction of something positive example dissatisfied with technology and try to develop it Again with this humans continue to grow more because they want a new one continues Yuli rich child lost wkwkwk a game is when seorg create creations masing2 hahhah Org successful people who can think fore ANDIKA Small cute gedenya cute cool again wkwkwk mudah2an this incident does not happen again yesterday gara2 I am a nightmare it oh yes it's like to play the time Must add the champion from now to win Yp forgiveness today there are many numbers that I do not know my sms Beautiful dreams wkwkwk Oh my hand my hand turns out you do not change still the same as the first hahhah Gw just ordinary people Hahhah my nyesel sweet taste t Mixed with sweet taste lost from bitterness hahhah Hope the past incident does not repeat hahhah May be the best tomorrow win wkwkwk Gk much hope What is happening will happen again hahhah Regret my hardest when I make you angry Klo diinget2 seneng also yh Apes gara2 Yesterday keinget past Just can hope hahaha Gw just realized my movement faster than ever Am I better than the first From the birth of the world to the end of the hereafter open the way he heard the call throw yourself in the destiny and submit yourself to all Gara2 forget in the save until now Not yet maen2 hahhah nothing impossible p Good luck relaxing diranjang while playing wkWkwk Gosh forget in save Yei finally What miribnya Original I was curious Tumben I can stay up wkwkwkwk Ko today I can not sleep yh in Renungi kata2 saya Hahhah This incident will be my experience The most I remember hahhah Gw nyesel why I bi Sa so stupid Ah my shit dumb emank klau alone I can control the time surely all will not happen hahhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh Sad yh Jdi lazy sorry What if I could change for the better wkwkwkwk There is a monkey with the same elephant WKAKAKAK happy memories hahhah want to change but difficult hahhah Finally ulum finished hahhah Pengen as before but can not hahhah Today would jogging not yh in Ah rese Friday is not a holiday Wkwkwk Gw and yuli My face bleak future wkwkwk Want to cepet2 college wkwkwk Wkwkwkwk Gw is a human being Hahhah buy basketball shoes again i need a hoorish honesty from you hahhah Gw need honesty not lie hahhah Try it I can repeat time hahhah Wkwkwk masa Then oh mop mat wkwkwk my photo is still small p accept fate just deh haha ??klo i can set the time I change now so the date 21 hahhah Mending open facebook wkwkwk Tranquility and loneliness You and I p Buset play game monternya call friends merely so not finished2 if finished can expnya rpa is crazy dikamar rich in kutup north Nyolot wrong not nyolot salah baek salah not baek salah Apasi mwnya wkwkwk Bsk ko not holiday wkwkwk die Rusuh Oops feet not heal2 Wkwkwk turns out I am also useful wkwkwk Njis movie homo wkwkwk Bosen Sial it was already fabricated by 3 people it Ujan stop donk Udh lma do not play dota so want to play again z contrived sttS pke Pp lma deh wkwkwk this person one bt again Gw will be patient hehheh Oon also garbage 6 letters instead of 6 words wkwkwk why my life is rich like this Son smp trinity there who want to go to school Gw so confused there is a say there is a holiday bilng right holiday What enter the day Monday Gila my stay doank who has not wkwkwk want to watch but lazy nyetel tv wkwkwk aduh mau bgn jam 4 even bgn jam 1 Apes2 me Waiting for one piece movie from 2 o'clock it started the hour segini zzz chaotic Gw willing bgn jam segini just for watching wkwkwkwk Jam 3 it turns out there is a cartoon pesky very wwkwkwkw seneng also not possible da who care ma you hahhah Apes2 I play cross fire dikatain ngecheat just gara2 Ngekill merely emank basically I jgo want diapain wkwkwkwk Owe disappointed ma my comp score can only 90 dua2nya xl severe zzz Wew smsnya new to send Gw often fantasies but the hayalan it never materialized even though I have tried hehheh Diajakin but ditinggalin Nina bobo if not bobo in Bite me wkwkwkk Short fat idup lagi wkwkwk Shit I have cape2 to school his teacher not da rese banget Today sparing is tired of losing again apes2 just ber 6 again Si albert again pke body I made it through zzzz Easy to win later Life is emank all wrong yh if Talking wrong do not talk wrong wkwkwk Ccd banget one team that so just my zzz Shit i dikacangin david unlucky dota 5 times Win only 4 kli wkkwkwkw Cacad Senen holiday senengnya hehheh today the exercise for the web kirain exciting twnya bsn Yes Thursday is not so replicate bio kan holiday wkwkwk pengen cepet2 dated 3 wkwkwk Gw confused me not pke package sms but ko pulse i live 108 can still sms Why is it from learning better online wkwkwk Malez learn Space 1 akn to be destroyed space wkwkwk Bio iseng Today I am happy really hehheh Iseng fad idly wkwkwk my dream just one pedicure and I believe my dream akn be real but ko dream it never so The reality Tdi repeat mat ngasal all wkwkwk can rpa kh Ah ko people yh already lma not met me tell me me skinny not rich first fat gajah nge dunk wkwkwk Ko after i know him my job smsan mlu wkwkwk Knp yh da who know no why Start this hri Start bljr serious again deh huh ah 4 today is my shit merely zzz Strange today Seneng intervene pain Bahagianya hehheh Time to stay up Bsk mlz school lgian not Da pljran bsk why Yes ps my pleasure to meet wkwkwk added bonus can be my basketball that was once but deflated the huh wkwkwk Gw cynk really ma he I memank the perfect human and never wrong wkwkwk Yeh senin holiday My legs really sick tired huh must tdur This time zzz CAMPUS BROTHERS HEHHEH Cpe zzz Udh home cool Zzz cold attack me This kli should be 100 I may 93 again if today I am in love choice want hp or basketball I akn choose basketball so I can practice myself so I can compete Ability bejo and berto Gw lose play wkwkwk why big ujannya whether gara2 I often throw away my kh waste because I am so rich if I have to apologize wkwkwk weather angry with me wkwkwk Gw now basketball intentions I have to practice every day MUST wkwkwk Tomorrow exkul I akn tortured his teacher wkwkwk Adu sertes i ngerjaiin physics pr 25 numbers Ah first repeat not 100 even 93 ah no exciting just a little bit Zzz Ah it's my value not 100 gara2 forget a little zzz unlucky there who has not memorized my isa can 100 deh zzz Huh fortunately he is not aware wkwkwk Hahhah my feet calluses all Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzzz Drowsy tdur but a lot of obstacles huh ouch was tdur now sleepy again huh There is no one who really likes seseorg not from looks and treasure wkwkw Gw feel guilty gara2 was confirm really serious expensive bio wkwwkwkwk not akn I confirm A lifetime if I do not remove it again wwkwkwkw confirm bio expensive really serious oath wkwkwkwwkwkwkkwkwkwkkwkw canfirm bio expensive banget wkwkwk confrim bio mahal Before januari I must already champion basketball wkwlwk mandatory</t>
-  </si>
-  <si>
     <t>Fransiska S</t>
   </si>
   <si>
-    <t>Limited Edition Interior Exterior Very Detail Price by PM Kloter today is just 45k Details of rubber tires Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Apparently audi r8 toh om Enzo Faris Abidzar R Cahyo Adi N but it's also ok hihihi steady FS just deh there 2 pcs mint in box Price by pm iya let familiar Guaranteed cheap merry Initially just want 1 eh meet 4 Take 3 just deh Stay hunt red pepper pillow Diecast SOLD OUT Thankyou Tant and Om merss Greetings Diecaster Finish kelar temperature temperature Enzo Faris Abidzar Ferdian Aditya Pratama And decal om Andry Wisnu thank you lho om2 Though not perfect yet satisfy first repaint first decaling Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Pulang2 ginian welcome gratian thank you om2 there Gadapet hw pretty lah is this In lus want to take the tire fit pas behind shock Kok ban ny this kayak ngeng grip yak Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Lego hw Diecast SOLD OUT Thankyou Tant and Om Merss Greetings Diecaster Tan Omers who sell decals bwt detailing hw who iya Hmm Landed smoothly om thank you om Enzo Faris Abidzar for his mas Masan While Mas Batangan is too mainstream Contains Diecast HW wrapped in Chrome Chrome Monggo if anyone want nambahin Kolpri yah Not For Sale Diecast SOLD OUT Thankyou Tant and Om merss Greeting Diecaster WANTED Want To Buy In Blister or Loose is printed on each photo Who wants to be released may PM me Good price transport Pictures taken from G gle Thanks Regards Diecaster Fs 17pcs take all rp SOLD Ex fare Send from jakarta 4pcs top right reblister Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Welcome to the little family Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Hmmm Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Diecast SOLD OUT Thankyou Tant and Om Merss Regards Diecaster Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Aunt om ers who again auction fnf jada this tolo Ng in the tag in yes Thankyou Sapa know anyone who want to be removed Who want to adoption monggo docked Moris at 35k Lancer at 40k Ex postage from jakarta Banjirrr Want To Want To Buy In Blister or Loose listed on each photo Who has to be released may PM me The price is suitable for transport Image taken from G gle Thanks Greeting Diecaster With H2 garage thank you yes that already ngucapin Owh yeahh Dragon city birthday this new greget thank you all New follow-up FIND THE PRIZE this How to play very easy live temuin only gift there where direct become property We deh Come on follow-up live just click the link below there alfian ah last day ehb help Singapure steady Showroom bentley retreat cape Final tense pin bb ku 2626DE34 Ol at home monkey horee ball soccer ball fire clouds thank you for all my friends GBU You too D phantomm PINATA hiddeni snow bird wow hidenni octo hidenni monkey chicken Audi zero D 1 1 2 hrs on car trasa bored with HP dead jam again costum Phoenix google crome lage heng cape sister wear mozilla again slow think hiddeni fruit laugh ahahahahhaha fsdfsdfsf horayyy Oh Nella 'Tsukiyomi i miss your face your voice why not move to samaria again there are many memories steven robin ahaaa laughing style hideni insects mad fragie thank you buwat Help space rocket me D weww wew kgjls BOTTLE GW BROKEN SIAL hahahaha</t>
-  </si>
-  <si>
     <t>Harve Doank</t>
   </si>
   <si>
-    <t>Oi 9 i9 O Steady Halo everything First Videos Fabtatoes is so this May be checked yes Fabers Challenge FabTatoes Do not forget subscribe and share Sell tickets SMTOWN INA Interests HOAM Today so not at 10 am Hack The Ghost Mode 'til U Get Banned Lectures can cause Sleepy home night strez and end crazy na Interned me again lag brat so gx can OL CF TT CF again maintenance cape in waiting again jlan2 to peak huh pnaz bnget Harve's pet '' Wolly '' is da bestzZ 4ever 'n ever Ok Harve's Pet is Da best 4ever 'n ever addduuuuhhh die light teruzzz me so mlzzz Again mlz niccchhhh Busssseeetttt Ujan na gede buaaanggeeet g again go to marriage ampe can not plng in open space sicch asssyyikkk just red 1 9 na there are 6 and 100 na atu asssyyikkk just red 1 9 na there are 6 and 100 na atu P'ling malz if dead light huhh in khirnya already ammppe jooggjaa asyikkkk let's go ayo</t>
-  </si>
-  <si>
     <t>Sri Andria Fransiska</t>
   </si>
   <si>
-    <t>SHOPDECA MARKET RESEARCH Hello everyone Please help and time friends who have been shopping online to fill out a brief questionnaire below to help finalize my final assignment about E Commerce Shopdeca Thank you very much at HASHCLOTHID IT'S LAST DAY OF 02 PRE ORDER READY STOCK 03 April '17 Details Material Soft Cotton 30s Color Colorful Size S XL NORMAL Price Rp 80 000 pcs When I got the motivation to learn and to improve myself I am not confident enough but I am eager to try Correct me if I am wrong Visit and read more moons poetry blogspot Com moonspoetry And the light that you left it helps me moonspoetry moonspoetry Disney feels Tinker bell wohoooooo HAPPENING NOW It was WorldPoetryDay yesterday so today I like to share my first ever and my favorite poetry which was written three years ago Visit and read more moons poetry blogspot com moonspoetry minioo Oon Visit and read more moons poetry blogspot com moonspoetry Today last year happywhiteay Happy white day Visit and read more moons poetry blogspot com moonspoetry Help me to fill this questionnaire about Indonesian E Commerce for my final project God Bless Visit and read more moons poetry blogspot com Moonspoetry H 4 Happy IntenationalWomensDay Visit and read more moons poetry blogspot com moonspoetry I can not The world seems to belong to the sixth Happy sunday Visit and read more moons poetry blogspot com moonspoetry Ig in hashclothid Line Mr President samyangchallenge again at two o'clock in the morning with full equipment full video is on Youtube know i need u but i want to stay with you until we're gray and old visit and read more moons poetry blogspot com moonspoetry Peace visit and read more moons poetry blogspot com moonspoetry goals Cause what if I never loveeeee again visit And read more moons poetry blogspot com moonspoetry Happy Valentine's Day visit and read more m Oons poetry blogspot com moonspoetry and YOU You leave me breathless you're everything good in my life repost visit and read more moons poetry blogspot com moonspoetry H 1 year CNY can not wait CAN NOT WAIT It's as if my heart knows you are the missing piece Repost visit and read more moons poetry blogspot com moonspoetry International Marketing 2017 moonspoetry moonspoetry Oh these times are hard they Are making us crazy do not give up on me baby repost visit and read more moons poetry blogspot com moonspoetry Things to do when you are already 'lengser' It's gotta be youuu uu uuu Visit and read more moons poetry blogspot com moonspoetry It is been A while since I have so much fun like today Let me go home Oh I miss you you know Visit and read more moons poetry blogspot com web version might be better moonspoetry Joel Adams Visit and read more Read more moons poetry blogspot com web version may be better moonspoetry Pekanbaru Every part of my life that is fated to cross the same path with you I hope you will learn more I will continue to watch them anyway Happy holiday Visit and read more moons poetry blogspot com web version may be better moonspoetry Is it me or her that you see through my eyes Visit and read more moons poetry blogspot com web version might be better moonspoetry Tell me How to get this job The most intense drama I've ever watched so far Following on satori planner on instagram Pekanbaru and Jakarta based wedding planner Visit and read more moons poetry blogspot com web site might be better moonspoetry Just updated my blogspot Visit and read more Moons poetry blogspot com web version may be better moonspoetry I always wish that it was all enough Because you are eternally enough for me Moon Poetry see y Our true colors Siblings throwback I could never thank 2016 enough for shaping me into a better person who is the number more feeling so terrified about opening the door to the world I have been keeping my own world to myself Well I like to observe people I feel what Others feel I absorb surrounding people 's emotions but I never told them I did not socialize a lot of friends This year I learn a lot I learn to express my feelings instead of bottling them up I'm happy I'm so happy that I love my friends Started to listen to listen to my stories laughed smiled cared It feels so amazing Well I did not love it it was all easy through the whole year What I mean is this year I really synchronize the black and the white melody of this Life And that is all thanks to people who do not give up on me number matter how difficult I am to deal with Thank you everyone HAPPY NEW YEAR Visit and read more moons poetry blogspot com moonspoetry Japanese at its best 2 07 and up A day a Tommy Tandera LOL look at someone's phone and be like so bright you could die or laptop 2017 is coming soon and well I have been writing since 2009 Wow I still can not believe that I've made it this much I used to write fiction stories instead of poetry like I do now There is a lot of supportive readers and comments ups and downs and still I have a lot of fun at that Time It's Still One More Chance 2010 Chance 2010 short story about someone feel regret I will found that right place Wish everyone a blissful new year Visit and read more moons poetry blogspot com moonspoetry And maybe just maybe it is all enough So before we Move on to 2017 I would like to clarify something My initial moon is not what you think it is It's not a moon that shines in the night sky It's a childish story but ok back then when I was 14 I liked Korea so much and Just like the other fans I got a korean name It appears to be Moonri I have started to write and then I used the first name of my korean name as my initial Moon So yeah that is all I am not getting emotional or Sentimental when it is full moon or else I am not getting the inspiration by watching the moon up there No I am not LOL Inspiration to come from anywhere and also the number it is not based on the true story of mine laugh okay thank you for reading Visit And read more moons poet Ry blogspot com moonspoetry You deserve to be loved repost It is almost the end of the year and people need to believe how blessed they are to watch the world spinning until today</t>
-  </si>
-  <si>
     <t>Dhiva Andika Sembiring</t>
   </si>
   <si>
-    <t>WTB shaman new so in PS or Gold gear ijo no what what is important lvl 80 the intention WM dalem my nick game Ducbeuregard amp horde WTB shaman new so in PS or gold gear ijo no what what is important lvl 80 wm the intention of Anjer neh IDGS Get sunami or what the WoW gloomy play amad lag her play main yah you njng speedy anjeng cacaddddddddddd bankrupt just you 'Last world when i leave singapore' 'mencretttttt ENE NEW PALLY RETRIBUTION NAME WTS char pally horde lvl 80 eq complete already ashen verdict reputation Interest post me WoW AMPM This is preposterous Am I to assault the undead with nothing but sticks and harsh language Kael'thas Log in server down LOL FOR THE HORDEEEEE Ricky 2 new years new dog money issue in burn study from mistake how ever I still love Indonesia dog stupid word GANYANG GANYANG GALYANG MALAYSIA GANYANG MALAYSHIT NOW ALSO All under control gloomy Indonesia WHO WANTS IN TAG TAG IN OWN THAT IS GK MAU IN TAG PLEASE IN REMOVE Bahlul Just my joint Ri doank who enter the school Bangs TTTTT who cut hair taek Stresssssssssss Hey Baby fun as gene ae every day bahlul alma mater missed in ancol One Last Drink Please anjrot computer has a lot of virus a terpacasa disk cleaner child X infinite if no teacher surem a I need a Hitman for a special job I need pro Executor now anjrot package wrong address a Your silence is slowly killing me see the great testimony yoo yes god pray my second orantua me so that they survived to the purpose in running the pilgrimage and lancarkan is the process of their pilgrimage and give ease In the pilgrimage and make both my parents a pilgrim yag mabrur amin hufh fate HP lost a maid neh who took from his grief caught the surem helper kampret taek gene neh speedy slow Sunday thinking crazy play PB pink cmn 2 surem school that does not need important clever Pinter make money Pride Is a Weapon Adolf Hitler WORK IT OUT aaaaaaaaaaaaaa play the L4D 2 main expert Her in the 3rd gloomy kunti I SWEAR BY GOD THIS SACRED OATH THAT I SHALL RENDER UNCONDITIONAL OBEDIENCE TO Adolf Hitler F hrer OF THE GERMAN REICH AND PEOPLE SUPREME COMPANY OF THE ARMED FORCES AND THAT I SHALL AT ALL TIMES BE READY AS A BRAVE SOLDIER TO GIVE MY LIFE FOR THIS OUTH PROMISE NAZI SOLDIER pretty dreary ms crystal Can anybody provide me with a decent challenge SWT Alaysia looking for gara just look for gara i call nazi from moon bwt nge nuke you hohohohoh Important taek likes plin plan if confused is what is received GAN DATE 27 AUGUST BEEN BECAUSE THERE ARE 2 MONTHS NOT THE 2 MONTHS THAT IS 2 GANS BUT THE ONLY IS THE PLANET MARS WHILE WHEN PLANET MARS REACH OF DISTANCE 34 65 million miles of earth Do not forget to see yes skipper On the 27th of August at 12 30 am IST Hope in Indonesia to appear Skipper owl plin plan already hadoh so can not wait for 2011 want to watch Iron Sky so fun alamater so 3 weeks will be more handsome i make alamater najesss film the Last Airbender THE BLOM ugly JGN PLEASE WATCH IN THE DAY BULE OH MY GOD WATCH THE MORE ORRRRRRRRRRRRRRAAAAAAAAAAANGGGGGGGGGGG GIIIIIIIIILLLLLLLLLLLAAAAAAAAAAAAAAAAA hohohoho Wasem snorkling because my skin was so dark gloomy Friday going diving again where I was less able to swim in the sea Drowned already bruakakakakaka Weleh Gw Japanese Language Learning laugh Tarohan acid again equal Kevin Germany will repeat his victory in his own country World Cup 2014 will be held at Bayern Munich Derrrr panzerrrr team will repeat his victory at Bayern Munich awkakwkwa mantabb gann Germany will be World Cup Champion 2010 J CHAR 56 tacky AAAAAAAAAAURAMLATOZZZZZ CHAR NYANGKUTTT ea BELS AMA CORA ALLY KGK REDHO GW ALLY AMA NATIONS CEBOL SWT SHOULD HAVE A GENERANT ATTACK THAT IS ACC MAINLY HIS STRUCTER IS IS HAVEL ISRAEL AT HIS PLACE ASEK BELS AMA ACC BRAND ALLY AKWKA IN ELAN DAH KYK AKA DOG CATCH akwakwka WEEEE DUPE TEMBUS Ich bin Single Ich Freue mich sehr YESS AKHIRNY A THERE RAZIA MAMPUS KAU CHEATER CORA WILL RAIN AGAIN IN LYRA Dieses Gef hl begann wieder zu kommen SELL CHAR PB POINT BLANK DEVICE DIAMOND 2 KUTIP 2 KD 64 HS 29 TITLE COMPLETE COMPLETE FULL POINT HUB 081386973980 THX How Lucky Lord If His People Can not Think Mein Kampf huh a tiring day If within a person there is still a sense of shame and fear to do a kind of good guarantees for that person is not going to meet him with a single step of progress Justin Bieber One time Male and female are as two wings a bird If Two wings equally strong then fly the bird up to the top of a height if it broke one of the two wings it can not fly the bird at all Bung Karno defect you dika make scroll kan you I kalahin you cmn make 3 skli doank BELIEVE OR NOT WORLD WAR III WILL HAPPEN IN 2010 YEARS Kahitna will not be replaced german version MAJOR ME MY SMUA FRIENDS IF THERE ARE PLEASED IN MAJOR OF THE HUMAN MAKLUM IT IS NOT FORGETED FROM SIN AND ALSO DOA'IN I UNDER VALUE UN I GOOD IF THERE ARE LESS PLEASE PLEASE TO INFRING ME WASSALAM WAS WE WR WB Many people think Adolf Hitler Menniggal in bunker yes there is In berlin but at the time of investigation bawha body found Russian soldiers are bodies Women under 40 years Many historical observers say that Hitler went to Brazil Argentina South America and surprisingly there are those who think he lives in Indonesia wah angel net is open again in Change his name the same Imanuel net hhe main teruz nig Ein guter Freund ist ein treuer Freund wenn er wei wie ich mich f hle KEEP YOUR PROMISSE BECAUSE YOUR MOUTH IS YOUR TIGER go home rain rainfall deh on the road together Yudha Ardiana ride OJEK HOLIK kwokwowkokw WET all Kwokwwo crazy in my live have a two choice sad or happy and i choice happy sad banget this afternoon i was in throw the same bottle same book seseor Ang in my class huhuhu just for trivial things kwokwowk Wedding pla follow-up I believe IN you every day it feels no rain snow LAgu saHabAt From Chagcut ouch no work at my house Happy New Year 2010 I'm sorry if there is any wrong then of that sata Say minal aidzin walfaidzin apologize born and inner Merry Christmass and Happy new year long holiday has arrived let's fill in with meaningful things kwokwokowkkw ea ea ea ea ea ea ea ea ea 1 day before division of ea ea ea ea report Paloma Faith Technicolour Should the Nazis have to There is another to wipe out the Jews LAKNAT In the event the Nazis have massacred 6 million Jews In the hands of Adolf Hitler I m Alone Please Accompany me Tq For my all friend Say meeee Happy B'Day two days to grown up Lee So Jung One Rf Theme Song Waduh UN In advance to the month of March zzzz number coment in my mind Stay united Indonesian Youth for jowo people may know the meaning of LOVE Selamat Hari Idul Fi Tri for those who run it apologize born and inner Slamat Hari idul fitri apologize born and inner Finally Holiday Has Arrived I m Coming Vacation Haus Mendera in the day As this throat is dry It seems no sooner Open fasting hhe 30 DAYS Lebaran HOREEEEEEEEEE 2 Days Again before Fasting Dpo For Who Finds Tel 991 ok Ready for Fasting</t>
-  </si>
-  <si>
     <t>Triladias Puteri</t>
   </si>
   <si>
-    <t>Instagram triladias xxx follow mention for fllwingback heart my page I will heart you back iya all follow 3 ask and ask FOLLOW who want difollow comment jfb iya follow iya thank you D Farida Taskia Fira laugh see video tia ketawa haha ??D trias iasdi hotmail com add iya Thank you 3 follow friends thankkkyou badly applies cheat it then so do i will be good value Alia Nabila there is not any perfect people so we must know we are not perfect in the eyes of god D bored when I make one looks at looklet There are people who like mine but not long afterwards she's copying my style all the same but only just a different model i want her peace iyaaaaaa i am aware ko but if the problem must be because karma first you often ninggalin me so not because we grudge cumaaaaa It's karma yahh please understand D p jin kazama jon foo D jahahaha 3 Veda Ocvira Maharani Hunnie Anggraeny Arina Tiara Adriana in fact crying is just a useless thing because the wo Rld only briefly why waste time just to cry for a thing better work and worship is more important for the future ngalangin just siiihhh hmm never diceritain what what should i know p who try that for this dibicarain I just do not know if lazy yasudah P cooking cooking with Veda Ocvira Maharani Tiara Adriana hihi although rada destroyed initially but good to make nambah hihhihi dear sister Hunnie Anggraeny Arina not follow hhihihihihi D trias please heart this D yaaa D follow yaaa D Veda Ocvira Maharani hope you like edite an yaaaa value Change attitude change but do not turn into bad 3 god hayo hayo hayooo learn to open open book that class 4 againii yoo SPIRIT YA lalala there website can not bored kan jadinye for Alissa Nur Ahdia wall to wall just yaaa chatnya error Alissa Nur Ahdia Errors only Learn more for TO day he bosen at home yesterday twitter LIMIT online twitter with Anggun Wikanissa Alissa Nur Ahdia Nabil A Zalica online at school LEMOTY p Likes deh same pp gueee Hihi twitter LIMIT gawaaaaatt out PM bawaanya ngantuukkkk o huaaammm si Alia Nabila why try to arrive suddenly so think ehhhh the sleeping abong is funny abiss GEMESS twitter limit Alissa Nur Ahdia chatnya on off really true Not asikk speaking English in school with Alissa Nur Ahdia and Anggun Wikanissa hmm took the rapot ahhh ahhh Dwike Hereka February very strange ckckckck doing the task of IPS huffttt hmmm ipa task must be moved to new computer in print hmmm tired back and forth Nabila Zalica Alissa Nur Ahdia Anggun Wikanissa Again on the househik asikk Udah nyampe in jakartaaa Otw ciwalk bandung Maccet Otw bandung asikkk out playing bultang in GOR back sprain AAAWWW away sleeping morning iya dadahhh chat thinning part II friend who want to chat no need to chat first yes errors so wtw just hmm on there is a Want to chat with me hahaahaha twitter why there should be a limit us so can not write a lot of tweet S wishes in the new year the best in next year my twitter limit GAWAT bored at home yaa internet lemottt midnight watch avatar back home stay at home bi Ina Farlina asssiikkk laaahhh for Anggun Wikanissa happy birthday yaaaa hopefully its age berkahhh yaaaa aminnnn out of ps watch avatar with Alia Nabila Veda Ocvira Maharani Alia Nabila Veda Ocvira Maharani so sebananya want kemanaaa Ears gueeeee sakkkiiitttttt Sumpahhh really painful 'autism berisis autia with Alia Nabila Veda Ocvira Maharani finally can also fotoaaaaa p want to cepet cepet les same Alia 20Nabila Veda Ocvira Maharani ahh want to play but may Not yahhh who has skype comment yaahh Alissa Nur Ahdia Nabila Zalica crepes me so not enakkkk hahahhaa yahhh new photo once same Tiara Adriana Alia Nabila I can not play so on pulanngg later if it is finished our reply photo photo yahh aduuhhh teraktir chicken noodle dong Alia Nabila or Tiara Adriana today again proudly on at Ri own my photo photo nihh nihh nice deh lights have flame but lights flame bell cosk aduuuhhh noisy nihh belnya sound teruuss hhhhhhhhhhh dead lights so did not look looking i was looking at home there was not the snobs pas down it was out there luckily pager closed safely Photo photo with Alia Nabila and Azkal asikk asungk lucky mang Budi Hermawan so busy this deh bored home at home Alia Nabila Veda Ocvira Maharani Tiara Adriana play ayo D ayo ayoo again in sumedang hueee really nice atmosphere want pengebun first ahhh D Yesterday's birthday mom Love sureprise dehh Hheehhee yesterday Monday ngerayain birthday Alia Nabila we ngerayain together Tiara Adriana Veda Ocvira Maharani same mardyah berhu deh fit us out eat me the same veda home fitted back home behind alianya bring pudding hueee seneng yesterday mid night watch ninja assassin really cool Huaaa want to watch more Love Logo from my friends today at home crowded Asikk asikk D yippieeyy tomorrow we pray idul adha yeeehh but ko no one takbir takbir yak again video call Dita Panjul but his voice ccacatt Dita Panjul you ko off dehh want skype but you do not nge answerr huaaa anyone knows how to make skype comment Yahh send photos via bluetooth to laptop ko can not bea sending filed teus nihh ah ahh uploud photo ahh but lemottnyaaa iya allah hhh</t>
-  </si>
-  <si>
     <t>Mohammad Afif</t>
   </si>
   <si>
-    <t>Want to be cuddled and cherished by everyone because Afif likes everyone I can not wait to watch this anime</t>
-  </si>
-  <si>
     <t>Rizki Gunawan</t>
   </si>
   <si>
-    <t>That moment when you meet your first fan very grateful to be alive i've live for today and you should do it too</t>
-  </si>
-  <si>
     <t>Vincent Fernandes</t>
   </si>
   <si>
-    <t>OMG OMG 3 3 bugil ah h ninja tuna Join RaidCall today and have some fun with your friends doing group activities that go beyond from just simple chats this Includes playing games singing karaoke and much more Download Links www raidcall com Calvin Fernandes Denny Adinugroho Adrian Setyoyudo Adrian Setyoyudo Denny Adinugroho Calvin Fernandes is not genuine z check wut sister hell seoul if want to eat tempe not usa responsibility wah wih Dafuq is a PUK code itisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitis itisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisiti I homo Microsoft Word Write letterz and shit yo 'Mobile Uploads thanks for the wishes perfect record time kenceng lolololol affection never part 2 oq never pity never part 2 I f aqi G4G m4 aql gs sm e gs UPL 2947l7207l0l7433l22l20l0l7l7l0l233l1844l2 9 2l13l0 Naek motor True hi fren mau b kep First FPS game on Facebook i love same See more nor this open epbe at mac hotel in See more at See More counter strike my handsome fetgh pijio pijio er rty rty ghghg ghghg ghghg ghghg ghghg ghghg ghghg ghgh ghhhhhh Kgkjn kgkjn ukgk hbjhjnjknkhkj trbank hesoyam Older Posts Problem if you have a restaurant rich hanamasa mnding sdiain live chickens own fried bacok Myself again nge drug panadol A bitch as a wife is an epic fail moreover the bitch does not work and only be able to waste money Ironic every ladies crazy when her daddy's not trying to type in google rainbow google co id continue click im feeling lucky Not trap calm just settle friendly what is english horned iya mercy asd asd asd i want chicken Enrico style devin Enrico style pak yu mahoan same pak mi titig today on writing setatus bed dei thanks for all the wishes SM SH seven homo as seven Homo bsok facebook close not today conference table binatankny discuss pretty weird Tower blocks beuh viktri Random with happy to spend 6 bowl of rice hainam Uuuuu steady Mobile Uploads Ea ea NB DT I was forced DT Wihi rings waduh random points see already name karakterny bai bai friend si Black fly Ugh APAAN happy new year all Bite bites Made with www TotalGraffiti com anyone know sbenerny enr likes who is not Made with www TotalGraffiti com join my p Ack on dogwars my pack on dogwars my pack on dogwars Sirs and Madams I am an up and coming Racer of Pets and I need your help Please help by joining my team I am cute I won dim Someone beat you in tennis match on Tennis Mania Return the Loss to Him play a match now Someone beat you in tennis match on Tennis Mania Return the loss to Him play a match now is playing Tennis with friends is playing Tennis with friends</t>
-  </si>
-  <si>
     <t>Felicia Shantio</t>
   </si>
   <si>
-    <t>For IT student semicolon only exists at the end of the line of code Elmo Tan Mas is straying away bgtz Flazz card falls in mall 3 years ago just found now Good luck always bu God bless team bin binasian2017 in Binus Kijang Spirit of excerpt Quote in video please in viralkan So there is a help because the length of the former candle Bosen ahok merely collect money to move to the most tolerant city if there is Elmo Tan Elmo Tan mauuuu Elmo Tan you really Elmo Tan vanilla Yaudah if it is nyusahin other times just go alone gausah ngajak So So remember the story Andi Muqsith Ashari who laughs at 12 o'clock in the evening If this is the case if you want to vote to participate in citizenship education from the government and have npwp what might be more objective results Learn from pilkada who just finished many who act without thinking Why is the above should have a npwp because the project Local governments use apbd whose source of funding from p Invite So that not suitable paslon udel make promises and the community can have a sense of ownership for the region where he lived Ibaratnya I pay to stay here work here and I want my place can continue to be developed correctly If tiba2 there beggars come and then casually without thinking and even ask Money or downgrading developments now should not be dong Another example of the director's meeting can only be attended by shareholders Of course they will choose the best to advance his company ordinary employees can not impose must be his choice to be a director But believe me the leader is selected definitely to advance the company so that All employees can still enjoy the results random deletesoon Pilkada is already finished but the brain suddenly unthinkable Later deleted simpen first who knows need later maybe not yet jakarta same level of the capital of other countries back to basic preach results from google quickdraw Shinvanni Theodore My Happy Life Happy 9th Thank you for the treat Bluejack 17 1 Thank you for the treat Bluejack 17 1 Elmo Tan come here D mamam that karma hence do not be subjective in choosing to be hit zonk deh D Udah a year just pesen go pet for pick up ex Elmo Tan learn this Bullet journal or watercolor Both of them cost time and money Any suggestion Shinvanni Theodore Elmo Tan Shinvanni Theodore Pengennn But today is the last and if the meal itself can not be exhausted eargasm kuroko basuki no one wants to give free corgi but I its no place A The right is the database or database 3 3 Elmo Tan you nid dis Friendship is not about who you ve Known the longest It's about who goes into your life I'm here for you and prove it Officially 21 Left to right in alamsyah24 on stefanuscandra on shinvanni theodore at elmotan95 in noelimani at andi Mqa Missing di yenyenagustina by in fransisco antoni Suddenly keinget collection of five books sekawan same trio detective is not complete yet it is better to go back to basic Shinvanni TheodoreAndi Muqsith AshariStefanus Chrismanata CandraNoel ImaniYen Yen Agustina Cool bad Udah kind of storyboard apple Congraduation Shinvanni Theodore S Kom Elmo Tan Shinvanni Theodore Mochammad Alamsyah So i was jokingly said to them do not buy me bucket flower bawain me bucket fried chicken just aaaand THEY DO GIVE ME A BUCKET OF CHICKEN THIS IS WHY I LOOOOVE YOU GUYS SO MUCH at shinvanni theodore at yenyenagustina in andi mqa in Alamsyah24 in noelimani Thank God for Your grace and Your unending love in our lives Thank you for Mr Sonya Rapinta Manalu as a good lecturer and very patient during our thesis work Thank you for the parents who have full support of funds and attention for 3 5 years of college Thank you also for friends Friends all who support us in the busy period of stress thundering thesis Thank you also for the lecturers and all the parties involved in the making of our thesis Thank you partner in thesis Elmo Tan Congraduation Anthony Tantra S Kom pengen s2 but expensive if not an ice cream scholarship deh if So Elmo Tan No matter your action you still gonna die Cool can also be masking wearing this big company name deceit is too good or his company ah i do not waste alias Elmo Tan let me sustenance more friendsday uwoow Mending pay more for the ride garuda hadeh Families are like branches On the tree we grow to different directions from our Yek's Family Hometown Comfort food for the road away This dorayaki is soft and tasty and its contents are not stingy suited for snacking on the journey especially the highway of Sumatra is hard to find its food Variants also taste many So definitely not boredin Current fave Choco Ovamaltine Chocolate Almond Make a child Pekanbaru who want to kepp pig him in celinedorayaki Can deliv out of town also lohh celinedorayaki pkulaper pkusedap pkumeurah kulinerpku pkulezat makanpekanbaru kulinerpekanbaru endorsement Binus square Elmo Tan Shinvanni Theodore Andi Muqsith Ashari Who likes ngespoiler not have common sense what yes Elmo TanFelix Rukanda If anyone wants to buy Course udemy can chat to me yes while already want to exhaust this sale coursenya 10 150k 20 290k If buy more and more can be cheaper Thank you Happy new year Finally we could spend new year eve together FOR THE FIRST TIME Thanks for always being by my side May The new year be a healthy success and prosperos year for us Besties Ew Just a random thought once there is a suggestion on my YouTube page to contribute on my subscribed channel I have not found that button anymore It was my first Time to do a captioning and it's awesome and embarrassing too w especially when you rewind the video over and over again t O make sure that nobody find it weird oo and doing captioning work could help me understand another language too RIP Francis It's been a long time ago not to walk with besties by at elmotan95 Juventia A yearinreview2016 this Udah there google maps or waze alesan you late gara2 jams it invalid banget siblings The man should promise what time can be predicted how the time it is you who can not appreciate other people well yah Win the last important letters pose first Velinda Dwi Puspa Again in the street terbgiang this paragraph God Bless ngungsi Old well yes yes wkwkwm Old well yes wkwkwm Happy Legal age Shinvanni Theodore Hopefully smoothly skrips yaaa Lopelope you so muchhhh Make memories while we can bestfriend birthday Happy birthday daddyyyy 3 years and counting 3 years and counting Happy Mid Autumn Festival Delivery from Indomie house that will not be there in Jakarta taste soto medan Good good Time highschool bestfriends hangout long courtship does not necessarily guarantee the quality of the relationship An laugh From the middle of the night to death lights People who do not know can only ridicule People in power can only demand Wise people just give advice People who experience can only try At least before criticize other people try to position yourself to be that person first The worse still big Udah still Jatoh hmm Street stuck yes natural everyone is easy emotion The problem is how do we ourselves refrain so as not to ignite the emotions of others also Although other drivers are wrong because it makes jams but it is dikkakson enough we will be more wrong if we come out kata2 rough Naturally If dibogem</t>
-  </si>
-  <si>
     <t>Aldrian Kwan</t>
   </si>
   <si>
-    <t>Start playing Rule The Kingdom on Android BI this Sariater swimming pool New plang futsal cape lngsung gnti shirt eh ngliat facebook ada yang ngasi happy bday thnx all who already ngucapin hppy bday finally i open facebook after 3 MONTH not open THNX ALL GOT the JOKES UNREG Aldk BANTUIN in order to be more tolerable after 1 week can be 100 dollars more deh Cape dahhhh Period Kleas w wih hell But yes mngkin hell just because lwan same class 2 but shy crazy Team class w lost 5 3 crazy it class 2 maennya srius Really si is still a score of 3 but it cma gara kick off 2 x equal goals usual Si andi nendang even hand ccd loh in Cascada Everytime we touch Akon Beautiful Stop Aldk Info from kaskuser You must know the power balance bracelet that is currently rampant maraknya sold not It turns out as I have assumed the bracelet is just an ordinary bracelet many people believe when hearing or seeing The power balance bracelet with a magnetic hologram that berkung Si to make your body more strongly and flexibel is just a lie check here Boyz Tokyo Drift Akon Right Now Na Na Na Lemon Demon Ultimate Showdown Black Eyed Peas Where Is The Love Cold With My Mind Cage The Elephant Free Love Shane Harper Dance With Me Mika Everybody's Gonna Love Today Evanesence Bring Me To life Eminem feat Rihanna I Love The Way You Lie Sean Kingston beautiful girl LOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLO TOWER UD PNUH TPI TETEP AJ LOST OL D CYBER BOSEN NIH CONNECTION LEMOTTTT BGT HHikz is the latest for all temen2x SBM ANY STRANGERS WELCOME who IS seriously MAE games2x in any FB please see note w have a WRITE HOW DUET VIRTUAL DUED Blah blah blah blah blah I de ck know the link because this way actually FOUND BY INDONESIAN PEOPLE AUTHENTLY w woh until this year until this month until This week until today until this hour till this minute till this moment also BLOM KNOW IS GOOD BY THE PARTY KETI GA GOVERNMENT AND OTHERWISE PARTY PROVIDERS WEBSITE paying party MONEY VIRTUAL THAT EVEN THE PARTY MANAGEMENT OF THE PROVIDER OF THE WEBSITE IS PLEASE CLICK KLO GK MO GPP GK AD VIRUS TROJAN KOK SWEAR TO get money VIRTUAL ALIAS DUIT boongan HOAX FOR KASKUSERZZ CREATE What are you doing AJ OK FOR WHICH READ STATUS GK JLAS DRI GW NEW PLEASE PLEASE NOTE GW RADA LONG LATER KYNYA LATU AFTER LU COPY AND PASTE LINK YG AD GUARANTEED FREE CLOPS FAKE LU BOLEH NGAPAIN AJ DEH SUMPAH AABIEEZZZ MANTAB Ok this way can be free money for you all if you want to buy a kind of currency Game cash Token for NS Playfish cash for game playfish like Pet society and others but I again try this way kira2x I love news slanjutnya 5 mnit again this serious not kidding me I just nemuin this way from the internet if you want to see lgsung 10 Just look at my note On at school diem2x hiihihihihii lucky not to cower teacher IS STILL ON UP TO THE NIGHT ZZZZZZ osi you si si anda osi ka Mu si Anda is and and sq ui hahahahahahaha Who isa read the top bag without melengin great kpala read read grab the head base heng hhhmmmmm idiot deh wkwkwkwk AAAAAA kok my app kluar itself is not the right why of the quote from one of my notes every continent start end with the Same letter in english every bnua begins ending with the same letters in bhasa english stlah hmpir not update2X slama a month finally on too yeah i am real hacked person ip addressnya from US najies my facebook is not there ap2x is listening to Free Loveby Cage The Elephant it's pretty Good is getting bored zzzzzz VV oh so bad this kyknya there nge hack facebook my friend if there is a komen talk yang aneh2x please JGN DILADENIN because akhir2x this facebook i kluar own application so Aldrian you and s ye ye u you o x2 and sip You and your sister 4 s' iqi you sn q snq buset just look at the news 4 schoolgirls SMAN dkeluarkan from school cma gar A2x commented on the security skulnya ck ck ck ck FREE 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP all who have been happy b'day especially family friends BBU all 1 again smoga ci2x ko2x same mami Susy hapy2x Dsana yah titip greetings to call what why while uncle first uncle Ron message smoga all living creatures spirits happy happiness slalu stay in peace hikz kok kasi slamat b'day cma 5 people trmasuk family with school friends iya laen on again busy being anything Hikz manga already kgk bsa again forced to spend time in FB TT News for those of you who read online manga especially manga bleach naruto one piece and other famous old kayak kungfu boy is not going to be able to read manga again because now all manga already exist patent Kgk as before after the survey of 127 websites there is no ONE that allows reading the famous manga and no thanks Let Your friends know that you 've sent a free gift Guys visit my notes dong COMMENT please yeah finally go junior high school also bolt has new son comparison 10 3 sadis very yes yes WOOII once again who do not know tomorrow msuk to school no MOS if not come sukurin not Know guru2xSMP same class for the blom know Thursday 8 7 2010 all those who enter SMP1 will hold MOS at school please come because there will be introduction of teacher introduction of OSIS and introduction of MOS itself please disseminate oiii brother cc2x SMP want to ask dong MOS wear sragam what hold us friend Me if his MOS MOS is Monday monday wedd stay in skull right yah brother cc2x junior please comment PLIssT T Guys who play ninja saga dbawah lv 20 pliss ride lvnya dong stress is not isa passing chunin exam grab the same raport ijazah hri this ktemu temen2x SD Last klinya ampe SMP lumayanlah gobs kompu finally SMP also bored in SD continue ampe 6 years more Let your friends know that you've sent a free gi Ft already lma does not update this status is busy siapin UAN was not so tense UAN kayak other people say pls helpin this bankrupt See that doll over my pet It's not somekind of Cheat 28 03 2010 is sometimes boring yah hahh WOI SMUANYA GW HAVE WEBSITE BGUS NIH www Omongkosong com djamin laugh deh if it is nge LIAT Note may take 2 5 minutes ampe you finished Note2 if you want saya saranin open in the browser laen nyesel if not Note3 better do not click on mouse but hold key enter ke ke tablet loh but hati2x do not ampe skip Note4 do not panic so see your browser kayak get the virus is indeed part of the show Jgn immediately close your browser or later you are LOSS Who created this Web site is my friend His name Victor Wong masi school aka class VI Data maker Age 11 years Employment of elementary school children VI different class he A I B Value Mat almost smua cepe alias one hundred Note woi Victor you do not my mistake yes yes 25 03 2010 bosen this Buat 'T bother me and um well nothing happy Lunar day Gong Xi Fa Cai i ix uo poq 2 iis now playing o you in pi iu you p you s and dn and the number is s on</t>
-  </si>
-  <si>
     <t>Vito Christian</t>
   </si>
   <si>
-    <t>Thanks all Sorry new open FB GBU all v FOR ALL Thanks iya SPECIAL NITA Thanks the other bgs2 vit 1 in even cat but no what what thank you hahahha do not know now What is on your mind What's on your mind what are you character in harry potter My Result HARRY POTTER where are you lottery prize who found a bag belonging to vito will get in exchange a piece of bread and a plate of cwi mi gilaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa if energetic why that stupid far at me wow fear means I JHT so why play yuuuuuuuuuuukkkkkkkkk why ampuuuuuuuuuuun why so squirrels wow because akhirny me Find the right combination in it turns out we pny similarity</t>
-  </si>
-  <si>
     <t>Bellatasya Unrica</t>
   </si>
   <si>
-    <t>Charity Penalty Unity in Diversity December 17, 2016 at Binus Kampus Anggrek All proceeds from the sale of this pension ticket are donated to Yayasan Anyo Indonesia which is a foundation that helps children with cancer or other diseases such as leaking heart Rumah Anyo serves as a temporary residence for children with cancer And can bring the patient to the hospital for further treatment Yayasan Anyo established in 2012 with the name derived from the name of the deceased Andrew Maruli David Manullang son of founder YAI Tag instagram in structuraltfi at pensiamal2016 Check out Shifter Interactive Graphic Novel in the app store starring Wil Wheaton I'm hooked learning Programming on my iPhone Join me and get Mimo at getmimo com download Unrica just unlocked the amazing Octocrush in Monster Legends Join now and gather Your own amazing monst Ers Bellatasya Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica just unlocked the amazing Rodolph in Monster Legends Join now and Gather your own amazing monsters Bellatasya Unrica overcomes a fearsome boss in Monster Legends Join now and conquer the biggest bosses together Bellatasya Unrestricted Monster Legends Join the Monster Legends Join now and share your victories together Bellatasya Unrica overcomes a fearsome boss in Monster Legends Join Now and conquer the biggest bosses together Bellatasya Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica just unlocked the amazing Bonetanore in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the Amazing Kimmel's Gift in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Pandalf in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Erpham in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Molem in Monster Legends Join now and gather your own amazing monsters Please visit my blog at resepmakanandaribellatasya blogspot com and feel free to leave comments</t>
-  </si>
-  <si>
     <t>Daniel Stefhanus</t>
   </si>
   <si>
-    <t>From the first time we enter this school for good luck until we meet again tm2016 sayonara Here's my 2015 Year in Review See yours at facebook com yearinreview number more time to waste HMMM D times join with us RTS JAKARTA2014 November 8, 2014 only 20 000 idr and you'll get Certificate Lunch and Snack see you there D LOL my new friend sorry my post just meet all these photos diligently study and see you again God bless D my new friend sorry post I just met all these photos Diligent learning and bye again God bless D this is what we call TRUE LOVE true story Battle of fans has begun Be the last one to share for a chance to win 50 CP Promotion can end without warning Lets get ready to rummmbleeeeeeeeeee Claim instant gifts in Join MAA Season 2 Continue Privacy Policy is OOI miss 8C Jesus is the road that leads to the kingdom of heaven without shedding blood no peng The forgiveness of Hebrews 9 22 So if there is no forgiveness for this there is no longer a sacrifice offered for the sins of Hebrews 10 18 This is a great friday IN miss all my friend It is too late for Jesus Happy New Year yeah D merry christmas to all of you D finally Free from mid semester wo I can new game hope we all saved God Got really so now mickrochip 666 already exist all over the world where can in hospital bank do not want to give mickrochip in hand and on forehead because can not be released again if until Let us get a chemical reaction Can be in the religion to all religions to be saved also what it feels so if we are called in god and never see ourselves on earth Say something about this ah long jekson has died long and For a long time we did not meet with jekson mengagat kenagan in PVDS with jekson become very menyedikan see su Dah on call God its nice holiday What's on your mind Say something about this aldi please Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this</t>
-  </si>
-  <si>
     <t>Rafid Chairullah</t>
   </si>
   <si>
-    <t>Sell ​​Account Mobile Legend Rank Glorious Legend x359 Hero 26 Skins 15 GLORIOUS LEGEND GAMEPLAY Glorious Legend Gameplay Hijacked v Lmfao ginter What have you done oo Neymar In Or Nothing BRAGER Full Time Brazil 1 7 Germany 90 'Oscar 11' M ller 13 'Klose 24' 26 'Kroos 29' Khedira 69 'Sch rrle Almost 4 Years A new Maen AQW noticed V If you're an Action RPG Fan then you'll love Bad Nerd Tell your friends I just completed' Safe My HAIR 'on MMORPG School of Chaos I Just completed 'Mr Butt's Quest' on MMORPG School of Chaos I just completed 'WAGE A WAR' on MMORPG School of Chaos All Ma Crew I just completed 'Help us' on MMORPG School of Chaos I just completed 'Gym Gold' on Bad Nerd I just completed 'Playground Gold' on Bad Nerd I just completed 'Bright Gold' on Bad Nerd I just completed 'Pebbleswallys' on MMORPG School of Chaos If you love multiplayer games then you will want to join the MMORPG Project Tell your friends I just Completed 'Disorder' on MMORPG School of Chaos If you love multipl Ayer games then you will want to join the MMORPG Project Tell your friends I just completed 'Full Time END' on MMORPG School of Chaos laugh I just completed 'Zombie Teachers' on MMORPG School of Chaos I just completed 'Bloomie part1' on MMORPG School Of Chaos I just completed 'Zombies' on MMORPG School of Chaos Leveled in in War Online Leveled up in Global War Online Leveled up in Global War Online is a Global War Soldier I'm playing Angry Gran Run Get it yourself Reepz You embaressed Us Sincerly Stalkz on YouTube on YouTube Full Version In The Installation on YouTube It's Far Cry 3 Trailer Song on YouTube Best Song FarCry 3 Far Cry 3 on YouTube Also Dead Lights Edge Ip Man In fact this lag out in Geniusmeme Porridge Reupload format iya minecraft wallpaper genius I've just received a free Minecraft Giftcode You can get one too minecraftcodes me on YouTube I've just received a free Minecraft Giftcode You can get one too minecraftcodes me on YouTube I've just recei Ved a free Minecraft Giftcode You can get one too minecraftcodes me on YouTube I've just received a free Minecraft Giftcode You can get one too minecraftcodes me on YouTube see capacity was it step up 4 on YouTube dude ur the man on YouTube my country movie Is rock the raid on YouTube 1 Number 3 Best the only fuckin thing you consume is time on YouTube Is Right on YouTube record maan on YouTube was helping not screw it on YouTube laugh on YouTube seize everything you ever wanted you morons on YouTube wayne and em Is good better than justingayVEVO on YouTube dog but dawg you nigga on YouTube people like justin bieber on YouTube grenade noob on YouTube Best Genius Ever on YouTube which song in fix dong should you better lose it now in the music that moment you owe it you better Never let it go go you can get one shot do not miss your chance to blow this oportunity comes once in a lifetime krauser and leon is friend become enemy ironic on YouTube affraid o O LOL on YouTube on YouTu Be pro on YouTube big cheese o It's Chief Mendez on YouTube i love eminem on YouTube uploading videos on YouTube The Expendable 2 Free Facebook AAAAARGH plow tonight it feels empty i know why xD My Frost IS ALIVE DUMBASS on YouTube Like it My Frost IS ALIVE DUMBASS on YouTube to bad number very crane frost westbrook I liked a on YouTube video Pitbull International Love ft Chris Brown Like it I liked a on YouTube video Pitbull International Love ft Chris Brown I uploaded a video on YouTube Introducing My Self Will Be happy If like or Subsribe on YouTube upload videos on YouTube Cs 1 6 Download No survey LoL God kiki god indonesia they using chrome The Most Secure and Cheapest Car Key Like it Full Movie Of VGHS If Happy Ever After Fairy tales are full of shit One more fucking love song I'll be sick Ahhh Waiting for season 2 Walls Jebol Like it Funny Photo Like it God Why Walls Jebol Like it Funny Photo Like it Ne W Style Painting For Smokers Like it From Indonesia LOL my country on YouTube Like it From Indonesia LOL my country on YouTube Funny Like it First Epic Samurai Epic Deleted Scene More Fun Like It xD Similar Monkey Results Like it I posted a new photo to Facebook Like it Favorite Character In Basara 2 Hero Trapping People Wearing Beer Like it Overslept on Bread Like it VIP Tickets Football Match Like it Foreignization Foreign Company Like it Hopeful Wise People Like it Drunk Dog Like it LOL Funny Photo Like it Baby Funny Her Teeth Like it Have a lot of experience in life and be able to inspire students in various aspects What work I have 10 years later Funny Like it Cooling instant noodle Like it Funny Photo Like it A Love Story A Dog and Like it Success makes a stressful morning together clan ICE WOLF OO Muhammad Arif Basalama The Story of a Dog's Love and</t>
-  </si>
-  <si>
     <t>Randy Rachmadi</t>
   </si>
   <si>
-    <t>Gathered at Marscity Hotel Punya Sodara xD Retweeted H Risnandar on Hari Risnandar Bapao rainbow healthy mini steady price Rp 1500 bapao special price Rp 5000 can 4 bapao interest l4nthink Capricornous Capricorn CaptainAddict capricorn does not like the same couple who ribet hooked a simple but extraordinary Find Out Your Facebook Profile Analyzer Result o Wow My anger scores 20 80 Brave and 20 Cowy this is My happy experience Hope it is a bit late X Mia 4 Retweeted Facts WOW in WOWFakta Only 70 percent of people will understand this 2 2 Fish 3 3 Eight 7 7 Triangle Retweet if you understand Retweeted Facts WOW in WOW Facts 1 x 2 x 3 x 4 x 5 x 6 x 7 x 8 x 9 x 10 seconds 6 weeks Retweeted true on damnitstrue CLICK ON THE PICTURE Facts WOW in WOWFakta Brain Equation Crazy people and geniuses are both equally have low ability in filtering the information it receives Retweeted Facts WOW in WOWFakta More savvy people Ering talk to herself Retweeted Body Language in Body Language Swinging feet while sitting position indicates someone is in a comfortable state of calm and enjoy the situation Retweeted Facts WOW at WOWFakta In America professional gamers are considered equivalent to professional athletes It's my first song on SoundCloud Retweeted true on damnitstrue I love sleep You forget about pain problems stress for a while I just defeated Amar in a challenge in poolbyminiclip AMEY in Amelevans happy new year ma bestiehhh in randyraa on lindogatotp Oscar Amelindoscarandy Retweeted Nathasya Priskila at nathasyasudaly Happy New Year at 9aUnited in AlvienGunawan01 on alvien Gunawan in samuel goodboy on rondadrian in shandyfranky at Chrisna Stark at lindogatotp on randyraa Retweeted Dea Baptista in DeaBpattinson Happy new year 2014 at shandyfranky at rondadrian in randyraa Thanks iya Make that already ucapin Task Uncle John Chika in chikarema Kangen randy yak Wwkw at Amelevans in ra Ndyraa wkwkdi MentionTo MentionTo your friends who always recycle their used papers Retweeted Dedy Corbuzer in DedyCorbuzer Your future is not dependent on your future school value you are in your own hands Retweeted Story Of My Life at Derpey Mom Come down it's dinner time Me In a Few minutes Mom NOW Me Ok downstairs Me Where's dinner My Mom at Derpey I pretend i dont care but deep down I really still do not care Retweeted Story Of My Life at Derpey Home is where You can poop peacefully Retweeted Story Of My Life in Derpey I'm not lazy I'm on energy saving mode Retweeted Story Of My Life on Derpey If I do not text back it's because I replied in my mind but was too lazy to physically Reply and I'm really sorry Retweeted Story Of My Life on Derpey Retweeted Story Of My Life at Derpey It's always fun listening to someone's lie w Hent you know the truth Retweeted Indonesia's forecast in TweetCAMMERCAPE Capricorn has serious and careful nature and is not vulnerable about displaying emerional Retweeted Indonesian Forecast in TweetRAMALAN Capricorn may not want to abide by rules if they see no reason or disagree Retweeted Dea Baptista in DeaBpattinson Congratulations Idul Adha GBU holiday at Kris CMathijs in Amelevans in DanuDeswara in evie noviani di randyraa di dery julia Mom Why is my room always so messy When I hear When I hear Myself eating crunchy food I wonder if people can hear it too Retweeted Story Of My Life in Derpey It's funny bc people think im quiet but im just listening to everyones convos and figuring out ur weaknesses to destroy you later in life there sa hutCapricorn is their Who are quite patient and tend not to rush into doing everything Retweeted Forecast Indonesia in TweetCAPRICS Men Capricorn has a keen eye appealing calm friendly clever mingle Me Retweeted Indonesia's prediction in TweetCAMRORS RELIABLES usually depend on the heart of the heart firm and unshakable in the face of hardship Retweeted Indonesia's forecast in TweetChapter Capricorn is a very charismatic personality and also the responsibility Retweeted Anime Cartoon in CartoonWords There's nothing wrong with this wrong world is a cocky human who feels having it Near Death Note Retweeted Anime Cartoon in CartoonWords Fear is not evil he just tells what your weakness Gildarts Fairy Tail Retweeted Anime Cartoon in CartoonWords Beautiful memories of the past just to Remembered not remembered Sasuke Naruto Retweeted Anime Cartoon in CartoonWords I do not need to follow other people's way enough I do in my own way Ouma Shu Guilt Crown White Beard Hibari Hibari Kyouya Retweeted Adult Dictionary in Dictionary Adult Only personal Weaker who thinks that everything should be easy to do but HARD TO See KO God Valdi Japar Giraldo Alexander Macho Anime Logic am i just dreaming Valdi Japar Giraldo Alexander Handi Hasan Uchiha Spongebob</t>
-  </si>
-  <si>
     <t>Amadeus Xin</t>
   </si>
   <si>
-    <t>Friendsday Congratulation to MOBIUS FINAL FANTASY for hitting 8 888 888 registered users worldwide Albertus Angga here see dong V what the hell is this life what a fucking crazy life XD yeye No one knows me No one trust me rate Always stands alone dear whatever you want but not anyone want to close with sun feel whatever you like but sun is so bright that the number one can see it with bare eyes even sun is the center but your egoism is the one that make you think that you Is the center and you forget what is the most crucial thing for this galaxy kok loss i sell corare Just in bid 30k what an odd way to live MY LIFE IS SO ODD Trolling life D realized that 'he' has arrived just waiting for 'home 'He built his' army' together and soon 'he' will 'sit' up there and say that 'he' is the 'king' where that day also I will leave everything without regretting I forgot to add more senile Wkawka HBD us XD Be better us XD wkawka ngomongdewe wogh cool william rank 12 XDXD I win cuy wkawkawa be happy yes XD again I can be in the middle of sperti not predict waiting in silence alone without silent reaction without expression aaaaaaa alone XD dikacangin level god XD this cool XD hoammzz bosen Play so people baek kok out no longer see it feels failed again this time running constantly bringing us all into the end of the same end of life hmmm can not yes I make it happy that I am this example of people FAILED all wrong This world is my enemy so something To be alone in this world Gini i think about designe later if anyone does not agree comment just FONTTT what iya happy neat Feel like I am nothing And you're right that I always alone Haha try to die with smile just trying to get what you wanted Arek x 4 please if there is already a group of me in the join if there is no one for dong duty there the task here is endless What do you call an forever friendship Is it really Exist EDMODO very lonely Most hate the new times enter yoga sabar yoo full of bullshit starting to hate myself open this if you dare wah fun laugh All I ever tried to do for him was the right thing and it only ever made things worse Rachel The Ring 2002 I want to forget someone but i can not i want to delete all memories someone still can not when i realize my memories is so full of someone '' then just get out of my mind lonely D everytime someone add me just confirm It's just that i just think ooh just like that just being kind to me for her her self shit status is not clear suppose i hulk definitely will not calm this world who likes yuri genre comment plz what you Think nothing is true no taught me logarithms again i forgot the sword art online infinity moment ok daa if i off ajah slamat night he almost all my status is destroyed by them when humans lie they always think about kebohonga N2 else when they are caught when humans are honest they never think about honesty in their future facebook g iso dbuka '' Kamen Rider I never confident with my looks But I confident with my emotion past emotion is part of ourselves that makes us able to be As it is now true story laugh the best I wish my dream come true so remember the past '' azz dizziness kah download not mari2 ayooo download less 7 hours more fate '' galau '' laughing what iya movie happy apik tugas2 kok sek onok ae '' When kon matine life is exhausting cool coy ngerii out playing corpse party hantunya make goosy kok let's light yes feeling okay okay ajah Friendz Kite all go to school date brpa zich Oi rek isa love know not greeting happy live class TTP s Create the g Naek I miss U Go for EURO 2012 deus created SmartMF on Freerice I just earned 2000 grains of rice to feed the hungry on Freerice com I just earned 1500 grains of rice to feed the hungry o N Freerice com I just answered 75 questions in a row on 20Freerice com I earned 500 grains of rice to feed the hungry on Freerice com pretty lucky holiday AHHHHH Lelet Download do not let me look handsome wkwkwkwk '' Mbajidin '' I love you ninja saga forever Is this your favorite fish so far yess aduchhh enak ujan adem bagus hehehe ok survived</t>
-  </si>
-  <si>
     <t>Derwin Suhartono</t>
   </si>
   <si>
-    <t>Talk show Data Science with pak Risman from Samsung and Pak Dipta from Amartha with moderator Sir Alexander Agung and mother Yulyani Arifin Pouring that has been studied and tried for the last 5 years into one whole writing is not very easy Keep the spirit of Congratulations for the achievement Rafael Herman Yosef Willson Wijaya Albert Darmawan coach Felix Jingga Proud of you Whatever the situation condition and bad atmosphere around you stay calm and keep positive None of negative things will win Meet up with junior high school seatmate yet US citizen already hahaha 11 years since last time we Met is not it at 333lucas bestfriend highschool nostalgic childhood What is Data Science Let's learn about science happening lately For all SoCS students please take part in this talk show limited seat please sign up soon Binus BCA Funtastic Moment PPTI BCA Appreciation Day Champion 1 2 and 3 Outstanding Congratulations Jollybee BINUS My NL P natural language processing class lectures calculus lecturer college student campus learning class Jollybee BINUS goes to US for World Final ACM ICPC 2017 Good luck team Albert Darmawan Willson Wijaya Rafael Herman Yosef Felix Orange Yen Lina Prasetio BINUS UNIVERSITY presents iOS Foundation Program The iOS Foundation Program is Binus's special active student program designed to help you create apps as well as explore software development process on iOS The collaboration program with Apple is designed using Swift with a unique innovation framework that certainly helps you realize brilliant idea ideas Become real So kosongin when you start 19 21 June continued 3 July 28, 2017 Monday s on Friday at 09 00 13 00 on Campus BINUS University Alam Sutera Enroll Soon Limited Wave 1 17 26 May 2017 Wave 2 29 May 2 June 2017 Take registration form And listin d Envy you in one of these locations 1 BINUS UNIVERSITY Admission Room 1st Floor Campus BINUS University Alam Sutera 2 BINUS CENTER Syahdan 3 BINUS CENTER FX Sudirman Ga usa worry Make you a qualified active and fully committed to the end of this program is FREE and we also lend the Macbook Pro and iPhone for the duration of the program For more information please contact Ms Natalia Ms Natasha Mr Kelvin Tel 088801008385 WA 088212273919 Email iosprogramdi binus edu 2nd Call for Paper Due date June 20, 2017 Notification date 31 July 2017 Venue Bali Dynasty Resort Bali Indonesia Maliq D'Essentials at Binus Employee Award 2017 binusemployeeaward2017 binusuniversity Minister of Research and Technology Dikti Do not Worry if Not Able State Will Fee Menristekdikti Mohamad Nasir asked prospective students from the community can not afford not to worry about the cost of continuing education Binus Employee Award 2017 Do not worry about the depth of the sea To swim swimming relaxing weekend hom E relaxing pool end of the house Udah temenan in FB before I met yesterday Happy Birthday Meiliana Kheng D Sampe at the work table was moved there is a kasi beginian Abis touched directly sad indeed I'm so hushy yes HIMTI Farewell 2017 They are the students who did responsibility more than they have To success will surely follow all of your pathways Good luck friends at himti binus in socsbinusuniv himtibinus himtifarewell binus binusuniversity Dear all SoCS students Monday and Tuesday 8 May 9 there are 2 international seminar agenda at Orchid Campus and Alam Sutera Campus please to be followed Accept Love Go go go original old female young faceapp kekinian hahaha Ngobrol2 at lunch with friends who served in the border area of ??Indonesia with other countries recalled to this film Tanah Surga 2012 cc Muhsin Shodiq Meeting with some of the core board of association INACL Indonesian Association for Computational Lingustics education lecturer University Indonesia INACL Ind. Regular meeting Ind Onesian Association for Computational Lingustics Congratulations national education day smartlah my age Happy national education day smartlah my mother Bu naughty lecturer when active ngajar lagi hahaha Happy day labor Snapshot of my research papers with students lecturers and colleagues It was Happy long weekend allaaaa Who is still UTS who patiently yaaaaa In quietness And trust is my strength isaiah bible scenery view garden cloud Run meeting today Padjadjaran University of Parahyangan Catholic University under meeting collaboration university Steady Profession from Prof Tirta N Mursitama not know anymore dahhh its impression kok really long PhD honey morning hosh Aryo Pradipta Gema Suhendro Winton Theodorus David This is another lab playing in Argumentation Mining besides Darmstadt Facebook is building brain computer Interfaces for typing and skin hearing Call for Paper Deadline for full paper submission May 01 2017 Notification of paper acceptance July 31 2017 Deadline for final paper Submission August 20 2017 Deadline for Registration August 31 2017 Conference October 13 14 2017 cc School of Computer Science BINUS University Fredy Purnomo Yen Lina Prasetio Evawaty Tanuar Gabriella Jeklin Violitta Yesmaya Novita Hanafiah Meiliana Kheng Yulyani Arifin Bayu Kanigoro Dewi Suryani Ferdinand Ariandy Azani Cempaka Sari Hanry Ham Hady Pranoto Rini Wongso Afan Galih Salman Michael Yosep Andry Chowanda Rojali Saleh Aditya Kurniawan Widodo Budiharto Lili Ayu Wulandhari Natalia Chandra Sonya Rapinta Manalu Aswin Wibisurya Yogi Udjaja Yohan Muliono Syarifah Diana Permai Ohyver Etha Rhio Sutoyo Edy Irwansyah Irene Anindaputri Iswanto Alexander Agung Santoso Gunawan Count me in Why NLP special conference conferences are not indexed Scopus kesel wonder My forever thinner and taller best brother 88and89 Happy Good Friday God bless Congratulation for BINUS University School of Computer Science team Michelle Nesya Cyber ??Security Program and Eric Software Laboratory Center that got the rank 1 Line Dev Challenge Indonesia MoU cooperation between Esri Indonesia with Binus University for the submission of ArcGIS software license attended by Tangerang Mayor pak Arief Rachadiono Dear all Computer Science students please be present at this afternoon seminar from Coventry University UK which will be delivered By Dr. Maurice Hendrix Welcome to PhD life Friends of friends Keep the spirit Come and join the 2nd ICCSCI 2017 Ong Anneke Dwi Sesarika Rahmanto Williem Lex The first paper from your thesis is online yes Guidance 3 1 Internship today Is this a true story again Six months later only God understands Menperin stated for the early stages Apple will cooperate with Bina Nusantara Binus University for train of trainer because the company needs proudtobeBinusian lecturer HIMTI is my favorite D Once share thread kaskus ahhh cc Alexander Agung Andry Chowanda Congrats in BINUS BGP for having new Master degree programs M Aster of Strategic Marketing Communication S2KomunikasiBINUS Dear all students here are the steps to take advantage of Google Scholar and Mendeley in the writing of scientific papers such as thesis and others All these guidelines are neatly documented by Mr. Rhio Sutoyo Thank you sir Sembrani Train today</t>
-  </si>
-  <si>
     <t>Adeliana Yuwono</t>
   </si>
   <si>
-    <t>Please iya whose name is facebook Adeliana Yuwonno it's not me but do not know who do not in accept thankyou ABSURD Sofi's bday surprise Thankyou Kara Floral Headband Missyousodamnmuch Happy Chinese New Year D playing free rice again D 7a 'FORWARD success DY GREAT PrayForReportCard O Thank you for This day craziest fieldtrip sounds out nice D We'll show you what we're made of Let's see MarioMaurer 3 AFRAID Solo The Spirit of Java At GI with Ivan Tasia kim ko bozra andrew ko sammy listen my heello di delchocolatos lalalala Its my last day On 12 years P I'm addicted and I just can not get enough Why in every meeting there should be a farewell I hate it thank you D pray for my sister I am wrong what whatever tomorrow school hope will get the same class complain without miss jovelyn wish Me luck want to school with 7a with Miss Jovelyn 'kpan yaa meet sisca again' at MAG byebye sisca at Gading w michelle sisca black out grr byee anyer bye miss Jovelyn Delos Santos miss y Ou Arrived Jakarta now eating spicy rice hahh just arrived bali D omwt Soetta tomorrow D bali w michelle thank you D it's finish great stay at tasia's w preysi stella D eh all my new bb pin add yaa who want to ask messages to me D science Fail bisma p nice barca why the house instantly quiet every moment with you is the sweetest one 7a 3 we love you miss jovelyn '' you are the best teacher I 've had' book launching success 'i' m going to miss you Miss Jov my hp Too good ccd today gamasuk school big girls do not cry 'happy birthday Jeremy Yts p nyesek' Preysi's party birthday at alma's D fun happy birthday my beloved brother D kakak adry OOOMGG these friends friends are visiing my profile o Agatha Verencia 1136 views' Nita 'Jeanita 983 views Agung Kurniawan 542 views Adam Ravansya 300 views See who views your profile at 3 Frankestein D Jessica Vanelisa Stella Ella Preysi Reveni from yesterday at the turn not go in all like lonely ipa sm A science aaaaaa Happy birthday Mr Romeo D on the way is on the way bandung With al x in tasik RIP Pak Frans math is easy 'we love you curious play with Stella Ella Jessica Vanelisa p prepare something just stay' huah they are lucky '2months more Sorry me rifky '3 kids company 3 sm sh 3 secondhand 3 jb 3 michael buble 3 taylor swift 3 number more mellow affection number to galau why wanna fixie hoam kangen mr jusber' number more mellow affection number to dumbass D smash smile spirit yes success D Thank you yesterday play sma preysi ci bel ko hansel ivan XD bismaaa morgaan 3 yah want to join bsok aaa my meleh dngernya TT curious nw goat the movie aaaaaaa fruit tea crazy XD 3 bm p makasi lebai banget disgust wkkw lebai banget disgust wkkw pain really Jatoh pas handstand i close my eyes and i can see a better day D yeay my love my love my 3 basket michael buble 3 Felicia Layrensius we have new mama D pray for doraemon miiko shinchan and japan O ba Dmood high level grr you know that i love you p turtle 3 freerice ym thanks I'm feeling good today Ka ola's birthday party D freerice calm down please i want to meet you one more please i want to know your name 'dynasty yea Know kok jps lose conscious but phi gausah ngata2in also uleadnya can not on my lap xx az woy girl lebai ngaca plisss D woy girl lepai ngaca plisss D poster jb his water hit 'gapeduligapeduligapeduligapeduligapedulikokokgapeduli gaikutan problem phi jps point ko Francis Hansel ceriaa D defects my name So potato Stevie Liardi cocktail sam akentang far yesterday jps play same ceha XD basket crazy mad hi hai you want i want to be your girlfriend its intention sih want to find song for cheers even online p kwkw i nyerah deh nyarinya yesterday ivory same stella jeve kelvin albert Today same jesaya preysi albert kelvin aldo rifky just go home akwka D sick indeed facebook want to block glee oath amusing with you Abu merapi chat w Stella Ella vikin G boy reckless just the same ulalala pride kok same indo why main fair sportsman losing lost lalala argh 3 0 najis from the beginning have made indo down cheat copo najis malay tacky use laser firecracker what try cheat geek in jogja tomorrow jogjaa sampeeeeeee on the way is in The solo path tomorrow on the ivory iya solo bbye D party plow facebook sii adel D wkkw make pudding w stella jeve on the way is on the road cempaka mas with stella celine jeve monic gitta D make that feel copycat nyadar yes please outrage know Michael Akas Wicaksono makasi DD my touched wkkaa apabanget nyebelin HAHA still at school D practice i will be right here waiting for you 'thank you for this day Theresia Renata Shania Junianatha Felita Dewitama agnes DD Fun xD play the same tere shania fefe agnes D have a nice day so amin try the Best for you you 'study study study</t>
-  </si>
-  <si>
     <t>Bran Don</t>
   </si>
   <si>
-    <t>Yearinreview2016 Andi Stn Adrian Crisandy Michael Benedict 5 25 Tired of your plain Old Ragnarok Server The wait is over AUDACITY RAGNAROK ONLINE Basic Information Founded 2 22 2015 Server Open Beta Test 2 22 2015 2 28 2015 Server Opened 3 8 2015 Website Server Pre Renewal Max Base Job Level 750 250 Base and Job Exp Rates 175000x 175000x Max Stats 1000 Max HP SP 20000000 5000000 Drop rate 100 for everything Disabled Third Jobs No Stat Seller Server Normal Mode Roleplay PK 4 slotted equips except shields which is 2 slots Perfect Dodge Enabled 50 Max AntiWPE RPE EditedGRF enabled AudacityRO Features Full Mall with Cards Ready to PvP Custom Headgears Custom Main Town Guild Owned Gold Room Custom PvP System Costume System NPC Afk System at afk Dungeon Instances Endless Tower Nidhoggur's Nest Coming Soon Custom PvP Maps with custom BGM's Fixed Currency to Promote Economy Resist Based Gameplay Switching Melee and Skill based gameplay Automated Events Dragon Ball Z Quest Custom Refining Syste M Hunting Missions Quests Fishing System Modified War of Emperium 1 0 and 2 0 Stage Game Casino NPC's Slot Machine and Headgear Gacha Custom MvP Mobs The Seven Deadly Sins Nanatsu number Taizai Reference Sacred Weapon Quest Pokemon and Naruto Pets Housing System Coming Soon Battle Grounds Coming Soon Download links Full Client Torrent Link Lite Client Torrent Link Register here disband replaced Ngabuburit whose contents he also forgive me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can laugh ohh nice picture D something dies i wonder if it's really all over That's why it feels so sad No It's not Over as Long as someone remembers it's never over '' e '' First FPS game on Facebook FPS game on Facebook go to GM its very good Maintenance ampe this hour from 9 am Lag DISAAT DAKU OLD PLEASE READ OOOMGG these friends friends are vi Siing my profile o Daud Kurniawan 1136 views Aldy Pratama 983 views Febriana Tindaon 542 views Brandon Lee 300 views See who views your profile on the wait and see I'm going to show you what is really there Lose In This No Higher Or Lower There Is Always Only One Truth Hoo so much too who is awake the same nggk sleeping semalem good good wakakakakaka monkey BB I can not be mats nggk nggk can di nyalain zzz gloom Friend FB 100 Pas wkwkkwkwkwkw Friend FB 100 Pas Wkwkkwkwkwkw Banner Top Banner The IDIOT i saw you for the first time i know you were the one you did not love a word to me but love was in the air then you held my hand pulled me into your world from then on my life has Change for me now i never feel lonely again cause you're in my life Love how can i explain to you the way i feel inside when i think of you Then you held my hand pulled me into your word from then on my life has change For you now i never feel lonely again Cos you're in my life When i saw you for the first time i knew you were the one On the wings of death by the hands of doom By the darkest light from the darkest moon Crossing silent seas over mountains high For we stand as one Tonight On the black wind forever we ride on together Destroying your evil with freedom our guide When the master will storm us He'll stand high before us Our hearts filled with splendor Our swords will shine over the light I Want To Get Back The Strength I Lost Physicx for wkwkkwkw stupid woi riki keffas on same call Ws</t>
-  </si>
-  <si>
     <t>Samuel Halim</t>
   </si>
   <si>
-    <t>HT MADRID 0 0 MUNCHEN halamadrid Want to CS Free GO GO without Deposit JUDY SkinSilo is a hint xd Link Login via Steam Continue to REWARDS Tab Fill in email trade url and others follow instructions just use my referral code SAMUELHALIM can 250 coil out of it when it is finished All you will be able to get a bullet if you want to look for a coin again to tab EARN CREDITS now you can join it all therein coin AntiJUDY 0ToSKIN Hery Franky Victor Franky Kevin Tj Dimas Arsaya Mi Chael Daniel Agung permit tag boss Wtb gamesteam rate lowest new video is up friend Yg pingin see people gans play dota csgo and others tlg on subs iya Youtube com channel UCzmZnH993iw vAWa0BBKkHQ Makasiiii go Steady soul Photo same ex Fnatic 8k mmr in one picture Noob am Steven Bonny Oriel Mihawk Victor Franky Hery Franky Hery Franky not for you Yg selling Gold dragon nest servee void PM Just one last dance Hery Franky hery Hery Franky 1 more God pls indonesia Chroma for the win Later Uan your daughter miss Nana Podungge Pake sandals on campus D Wts game csgo in 100k stock lot Line sam 2107 Djing Tj WTS Adidas NMD R1 size US 9 5 genuine UK Certainly not in Asia New goods up to indo 30 setember PM for price thank You 777 The one and only Cant wait joki pokemon go Lvl 1 15 100 rb Lvl 1 20 150rb Lvl 1 25 200 rb Lvl 1 30 275 rb No softban Aman Line sam 2107 No hp 082226119865 Pake google bsa ptc wear can Wts off on dusty Interests Pm course Lunchhh WTS ATHREOS GOD in 100k Todays draft keep Nb if to semarang search Lumpia make by2 to icipy yes p Wts Scg x10 Todays pre WTB Nissa PW origins Lilliana PW origins Thunderbreak regent Gameday promo Korean Shit got real Pending first Erick Widjaya Rinto KUr Dea Vania Vito Alexander Harliyanto Canceled Shit Must read Aji aji used to be your hero now What the fuck RONALDOO JUVENITI WE CANT HEAR YOU NOWWW PENALTY ISCOO 1 MOREE WE ARE STILL ALIVE May Chen Font number milan nocerino 20k exc postage FOR SALE JEREMY S COTT FOIL WINGS sizs 43 1 3 BNIB Brand New In Box Cp 082226119865 7CA4568F Specials who know yes Vito Alexander Harliyanto Mx Wkwkwk 51 you how much Alex Snow Devin Christian Save read later Haha Devin Christian Alex Snow Devin Christian Jengkel Devin Christian Narsis used to be Alex Snow Beautiful is not vin Devin Christian Devin Christian Alex Snow Jeff Choi my girlfriend Sleepover in Alex Snow's room I have a look at my pictures sharing jokes and news as well as support during Good and bad times I'm happy to have you around my friends I'm going to be watching for a while I'm going to be watching how to take care of the friendship just like me So if You are reading this then thank you for being a part of my life So leave ONE WORD on how we met DO NOT SHARE Once you respond I will inbox you this copy then paste on your wall so I can leave one word for you Ronaldooo Ooo halamadrid Steady this pitt Fia Kreuz Sad hahah May be aware Fia Kreuz Hopefully the goal was indeed a good sign and in the allow Why oh why All i can sayang is i was enchanted to meet you Be thankfull of what you have cause something that you will will never get Back but there are manythings you can learn for what you have done in the past Its over Mantap is skipper ferdinand 1 0 3 goals to go Come on guysss 2 2 800k pm only Sfccc Persija 3 5 sfc Next sfc opponent arema yoo hajar Ready 1 Minipom Male Snow White stb cotton wool Glamor 3 2 jt 2 Minipom male Non stb White Unyu2 1 7jt 3 Husky elephant Top Blue eyes 2 5 months Gede 7 jt 4 Doberman male Non stb Cut tail Vaccine 2 jt 5 Pitbull non stb female Prospect sporting Price 1 2 1 6 jt 6 Pitbull male female Stb Prospect sporting Price 1 950 7 Chh male 7 months Stb Color draw 1 050 rb 8 Golden male Cucu import USA 2 blnan 2 4 free shipping java 9 Bully 3 males 1 female 3 months Stb Kupir 3 7jt M 10 Malamute female 6 months Child import Price 6 5 8 5 jt 11 Pug male 2 months Stb 2jt 12 Chh Jantan 3 months Stb 1 8 free shipping jawa 13 Husky indukan 3 years Stb Bntr again loop 2 050 free postage 14 Corgi male 4 months Child import 3 7 jt 15 Bully indukan 1 tahun Stb 3 2 jt 082226119865 7CA4568F Decrease the price just putig Rvp Eyes Wazza Smart monkey This cave of cave is Nanna Lee Barca serikah Yuhu Wtf For sale gucci belt made in italy Special who just know big Uda yeah now your ill Ati lek ndelok profile e wong kui BU kok terusan di 125k free shipping take all in 100k Jatidiri just far better than this stadium v ??MAY GOD BLESS INDOBESIA NOTHINGISIMPOSSIBLE Loss maning loss maning 1 1 end ny Pssi asuuuu Seneng e meet people tuany Evan dimas Josss Van dijk 1 0 Right Gymnastics morning with mother teacher Ida Jokam Safitri Shofia Yusuf Congratulations fast fasting 19 years end ny finish v Mental champion Trus vladimir in what in tuhh Diving oh diving PERSIPURA German 1986 jaspo M Muluss 300k excl Postage 7CA4568F 082226119865 Had smalling Reussssssa Herpes meneh auuuu Nanna Lee Tyas Princess Anjarini Ida Jokam Safitri Shofia Yusuf do you miss us Tyas Princess Anjarini Devin Christian Vito Alexander Harliyanto Alexis Snow Tyas Princess Anjarini Ryan Hartley Alexis Snow Devin Christian Benzemaaa Pepe 2 1 Kroos still the Best Ronaldoooooooo 1 1 Ea pique so goalkeeper 2x Come on benzemaaa Classico time 3 oh 3 2 0 broo benzema kroos class Sup looserpool 1 0 CR7 Wallet oh purse kimpet Not sack yeah v Since i dont go to gym my weight loss 3 kgs Weird Semeru oh Semeru Style classic is v Lonely gilaa Ngakak see Fia Kreuz fear watch annabelle Alexis Snow Nanna Lee Vito Alexander Harliyanto Alexis Snow Devin Christian Samuel Johan 16 days to go Same who hayo Ea lost Freak Minhooooo Asikkkkk 3 1 In fact reall madrid c wkakakak Real madrid b kirain Castilla v Asu kabeh All the shit that you do Kere hore at 250k inc special post today 2 1 nah lohh kuwait v Tiboooo 1 1 Low Class This madrid night can lose crazy Vito Alexander Harliyanto Wednesday friday saturday sunday futsal josssss why Look at me do i look affraid Madrid play what time iya Agree Meet you mr bob in s2 it awkward wkakakakak Im forever yours When emotions beat everything Fia Kreuz Andy Kim Happy Birthday my girl Wish you all the best May all your dreams come true God bless you Anjrit is next to the smell of perfume ala arab body kira2 110 kg still make up keep it self awareness oittttt Bs facebook an chat not in reply soreati The story candid Back home budal Timing Gambling coy Lanang ra know self Monkey pinter Bee Enakkkk Sooo saddd Welcoming party There is telo Time for taking restttt Hk Suttle suwi plane delay kacauuu GOOD LUCK DI MARIA Kudu sabar D Hawa2 in live turu Laper want mcd malem2 modar Miss you already Haduuu 1 0</t>
-  </si>
-  <si>
     <t>Filbert Invoker</t>
   </si>
   <si>
-    <t>Wow best moment ever I'll go to china if this is true It's me take 3rd place in death match in 'Outpost' level Check out this performance of This Trainyard 'level Check Out this performance of Baby on Sing Check out this performance of Gangnam Style on Sing Great filzxhintz has enough experience to reach a new level hoho Great filzxhintz has enough experience to reach a new level yeah have fun Yeah Great filzxhintz has enough experience to reach a new level You make me falling in love with you 3 Crazy 3 cute I'm so lonely broken angel 3 her so much With tutut Mas po and vincent wkawka Ryan I love you Me Mr Adi Edward and Vincent You're the Only One Never give up No matter how weak you are crazy P cute 3 her D You're My Ice Cream You're My Dreams neseli in china Nest has appeared in gemscool Let's play together together again Create guild again Keep hajar manticore and apocal Ypse Who wants to enter the guild later can add my FB Stay Nunggu patchnya Go DN Gamerz One In A Million Double Protection from the insects On Again RezpectorZz is such a drag need volunteers to play DN and help me with my quest Need it Heroes way cash cherry Credits Party Time Please play DN and join my guild HunterDazz this is a link to download DN file discotion Crazy god skillnya Members in my guild to Fwar every day Love number one Trust number one Believe number one LTB Just for Gamerz dino fashion hahahaha race promotion promotion What is delicious oh mad I copo I want to be free So sad many tests next week and tomorrow NeCheez Man Necheezzz For people who retired PB bisgini there is DinoMode that exciting This is orang2 who will represent surabaya in LS Slamat championship bwt Hydro Thunder dropdropdropdropdropdorp bassbassbassbassbass wow Ah just go home later mlm work stacked all TQ Put Your Hands Up Ge Ge Ge number Kitaro klek klek klek klok what a bad d Ay Wow cool man How poor I am Always anime I love Fairy Tail Ferarri in front of hotel jw marr ot jakarta wanting a holiday tros enaknya road road in mall jakarta same office employees who are also gamers already in jakarta 4 days filz Golf Stick accidentally to throw to Roof Embarrassing Zzzzz play hear music watch tv study and have fun Like it like it Just play and have fun Hmmm in school that play lost saga only 2 people any more who want to come Kalo there are many direct bwt guild itself Oh Gila FBku got the word virus Bus from jakarta yesterday from JB go home 1 2 days again I will go to Jakarta At Saturday I will watch Justin Bieber's Concert If you want to find me there I sit at VIP chair Happy Holiday all Check out my friends I'm in trouble But in the end I survive Lost Funny and fun saga hehehe CPU has dibetulin hahahaha seep download grand chase susahnya error keep pdahal internet flame continue 12jam zzzzz Remix music with bassdrop is my favorite Poo yes people have to ha Ck mine Emange orange who ngehack g have 2PM capital why many problems come to me am I am chosen one TT ID ROku dihack same people Pdhal already a lot ngecash aaaaaaaaaaaaahhhhhhhhhhhhhhhhhhhhhhhhhhhh So Fun I love to watch animax movie because it is COOL Baune buffalo ask for ampoen I YUI Add Jefferson Utomo why hahaha why can not I stop playing in ordinary days is this thing cause me to get a bad mark Abraham ojok ngehack FBku wew gone home from rumahe chrisna bsk gathering again laugh oh Utsnya pek keras2 kabeh TT Down the distant road Who ngehack FBku will be beaten if nemu oi hook ngehack FBku buandotz iki ZZZZZZZZZZ tell me what ae statuse iki play RO that can make me so happy and enjoy but i dont know why my GF worse than oh man wew out ngerjain UTS at home Chrisna albert albert Mbe win s Chrisna play tekken jago pek all dikalahno great2 Tsunami tsunami who wants to swim free to Japan why Sad Mode i miss you very much Where are you now sour pek Papa mbe mama same ae if blanja lama banget Want ngamok pek Am I faded like a shadow i have to do something Pusing bis tricked people in zzzzzz games lost 25 jt zeny AHHHH Do not Punk with My Heart I feel like a bird fly on the Sky everytime I hear music Today cape poll Is this Love</t>
-  </si>
-  <si>
     <t>Brian Haessel</t>
   </si>
   <si>
-    <t>Fresh Selling Yeezy v2 cream white BNIB receipt Neo Soho Sz uk 8 5 Contact Line brianhaessel Wa 081 219 988 008 jualyeezy adidasyeezy yeezyboost jualyeezywhite adidas yeezyboost350 yeezynesia yeezyjakarta jualyeezyboost topitem topshoes yeezyputih it New pin PS4 Apache do not automatically translate dong must download the client ma patch Mobile Uploads i got free Gw Again films shirt angie funny yes i need Mobile Uploads FREE 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP like it FREE 450 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP FREE 450 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP 450 FB Points That you can Use for everything Let your friends know that you've sent a free gift want to eat A free gift want to watch INCEPTION Let your friends know that you've got a free gift Let your friends know that you 'Ve sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your friends know that you've sent a free gift Inazuma 11 Let your friends know that you've sent a free gift Let your friends know that you've got a free gift Let your friends know that you've got a free gift Let your friends know that you 've sent a free gift Let your friends know that you' ve sent a free gift Let your friends know that you 've sent a free gift wkwkwkwwk Let your friends know that you' ve sent a free gift Let your friends know that you 've sent a free gift Let Your friends know that you've sent a free gift hhhhhhhhhhooooorrrrrrrrrr eee hahaha Click the cute pet below to own it now Do not forget to make a decent offer Mami can fish clown applefish i caught a crab oh iget number Please be my neighbor in FarmVille Please be my neighbor in FarmVille</t>
-  </si>
-  <si>
     <t>Munif Faisol Abdul Rahman</t>
   </si>
   <si>
-    <t>Telekinetik why not Life is full of blindness VIRUS hate bosen when it is kelkom on the way is on the solo road Yeah back to jakarta back to solo in 7 days back to asssalam ter love good bye jakarta TT physical preparation for tonight now playing rf memories on the Way is on the way bandung Just installed ChatSend that allows me to send files up to 2GB for free on Facebook chat Check it out virus again recurrence Freak males learn traktir sekelas direct kopong laughing solo jakarta 28jam on the way being on the solo road tomorrow can meet Kakak cihuyyy finally holiday also huh finally my head en be alive BARCA beh 16 000 ajib 2 days again reunian SD is good to the island tidung wkwkkwk on ngerjain the Mochammad Fadhilah Nuris ampek crying make laugh D wkwkwkwkkw so miss the pb again this is my hand more and more mak kok Swollen yes beutiful girl oh my hand swollen not lost missing again fit play ball zzzzzzzzzzzz now playing bruno mars just the way You are ilill llili 4l4yerzzz pingin nightly nightly so yes D good night D I'm just ordinary people who just want to be loved and I was not perfect like you I was just a weak man without love love that you gave me that made me strong With her love that I live that love love her make her feel the taste of a lover's affection Oh her eyes her eyes Make her stars look like they're not shining Her hair her hair Falls perfectly without her trying She's so beautiful And I Tell her every day this fucking ahk who ngebajak my FB is not clear this azzzzzzzzzzzzzzzzzzzzzz now playing us forever why TL on twitter is not the way yes bad I dikerjaiin Muhammad Fadil Al Katiri again damn ngeladenin boy ngmong make me laugh there is no nice yes if people we Love has gone far menainggal we ahk blom online also it's kid online dong plisss me pingi talk ma you tired of ngurusin boy VV yesterday hit the tsunami as earthquake continued news miyabi its like Where dong this aiueo BABIbubebo cacicuceco you are not the right heart for me but you deserve for others yey finally buy Hp also In this life we ??can not always do great things But we can do many small things with great love In this life we ??can not If you want something you've never had you should be willing to do something you've never done If you want something you've never had you to be willing to do something you've never Done yuhu tomorrow terakih repeat week but the day senesnya uts again yes gods just learning hard feeling very much moaning ci thinin again with the father bangke hopefully the average score of 9 or not he over kkm all aminn malesss really do not da excited to chat DEWA deserted night It's a little crowded tomorrow is no longer able to go online again hiks hiks' why you go to me Hard to find a way to get through It's a tra Gedy Pulling at me like the stars do You like like gravity Even if the wind blows It makes it hard to believe How iya gonna love How iya gonna feel How you gonna live your life like a dream you have is real And if you lost your Way I will keep you safe We will open up all the world inside I see it come alive tonight I see it this song rada rada rokest word can not be friends eat friends so confused me That means how flying without wings sepiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii i want to have i nice dream help me kelaparaannn all tomorrow there is badminton not i just waiting pingin burn corn but most delicious with mas mas in jawa when going to jakarta mas ganang wildan safiq mada and other brother Laugh to see vidio song tenteng a name wakkakakkakakkakakakkaka we will not go down my friend kasian very already in two go on huh anget dog make this curious child two huahhhhhhhhhhhj next month tired really Run out arcici have a nice dream all good night I love you my heart 4 ever I can I need love to much Sometimes God brings you with some improper people so you can be grateful when meet the right person i waiting you perfect perfect his ahk ill Behh ajib ui an 8th grader make a group someone's dong she is so beutiful ahahahahhaha a rather melancholy song wounded heart hehehe huh not satisfied the same self on why this hell is my seventh grader who is weak without you i err without you love that you give So big for me lonely this morning well today is a blessing day where now day labir prophet we muhammad SAW i wonder who and i wonder why go to monas with my friends cuyyyyyyyyyyy friends what else srek nye kawokawokaowkawokawokawokoawkoawkoawkoawkokwoakoakwo laugh see srek falling pants nye hole also Awkowkoakwokawokawokawokawokawokawo kenape tomorrow not holiday aje sih to all good night have a nice day tomorow Preparation tomorrow road way together hafidz gamal srek rafki firli emir abdrogba lonely banged tonight I weak without you I am vulnerable because Love is gone from you Who is able to flatter me As long as my eyes are open Until the heart does not beat Forever I am able to remember you From You I Found my life To me You are my true love at that time is not the moment for you and me oh hungry com why ye I am sick or it is my dying ye if it is sick really do not even recover kloudah dead knape not dead dead yes but hopefully dead sahid aminnnnnnnnnnnnnnnnnnnnnnnnnnnn lonely yes Noon like this bismillahhirrohmannirrohim yeah gods hope this day is a good day amin sad for once today hopefully tomorrow become a better day aaaaaaminnnnnnnnnnnnnnnnnnnnnnnnnnnnnn behh ujan molo so can not cool my shoes again really bad luck hah he just past not the future My future is definitely brighter tonight tonight delish being what yes bon jovi it's my life complicated her these people huaaaaaaaaaaaaaaaaaah lonely night is my samurai ouch chased the dog where jatoh having a bad view aje the dog dying mu is near njing good night all I want to sleep hoaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaammmmmmmmmmmmmmmmmmmmmmmmmmmmmmm hoaaaaaaaaaaaaaammmmmmmmmmmmmmmmmmmmmmmmm evening delicious it ngapian Yes sleep what it is this bewildered ahk bored this is not da online weqs desert amad this feeling nothing can be invited chat astagfirulloh agin night really cool emoticon facebook smile frown tongue P grin d gasp o wink glasses 8 sunglasses 8 grumpy unsure cry 'devil 3 angel O kiss heart 3 kiki squint confused o O upset O pacman v curly lips 3 robot Chris Putnam putnam Shark Penguin rainy morning shit maker pale shit fuck good night all Faqih Chaerul Rachman your dog ye noisy you sene tod good at 9 o'clock Ngak may sport two weeks dizzy happy birthday brother sarah yay owwwwwww Wwww yay battle has finished slamat noon world gilalo mir yay hoho hmmmmmm laugh hmmmmmmm must learn all out soon war the same book notebook pencil grrrrrr wow yay Hi all my frieds I just want to introduce a kind of American Football at Florida State University to you all My Dad and Mom are very happy to watch this video to enjoy your previous study at graduate program ata</t>
+    <t>I think it's going to run out of 20-30s theme bb ckckckck, tomorrow should bring a handkerchief for Kevin Immanuel Hp Vincent San Marino wkakakakk, * LOL *, come home from school with Samuel Gilbert and Vincent San Marino, so ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... .... , -_-, My Top Profile Viewers: Angelica Lumamig - 436 views Albertus Kelvin D'Electron - 83 views -Chris Ithu James- - 42 views Aloy Renaloy - 30 views See who views your profile at sms again nyolotan sama Drama Permai .. Cried lohh. Now watching iktu not Vincent San Marino Samuel Gilbert, oi Vincent San Marino Samuel Gilbert B 71 Who is the car? ? Laugh, bosen -_-, Adeline Jap Smart Albert Julian Adrian Renaldi Adriana Clarisza Adam Lambert woh really wrks. This gltch givs you fre facebook crdts. Up to 750 yu can lern hw day. The good always remember the voice of the teacher hha, please do not have the fuel and sms me dluu, so miss the same fs hha, school tomorrow, swt -, - (copas from: *******), Vendria Tanuwijaya nnyatntang Vincent San Marino moving house ? ? Hha, if every january mop, february mop, march mop and sterus na enk it, suffer rain and stupid all of this time, jokes and laughter, the day you went away ~~, numbers blakang na 7 all dehh, make myspace dong , 21abf9bb, sorry nyemplung to toilet, in rikimaru801, ccad download 1GB, i gabby kurniawan, sjarah dtempel in bku no? ? Or in hvs only? ? , Pertamaxx! ! , -_- ', xpa who play battle station comment plis, just have ye, complain ..., jeremia ivan said: oi already come out this white k **** l,, l **** t laugh, - _-, open new calendar open new day open new spirit open new school open new city open new card open new house, DISAPPOINTING, tiger opponent garuda, in rikimaru80, Ga no movie..Boring ~ ijo what sii? ? Laugh, Malay mnang krna laser? ? , Brrr ... ..., it's time to sleep ~, Woy The owner of this facebook, let us pernag, who is entitled milikin Fb this. Prove that you are the owner of this facebook, the important CARD OF DEAD LO UDAH IS IN HAND Gw. It's useless fighting, I know all of it, if you know me sebener its, surely you know me, I know all. I also 1 school with you, I ancurin your facebook, if necessary I close his account. , Asik na spaa ~ laughs, ..., Ckck Tu ska bnget sihh follow my stats Wkwkwk, Ckck Tu ska bnget son sihh follow my stats Wkwkwk, ledgermyane = 42339hp laugh, It's my life ~, thank God, Red 1 Wkwkwkwk, Wolves Wkwkwk, Class 4-5 = era of friendster Class 6-7 = facebook class 8-? = The age of twitter class? -? = The time? ? ?</t>
+  </si>
+  <si>
+    <t>Like, in TS Puri, 160, Make your own jersey, Wow, my boot time is very competitive! # Pcfaster, Hmm, Want to watch nihh, Person sii galaau work, write status pacingin pacunya mumbu, kind pentingg really have a boyfriend, gedek lama2 liatnya! , Have Fun: D, Traffic jam -.-, Watch Despicable me 2, pnasaran jdnya -.-, Christian is not a religion, but its the way of life - Erastus Sabdono # RehobotMinistry, You dont turn your back on family, even When they do - Dominic Toretto, good enough, must be better # 10th, I need somebody to love .., tomorrow who joined classmet wakilin my class, smangat yah maennya, good luck for you all: D, Borobudur Temple, Borobudur Temple, Borobudur Temple, Borobudur Temple, Borobudur Temple, at Borobudur Temple, Vredeburg Fort Museum, South Alun2 Jogjakarta, Malioboro, Jogjakarta, Ahmad Yani Airport, Semarang, # 4days in Central Java, Everyone comes into your life for a reason, some for good Or bad, they may shape us, break us, but in the end they make us who we are. , Real Madrid unveiled the deal with Emirates and the 13/14 kit, wanting to break its head, I'm 19 years old. I think I'm doing a pretty good job - Justin Bieber, Justin won Top Male Artist and Milestone Award on Billboard Music Awards 2013, Real Madrid 1 - 2 Atletico Madrid, Lagi2 krna hockey win from madrid, You know my name, but not My story. You see my smile, not my pain. You notice my cuts, not my scars. You can read my lips, not my mind. , Bestfriends are like stars, they 're always there for you and shines brightest when you' re at your darkest moments. , Never cry for the person who hurts you, just smile &amp; thank you for giving me a chance to find someone better than you. , Nice tattoo .., Coming soon! , I better not talk but talk but not dtepatin laugh,: LOVE it arises from the EYE down to MY HEART: LOVE it arises from the EYE rises to BRAIN down to HEART, shock madrid lose -.-, Everything you want; ), Action speaks louder than word! , Sometimes when you wonder why you can not hear God's voice during your trials. Remember the teacher is always quiet during the test. , Be you .. believe in you .. and allow for tomorrow's dreams - Vin Diesel, I'm everything I am Because you loved me, enough for today. Thank God:), Lonely, Lesson from crayons: Coming soon, Happy Birthday Justin! # 19thBIEBERBIRTHDAY, There is a difference between giving up, and knowing when you have had enough, Forgive me if I was wrong, Im just normal human, Nothing's perfect, thats why pencil need eraser, You can not be real with Others if you're not real with yourself, Do not judge me unless you know me. Do not underestimate me unless you've challenged me. Do not talk about me unless you've talked to me, Happy Valentine! , Maybe it's not always about trying to fix something broken, maybe it's about starting over and creating something better, i like to be there for people because i know what it's like to have number one, smaka bisaa tampilll, Aminn, # exit, Happy Chinese New Year 2013! , Perfect is not when two people are together. It 's when you' re both opposite but in that way you complete each other, If you ask God for help, it means you trust his ability. If he does not help you, it means he trusts yours, everybody knows how to love, but only few people know how to stay in love with one person for a very long period of time. , I 'm far from perfect, but I will be perfect for that imperfect someone who is perfect for me, Saying I' m fine when you 're not, it' s nothing when it 's everything, I' m done when you Know you still wan na try, I just need someone who will not give up on me, ohhh, i know laugh, Before you assume this method call ask. , Emang feeding indomi malem2 salah yoo? -.-, All around the world, 'Cause nothing ever ever, ever replace you Nothing can make me feel like you do You know there's a number one, I can relate to you know we will not find a love that' S so true</t>
+  </si>
+  <si>
+    <t>Merry Christmas everyone! , The Cross before me, the world behind me, John 14: 6 Jesus answered, I am the way and the truth and the life. No one comes to the Father except through me. , Welcome 2013! , I 'll be there for you :), Family is important ..., I care what you talk to me -? ? -? ? ? ? ? Thank You? ? ? -? ? -? , The results of sweat itself more satisfied taste than the results of other people's sweat ..,) Everything we do must have a positive and negative impact .. (_), Soin mistake this year as experience Ditahun dpn .., Do not be afraid to fail, if you want to succeed .. If it has failed g need tkt fail lg .. Stay thinking how to make it successful .. - a, God Power is greater than anything .. :)), Karma is valid boss .. Satisfied first please aj .. regret dtgnya end .. Jd slow aj .., Live in the world Just a minute .. so do not be in vain live with negative things .. help others who need .. that's the joy of life, there It's not a robot that can be told, It's better to live poor that is important happy than rich unhappy .. Wkwkwk ..: P, Wolves hunt Sheep, Blm of course people who often laugh today will often laugh at san A ..: | , The basis of the success: honesty ^^, Although the important cheap place togetherness: P, Sometimes we ever feel falling down .. Nga forever our circumstances above, so g ush show off tq .. :)), Do not be afraid to face the seemingly frightening thing ..:), 1x make mistakes, fatal consequences ..., g sh carmuk tq .. g ngaruh .., Forgiving is more fun than revenge .. not useful .. just for self .. , Forgiving is not a difficult thing ..:), Very Ok without you ..: P, can be important lessons from buskers .. money is not everything, it lives with positive,,. , Everything must be over: P, Above the sky there is still the sky .. hoam .., Talk to my hand: in, Karma is valid .., Focus on one goal: O, Ultramilk for today Wkwkwkwk ..: P, Ball ... the world must be spinning .. / slur, Who the hell have you ever made wrong? Hha .. introspection first aj .., Less Lucky .., Life Kyk Ice cream .. Enjoy before liquid .. X3, Happy Vesak day ..:), If you feel suffering, happy wqwqwq means we are still alive in this world. ..:&gt;, G sh alot proof aj .. ^^, I want to kill Sality ..&gt; &lt;, Success need hard work unlike magic directly successful .. hha .. ~~, G this way:), Ampir Overslept in angkot ... Hahaha .. GG ~, Klo you do not respect me, I can not more ngehormatin u .. jiji ... hii .., Do not be afraid to make mistakes, Failed = the first step to success .. Success g means if g there is a failure ... laugh ...&gt; &lt;, Love in your eyes sitting silent by my side going on holding hand walking through the nights hold me up hold me tight lift me up to touch the sky teaching Me to love with heart help me open my mind I can fly I'm proud that I can fly to give the best of mine till the end of the time believe me I can fly I'm proud that I can fly to give the bestOf mine the heaven in the sky .. lgu lama ..&gt; &lt;, Azzz .. Japan tsunami ..&gt; &lt;8.9 SR ... YY, Azz .., BT at home .. hoam .. mening maen .. Jiji lah .., Friends who can only make us rise when fall &amp; sink down ..&gt; &lt;, Shock .. laugh, Bljr again XP, Mls bljr .., Wkwk .. to reset smua .. 2550FD6C, O yey .. reset .. wogh ~ wkakwakwa .., Jd solid like a tree that is hard to fall even though hit by rain, hot, wind .. but can be sweet fruit ..,: (, Cap go meh ujan first clean the way .. wkwkwk .. XP, GG , If the problem is big, reduce it. If the problem is small, assume there is no problem. If there is no problem, do not look for trouble. If exposed to the problem, do not ever run away from the problem .. Hadapin aj .. wkwkwk .. XP, All that begins with sense mrh, will end up with shame:), According w valentine not Just 1 day doank..tp every day .. : P, Feeling my heart? =), True &amp; faithful friend is lbh brnilai drii s'mua gold in this world XP, Open New Life wkwkwk ..&gt; &lt;, Starting day with smile :)), High Level Emotions! ! ! ! Grr ..&gt; &lt;, Cuman need honesty .., Because of you I'm so far survived ^^, Smile though likes &amp; grief ..&gt; &lt;, Do not Leave Me Alone .. ^^, True treasure is health , Not gold &amp; silver ^^, Lost direction ^ o ^, Only You In My Heart XP, Now I know the matter number what the question, love is do not have by having something i do not need ^^? , MUD: p, Kicking Hours wkwkwk ..: p, No Life without Failure, Defeat, and Fall, River Water Towards the Sea though through a winding path, Stand up straight ^ ^ Do not Look Back, The Past is Over, Remember 1 Thing: Life goes on ^ 0 ^, Trying to be patient ^^? , Those who can give Without remembering, and receiving without forgetting will be blessed ...? , Smile is a Melody Of Soul ^^, Only a stupid fish that can be hooked 2x with the same bait, one moment later ..? , Better appreciated than to be praised? , Up To You ^^, MUN: p, Survived by my Destiny, very few of them who see with their own eyes and feel with their own heart ...&gt; &lt;, You come to bring love and fidelity, And you went and leave Scars and destruction, We are born with two eyes in front of our faces, because we should not always look back, but look forward to it, look at the future Us&gt; &lt;, There was a number point anymore? , Release Deepest Burden .. hoam ..? , 1,2,3: p, G need people '' Gajelas ''? , Bad day&gt; &lt;.., Baby come together neoege nest bakke nan jul su eobseo baby girl ueo neol wihan i noraereul deureojullae ^ .-? , It's late, bobo used to ah ..&gt; &lt;, OTW Sukabumi, Huh ... .. Cape, Ccd dah .. Driver gebleg, BRB eat, Aaa there is a dead cat on the highway .. YY, sleepy&gt; w &lt;zz. .., Pegy used to be ***&gt; &lt;? , The First Time == a? , Say O .. Wkwkwkwk, I Give Anything For U .. hha ..&gt; &lt;,? ? ? ? ^^, You cry I cry, You smile I smile&gt; &lt;, Endure to the end ^^, Listen to me, I'll stay until whenever Wkwkwkwk, Time goes by a lot slower when you miss the one you love: P? , Feel So Good ^^</t>
+  </si>
+  <si>
+    <t>Have this rich handlebar GG Fidelis Andryanus Andri Agate Jonathan JeremiaRoyberco Subastino GoJefry Yan, Awww Bryan Andoyo ahh ateng, Awww Bryan Andoyo ahh ateng, Jonathan JeremiaRoyberco Subastino GoJefry Yanapa this: v, free, CHICKEN NUGGET! ! ! , FedryJefry YanRoyberco Subastino GoJonathan JeremiaHadi Purnama best song ever! ! ! ! , Chris Royberco Subastino GoFedryJonathan Jeremia when can? ? , (Y), may also, core 0 disappears laugh,: v live support, I'm handsome # nobajak, giveaway, Please help my friend dong. Her phone is missing. Sony xperia z1 uses a black bumper and anime background skin. Actors in Jakarta. Please help . Klo ktemu context here just pm. , Pc creation from amd users:) # AMD300 # AMD300ID, ane feeder bang: v, wkw dog, giveaway, Jonathan Jeremia, giveaway, just with AMD A8-6600K processor, 8GB RAM (2x4GB) 1600 .. can already play GTA V See the benchmark here skipper, giveaway, (why),: v begin to consider for this physical kyaknya mah ..,: v, soon r4x will be transferred assigned to car delvac mx, brother fiesta &lt;3 ahhh, (why), beautiful : *, Sanyo versus water pump, (why), Cindy Sheren, game dev tycoon i am coming huehuehue, merry christmas &amp; happy new year Epan Lauw Richard Alison Fedry Jonathan Jeremia Hadi Purnama Hans Kurniawan # MSIIndonesia # NXAGiveaway, ! Thank you for being a part of it. , Fiesta (why), giveaway, wuutttt? ? , Giveaway, for which last year has not been a member # AMDRedTeam can followup again is ready in select only 200 people ... let's join gannn! ! ! # AMDRedTeam, Cindy Sheren Jonathan Jeremia Fedry Hadi Purnama, Jonathan Jeremia Jefry Yan already ABS broh, wih kawasaki ninja base pulsar machine, behh right already, so like this movie dora? ? , Jonathan Jeremia, sue this ad kwkw, Plarm, alolololo minolta, giveaway, Jonathan Jeremia, waduh fate no boyfriend, le me GAY: D no bajaks, alololololo cortana has been in windows 9, alolololo giveaway, I'm now ranked Experienced In Pid on Raptr! , Giveaway, WTF, seems to have got this game moved to diesel oil, may all living beings be happy, giveaway, Radeon SSD? ? Hmm interesting, bohh car carry, Add my fuel: 7DB17F8F, iam guy, I'm now ranked Hardcore in PAYDAY 2 on Raptr! , I'm now ranked Dedicated in Counter-Strike: Source on Raptr! , Give away, now ranked Dedicated in PAYDAY 2 on Raptr! , I'm now ranked Experienced in PAYDAY 2 on Raptr! , I'm gay. ; V I'm honest. I'm not on the plow the same Fei kok. Honest loh; ), Alololololololo Hans Kurniawan buy vroh hahaha, I am now ranked Dedicated in Watch Dogs on Raptr! , Hmm motor oil on nyetin wear HDEO oil needs to be proved its efficacy, I'm now ranked Experienced in Counter-Strike: Source on Raptr! , Hahaha, laugh good job ahok, Royberco Subastino Go Jonathan Jeremie Sandy Roosevelt Sandy Akhoi Fedry noh no community can ask ajarin vroh hahha, I'm now ranked Dedicated in Half-Life on Raptr! , # FinallyMilihJokowi # Salam2Jari, ana tamfan: v, I'm now ranked Experienced in Counter-Strike: Condition Zero on Raptr! , Wooo this cool, I'm now ranked Experienced in Half-Life on Raptr! , I'm now ranked Dedicated in Frozen Synapse on Raptr! , Si A love si B. Si B love the C. But the C love the A. A. Hmmm one must have a homo, WTF, I'm now ranked Experienced in Frozen Synapse on Raptr! , Wooooo * rocking Hans Kurniawan, I'm now ranked Experienced in Watch Dogs on Raptr! , Not kk. Should be saving to buy this game, welcome family zhang, life without love like a flowerless garden, spertinya I need hdd lbh big again, new ratjun new ratjun this new product Hans Kurniawan, poisoning ori audio CD this time huaaaa, I'm now Ranked Experienced in Battlefield 4 on Raptr! , Dbe cable already buy live mogami cable same jack vermouth, beh eat this tai orng, I'm now ranked Hardcore in Euro Truck Simulator 2 on Raptr! , Wkkw, cwe anyway what kind of cwe are you? ? Cwe is not it? ? What just cwe you invented? ? , Already dead and now there is noise in the speakers, Wtf Sell yourself first buy a ginian, woohh cool vroh .., what the fuck wkkw, I'm now ranked Dedicated in Euro Truck Simulator 2 on Raptr! , Giveaway, kwkwkkw, giveaway, I'm now ranked Experienced in Euro Truck Simulator 2 on Raptr! , Beh feel really donlod 1 gb: v, ohh fuck forced to donlod, Yeey kebeli also game</t>
+  </si>
+  <si>
+    <t>This FB is not open-open, R9 290X is much faster than GTX 980 in dx12, can even compete with GTX Titan X which cost much more expensive VGA AMD more future proof than nvidia, so do not hesitate to use VGA AMD, Rama Sendjaya Luki Wiradinata Fernaldi Willy Lesmana Andy Wijaya, Hurray! I've been selected to be an exclusive member of AMD Red Team! Yuk, immediately join on Facebook and Twitter AMD Indonesia to be able to offer and other interesting surprises from AMD Steven Ricard Steven Minolta Rama Sendjaya, Hore, has just won a prize from AMD Indonesia. Want to like me? Yuk like fanpages AMD now also ranked as Dedicated in Heroes of Newerth on Raptr! , I'm now ranked Hardcore in Assassin's Creed IV: Black Flag on Raptr! , I'm now ranked Experienced in Heroes of Newerth on Raptr! , I'm now ranked Dedicated in Assassin's Creed IV: Black Flag on Raptr! , Wew, Top 3 Game Console at this time: Sony Playstation 4, Microsoft Xbox One and Nintendo Wii U have used AMD's Processor and Graphics Card, what about you? Yuk, join AMD at # AMDTopConsole, I'm now ranked Experienced in Assassin's Creed IV: Black Flag on Raptr! , PS4! I think it's better than xbox one,. ,. , I have entered this week's Sony Xperia competition ... Have you? , I have entered this week's Sony Xperia competition ... Have you? , Assassin's Creed III, I have entered this week's Sony Xperia competition ... Have you? , I have entered the Sony Xperia Smart Comp to fly away to Los Angeles with Xperia go have you? , I have entered this week's Sony Xperia competition ... Have you? , I have entered this week's Sony Xperia competition ... Have you? , I have entered this week's Sony Xperia competition ... Have you? , Anyone know the TO schedule is not? Bner is senen TO? , Bosen ... Confused what are you doing? ? ? , Photos of The Sims 3, Finally today finished the exam: D, Little free than yesterday:), According to survey w 3 years old, Toilet dp = studio photo, wkakaka: D, Spirit! , Confused. I do not know what should i do now (o_o)? , Abcdefghijklmnopqrstuvwxyz, Zzz dynamic ip, Kok Profile Picture on to reset so nothing? If w new w plug in again (-_-) ZzZ, SMS From 6283876434498: ma, buy first pulse As 50 thousand in number 085219763567 cpat important .... Wkaka w spelled ma2nya,? ? ? ? ? , Bosen, zzz, Jd bolang in seal. Wkwk, 8 = Symmetry, Amudo nae mameul moreujyo I can not stop love love love Apado gyesok banbokhajyo I can not stop love love love, I found the way to let you it. I never really had it coming. I can not believe the sigh of you. I want you to stay away from my heart. ,: '(, Someone is not clear ngefans bnget same w zzz, W got cacar alim, Mndarin zzz, Smoga ips gmpng / Best /, days again to be free. Study hard !, Super fast mode on !, 3 more days! Go Go Go, ZzZ, lks ipa lost T_T, Finally can signal 3g again, Power of Friendship laugh, Nih make for not know NISN can see in Do not forget thumb love:), Maen, Conver have not ngerjain 1 month, laughing / Good /, Holiday tgs little:), kmn anyway? Bosen w not da tmn ZzZ ..., ZzZ ..., Hd skrng bsa 4x SS gp in shop skrng smpe 60 Bsa craft evilis weapon, thanatos set, and more Evilis weapon, thanatos set &amp; dropan rare 50 and up (If not slah) black epic Replace job 1 in berme, job 2 in silver, job 3 w have not seen Mission let dikamiki / Haha / Dll Create blue status / post / comment Visit: update GC Chaos Pre Event same Arme Skill Tree ^ ^, Finally w can also gnosis / Best /, Holidays cmn 3 days, zzz, ready for the future, == a, Counter Strike Online CBT: July 15, 2011 OBT: July 22, 2011 Ready to download ^^, w class 9 what? Who knows love, make new chat make, zzz, Elsword come on! , Cf &amp; gc lonely, what's in it anyway? , Bored, bored, zzz, Hmm ...? ? ? , Zombatar from Plants versus Zombies, Yee, laptops and com w already right, Kom was already right, file win'a corupt Emank gloomy, zzz, Ah sial, broken laptop but com zzz, Finally, i have finish the test ^^, Tommorow is the last day of the test, I still confuse about it, 1 day again ^% 5E, Browser weak brain but game on not lag Weird ..., Wait for exam finished, 2 days again, ^ _ ^ , Home on facebook w kok error? More strange just facebook, where ya yh? , Weekend pr much banget, repeat batch 2. Cape, Bntar again exam and naek class, do not feel already 1 year in cls 8 Cpt really, Hurray ..., Knp there is a feature text, call, message in the profile itself and not bs in pke? ? ? Funny ..., Boring, zzz, ... ... ... ... ... ... ... ... ... ..., Watching ovj ah ...,? ? ? , Ah sial wear all sick, zzz, Fb quiet, ==, want to sleep ~ _ ~, what are you doing yh? , Not clear, Gw confused want to replace pp what? , What the hell? , Thx who already ngucapin Cape if comment 1, he, w want to holiday again, D ot yrmtfmt, aaa, Help me get Exclusive black from Megaxus Referral by click the link below, What is your favorite character in grandchase? , W confused want to change what PP == a, anyone want to nemenin w play audi no? ? ? , Heat ..., So cora is hard too, / _ /, abcdefghijklmnopqrstuvwxyz1234567890. , -? ! ' in : ; / (), Half holiday T_T, again change day, sleep ah -_- ZzZzZ, 23:50 still seer, If you can not do anything, do not do anything, Hot body! ! ! , What are you going to do? Confused this == ', Just open facebook:' (, Maen GC ayo ..., Hmm, sleepy .. Sleep ah. -_- ZzZzZz, Bsk definitely can!: D, this bosen, Patch GC Ntreev very old! , This bad gc ntreev patchnya, old bner, Just answered the question from MegaQuiz, Maen facebook while listening to GC songs in Dp Chaser Blog nice too, Just answered the question from MegaQuiz, Update GC Ntreev Season 3, DP Chaser Grand Chase Guild Blog Any Bug or Error please PM me!!!, Download GC Ntreev already 1,002,967 KB of 1,894 MB (51%), Just answered the question from MegaQuiz, Progress Love Story Hard FM got great, Grand Chase from SG Interactive, bosen also open facebook, No friends chat, hwa / cry /,???, Dw online from this koei, unlucky my seat dipindahin, no friends chat (T_T), ah i play gc until attendance is lah, have bored, nyoba play Resident Evil 4 wear armax on computer ah ^ _ ^, bored, no friends play online game, confused nul want Is paan, A = B, B = A, A = C, C =? , Dark, Anyone want to nemenin me play GC now? , A little online. There are 25, but many do not know all, hehehe: D, if A = B, then B =? If you want to reply please comment here, Gw confused what are you doing? If you want to comment suggestions here, Anyone know the duty Civics? At least how much? , Anyone know DotA abbreviation? If you please please comment here, thank yah all, sorry yah so ngerepotin ngucapin, still old kok birthday: D, FB very quiet, I'm confused what to do on facebook (-_-) ZzZ, Receiving ampao starting February 3 - Next (Thanks for love ampao today is okay) Thanks: D, Sorry yah, so on ngerepotin ngucapin, Bsk who's birthday? ,. , I think it's pretty good to me, but it's still a sizzler, Yee, my com live from the grave, install the sims 3 long banget, I confuse make inbox new facebook, boring (-_-) ZzZzZ ...! ! ! , Finally so Sieghart ^ (^ _ ^) ^ 2x dapetin kamiki own crystal dies until the pot runs out, Want to download GC but old (-_-), Finally can Dragon Knight! ! ! , I can play Mako! ! ! , After so much time passed ... Finally, open facebook and status update again, What is the number of numbers from 1-100? , To avoid full notif because comment status, photo, album, post, and others: 1. Delete all your comments 2. Unlike 3. (Photos) Klo you've been tagged, remove your tags Klo do not believe just try it on this post, New clock segini facebook is deserted (-_-) ZzZzZ ...</t>
+  </si>
+  <si>
+    <t>After waiting wait for weeks * lebay finally come out also new, all, still sleepy zzz ..., Indonesia lost, sen, horeeeee, finally, let's make peace, ... ... ..zzzzz, steady, Be Careful, Get Free Ninja Saga Emblem Here! ! ! Try your luck to get the Emblem Fellas sleepy, wkwkkwkwk, your dinner guns, wah this gahitanya, finally my token is more than 200, take it, please pick it up for who ask, please see why, send me free gift donk in Ninja saga, (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), , (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift!), ( Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift! Friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your ff Riends know that you 've sent a free gift! ), (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift!), (Let Your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends Know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that You 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you ' Ve sent a free gift!), (Let your friends know that you 've Sent a free gift! ), (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift!), [Url = your friends know that you' ve sent a free gift! ), (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you've got a free gift!), LARIIIIIIIII! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! SYEREM BANGET TUH PHOTOS GALIH SI MONSTER TURNS, (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve Sent a free gift!), (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a Free gift!), (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift !), (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), , (Hmmmmmmmm pretty good, wkwkwkwk steady, kwkwkwkwwkwk steady jitu ane, oh yeah can you beat it? , Horeeeee so chunin, eek you ngehack, HELP ME SOME BODY HELP ME PLEASEEE, baby dear children please take grates guaranteed halal 100% SAYANG CHILDREN, baby pity dear, PLEASE HELP, NEW STYLE, NEED HELP! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , NEED HELP, finally, blood is still polllll, kwkwkw winning opponent lvl 20, claim free, cendol nich, cendolnya mas, one! , Click this cendol w for divide, uy black color, take this, hi..hi ... .hi, ha..ha..ha..hebatkan! ! ! ! ! , Ha ... .HA .... .HA ... ..., see my aquarium, See my tank, Super great right. If playing pet society see my aquarium yach ..., great!</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Okay, now what is NTR 's number, report first, transparent terminal meme, ancient meem, kodama naoko' s speciality: black haired and cold, hekel, good memory, this from new fendem 2hu men, no watch livebox hiks, Vigne x gab is the new mai x reo, still believe this kosple miko, someone stop me from playing this edges2cat truly the pinnacle of AI, cygames is secretly an indian company who is prolly support corrective rape like, never forget rip lesbian ayylmao, It? What is p = np? , North lake parking technologies (tm) represent in guild war, otsu cf loot i missed out on my friends car, oc from the ancient times, the greatest ultimate yuri manga has gone nsfw, yakuman irl, if this manga was written by * het author * This would go het like 1000 pages ago, as the premise of the story are so good for generic het romance but the fact that the writer also write inugami and nekoyama, it should be yuri, ri-right? In the other side, i 'd love to see more men in yuri works fuck this gay earth if this turns into het and i said too much for a manga that only came out, first generation rice, xDDDDDDDDDD, the real issue was the weeb Pape, new story tau .., - did you know that at this time, this pairing mastered half of all manga dojin gbf in dynasty scan? - and the amount is only 1? , Now manganya also has finished, definitely my kind of music, chap 1 sama 2 lapse 6 months - 10/10, - lewd bird - honk is a brother, ayy, HOTS days, GW this time, aw yiss, best Gaem, yagakimi ch 17, life goals, what is this, yha, after few months struggle .. fate epnya nice: '), just look, my fucking god, dlc like, i'm interested, &lt;3, kok cute, Barusamiko su it balsamic vinegar,: ^), hue, W-where is the friendly people who likes the purest form of love, ffa best mode, throwback, beautiful, wakemeup.flac, o and fire, shoot friend, I miss ubuntu And Ubunchu, # onfire, days, i listen to this everyday if i winning or not but today it's relevant, dank, who does not want to be an archon, i move objects with my mind i climb the tallest mountain and slay Dragons i defend my galaxy from ruthless aliens never forget, i can die in peace, yea, sick, 1 year later and i listen to this with my friends, it's not Safe, open-aperture striker unit &lt;3, 10/10, best, tfw not nyimpen source codenya tfw yesterday can source code from web random, shit i wasted my youth, clash royale is a gateway to starcraft 2, and clash royale is inspired By warcraft 3 mod, so let 's go home shall we? , Pure aesthetic, you know, sometimes you need to give one of your shipgirl, a talk, that talk. , First eSports indonesia, what is gituan? Joining anonemes and making memes? , Siake, cheeki breeki, i cried, my character as anime character, slackware days,</t>
+  </si>
+  <si>
+    <t>Retweeted TechTablets (on TechTabletscom): Xiaomi Mi 6 Giveaway! Deep into nature, and then you will understand everything? Better. -Albert Einstein # nature # plant # flower, # petanimemang laugh, If I from the internet package 1 2GB (4G) 40rb / mo move to the freedom combo, the rest of the quota is lost or accumulated yes? In IndosatCare, XD, Wkwkwk XD, # yearinreview2016, Well laughed, # friendship # latepost, again XD, Hmmm ... ... .., pretty entertaining XD, Galaxy Note 7 International Giveaway at androidauth # giveaway, Galaxy Note 7 International Giveaway at androidauth # giveaway, Galaxy Note 7 International Giveaway at androidauth # giveaway, Iseng, who knows hoki wkwkw .., Galaxy Note 7 International Giveaway at androidauth # giveaway,? ? ? ? # University # architecture # building, the price of this segment still can not display 4K XD,: O, what is that mountain (?)? ? ? ? ? ? ? ? # Landscape # nofilter # highview, ... .., Wkwkwk, no need to deodorize again XD, Finally .. Fixed issue with some people seeing a black screen instead of the lock screen when resuming from connected standby. , WKWKKWKWK, Happy Idul Fitri Day 1 Syawal 1437H for friends who celebrate. Sorry Sorry Birth and Inner: D, Ngakak XD, # Steelseries Steelseries today is the 15th anniversary and is a giveaway. How to get free dapetin and live list. Luangin your time 5 Minutes, who knows just lucky:)) Click the link: Do not forget the activation link in the email yes after the list. What can you get? Gaming Gear Steelseries Gaming Laptop MSI Trip to Seattle Valve TI6 Tickets, -_-, Lolll, Galaxy S7 Edge International # Giveaway on androidauth, Who knows can: P, Galaxy S7 Edge International # Giveaway at androidauth,: o, We 're Not a team because we work together. We 're team because we respect, trust and care each other .. # team # paud # cbbinus, # salahKetik, ... .., Gw really understand this suggestion: P .., Must enter indo this motor wkwkw, A friend Tell me that because the motorcycle in my picture .. So I decide to try again with another photo, and the result is .... WKWKWKWK laugh bolsters XD XD, Anjassss wkwkwkwkwk, So remember CSI Cyber ??Season 1 Ep 09 .., Here it is, it is important to read for a frequent bandingin smartphone performance only diliat of the number of cores only or GHznya aja .., bahhh, Ara .., XD XD XD, Well, the rich like this make others wretched -_-, LG G5 International # Giveaway on androidauth, LG G5 International # Giveaway on androidauth, LG G5 International # Giveaway on androidauth, LG G5 International # Giveaway, LG G5 International # Giveaway at androidauth, ._. , Lollll, dat moment ._. XD, Ucett .., YEAY! [Cash balances] ~ # cashtree # pulse # rewards # free # cashtree_share # [3000075534045] Inaccurate: V, Join You in jakmall at alberttbert in heruohheru1 in kepinpirdis # 1stJakmallers, Join You Jakmall Josua Alvian Jonathan Alexander Christophorus Bayu Widyantoro # 1stJakmallers, Learning (with Felix, william, and 10 others at Binus Dormitory), XD, Leh uga .., Lol, each generated always change, Lollll, Lollll, salute for his intention ngedukung ahok! ! ! , Keliatannya going to be a pretty inspiring movie .., XD Weight really, the lasers were bought in Glodok at a price of Rp 80 thousand and sold again at a price of Rp 125 thousand What theee news ..., # inkompass, Wkwkwkw, And I never Buy this sweet ice tea in monas T_T, The pea laugh, Believe it is not it? , There is an accident still sempetnya ngajakin selfie -_-, This is new smart, ngak kayak opposite one of his country that it aja .., There is no rule diikutin, directly kena karma own: P, Leh uga: V wwkwkw, Now (?), Yes this is the average media in Indonesia .. Positive title may let the viewer -_-, sure do not need to pay? So if it is necessary to use the services of police, use the services of the police do not pay at all. Come to the police, (say) Sir I want to sell our car there is a message via online, use the services of police, Iqbal said. , Thanks goog: D, If in Indonesia tetep not bs chasing .. Loss: V, Netflix pirated? ? ? ? ? Njirrr, katro really dahhhh ...,: V, cyanide Buset: V, Wew, my hand line turns out: V, Busyet already, very cepet .., SULTAN BENERAN: V, Just relax complete mah, Deh nanyain letter of duty .., Do not know why this webapp goes viral? ? ? ? 2016 goal, make an app can goes viral like this? ? ? ? # 2015bestnine, Bener too: V laughs, Your tiger's mouth, jokes look where it used to be, -_-, LOL: D Hope there's no problem fitting left XD, Once selfie same ade? ? ? ? ? ? ? ? * Blond hairs *? ? ? ? # Christmas # christmaseve # christmastree # natal # noedit # nofilter, rare full moon on christmas night .. Sampe light bleeding the picture? ? ? ? ? ? ? ? # Moon, Pantes was already rich moon Led light XD glare, Bantuin like yes friends! : D, Stabilizer very good: V, Shied wkwkwkw Wait, short tempered? , Is not this wrong? ? , Wkwkwkw, What dreams my dog smalem arrived told to be santa claus? ? ? ? ? ? ? ? ? ? ? ? # Malubanget # christmas # xmas # paud # santaclaus, # dominopizza # pizza # latepost, # dominopizza # pizza # latepost # meatzza, # escaperoom # binusalsut, Finally the protection of the microcode breaks down too .., # heroes2015 # binusalsut, More waiting for inspiration? ? ? ? ? ? ? ? # Binusalsut # heroes2015, Mantep laugh, First day teaching paud, do not understand what? ? ? ? .. # throwback # latepost, Once night play to Jakarta? ? ? ? # Latepost # noedit # martabakboss # martabakmanis # ovomaltine # oreo, Videlish? ? ? ? ? ? ? ? # Latepost # noedit # starbucks # coffee, noodles with roasted chicken? ? ? ? # Latepost # noedit # instafood # foodporn # noodles # kopitiam</t>
+  </si>
+  <si>
+    <t>14th generation &lt;3.110612, we are 9c &lt;3, i do not wan na lose you (ever) thank you for today: D, someday someone's gon na take your place and i'll forget about you, You 've changed (? _? `), 9c (??` E). , Hi, you're taking my heart, can i have yours too? , It turns out Julius Frederik likes same Christian Gunawan laughs =)), 19? , You told me you 'll love me forever. How long is forever to you? ; ), Why am i afraid to lose you when you 're not even mine? , What do i d do to have you here? (? _? `), Heart is not a toy time =)) ck, sorry? , Temen 9c, bu win said to me to order the 2nd test in PM book. Monday in Kumpulin together with the penalty of B.I. Please who have the other 9c child number given to know yaa. Thankyou:), soon valentine ~ (??? ~) ~ (???) ~ (~???) ~, Imissyousodamnmuch! (? _? `), Off you go from my life u.u, happy chinese new yearr! : D, co cweet yes you guys (???), I do not caree + ('?' +) (+ '?') +, Just know me mah =)), up to youu uu, funny luu =)), Do not let us save the word love to the dearest - mario firm, big girls do not cry:), thanks for all its: '), patient yakk (o_)? (? _ &lt;?) God must have a beautiful plan (? `) /, Other in the other mouth in the heart (? _?`),: (, So unwell (? _? `), There can be miracles, when You believe:), how is this church if this big idiot? -_-, 13-12-10, I want to make you happy, because you smiling makes me happy: '), Just can sayang sorry? , Shasha: p, Just that? HAHA, Keep smile:), Just can say thank you: '), When life looks you in the eyes and tells you You can not, God is holding your hand, telling you You can, My inbox is not in reply, but Same inboxan others can. HAHA, When you 're STRESSED you eat ice cream, cake, chocolate, and sweets. Why? Because stressed spelled backwards is DESSERTS, Lolipop? , Thanks God for today:), 4: '), Malming with gaby: D, If I have any wrong, either in deliberate or not I ask maap yaa:), Dead lights-.-, A smile is nice to as it Is to receive .. So, start your day witha big smile? (^? ^)? , Sepii? (? E?)? , Thank you praise:), patiently I have mah, people are patient in dear God: D, ngatain ade class but do not feel what your own also rich so same brother ck class, you do not know the beginning of the story, If you do not know what does not need to talk! , Want to know the business people talk to know the affairs of people, if you do not know what does not need to want to know the affairs of people, you're just denger from the side of the party (_), I am really bae, but it turns behind the nusuk. Thanks loh .., It is important? Ngok! , Demen very already looking for problems .. Wonder -, Serah lahh .., Make a class 9c maap yes if his summary of his tears there is a hole .. Because the rich father's writing, not kebaca .. So afraid wrong .. Tomorrow I love Know it's what it's writing on, In jen from jm 3 to jm stengah 6 gara gara gara guh religion same paint TIK (-_-), yes udahlah, know enough .., say people change when own too (_), memories will not Ever lost, like the dew that the sun hid, darkened the moon, awakened the dawn # little write down, Dig a well before you become thirsty? (^ O ^)? , Akirnya task pkn slese also (&gt;?? ++ &lt;??), Bosenn di di, koko ku indeed the best in the world. : (O??????.? O???), Lebay, Happiness depends on what you can give, not on what you earn, even if my father and my mother leave me, but God welcomes me:), Without Jesus we are nothing .., I believe you are a God who never fails to keep your promise of promise:), Bkn they are the strongest &amp; largest who will be able to maintain its existence. But only those who are able to adapt to change:), the class is the same again: D Weight deh rivals .., Know, the most beautiful things in this world sometimes not bs seen in sight or palpable with touch, they just bs felt with the heart:), People People who are healthy and happy are those who face the realities of their lives directly. But do not expect it to change directly:), no need to bohongin me also I will not follow you kok .. Ckck, Past memories of the past just to be remembered, Not to be remembered:), if not say, not delivered. If not delivered then it will not start anything .., sadist is already his movie -.-, bosen -.-, Many people will walk in and out of your life. But only true friends who leave traces in your heart:), in elephant village: D, 2 stroke jm just play 2 games - ', in trans studio (Why): D, on the way to bandung: D, bosen -.-, off lights -.-, I 'ma big big girl in a big big world, It's not a big big thing if you leave me: '), It's cool' 'eat skoteng with my lovely sister: 9, bosen .. hape sepi -.-, i naek 10 big class (why): D thank God! : DD, Create a grade 8c. Klo already lost yodalah confessed defeated hell, rich was basketball had lost, on not seneng. Ga need to play better if rich gtu .. Create a grade 7a. Yodalah if child cls 8c indeed cheat biarin alone. He said better to lose sportsmanship, from pda win cheats. Then why are you still angry? Hence, better on ktemu directly continue slesein bae. Dr on just kesel keep writing status. Ga guna .., Create a grade 7 children of the same class 8 .. What is it just rich gtu ampe noisy .. Ga important .. Small problem in gedein .. Besides winning also just can sponge cake .., better lose the sporty from On a cheat win:), hape is quiet: (</t>
+  </si>
+  <si>
+    <t>So keinget laugh, Coding Everytime ~, ngoding, dota, ngoding, dota ... .... So # plakk? ? ? ? , Java BufferedImage? ? ? ? , If only can talk but make class just not bsa, better do not need to ngoding all the time ... .., want to make coordinate jump usual, even become coordinate wave? ? ? ? , Mager enter the object sprites to main frame wkwkwkwk, not yet create collisionnya because? ? ? ? , Dog kwakakakak, # BOOM, wumbo combo! , Just as awkwkwkwk laughing, laugh, Preparation time of calculus kmaren? ? ? ? Learning until 3 am wkwkwkwk (already like training). Moga2 on dpet good results? ? ? ? , Laugh, though it fails, but it can be something new. Bsa know my fellow classmates who are also coding and daydreaming together just been grateful, know the sister of a class that has a lot of science together learn new science from there. Learn what teamwork is for the generation and willing to admit the mistake of a mistake. Though it failed but I learned a lot .... , Missed before LS so dregs awkwkwkwk, laugh, between sad to laugh ... .., # yearinreview2016, Hafiz Ikhsan Atallah Raditia maybe you are interested to join, wew .... , Njirr laughs, the remaining live line: v, nice one, Just want to give you a word, who ask me to ngapus not me (proof? PM only), Adhi Prakoso Nostalgia laugh, Ngakak wkwkwkwk, Lost, but there are still years dpn ... . , Ewww .., Adhi Prakoso loses this money to buy ginian laugh: v, Adella Ryou Duck: v, CAS02, alalalala ... ...: laugh la # ComputerScience, Adhi Prakoso, Lol: v, Awww .... , Nice, Ahhh ... .. the first sai xD, daaammnnnn ... XD this is what I rasain just XD Adella Ryou, Rian Ariyanto rolling on the floor laughing XD, Rian Ariyanto like you this wkwkwkw? ? ? ? , Adhi Prakoso must have a new tompel first laugh dhi la: v, Adella Ryou laugh XD, tumben jokes funny, but there are scenes that are too forced anyway: 3, Adella Ryou try this xD, Adhi Prakoso: v, make image hand version already dhi : V tomorrow version of sai deh wkwkwkw: v (hope more tidy), Adhi Prakoso Spread it out! ! : V, Rarely open, already lvl 8 only? ? ? ? ? ? ? ? (His work is ngerusuh at the gym person) # plakk, Hahaha xD, Klo not gr2 fucking connection, already dpet this without evolve T_T, hunting pokemon go laugh: v, Adhi Prakoso ccd, shoot the picture again you here: v # waarrr .. ...</t>
+  </si>
+  <si>
+    <t>Making a reward every day, definitely got the money! , Making a reward every day, definitely got the money! , OTW to Bangkok, Semester 2 solid schedule! In on, Capek LDK, but still exciting .... , Indo 1-4 inter milan ... ..., Madrid 2-1 munchen, munchen to final penalty shoot meet Chelsea chelsea ... .... , Barcelona 2-2 chelsea, chelsea qualify ... ..., Arsenal 0-0 chelsea ... ..., My idol Van Persie, Merry christmas merry christmas 2011, by, lucky,? ! ! ! ! ! ! ! ! ! ! ! ! ? , Please take, grab it, gong xi facai aaaaaa, Say something about this ..., Say something about this ..., uluya</t>
+  </si>
+  <si>
+    <t>IG: eykln Twitter: elisabetthh_, Hacked. , Night with the STARS? , Happy Birthday STRADA! , Just hoping:], Why so serious? Laugh, How lucky me, I have you in my life (???), Sorry (?? _?), The Day (? `) /, (??????)? Unyuuu, SMtown! ! Err (`??????) /, Test, M1 (?) / - (?) -, Short story! (!!?) / (?!!) /, No one tells the truth anymore: s, You look fabulous, eon? RT in mingkki21:? ? ? ? ? ..? ? ? ? ? ~ Pic.twitter.com/1I275Z3d, I was just ... .... Disappointed, RT in Ju_Juannita: 17 August who is miserable (??????)? , Sometimes you miss the memories, not the person. , (????), Dear 8D always (????)? ? ? C)? , (? _? `), In elsa_elisabethh Follow yaaa? '? '? Mention for followback? '? '? Gomawo ~, Japan 3rd Single 'Opera' [Limited ver] Jacket - Yesung (via: ELFsInJapan), Weh Stella Haryadi open facebook! ! View message! Shock I was reading (?), Dear everything o (^? ^) O, Please yah your attitude is guarded, than later you are labeled girl do not know self =)), Pity really can only be plagiarism: o yes not Vitta Seul Felisita? , Watch your mouth ! Lu think you who? Gatau really? , Np: 2NE1 - Scream; ; ), Error kan -_-, The good and generous content i pulse dong (-????? __-??? -???) * Poke Vitta Seul Felisita, Pray for Aceh (???? ), Bales tweet he can, sms reply I can not .. -__-,:), Holiday is bleak ... no where-where ... pdahal holiday a month .... : (, Ask for hdiah what is i abiz naek class ...??: /, &lt;3 My New Brother .. &lt;3, Kpan-kpn latihn lge yes ... Odilia Nararagil Astikasiwi Regita Aditya Ivana Fitri Amelia Simanjuntak Cicilia Andreani Awani Munthe , W is spelled cute ... Asekk .... .wkwkw, Mee .., Not bad if holiday, w can be online ampe 1 hour every day ... wkwkkwkw, why should he ...?: (, Why try to have to enter the clock 1 ,,,, knp kgg diliburain just try ... lazy me ... must nnt drowsy deh ..., crazy ... dpet 2 at once ... cckckckckc, finally can ptong hair ... bgus also dipendekin .. : D, okay also report card g ... nothing is empty .., I really like it .. Finally after so long, g pny ade cowo jga..wqwq, now watching UTS a lot of my minjem bw .. :( (, I LOVE SM * SH, ride elephant .., Rest in Peace yes ko ... Good bye .... koko must be happy there ....:), Pgn pb BB sndiri .. (), I love jesus .. ., Bsa open the computer also finally ... ~ `~, pgen play ninja saga but not bsa ..., G Ong xi fat cai all ..., huuhh ... ninggalin niee ... not invited ... TT, not brangkat niee ... .udah fa sbar can anggpaoo .., bsk can angpao ... moga-mogga g Dpet the bnyakkkkkk ... .., wqwqwqwqwQ, Similar but not the same ... hehehhe, today..jln-jln ma cousin ... fun ... ^^, mnurut g lbih twitter from fd .. dd: , Stiap bka sms there must be sms bsk no pr not ...? , Ehhehehe ... skarang can open facebook and twitter from hp ...! ! , SEbel ...! Because chatting ma he just in cieee in .... G people do not like ...&gt;&gt;. &lt;&lt;, Ni cough can not be compromised .. skirt neck skit .. (T, T), Finally can upload also .., Exciting ...! Was pensi ... But my face diitemin ... TT, bosen cmn vacation at home..ga jln ..: - (!!!) To the passenger of Christmas AIR with number 25-12-10, pnjalanan akn taken Within 24 hours, with 100% of the life warnings of JESUS ​​mnuju live dmi and bhagia, passengers hrap wearing belts p'caya, fly bbs as soon as possible rkok, spite &amp; disputihan.Atas my name cabin b'tugascaptain ELISABETH mngucapkn MeRrY X 'MAs GBU, the help, g later g gift ... just blang to g .., Gila ... gara tu security unit dongo ... g so not bsa mkan in KFc ... Damn it ..., cute Kn .., In the skol just play doank ... Ga da job ... Mening at home bsa playing computer ... ._-, wqwqwq ... bat lge ahhh ..., Hiks / .... Have a pcar ... ..: '(why it's so hard cri boyfriend????, 4 days ge .. g bsa free from blajar 1 semester ..., TanPa HumOr HiDUp So SePii ... TaNpa Cinta HIDup Jdi hollow. .. And,,, Without people yaNG BaE and rich lUcu We ..Live So MaKin MEmbosanKan .. wqwqwq, later fit UAS may OL not Yes? ? ? , G like ma him,, but he likes g not yes? ? ? , You do not gtu DONK ..! ! Kalo MaeN Secrets only ... G MALES Tema maaaan ma U lagi ...! ! ! : - (, Mnurut you smuaa ... G tu properties'a like how???? Answer please ..., Yeee ... today jln2, asyk !, woww ...., Tq yes for all that already Ngucapin met birthday ... TQ VERY MUCH ... ^ _ ^</t>
+  </si>
+  <si>
+    <t>Idul Fitri, This album was created by PhotoMania - facebook sepi bangeet yaa ._. , Tomorrow can not see the demo ekskul same pensi -_-, Download kgk finished-finish -__________-, downloading, plurk i apakabar this? Laughing, yesterday on twitter mention I'm full of laughs, Moderate quota is up -_- so weak brain deh, Still online but nona-kiss naughty kiss too -_-, long not on pc -_-, Vacation is running out? , My pp is not good anyway? : /, Batre already if again _, rapot value is not written using pencil (why) Alhamdulillah (? `) /, Rapot me how neh? ._. , Impatient Thursday (?) /, Impatient Thursday (? `) /, Yeah stay 1 day .. Semangaaat: D, in ainooooyy:), pr banyaaak -_-, ish weak yee brain! ! -, -, Lo Changed! -_-, we are FRIENDS! , OTW:), otwt lippo, 3 days holiday is good where right? : /, Oath swear, online on PC LOLA its not nahan (_), LOLAA -___-, Hape was crowded, skrng desert arrived -_-, sleepy 3 | , Apparently, you do not pren same me (_), Lo, me ~ end! , In May, a lot of birthday yah .. ck ~, not forgiven? (_) Laughing, I do not feel today on Monday -_-, the battery is really abisnya sihh (_), the weak connection of the brain -_- , (_), Invite my pin yah 21CADA81 .. thanks:), yeah cana: D, online bosenn&gt; &lt;, Sihh (?) -, -, Hoaahhm .. -, -, Back -, -, Alhamdulillah:), Yeah, finally again change the phone: D, Hujann: D, Hujann: D, OTW ~, -, Waaa, here's a really big one: O, Shhaaahhhh, this pedes is right rujak .. -, -, Want so can play guitar uu, aah, open my FB rese very .. ckckc, Love And Hate, hot weather bangeet sihh .. -___-, Off ahhh ~, Aaaaahhh, wear do not take charge hape sgala .. Huhhh -, Aaaaahhh, wear not take charge hape sgala .. Huhhh -, In mau isqom ..: (I can not ikuut ..: '( , Can not go to Isqom ..: - (, can not get to Isqom ..: - (, again home alone .. -_ - - -, week's holiday in Jakarta, bosenn daahh ~ -_ - -, malming Yaa? Online ahh ~:), Holiday week (?) Yeeyy:), Everything changed. Because of LO! ! -, regret slalu come later .. Ckck, Koq skarang so like this yaa? On Changed ~, Because my heart is just for you ~, ouch, sound so bindeng garagara pngn pilek -___-, aihhh, an hour in car (?) Dieemm alsoa -_-, aaaaaa - - kejebak maceet, parahh .., beehh , Maceeet bangeet on toll .. -____-, off ~ ready back to Tangerang ..:), Belomm Makann&gt; _ &lt;, Home Alone -_____-&gt; &lt;, Crazy! ! At the hospital from 6 o'clock until new skrng pulangg .. ck -, -, woooooo ~ LOLA rampant .. .. -hah, ahhh ~ i no money inspiration buaat make poetry ..: / -, -, aluhaduh, uts value there 3 Which is under KKM ..: (, anyone can be invited smsan not? Hape desert nihh -__-, Loved Tuk Disakiti, Elevate others and humble yourself .. :), Bosenn v_v, Yaahh, bonus sms nyaa already want to run out .. -___- parahh ~, That's a wehh! ! Elu what are you doing NGATUR GUE? ? Hah ? &gt;: O, # prayforjapan:), good bye card lamaa: p welcome new card ..; ), Weh, I change this number .. but what number is it? Which is durable, not expensive, en irit .. -, -, Yasudahlah, Forget it him ~: (, alaah, lamalama I more kesel ajee this sm ntu org .. grrggghhh -, -, bedeeh, was fitting out my legs lemes Pegel sakit bangeet .. ck, GA to the LAU = GALAU -, -, bismillahirohmanirrohim:) hope this day UTS can alla; ), Ko 'facebook faces look ugly getting ugly yaah? ? -, - ck, aduhh ~ tomorrow PKN .. scare ajee me, ck -, -, alaah, daritadi I wrong typed .. pngn wrote stat, so write on people wall. Pngn deleted even my stat is deleted .. ck ~, angry mode on. Ck -, - dasaar crybaby: p, My wyey nyesek! ! &gt;: O -, -, sumfehh, I am gedek, enek, empet bangeet with you! ! &gt;: O, tomorrow 4 repetitions? ? Alamak -, -, yaah, my wall is quiet again dahh ~ ck, i dont think: '(, The more I think about you, the more I crazy you ..: /: O, At Jakarta with Grandma% 3A), # exit, want to sleep. Already sleepy, hoaaaahmmm: o -___ ~, want to sleep, but lazy -__- ck ~ eyes are sore nihh -.- '', ko 'my eyes perihh anyway? ._. , I'm bored sm my mom ..: (-, - ', is just a BREAK OF DREAM -, -', you my last love # ngek -, - ', Monday is UTS ajee .. -____-, Blajar blajar blajar blajar, Tomorrow there are 2 replications ..&gt; &lt;mantaaapp,: P, i am sleepy now? Payaahh ~ sleep aahh, -_____-, Off ahh ~, Modem Ngajak thousandut ..&gt;: O, Seet, from the morning ujan not stop. Dingiinn coyy, -______-, OTW at Home Jakarta, Monday mornings, take any food and drink? Binguung, -______-, Hadeeh, my finger pegeles garagara sms reply. Hape ancient sihh, still wear the keypad .. Try my hape samsung not taken, -___- # azeek gayaa bangeet me. Wkwk, Notif Fairy, Mention is also Sepi .. huhh, Fate of fate. Ck -____-, Gw has sabaar for 3 tauunn ..: '(, Modem LEMOT&gt; &lt;.. Mnding on dihape ajeelah .. -, -', Sumpaah, I kageeet bangeet .. -_____-, Aaaaaaaa ~, there is a cockroach ..: in, Alhamdulillah, akhrnya My feet are not Red anymore ..:), But is it wrong me, when I feel this Rasa ..: D, I like him. Maybe I'm a dear .. But is it possible, you become mine .., Kangeen dehh ~:), left parent trakhir gaenak also yaah (?), Kangeeeeeeenn ..: * &lt;3, So MPK .. -_______-, fitting my body Hot, my footsteps kangeen same with my parents .. The proof, fitting parents come my body is not hot anymore .. -, - ', hmm, I must check the blood? Aduuhh ~ -_____-, aaahh, my body is hot .. ==, Ngakak with Salma, Melisa, Sasa, enn Ami .. laugh ~, tomorrow replication .. want blajaar, but no concentration .. - '. But it's my turn to hape ajaa, behh can not get out of hand .. laugh: D, My eyes are sore, my head is a groggy. Aaaaaaaa,: O, hadeeh, kyknya bntar again i pngn Pilek dahh ..&gt;, &lt;- ', Exit ~, Beloom makann ..&gt; &lt;, Mau off ahh ~ online disturbed garagara lot nyamukk ..&gt;: O, Akhhh, Banyaak nyamukk .. huuuuhh, -_____-, my head puyenngg bangeet ..&gt; &lt;hadeeehh - ', signal 3 gembelelee ~, hohoo, nyuri chance let me play hapee .. wkakak ~, Tomorrow enter .. -, -' no Ahh ~ ghadi, Gajadi go .. -_______- Senen Masuuk dahh ~ hahaa: D, Akkhh, gajadi go .. Siaaal&gt; &lt;, So what enggk sihh? Ribeet bangeet already ~, hhhhh, - garagara adek sick, brangkatnya delay dahh .. -_____-, wheheheh, tomorrow to OTW to the village until Tuesday .. hahaa: D, akhhh, Bokap gaadil ..&gt;, &lt;masaa My adek mistake but the confiscated even my hape .. huhhhuuu .. -_____-, At home, not calm me .. - ', Gaada Hape but still no Laptop .. hahaa: D not smsan but still can Online, laugh, Hadeeh, garagara my adek, my hape so confiscated bokaap .. siaal bangeet already I ~ starting tomorrow, I do not hold hape again deeh .. -, not easy untk ngelupain people who saangaata sayang ..: '), Gantian bisaa times ! ! : P, my modem ilaang .. -, Tumbeen my bangeet hour is already literate (?) Usually not hourly dahh! ! -, in 7.1 there is a new anaak again .. huuhh, - ', it's time ready to go skolaa .. -___-, the world is so peaceful when ade' already sleep .. hahahaa,: p, Back to Tangerang ..:), Ahh, in Jakarta instead of jalanjalan malaah dimarahin unclear .. not betaah become,: in mnding me back to Tangerang .. - '', LOLA ~ .. -________-, akhrny, the signal is full of modem again .. hahaa, can be online Deh ..: D</t>
+  </si>
+  <si>
+    <t>SAMP, Alay? , Bitch Please .., my dear I see the writing ALAY, OY EYE! ! , Ayodance = Census Toys, this is going to play on the server CS 1.6 w is his ip 111.94.86.43:27020, basic boy ...&gt; =), this for verification email pb, aaaa ... ... lapeerr .., That 's maybe all I need ..., 2337334A:), cape is also up the road2,18 Wos Haulin Mod Bus, 18 Wos Haulin Mod LED, this computer download pack bus 18 WoS haulin not bener2 already, cape deh ..., Is the boy bothered? ? Believe very already, I got the moves like jagger .., I can not smile without you .... : (, That someday it would be me back to you, need a major char upwards, a neat title / a complete beret, and complete data2, the price is below 50k, - - (e - e) (m) - == - W // = T =, / () =: | == () = V = M (oVo) / / / / () () || '' | == ==, et already ...!!! G_ ? A_?? K_??? E net gara2 ill, Hadeh ..., pending neh BBM ...: (, h, YG AQW WARNING CHAR AQW W: SHOCK!!, Laptop screen wear can not be flame again T_T, unclean Left 4 dead 2 can not? Install: (, undeadslayer is the best class: D, finally the internet can also: D, take a bullet straight through my brain, yes I would die for you baby ..., zzzz, MY CHAR: D, I earned the 'Ctrl Alt Del' Badge in AQW !, these are all who want the PB to be 20,000 points, in darkness she is all I see, I had a bad day: '(, speed of sound ... ... , Zzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzz, more steady this ... ... ... ..., My char ... ...: D, you lipstick stains, on the front lobe of my left side brain ... .. , I earned the 'Level 30' Badge in AQW! , Et is still 80k again go up to rank 10: (, THIS ARE DARK !!!!!!!!!!!!!: D, damn GM, tomorrow maintenance now maintenance also: (, My Ungodly Reavers Of Nulgath -_- , Yey doomwood rank 8: D, 10,000 again rank 8, doomwood rep is still 5 more rank: (, My Char, yuhuy PB point is perfect: D, opponent NO_Mercy, this opponent No_Mercy,,,,,,,, .. . ... ... ..,,,,,,,,,, ... ... ... ..,,,,,,,,,,,, ... ... .. . ... ...,,,,,,,,,,,, ... ... ... ... ....,,,,,,,,,, .... .. ... ..., lalalalala, yey laptop already in service: D, I hear Jerusalem, bells are ringing Roman cavalry choirs are singing be my mirror, my sword, shield my missionaries in a foreign field, steady, MAGNUM SNIPER RIFLE., Gods, god char this ... ...., Final result ... ..:), v1 tero the nicknya VOC just ngatain w merely, direct w tunjukin skill w new cengo him ... wkakkakaka, delicious What is it like????, Relaunch Kriss S.V.R, cool is not it? ? , Justin Bieber foolish and stupid, off mode on, i 'd catch the grenade for iya, char this god, how come maenin facebook me already? ? ? ? ? ? ? ? ? ? ? , Aqw again this lag, Najis JB ugly really, ugly just ugly mah JB, I jump in front of the train, for yes ... ... ... .... , Unlucky aqw lag banget: (, pesky PB dc masal: (, the old connect server hardly: (, skill test cf lah, have not playing cf, no brani main aqw since laptop got virus :(, laptop finally can also: ), Bored no laptops: (, akh laptop wearing the virus again gara play aqw :(, hahahaha norman in ovj excited, wakakakakka he is a rage, I got a MISERY ............ .. ..: (, Cit aso, char geek me T_T (formerly), I can feel you there ... ... ... ... ...., yey week off: D, download amx x mod from old server USA very : (, Off online off online continues, confused me, oh my lag runs out, go go go CS:), cs old truck very, bunch a lot of traps on facebook now, just you ... ..:), ngatain w ccd, Have seen the original new cengo, rarely perfect manaaaaaaaaaaa ... ... ... ... ... ....: D, she so beautiful:), kutrima is not what it is ... ...: D, man many perfectaaaa ... ....: D, yuhuuu daper class dragonslayer: D, laptop looking for this problem, yes can the class number in aqw: D, why g answered yes smsnya? ? ? , Today the day divided by the shadow of the shadow, nice g yes? , Shout uy main lost saga:), left 4 dead 2, hahaahahahahahahaahahahahaha, alam'a horror kaliiiii, cihuy! ! ! ! , Finished download lost saga: D, we have to be patient in all the problems:), start it's a tacky movie, SM * SH = MY MAHO * MY HOMO, yes UTS nice: D, Girl you amazing, yes jum'at and saturday ... ... .... :): D, scared the same god is not the same devil:), who is that cwo? ? , Hopefully UTS value is good ... .amien ...:), steady! ! ! ! , I do not mind spending everyday ... ..., begh, Islamic religious repetition is really hard: (, F1 car from lego, do not dong, pliss!!!: (, MAMAM ... ...! !!!!, Nice this song:), though the time comes and goes until you do not survive ... .., do not!!!: (, Finish my history: (, open up you 're mind and she like me , 2337334A, damn laptop lag: (, I feel sad when your sad, all night long ... ... ... ... ... ... ...:), Life is a highway ... I wan na ride it, wew bike racing cost 95,000,000 cuy, crazy bike racing cost 95,000,000 cuy, pray Maghrib hayo! ! , Do not keep FB'an, hoy ... ... hoy ... .hoy you this! ! ! ! ! ! ! :), Stop and stare:), laugh: D, I can not smile without you:), where is cwe bacodnya big, wkaakkakaakak lost bacod him, ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Until there is a call ... .... Just look out for you! ! ! ! ! ! , You 're every minutes of my every day, peanuts are expensive: (,, lucky to be comin' home again ... ..., there 's not a thing that i would change ... ..., Of duty 4 modern warfare long: (</t>
+  </si>
+  <si>
+    <t>Test on tierison, Learn Forex trading on Check this out my friends! , Very useful! , Great website! , Today stats: One follower, No unfollowers via stats: One follower, No unfollowers via stats: 2 followers, No unfollowers via in samuelgalla mane foto? One follower, No unfollowers via stats: One follower, One unfollowers via stats: One follower, One unfollower via stats: One follower, No unfollowers via stats: One follower, No unfollowers via stats: One follower, No unfollowers Via stats: One follower, No unfollowers via english tgs eko ._. , Gwrs in Mirandaalissya! ! ! : D, Today stats: No new followers, One unfollower via no moodboster:), iyaa min laugh at tenfouresian: Night X4! Bsk do not forget bw clothes OR yaaaa, Retweeted manda? (In Mirandaalissya): in graceegisella yasudah lah we make up (???) Wkwwwkwkwkkwkwk, Today stats: One follower, No unfollowers via stats: One follower, No unfollowers via stats: One follower, No unfollowers Via stats: 2 followers, No unfollowers and followed 4 people via night:) # sleep, we how loren? ? In LorenSetiawan, again my weh injury ... at anindya_maria at Putri_PA: What is ges. Many are asking your number ges. Lol on graceegisella: in Putri_PA in anindya_maria cemplu, eh nando hahaha at Nando158: Sip already set in graceegisella: sip2 .. just set it, sip2 .. just set it, yes same nad hahaha at ndynana: in graceegisella makasii yaa :)), done Nad at ndynana: in graceegisella follback yaa gracee :) thanks, done in Umbrella_Bond: in this graceegisella follow back me donkzzzz, Today stats: 2 followers, No unfollowers via stats: No followers, One unfollower via stats: One follower, One Unfollower and followed one person via another sheet ._. , One unfollower via stats: One follower, One unfollers via stats: One follower, One unfollers via stats: One follower, One unfollower via stats: One new followers, , No unfollowers via God Almighty (at Godstagram): Do not let the Peoples Opinions about you bring you down. The only opinion that Truly Matters is God's. , Retweeted God Almighty (at Godstagram): Thank God for Another Day, Retweeted Sports Quotes (at Sports_Greats): Your talent is God's gift to you. What you do with it is your gift back to God. , Retweeted God Almighty (at Godstagram): Give God your worries, doubts, and frustrations, and let Him give you peace and rest. , Retweeted God Almighty (at Godstagram): No matter what goes on in life, All you have to do is believe in God and everything will be better. , Today stats: No new followers, 2 unfollowers via stats: No new followers, One unfollower via stats: One follower, No unfollowers via Dian. (In Dian98): Merry christmas! In clarintaaaa at graceegisella di feliciaongg in josephinecpin XD, Retweeted nadharuth ancient (in nadha_purba): in VirgagaWasser in gerardalintang at anindya_maria at putri_pa in forny_kintiii in soniafrieden at graceegisella at yosephinatalia in esteraspin christmas! : D, Retweeted fel (in _FeliciaIvana): Merry Christmas geblek? Di mariajes_ di Dian98 at josephinecpin on graceegisella, Retweeted Putri Ayu (in Putri_PA): at anindya_maria in gerardalintang at Yosephinatalia at forny_kintiii on graceegisella in SoniaFrieden hope you all get the Precious Gift in this Xmas: D, Retweeted Maria Novirandra AP (at anindya_maria) : In gerardalintang in Yosephinatalia at forny_kintiii at graceegisella in SoniaFrieden at Putri_PA Merry christmas! Hope you'll be light of others.GB, Retweeted Latitude Gita (in gerardalintang): Merry Christmas, Christ's peace be with us? At anindya_maria in Yosephinatalia at forny_kintiii at graceegisella in SoniaFrieden at Putri_PA, Retweeted Dian. (In Dian98): # PeopleWhoMadeMyYearGood at mariajes_ in _FeliciaIvana on feliciaongg at graceegisella at josephinecpin in clarintaaaa, and friends, Today stats: 2 followers, No unfollowers via stats: No follower, No follower, No unfollowers via stats: One follower, No unfollowers via claradwiolivia (in claradwiolivia): in graceegisella thank youu, Today stats: No new followers, One unfollower via stats: One follower , No unfollowers via stats: One follower, No unfollowers via how is this? ? At Ryan_Supriadi, Today stats: No new followers, 2 unfollowers via stats: No follow followers, No unfollowers and followed 11 people via boss ._. RT in Ryan_Supriadi: Ok boss RT at graceegisella: in Ryan_Supriadi follback, Today stats: 3 followers, No unfollowers via samsung you dong fel at feliciaongg, envy. , View A follower, No unfollowers via stats: No follow followers, One unfollowers and followed 2 people via: One follower, No unfollowers and followed 2 people Person via God Almighty (at Godstagram): You are NOT replaceable. You are here for a reason, and God made you for a purpose. , Retweeted God Almighty (in Godstagram): Smile, things are working out. You may not see it now, but just know God is directing you to a lot greater happiness. , Retweeted Love? (In JournalOfTeens): No matter how far apart we are, you will always be in my heart. , Retweeted Its Damn True! (On damnitstrue): I never stopped missing you. , Today stats: One follower, One unfollower via stats: No new followers, One unfollower and followed one person via Love? (In JournalOfTeens): Dont chase people. Be you, do your own thing and work hard. The right people who belong in your life will come to you, and stay. , Today stats: 3 followers, No unfollowers via Dailyteenwords (at dailyteenwords): Its hard to pretend you love someone when you do not. But its harder to pretend you do not love someone when you really do. , Retweeted Love? (In JournalOfTeens): Sometimes smiling is just easier than explaining why you 're sad. , XD RT in feliciaongg: Ih celem kakaks: (RT in graceegisella: laugh my story ngebelain he this: p RT in feliciaongg: Yeah do not upset sister, s, Retweeted Katarina Caetleen. (On etinn_):? In graceegisella my story ngebelain him This: p RT in feliciaongg: Yeah do not get angry sister, serem ih: p laugh RT in graceegisella: ok laugh wah do not be so, ok laugh wah do not be so dong! # Emotion: p RT in feliciaongg: yes dong surely: p you also diem2 (Yes) Iye katro (?) RT in graceegisella: diem2 just why, diem2 alone yes: p have no medsoc that people laugh RT in feliciaongg: Could be: pRT in graceegisella: do you understand fel? Laugh RT in feliciaongg: G laugh RT in feliciaongg: Gapapa: pRT on graceegisella: what? Laugh RT in feliciaongg: Ehem RT in graceegisella: I think it is ditakdirka, what? Laugh RT in feliciaongg: Ehem RT in graceegisella: I think it is destined to sec Ara direct: p, I think it is meant to be direct: p, when will ngerjain this sbud? In feliciaongg, Retweeted Sports Quotes (on Sports_Greats): The reason why people give up how fast they still have to go, instead of how far they have gotten. , Retweeted Its Damn True! (On damnitstrue): Do you feel alone sometimes? Do you feel that nobody loves you? Do you feel scared? Remember, God is right there with you. One follower, One unfollower via stats: One follower, No unfollowers via stats: One follower, No unfollowers via stats: No one followers, One unfollower via stats: New followers, 2 unfollowers via stats: One follower, No unfollowers via stats: 2 followers, No unfollowers and followed 2 people via iya? Laugh RT in samuelgalla: Siaul you mon, play blur sleep first * kick on graceegisella, Retweeted Kevin Julian (in vinZ___): in graceegisella follback mbabro, Retweeted? Katarina? (On etinn_): ciee. Congrats yes cewe2 kece who entered the finals on Saturday. Keep on fire girls {} at frilzavier in Mirandaalissya on graceegisella, Today stats: 2 followers, No unfollowers and followed 2 people via God Almighty (at Godstagram): God not only sees where you are, He Sees where you can be. , Retweeted Dailyteenwords (at dailyteenwords): Dear God, Thank you for today, for giving me the chance to see this world and fix my mistakes and be better every, Retweeted Love? (In JournalOfTeens): Sometimes I pretend that I do not care. But really, I care more than anyone else ever will. , ._. You are the cleverest RT in LorenSetiawan: in graceegisella yes deh clever people laugh, laugh no need to be frustrated once laugh RT in LorenSetiawan: in graceegisella -__- okay okay -__-, yes the thing. 86 I laugh RT in LorenSetiawan in Dian98: in graceegisella di Dian98 already? -___- dog -___-, Retweeted God Almighty (at Godstagram): Do not lose hope. When you are down to nothing, God is always up to something. , Manee laugh RT in LorenSetiawan at Dian98: at graceegisella di Dian98 ready sister chairman, om om * calling * laugh RT in anindya_maria: in graceegisella tell my father there haha. , Iyaa, want? So move dong laugh RT in anindya_maria: in graceegisella still often eat together with rest iya same ka cross? (._. `), Runner up nin RT in anindya_maria: in graceegisella how is it shb? , Retweeted Its Damn True! (In mnitstrue): I dear I dont know to everything when Im in a bad mood. , Retweeted God Almighty (in Godstagram): There is a blessing hidden in every trial in life, but you have to be willing to open your heart to see them. , Uh anin, me too :) laugh RT in anindya_maria: Hi grace! Miss you at graceegisella: nice really :)), Retweeted Damn Its True! (On damnitstrue): Second chances are not given to make things right. But are given to prove that we could be better even after we fall. , Mon, the existence of this laugh RT in samuelgalla: Online dong online. Weak you mon. Wkwkwk. In graceegisella, Retweeted katarina. (On etinn_): you are incredible today! Keep going girls! At Mirandaalissya at frilzavier at Putri_PA at graceegisella semangaat for the semifinals, Retweeted Dailyteenwords (dailyteenwords): Sometimes all you need, is someone who can make you smile. , Retweeted Felicia Ongkina (in feliciaongg): in Shirleeyyyy in mariajes_ in Dian98 in great graceegisella! ! ! The spirit continues me sayangsayangkuuuu: *, Today stats: One follower, No unfollowers via Andhika Viriyananda (at AndhikaV_): Must champion in graceegisella at Shirleeyyyy in Dian98 ~, Retweeted mariajessica (on mariajes_):? In feliciaongg: Hwaiting cintahh in Dian98 at graceegisella in Shirleeyyyy! Smoga wins: D, imyrt, still ... rt, Retweeted Laurentius Setiawan (in LorenSetiawan): in graceegisella * tepoktangan * congratulations (?) /, Retweeted God Almighty (in Godstagram): As long as there is God above me protecting Me, nobody in the world can bring me down, win hehehe at LorenSetiawan: How is this the result of the match in Shirleeyyyy on Dian98 in graceegisella, Retweeted mariajessica (in mariajes_): Cemunguth kawans! ! ! ! ? At the Shirleeyyyy di di998 at graceegisella, Today stats: One follower, No unfollowers via stats: One follower, One unfollower via r.t, Today stats: One follower, No unfollowers via stats: 2 followers, No unfollowers and followed one person via Love? (In JournalOfTeens): Do not love you love me, unless you mean it. Because I might do something crazy like believe it. , Today stats: One follower, No unfollowers via stats: No new followers, One unfollower via me also not nyatet kok RT in felixk__: Walahh in graceegisella: iyaa felixk__: in graceegisella weh, the chemistry was in all catet? , Done RT in NandaNalanda: in graceegisella Follback yes, iyaa in felixk__: in graceegisella weh, the chemistry is in all catet? , FW, Today stats: One follower, No unfollowers via stats: One follower, No unfollowers via so embarrassed to be representative of english debate: p in esteraspin23: Want dong dijelasinn: 3 RT in graceegisella: must dijelasin ya .., must dijelasin Nih .., ciee laugh at jerryminghoo: Pas lesson S.bud seneng banget .. when his teacher call papua province continues .. Wkkwk, - yes already laugh at Benedic_Dio: Lu is not wrong kok grace, I am wrong: (RT in graceegisella : My mistake hell from the beginning ._, yes it's still laughing at YosiaParLin: Elu sihh ... wkwkwkRT in graceegisella: wrong me from the beginning ._., Done RT in Dylenkumara_: in graceegisella follback, my fault hell from the beginning. _., Retweeted Damn Its True! (On damnitstrue): Be careful who you trust and tell your problems to., Sansevieria hyacinthoides or sansevieria trifasciata sih? ._., Retweeted Damn Its True! (On damnitstrue): You make me laugh When I'm not even in the mood to smile., Today stats: One follower, One unfollower via stats: 2 followers, No unfollowers via stats: 2 followers, No unfollowers via stats: One follower, No unfollowers via stats: One follower, One unfollower and followed 3 people via Stats: One follower, No unfollowers via stats: 2 followers, One unfollower and followed 2 people via stats: One follower, No unfollowers via stats: 2 followers, One unfollower via stats: 2 followers, No Unfollowers via stats: 3 followers, No unfollowers and followed 4 people via forny_kintiii (in forny_kintiii): Thanks for the gift {{}} at Putri_PA at graceegisella at BryanjeremiaPH at gerardalintang, Today stats: 2 followers, One unfollower and followed one person via? (In veronicaweil): in graceegisella tangkyuu, done laugh at AndhikaV_: in graceegisella: follow back can laugh, done: D at veronicaweil: in graceegisella follback yes, done yes: D at _MariaJes: at graceegisella followback: 3, Today stats: One follower, No unfollowers via stats: 4 followers, No unfollowers and followed one person via completed too. , Today stats: One follower, No unfollowers via Stats of the day: One follower, 2 unfollowers, followed by 2 people, Today stats: 2 new followers via pngen blang sstu nh .. koko sppu i pngen jual PS2'a, hrga ' A 850 rbu .. PS2'a Never been in srvis, msih bgus, if you guys bli dpet 2 sticks dn 1 mmry card .. if anyone interest, sms to hp w / tnggal'in cmment yes, thanks:), live to make other people smile, that way Our life will be more meaningful:), This video Grace Gisella / 8D / 13 iya Bu ..., Collection of Commercial Airplanes a la Grace ... ..</t>
+  </si>
+  <si>
+    <t>Carlleon XuLevel rises to the Ant Quartion, the fighting power rises again! , The combination will attach the stone properties to your equipment and improve the quality, Strengthening will increase your attack power and endurance, higher level, stronger fighting power, greater likelihood of winning in the fight! , Carlleon XuLevel rises up to the Ant Anthology, the fighting power rises again! , Strengthening will increase your attack power and endurance, higher level, stronger fighting power, greater likelihood of winning in the fight! , Carlleon XuLevel rises up to the Ant Anthology, the fighting power rises again! , Carlleon XuLevel rises to the Ant Anthology, the fighting power rises again! , Strengthening will increase your attack power and endurance, higher level, stronger fighting power, greater likelihood of winning in the fight! , Carlleon XuLevel rises up in the Ant Anchoring, the fighting power rises again! , Making a reward every day, definitely got the money! , Carlleon XuHeni Puspita Sari212</t>
+  </si>
+  <si>
+    <t>Hallohallo: D, 'Love is an easy thing to love somebody who is ready to be broken up your heart ... That's why you must be patient when you love someone' -someone there, Sometimes when I love 'I'm okay' I want you to look at me in the eyes, hug me tight, and dear 'I know you' re not ', yeyeyeyeyeyye, I hope so, Fallforyou ~, I need you so, Iloveyousomuch, I love him, I want him, Sleep, good night, someone there, 12:20, / (* _ ', in .4-: 4), /! , / 2 (4. * (* _6- #, you are there a birthday bsok yeah? Haha, '._) / 54, * (* _ /' * '_ (_:', /, '._, You are proud?, -, e25) _n 1, I do not why, All sorry inner birth yes .., Everything is sorry all my mistakes yaa either intentional or unintentional .., Just woke up, Cave flavor You usually ajaa deh ..., Sure you ?, ***** killing me slowly, Cave killing also you lama2, Sumpah yes you know kga hell me it kesel banget sma you knapa try you still exist in my house, where You just belain my mama mama just die you are there .., Wtf * ups, Bales messages I can times, Need more time, Forget and forgive his mistakes to you, GALAU = Because of You, Then I Uring2an. # TweetFAKTANYA, I'm singgle now hehehe, what are we persiapin future if we have to forget the present., Good morning, just woke up, It's not different school paaling just smsan aaja ..., something special, So I sayang a little Prayer a Nd hope my dream will take me there. Where the skies are blue to see you once again my love oversees from coast to coast to find the place i love the most where the fields are green to see you once again my love, ehh if kga know jngan ngatain dog dong bitch, M warning you! Once you 're grown up, you can not come back. - Peter Pan, I Love You = 3 Words 2 People 1 Commitment! , To be without you, is like facebook without friends, myspace without bands, youtube without music, google with number results? # Sodamntrue, Many questions yes me .... , Follow iya in laila_26 if you want to follow follback just :) :), where are you and I'm so sorry, i can not sleep i can not dream tonight ... ..., So, what should I do? , I do not want to be a part of history, I want to be a part of his story ..., Ngeselin yes you .... , I can be better, I hope so, 01122010, Just5wordsforyou'ILYSM ', # Pisces want their dreams to come true and their fantasy to be reality. # Xstrology, Just stay on, where ninggalinnya not say2 anymore, I never opened my heart to all the possibilities. ,? (???) ++ (???) +, Wish me luck for my exams, Will you remember me the way I remember you, Can not smile without you ..., Want sms but afraid to disturb, e? , Do not tired of what les merely? , Someone who understands me .... , Someone who understain me .... , Sorry, sorry, sorry, Forget yes? Sure if it runs out so, I just wan na be with you till the end of time, Love is old, love is new, love is YOU! , Sometimes smsan sma he likes not connect, I still discuss this issue he has moved to another problem, dizzy me! , Girls need L-O-V-E boys, Trying to forget my past time and trying to remember my life right now, I love the way you called my name, Its hard to look for someone who has the magic to make you fall in love. # Viatumblr, His life has changed, Stay true and be the real YOU! , Do not judge a man from his Wealth, but his Words. Do not judge a woman from her Beauty, but her Personality. , Learn from your past, live your present, and prepare for your future. , I wish we could be the best couple, Life is like a taxi. The meter just keeps a-ticking whether you are getting somewhere or just standing still. , Hearing the words I love you is a great reassurance to a girl that she is beautiful. , When a girl says she 's sad, but she is not crying, it means she' s crying in her heart. , My plan is to forgive and forget! , Love is just a word until it's proven to you! , You need L-O-V-E girls, You make your own life. Make it shine, Do not let people change your life. Be your self, Try it time can be repeated again, I want to redeem all my mistakes, Love is not about them, but love is about you and Patience Reveals deception in any well thought out plan! # Ihatequotes, Life = Drawing without an eraser # DamnltsTrue, Dreaming about the day when you wake up and find That's what you 're looking for has been here the whole time, And now I try to make it Proud I 'm never gon na be good enough for you I can not stand another fight And nothing' s alright, Life is like making a cake, if when it becomes so tasty cake, we have to repeat it from the beginning, Eh uh, Sorry Just want to remember do not forget nnton ccc (love cenat cenut) yes? , If we stop trying, that means we are better than a coward .. in bepe20, lord, shivering kya kya not strong enough to live again! , God, cool bnget! , I just wan na be with you, And you've got a smile that could light up this whole townI have not seen it in a while since she brought you down, Hey, is not this easy? , If you can see that I am the one who understands youBeen here all along, so why can not you see? , I will fly to your heart, pulse out, sorry yes that smsnya not in reply, Look at the person crying earlier! ? ? ? ? ~? ? ? ? ? , Really cold ? , Wanna cry? ? ? ? ~? ? ? ? ? , Nice iya nice sister? -_-, Ngakak congregation with rika, bena and dinda, Nothing special, Me, lowbat, Jibril, Jibril, Jibril, Just In time, Bummer ... .., Tonight will be the night that I will fall for you, over Again do not make me change my mind, I do not want to miss a single things you do ... tonight, I can not give you everything what you want! , Can you tell me how I can make a change? , Firework! ! -_-, I'm sorry I can not be perfect ..., We can not back down! , What do you think about me? , Down to earth ..., Ouch old mama vow really where he really is in his own stay at home! Oath is not good! T_T, Aaaaaaaaaaaaaaaaahhhhhhhhhhhhhhhh! He # sorrylgigila! I am not waiting for a price, I am waiting for a thing things I am his princess ..., Happy new year my friends ..., Dont forget to Love yourself, Dream is a desire in the heart to reach it but if there is no spirit, consistency and effort dream will not be nothing, the dream will only be a fantasy. , Not any more, Do not feel it? ? What I'm talking about is you! ! , Ihh you bummer! ! , Huh .. sucks! ! , Your smile beautiful like a rainbow, Ktanya cute again but unfortunately he rarely see because cwenya school in Lampung kasian I mah dengernya nyesek! ! , Great om I just broke up now already have new boyfriend again, high school boy again, dizzy me mah! ! , You are arrogant ! ! ! , Gmn he's news skrang! ! , Cave forgot it! ! , Kpan yes? ? , Honestly I am ... ... (is there a taugk kta2 surprise?) Please comment! ! ! , So what,, people i cma just ask me! ! , I am offline friends! ! ! Bye,,, The first lesson and the first day is Math,, fufufu,,, Face this mid with a smile ok! ! ! , Bsok want mid,, let's smangat Laila ok! ! ! ! And also have to bgus yes its value,,, I'm sorry my friends,, start hri senin this smpe hri jum'at i do not bka facebook first because the mid want to focus on learning! ! ! , God ... ... Kpan sih nyampenya pusingnih mna stuck again! ! ! ! , Oh my body pets like crumbling all,,, you 're my guardian angel,,, PR math base is the most annoying period 10 numbers there his son a, b, c, in till e if diitung2 still more than 50 The matter of how I want ngerjain liatnya already torn! ! ! , So what? ? , Ask at the dawn times yes people tu! ! ! , I'm yours, He's yours, My love and friendship story,, You will be the prince and I will be the princess, DeMi Lovat0, &lt;3 seLena &lt;3, Defeat is not the end of everything,, but the defeat is The beginning of success! ! ! , Victory and success are delayed,,, Mama ... ... .. pick her long really sihhh uhhh this pegel nungguinnya! ! ! ! , Friendship and love is the shortest way from heart to heart,,, Follow your dream,,, Fuck the bastard! ! ! , Y,, pardon this pda kmana this rmah so lonely people! ! ! ! , What 's wrong in my brain? ? , Please follow my twitter in laila_26, I'm offline, geez the show on isvil lma bnget hell boring this! ! , Come on where are you now friends! ! ! ! I'm miss you friends! ! ! , Wish you all the best friends! ! , Sometimes you make me cry, laugh, happy, and mad but sometimes you 're is the best in the world! ! Thank you my family and my best friend! ! , You make me smile everyday in the world I like you because you 're a god girl In the world! ! ! , I hope, I can understand some people in the world, but it's hard for me to understand some people's heart! , Say number to drugs! ! Friends,,, I'm sorry bepe I just dear happy brithday in my faceboook I'm sorry bepe! ! ! , Happy brithday bepe (bambang pamungkas) wish you all the best, always success as a footboller, and god bless you! ! ! ! ! , For all jngn ever stop to dream because maybe someday your dream tu kan so the statement! ! ! ! , Keep smile and smile okay all though you sading, crying or anythink! ! ! ! Better smile than sullen! ! ! ! Okay? ? , My family and you all I want to sayang somethink 'I just wan na be with you', My family and you all I want To sayang somethink 'I just wan na be with you' thank you all because of you I'm always happy 4ever, You look at me, teach me how to get the dream? ? ? ? Answer please all? ? ? , Teach me how to dream? ? ? , What will you do in your future for bringhappiness your family? ? ? ? Like and response please! ! ! ! , You can take the future even if you fail? ? ? Beleive that? ? ? , You can take the future even if you fail? ? ? Beleive it? ? ? , You cant take the future even if you fail? ? ? Beleive it? ? ? , Brithday of kartini? ? ? , Dont worry! ! ! ! ! ! Next time better? ? ? , I always want to be someone the valuable for all? ? ? _- and I always to be a good doctor in my future? ? ? _-, JnGn LuPa bCa dOa why are you? ? ? , _-, MeT bO2 aLL, hAvE a nIce dReAm,, _-, Dah adZan tUch jNgn Lpa sHolAt why cMua ... .... ? ? ? Hruz lHo BiAr dPet pHalA yG bYk? ? ? Kyyyy? ? ? ? , De2 eNak bNget bRu bNgun jAm sEgIt hBis tU dI sUapIn And dImAndiin lGi eNak bNgt why jDi dE2? W jGa mAu dOnk jDi de2 again? ? , Y amPun eNak.a dIngI2 gIni mKn jGung bKar sMbIL mNum kOpI hUh eNak bNgt! ! ! ! ! DO yOu wAnt iT? ? ? ? ComE oNe hEre iN mY hOuse, Huft sbel,,,, msa mz tmn kga da that in blz! ! ! ! ! ! Pda kga pnya plz medit inihhhhh,,,,, sbl,,,,,,, WhO 2 make you very valuable? ? ? ? ? , WhO 2 make you ver3 valuable? ? ? ? ? , What r you doing today? ? ? ? , I lOvE mY bEsT fRiEnD ... .. yOu aRe mY sOulMaTe In mY LiFe .... THaNK you mY bEsT fRiEnD, IcHhhhh ... ... ..CpK nIcH? ? ? ? , DucH mU uLaNgaN nIch,, dOa'iN why sMoGa bSa N dPt nlLAi bGus? ? ? , EnAk.a pLnG sKLh gNi nGaPaIn why? ? ? TduR mZ aH,, NntN bSeN,, MLz.a mU lEz mlZ tWu,, cPeK nIcH? ? ? ? , EnAk.a pLnG sKLh gNi nGaPaIn why? ? ? TduR mZ aH,, NntN bSeN,, MLz.a mU lEz? ? ? ? , EnAk.a pNG sKLh gNi nGaPaIn why? ? ? TduR mZ aH,, NntN bSeN,, MLz.a mU lEz? ? ? ?</t>
+  </si>
+  <si>
+    <t>Season 2 has come here to experience tournament dota 2 online. Can directly contact the PIC yes, Join 2 Dota 2 Mango Cup, Find experience with your team in this small tournament. , Steelseries birthday and again no promo give away. , DOTA INDONESIA PLAYERS TYPE - LopinProduction Link video or go visit at lukmandc Do not forget to SUBSCRIBE brother! Feat. At williamalexander04 in annasdac in timoteousjason at dotaindonesia2 in igdota2 in dota_indonesia in dagelandota in storedota2 # dota2indo # dota2indonesia # dotaindonesia, vintage, anyone have acquaintance or do you own selling xiaomi hape? Please scratch the cross, Ko, want my support team is not, support minimal funds 200rb, 500rb (free Jersey printing), 1 jt (free jersey, sticker, etc.) later OnLine Shop logo, workshop logo, On the jersey team, decal motor there are 3 matic 1 duck, paddock tents uk 3x3mtr ... The amount of funds given determines the size of the logo and the position of the logo of the Supporters ..., Special Month of Ramadan! ! ! , Funny, FOR SALEEE! ! ! Boxing Gloves Twins 10oz shades .. Used to wear 1 month suitable for those who like boxing or thai boxing. The reason for the sale has stopped Muaythai. Price 700k nego interest can be hub: 087888174993 / BBM: 7587B6F2, I'm playing Angry Gran Run! Get it yourself, FOR SALEE&gt; ID LS (d3,8 heroperm, many rare, gear perm 25, price start 200k nego), AUDIT ID (lv 3, avatar 300k, 100k nego) AUDIT ID (lv35 avatar 1,5jt, 300k Nego) Pay via ketemuan sms 087888174993 or add 25C273B7 or mention to in santmalvin17, I'm playing Angry Gran Run! Get it yourself at, Wow, who sell char ls please on add 21766563, who sell char tangerang at least d2 price 300an via ketemuan add pin my bb 21766563, HAHAHAH, GM when correct LS? More kejer exp nihh ... by the way sale&gt;&gt; KAGE NINJA 6 GS you interest add OutOfTime98. , Need a heartbreaker: c, &lt;3 Her ...! ! ! , Bye hongkong: (, tomorrow disneyland (why) ... .MANTAP!!!, In hongkong (why), I miss you baby, I miss you babyy (-??? -?? -????) , Kmren there is a kid of nuduh I invite riot ... laugh me,,, plg cm my book was invented laughing, My Top Profile Viewers:???????? - 43 views views????? 83 views ?? - 42 views?? - 30 views See who views your profile at!!; Groa, add bb I donk because abiz reset ... 21766563 pinnya, kira2 bsok I can angpao brapa yah??? .... .www. Ngarep.com, can not wait tomorrow ...!!!, Live Tiarapp!!!, Gilaa again eat together tmn Ga twnya sblahnya people who w love! &lt;3 steady, Skull ... fun today is lightweight bangett, Hopefully the ex class is the same grade 8 in join!!!! So bsa met ci fanny and ci thiaa, Sell Char Audition Guy: 27 girls: 26 250k tangerang niad write to my wall, Mobile Uploads,. _______ __, ______ / | ___ &lt;= -P, // __ \ __, //;! __ (at) __! __ ___! (In) __ _ ! ({}) $? : * ({}) Again nyetirrr. , Huhft ... ..bntr again practice exam! ! ! must work hard ! ! ! , &lt;3 &lt;3 ayodance 4 ever, haahaha gy on the way plg, on the way to sms,? ? ? ? ? ? ? ? Audid? ? ? ? , Hahaha, Mobile Uploads, False Id of Ayodance, play sma GM so lag, Happy 3rd Birthday, Audition AyoDance, stay for special events and other surprises at Audy AyoDance 3rd Birthday! , Zzz Best Couple 2009, zzz, Huuuh .... Age in the city of Jakarta exclaimed sich kunu cma ngebosenin? A? A? A? A? A? A ..,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? % 99? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? HAPPY_NEW YEAR______,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , -Black Malvin- (-Black That Malvin-), + - - - - - - - - + - + - + - - - - ++ - - - +,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Foto id q 3 years ago with nathan alvin ditya chandra, Need COuple like &lt;&gt; &lt;&gt; &lt;&gt; &lt;&gt;, &lt;3 Luph Mii, &lt;3 &lt;3 &lt;3, Huh .... Bntar again UAS truzz UASBN cape my heart bljr truz T_T, If I Know My Friends Pie Tempe my brother sambel the other soy&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; &lt;3 huhuhuh want to learn magic nech but Like her if studying home tutoring her&gt;&gt;&gt;,,, HMmmmmm when why learn it? ? , Finally eating goreeeng crazy rice also definitely nech, Otw to Emerald bizZz it go home deh, &lt;3 &lt;3 finally,? ? ? My friend's voice ...? A? A? A? A? A? A .. my voice ... .If you want to play audition? Me? ? = D? ? =))? ? ? ? ? Birds of birds cendrawasih umpteen and thank you .... ,? ? ? My friend's voice ...? A? A? A? A? A? A .. my voice ... .If you want to play audition? Me, mayOnisee - - &lt;3 may0nisee - -, GENERAL PT. Megaxus Infotech as the licensee of the Audition Online and Lineage 2 game services in Indonesia, reserves the right to make the following terms as a condition that the user must comply with in order to be able to use the service. PT. Megaxus Infotech will Using MI-Cash OP (Online Payment) and MI-Cash Voucher as legitimate and official payment system. ACCOUNT You are required to register,? ? ? ,? A? A? A? A? A? A .. finally after long skian waiting for the arrival of audition at my house can finally YI-HA, les ... les ... and tutoring. , Brilliance today gara2 scout kecapeeeeean g so men audit deh, wedding party! At # $% ^ &amp; * (), wkwkwkwwkwk finally comes patches of August ... ... ... ... ... ... ..! At # $%% 5E &amp; * ()! At # $% ^ &amp; * ()) (* &amp; ^% $ # in!, My love party at 2008, Recharge your MI-Cash AyoDance and follow Mega Dahsyat event from June 1st 2009 to 31st August 2009. Win total prize 40 million Rupiah !, Duh can not wait nech waiting for the path of 18 august, my friend is good friend, please support yeah enough 1 sms each? So you twins me Doddy &amp; Donny become The Master Junior on Sunday, 9th Aug'09 pkl : 17.30 on RCTI OK,, Makasi yes ... ..., Grand Final The Master Junior Sunday 9th August 2009 pkl: 17.30 on RCTI OK Type MJ spacebar DD send 6288, as i did not go bsk hiks .... .., day and night i always stared at the screen glued to on line on line on line fingers and keyboard clash pairs earphones hear song i online online on line on bed late wake up early morning nyalain online computer again not want typing job e -, Is at home, ooo, cool I like that, for ayodance player there is mautukeran not same id q lvl 1 7 lho, hy all can not wait for tomorrow because I play audition, ok I am really a fan of him, I am salute bngt same mu just me again kesel why you mu klh opponent barca final enough teklak 2-0, ok.gw also likes lagoon The title lets make love, ok.gw also love the laguna title lets make love, yahoooo, ahhh indeed i just play but already lvl 10, yes it's okay even though i do not like it, ye iyalah i ain audit, pretty, its so cool arigato , Here I am shy, cool, oh cool is out completely uu, Click here to play Pet Society: why always alway cause because never never, test, is waiting 18june: D, kimchi, Ye ... ... pet sos Ku lvl 8, -kimchi-, wdh my pet society is destroyed, what material, mls nich all next week gempor every ari bljr 4 jm, I love $ 4 ever, there is no online, ne facebook orng gntng hihi, duh want tdr tired Abs main audit same geta, Anybody play audition, Dh ampe jumat, ouch lazy nich bntr again test kom kom Petensi, HY all</t>
+  </si>
+  <si>
+    <t>BzzZzzZzzZ, `, Mi xiibi [C] halvin Quieres un xiibi? Visita: zzz zzz zzz zzz, cheat learm jutsu cepet: 1. open CE 2. buy jutsu 3. check enable speedhack 4. speedhack it's up to you guys. NB: do not get out academy later birthday again good luck, OOOMGG..these friends are visiing my profile? ? : O: Nature Uciha - 1136 views Aciell Sullivan Portnoy - 983 views Akmal Ghafari - 542 views Adira Kotek - 300 views See who views your profile on my friends are visiing my profile? ? : O: A Hun Coolz - 1136 views Achmad Satria Nugraha - 983 views Adam To Mooshimasu - 542 views Afra Bilqist Hendrawan - 300 views See who views your profile in the morning to the doctor ..! ! , What do you think.. ? , Bored.. ! ! ! , Thank 's friend q, thank' s all, GARUDA on my chest GARUDA my confidence is sure today definitely take care .... ! ! ! ! ! , Laos 0 - 3 indonesia, resume republic, Mobile Upload, &lt;3 15112010 &lt;3, one day againt! ! ! , Good morning everyone, good morning friends! ! ! ! , Two days againt, add pin bb me 22BB3560, four days againt, five days again, five days again! ! ! ! , Five days again! ! ! ! , keep waiting ! ! ! ! ! , What do you think, zzzzz sleepy want to bobo first achhhh,,, m (_ _) m (/ _) () | () | (^ - ^) / (^ o ^) (&lt;), ccd, who play farmville add neighbors me donkkkk, BL teacher flooded wkwkwkwkwk ... .... , Dear number to cheat, what do you think, Gemscool ___ Point Blank _ ... .__ / _ \ ___: _ | _________- [===: [] `` `| _ | \ __) | ./ ' || Kriss S.V` '\ ___' \ __ || By ..: ApHiN, skinny elephant wkwkwkw, MatI LamPU! ! ! ! ! , What do you think ? , Task b indo in kumpulinnya when? , what do you think ? , Wkwkwkwkwwkwkwkwkwk, ccd, wkwkwkwkwwk, justin lip jontor, turns his age 51 years old, wkwkwkwkwwkwkwkw very old, andy ccd, who wants by 1 MT same me, njink $ $ Z! 12d, god, ~ Gods PB ~,: e017:,: eo17:,, sahur! ! ! ! ! ! Sahur! ! ! ! !</t>
+  </si>
+  <si>
+    <t>Well .. Wow .. ._. ) B, Hmm .., Hmm ..., Thank you my friends for saying happy birthday to me. , Otw to tanggeng, cianjur, Apologize born And inner friend, if w there is wrong And if the words / deeds w offensive ~ met Idul Fitri, lgh him, Maen DotA lost only already (_), Prayers jum'at, Know link minecraft bwt not? , Anyone knows the link bwt donwload minecraft no? ? ? , Lass Striker, Sol Badguy, Wish me luck for final examination,? (??) Game Minecraft w in apus ma abang w? (??), LS in the nine store can no longer ... Shit (????? '), # NP: Avenged sevenfold - Blinded in chain (while reading the lyrics of the hard song (_)), # NP: Avenged sevenfold - seize the day, in bogor, Finally BBM on, -__-, hp at service, Arsenal opponents stoke city in britannia stadium, global tv, smoga bsk can play GC, amin O:),. Good morning all, Good night all, Good night all, have a nice dream, Yes, arsenal 2 (r.van persie) liverpool 1 (goal back arsenal), Go arsenal, Eminem, Anyone know black right bwt ereder no ? ? ? , Bruno mars, Char pb w to hack, the diamond again, damn it hacker! , Pr ktk w is lost, gloomy: '(, in the ciater, in tegal, hard image lass -__-, Waiting Let 4th job ... .., Gr2 play dota, this throat so sick .... Hiks ... T_T, Why w so the cold is yes, Why is there a paint ballnya Still There ?, Add pin w yes 32267655, # now playing: west life - miss you, Why should there be pr? -__-, There pr not yes, finally lass I am job 1, and elesis will be job 2, yeah !, yeah, persib win opponent persija 1-0, Yes, mu lost opponent liverpool, alhamdulillah, finally elesis w so spearman (job 1), otw to subang with my friend , Well, internet cafes close ..., Yes, later elesis want job 1, oh yeah !, Why am I so addicted to play GC yes? Whereas I used to be lazy to play GC ... -__-, Azzz ... -__ -,:), -__-, Nastarnya delicious:), abdominal pain -_-, Good bye all, see you next time =), Astagfirullah, children today do not remember sin ..., Maen internet cafes no money , Watch nothing Cried, naek spedah do not know what to do, play football again sick, sleep can not sleep .... -__-, Bosen do not know what to do ..., Finally after months of spirits washing watu also ... =), even though finally back pain sick T_T, Leg pain-__-, # now playing: koes plus, Goodbye, Good bye surabaya, hello jakarta = D, Mu losing this lousy, Mu opponent blackburn rover, Dead lights ... -__-, Capek jalan jalan mlulu .... -__-, Gk kerasa is Friday ... .. Tar again go to school ..., in BNS, Vacation is tiring ..., Good morning all ... = D, kepengen play ball ..., -__- ..., in soko adventure, blitar playing arum rapids! Mantab ...! , # Now play (in my brain) = miss you, # Now played = nothing played -__-, Get free, but do not know what to do ..., in sidoarjo, go surabaya&gt;&gt;&gt; mancab, why visualista clothes Newly given instantly lost in the wiz .... T_T, well tomorrow repeat ... ..., well there is a task, just want to relax keingetan there pr .... , Well ... Minecraft its gg can be in kom w T_T ..., May tomorrow better than today .., amin .., why could this happen to me? , Groggy .... PR b.indo blom in full T_T .... -__-, This exciting gk, no exciting status ..., Good job indonesia ... I like your style ..., why mulesnya pas malem2 -__-, status update: They Say, I'm a Monkey! , Goodbye all ..., time for sleeping ..., david silva is playing ball, hit glass run - play, play lost saga, asik once, there are people pursued by police, chased so kayak artist strange today, tumben again exist , Laughs ..., ball bekel in kick nani, hit the glass in the pursuit of his strange dog today, tumben, not boring, laughing ... gokil2lan together Kent Demas Kynan ... produces PP that make me laugh ... laugh: D, Morning - Morning gymnastics, Do not get stoned, Diem, Make bored ... -__-, Pain ... -__- .., wkwkw .. kasian yes, mentors who participate in the voice runs out, luck w kgk .. Hopefully healed yes .. ^ _ ^, Tired really already, just the first day in cibubur already tired, 3 day royalty. Agency lemes all .. T_T, Good luck ..., Hopefully later this afternoon can play LS ... Amin, MU Vs Liverpool, Azzz ... TT ... Gk main lost saga 3 days deh ..., -___- , In bogor ... ^ _ ^, -__-, Sleepy ...,? ? ..annyeong (hello!), Colds that sucks! &gt; = (, Colds eui ...: (, Huam ... Sleepy ..., LS again play the lights, sorry yeah dra so do not play together ..., if people dizzy delicious what is it? Hiks ....: '(, -_- ..., Bsk what lesson? I'm a list of lessons learned Who knows how to tell why ... # 8.2, bsk wear what ?!, All, sorry ane Ye if ane got one ... Minal aidin wal faidzin, apologize born and inner .. Okay ..:), T_T .. . Well the grim reaper runs out ... T_T, Geje ', what is it like? , ~ _ ~ Complaining .... , Want to listen to the song but gg there hp, boringnya my life ... T_T, Ngantuk eui ..., Ngehias tired class also ... .. T_T, Teehee, pretty money 3 rebu cman working iron, Why yesterday night &amp; now night Ujan T_T, have eaten rice eggs, eh .. Forced to participate in a contest to eat rice Tumpeng deh T_T ..., Kepengen play internet cafes -_-, kentnya kent funny, want me cubit but nti in claw ... Hehe .. .., Hr this day plng tired brother w ... T_T, ngelag again already ..., Not magic, not magic, but to ... be ... tu ... lan! ..., ngelag .... .T_T, really sick at slander T_T, Time to sleeping ... .good bye .. ^ _ ^, Bt eui ... ~ _ ~, Want to paint a new number w this 085697257203 , Which gg want to paint gg need protest, Wow ... surely it orng ngebajak facebook me again ...&gt;: (, Narnia in my house, earlier in school naek skateboard even jatoh continue to swell, hold the table in kak tasya k, It really hurts .... T_T, it's time to play, come home from playing foot futsal w sick T_T, finally repeat is finished also ... ... hopefully good results ... ... amin, RS Sari Asih, aqw i ' M coming!, Kepengen bk facebook on kom T_T, Which snowflake do you still need ?, oh my dad is not on the road ... T_T, plow facebook kiki ah .. hahah .. -vika-, pirate FB kiki laugh -vika -, T_T ... .. hair should be 3cm ck, time to go sleep, bye, tomorrow from batam&gt;&gt; to singapur:), From jakarta&gt;&gt; to Batam&gt;&gt; to ...? I do not know, time to go offline, bye all, why many online tonight yes? ? ,? Time to go online .. again? , Time to go offline, bye, time to go online, oh ...! ! Dizziness colds ... ck, what is it delicious? , Fortunately pr b indo w deh finished fiuh ... .., kwokwok ... sedh ..., wht, O.o, T_T pr mtk hard T_T, and w! .... , I'am tired! , M m s kiki, d't tch m shs! , My seker ..., Wht ever ..., What evr ..., yes God hopefully my neck is not gatel, amin ..., be mde: and, Bring, bs, in rm w quiet yes the internet is toll free Tv show less cape deh fun, finally get back playing facebook, what ever ..., sad really ... ..., almost just ipa in remed, huf .... , What happened to my internet yes? , Anyone playing www.canaan.web.id? ? ? ? ,? ? [? ? ]? ? ? : Justin Bieber - somebody to love, Justin Bieber - Favorite girl, Simple Plan - welcome to my life, Sean Kingston - Beautiful girl, N'sync - it's goona be me. , What good is it? ? ? ? , ..:: OowH? YeaH:: .., in coment ma JB just be proud</t>
+  </si>
+  <si>
+    <t>I love novia forever, I think I want to do something with someone who lives in bsd hehehehehehehe, Mice cartoon, Morning .., Balloteli can also be angry, Xaxaxaxa, Follow my twitter why his name in Junga_sm, do not forget also promote also why ...&gt; _ &lt;, My birthday today ..., Abis learn, watch one stop football, mind refresh deh =), My Dog photo album, Do not believe with bad news, but believe with your imagine and future what why ... ? ? , Finished futsal ... C in peknya ask for mercy .... , L 000. / EEEEE I 0 0. / E I 0. 0 / EEEEE I 0. 0 / E I____ 000. / EEEEE, bacod you junga, my headache this month a lot of repeat the same pr from *****, watch out you wrote that kind of on my wall, watch out, ampass base, at home sweet home, busy, fights again this upset. .. .mo in ngepain yes? ? , Dead rising 2, Titanic commercial ..., Titanic commercial ..., Test, ~ _ ~ Serem ..., why did I realize why, I was plowed with my sodara, Ahhhh! ! ! , Mobile Uploads, Woi .... ! ! ! Do not call that name anymore .., My piano, My first guitar, baby dog, Mobile Uploads, BIG Bottle ..., jun94 p3c1nt4 w4n1t4 CeLaLu; ; ), WTH, Mobile Uploads,, The formulation of the text of the proclamation, this, the formation of the ball with the least money, anyway, Indonesia must wait regardless of what happened .... , This strange picture, my video, HUT RI why the 66.semoga progressively and glorious Merdeka! Merdeka! Merdeka! ! ! ^ - ^, This morning is not enng bngt this time want to play WII just 15mnt just resentful! ! , Tekken 6 all finish, help me please, ouch, today tired of abiz from ITC Mangga Dua, capeeeek! ! , Help me! ! ! , Very bad today, 1.internet lemot, 2.update PB about two and a half hours, 3. no one ngechat me, if any, and even then not answered, add pin bb 309FPA73, follow why in monster_house, si sister nyimpen photo Cici it, not deleted again in BBnya new buy, maybe let me so deh. , Wkwlwlwk my dog ​​again stunned aja.munkin again thinking his cewenya.biasa, still do not have a boyfriend hehehehe, hehehehe finally cs life or die can! , Wild ones, woy the 7th grade I just remember if tomorrow PE brings steel gantii eh tell the other yes (for those who do not know), ehm kevin survived a new life with inka, like deh jailin friend .., junga ugly ..</t>
+  </si>
+  <si>
+    <t>Hmmm # vonvon, My new team &amp; new family in binus hahahaha, Morning all? ? ? ? Start this morning with a smile yahh? ? ? ? ? ? ? ? , Konyoll hahaha, Find me on # Path now! Go to to be a new character to change the world, Thanks a friend who already ngucapin? ? ? ? , I'm playing Monster GO! An endless runner with great RPG elements, Join me in Pocket Army! , Join me in Pocket Army! , I 've just reached level 4 in Pocket Army! , I 've just reached level 2 in Pocket Army! , I was wrong. It turns out, when you love a woman, you will be happy, when she finds her dream man. You'll be praying for them forever. , Add my pin bbm in Windows phone, Otw home? ? ? ? , Adehh so kgn same cigul? ? ? ? , Guys add my new bbm pin 74C5B7EB, # Mewithmmyfriend # Mewithmyfriend # Atschool, Hadehh can not sleep this -_-, OTW Tangerang, Mother day, Bosen this anime already finished in watch no longer know now watching ngapain -_- , Tester, Shit is wrong download nguras quota much more? ? ? ? Jzzzz, Happy Easter Day All? ? ? ? , Adehhh tomorrow can not go to Lampung deh? ? ? ? , It's easier to use windows phone than on android? ? ? ? , In my add id line: leon1096 # for those who know it, Pake lumia not as simple as it turns out -_-, Dizzy wearing Nokia Lumia, clash of clan made funny movie also laugh, Adehhhh wait until 12 hours old very well jzzzz, Bosen Do not know now watching what, Datang2 to kotabumi no more sing dangdut laugh, Add my id line: leon1097, edit xbox live he, oh reminiscent memories of the past so pengen back again to that time again, ngenang the past funny well yah Laugh, Tomorrow go to school just for promotion only, Oops confused on facebook on ngomongi karma but they do not know the mistakes they make lately -_- but this could happen because their past a lot of wrong doing so can not be fixed -_- , My little empire, Siau ren wu te xin yen, Confused now watching is what, now watching ngerjain pr Mat book even missing package -_-, now watching the movie males just2 it's been confused, bosen, come you c An win this, join now now, Come with happiness go with sorrow, Bener2 want to have gaming computer -_- but money still not sufficient adehhhh, Mantep nh, Ngeliatin photos stamp go meh yesterday in rayain from every fothang kayaknya exclaim laugh, Mw Buy Bolts must think again jzzz -_-, rich kalo this way better just get out of eskul basket at school -_-, di&gt; -? ? ? ? = D * gift * Gong? I Ta Ci in&gt; -? ? ? ? : D * gift *? In Nin? Ui L in&gt; -? ? ? ? =)) * Gift *? And hi new? I in&gt; -? ? ? ? : * * Gift * you are you? Ng an di&gt; -? ? ? ? : * * Gift * Nin Nin? Ou? = D /. ? ? ? &lt;3? ? ? &lt;= - P. ? ? ? . ? ? ? B-). ? ? ? . ? ? ? &lt;3 &lt;3. ? ? ? . ? ? ? = D. ? ? ? . ? ? ? . ? ? . ? ? . In this Horse (Ma) year ...: DMa know chen kung (horse ran to the destination)? Success &lt;3 &lt;3. ? ? ? ? ? &lt;= -P &lt;= -P &lt;= -P &lt;= -P? Happy? ? ? ? ? CHINESE * beer ** beer ** beer * +? ? ? ? ? ? New? ? ? ? ? ? ? ? Wooden Horse +? ? ? ? ? ? Year 's? (*) (*) (*) +? ? ? ? ? ? ? ? ? Xin Nien Kuai Le? ? \ / / ? (GONG XI FAT CHAI)? ? / | \? ? From: David &amp; Family: D, Sie-sie well today for joining the bazaar for a bazaar event, next time there's a bazaar again to come again no? Hehehehe, Hahaha today the bazaar goes well there is no obstacle like rain even though the heat is also sh: D hahaha% 20gpp the important show is successful. Well hopefully the funds can reach the target. , Nice day hehehe</t>
+  </si>
+  <si>
+    <t>Yoi, Be yourself, do not be someone else to try get someine you want, Thankyou all who say 'Happy B'day'. Sorry yah g bs blsin all, kbykan = D, Thanyou who already ucapin Happy B'day all to me. Sorry g bs blsin all, byk for him = D, When I See You Smile, J&gt; Kaos Bola on 150rb net. Info: add pin 231788e0 / Comment. Dianter in the area of ??Gading Serpong, Again gather together ... And exclamation, Sleep, -_-, Do not be afraid of mistakes. Kebikjasanaan usually born from mistakes .. (why) Like If You Agree (why), Go The Miami HEAT! ! , -_-, Bwt who already ucapin Happy B'day .. Mkasih why: D, sry g bs reply smua .. Kbykan = D,, New Facebook On Blackberry (why),? ? (???), ._. , Gadeliv:] x, e_? ? _? ? _ G: | , in . In, Lag, Alone ~,? , -______-, twitter, facebook, weak bbm brain? ? G? Already -_____-,? ,? Some Like You - Adele, Udh long g bka facebook .. Wkwk xP, Never Mind: p, Best Day Ever (?) /, There is Alay _, not deliv (???? _??), Gw? ? Homoin? (??), Suck 3- | , Jesus my Lord is miraculous: D O:), ngguin M update&gt;: /, I Just Call To Say I? You * singg, (T ^ T), Dizzy: &amp;, Pegel bdan me: &amp;, What's wrong in Indonesia: Naek busway? Digrepe. , Naek train? Pickpocket. , Naek angkot? Raped. , Did you walk anyway? Hit by Xenia .. Even Ngesot only? Still kicked security unit .... , Silent, cape? (??), Just The Way You Are? , Rain zzz? When? ? ? G not tpat -, -, Gw bgung pda say God ngsih trials ... emngnya God ngsih yak trial? - a, Need Chat, Because I'm proud of my # 1 Friend Jesus, I click LIKE, Bntr Again go to school -.-, Just The Way You Are: '), Jesus Inside o:), Win Without D' Big Three (why),? ? (`'||||||')) _? |||||| ? _ (????? (Oo) + - o0o - -U - - o0o- + Have You Seen Forums + - - - - - - - - || || | ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||| _ () ??(&gt;, (?, (? _?),?),?) (&gt; (&gt; &lt;(&gt; &lt;)&gt; &lt;) &lt;) / _ | / _&gt; _, _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ I 'll Never Break Your Heart, GALAU (why), Say the number to be upset ... Say Yes to GOD:) Gbu All, ~ * Happy New Year 2012 * ~ Goodbye 2011 full of hope and welcome 2012 hope , Get Ready! ! .. Set! ! Go! ! # Run! ! , Ntr mlm in SMS&gt; 5000 fireworks glide (why), Just Be Yourself, A: Your father is a gado2 guy why? B: kq know? A: Psen 1 why do not you go home .. do not worry B: Gubrak! : D, Misery - Maroon 5, N&gt; Alliance at Travian Speed ??x3, Bosen x_x, LIKE IF YOU LOVE JESUS! ! ! ? ? ? ? ? +++? +++++++? '+++? ? ? ? ? ? ? ? ? ? +++? ? ? ? ? ? ? ? ? ? I LOVE JESUS? ? ? ? ? ? ? ? ? ? +++? ? . +++? ? ? ? ? ? ? ? ? ? +++? ++++++? . +++? ? ? ? ? ? ? ? ? ? +++? +++++++++++++? . +++? ? ? ? ? , Kpla chamakh bcoor .. Wkwk, When life is hard, thank God, since it makes you grow. When it seems to be the number of ways, find God, for He knows the way. , Dear God, I wan na take a minute, not to ask for anything from you. But simply to say thank you, for all I have. ,? Sleeping, Merry Christmas All! ! : D, Life is about trusting your feelings, taking chances, losing / finding happiness, learning from the past, and realizing people change. , GOD always has something for you, a key for every problem, a light for every shadow, a relief for every sorrow &amp; a plan for every tomorrow. , Wtv? (? -?)? , Wtv? (? -?)? , Fast replies make me feel like you want to talk to me, but slow replies make me think you 're talking to someone better. , My problem is that I can not stay mad. I always end up forgiving people even if they do not deserve it. , Hey you, yeah you. The one reading this status. Wan na know somethin? You 're beautiful. Do not ever give up. , That awkward moment when you fail at being mad at someone because they make you laugh. , YugiOH Capsul Monster (why), The number one rule of love; You can never be just friends with someone that youre in love with. , Arsenal 0 - 1 Man City,: $, Apian: D, I Do not Mind Standing Everyday, I'm not asking for someone to take the pain away. I just need someone to listen. Someone who cares. Is that really too much to ask? ,? Sleeping, Take me to ur heart .. Take me to ur soul # sing, Test, &lt;/ 3, Easy Come .. Easy Go 3- | , Miss you: (, Jgnlh look to your msa lalumu ..??? G beautiful / whatever it is .. Krna it just msa ago .. Now we are? .. today .. Jdi seelh msa dpn .. Do not miss brgntung with msa lalumu , Annoying, I'm Sad (-? -), -______________________-, Take Me To Ur Heart? # Sing, No one is too young for love because love does not come from Your mind, which knows your age but from your heart, which knows the age number. , Can Hardly Believe, Those random moods, when you just want to kill everyone for number reason. , Even if you are a disadvantaged party, he always succeeds in making you feel guilty for ignoring him. , Pending! ! ! , Zzz e_? ? _? ? _ G! ! , Dont let anyone ever make you feel like you dont deserve what you want. , Dear heart, fall in love only when youre ready, not when youre lonely. , I'm not afraid to try again. I'm just afraid to get hurt for the same reason. # Twitter, Sleep? Not yet: D, Hey, soul sister # Glee cast, Hey, Soul Sister # Glee Version, I forgot what you said, but I'll never forget how you made me feel. , You still the one I love ..? , The number one rule of love: you can never be just friends with someone that youre in love with. , It's amazing, how one day someone walks into your life and you cant remember how you ever lived without them. , What's on your mind? , Damn! ! My Heart .. Has Been Destroyed (By You), Whenever that certain person gets online, your heart beats faster. , UGD = Unit Galau Emergency, We Never Be Same .., Do not tell me you scare, No matter how busy a persons day might be. If they really care, they'll always find time for you. ,? ? Wish Me Luck? . ? , Im not a perfect person, I love the people who stay with me, I love those people who stay with me after knowing how I really am, jgnlha you brubah .. Dlam m d's to understand me # Ran, yeay (^. ^) / Lmpu'a flame, yeay (^. ^) / Lmpu'a nylh, off the light? (??), Trying to forget someone you love is like trying to remember someone you never knew. , Finding .., I'm Flying Without Wings # West Life, Talk Last Do More,: (, Smua??? G already I lkuin .. Trnyta just wasted dm wktu gw .. (-? -),? _ (?), IPS Hrus? Maximize .. Chayooo!! Smngt! (Y), IPS should be maximize bljr'a (why )!! Chayooo, IPS ?, Mandarin in process = D =)) = D, So Difficult? (??), Hala .. this is Sea Games .. very rese already = _ =,: b, Oh No, Bsk UAS IPS and Mandarin? (??), Ahhh .. Bsk Ul IPS? (??), If I can .. I will do anything for you ..? # Amazingzangzong, UAS Week? ? Mlai bsk ..? (??),? , Miss You Were Here: (, Shock: s, What's the matter? Do not tell me you scare&gt; =) =)): D Ila Ila ~? ~ Ila: D =)), Gk Ad Signals? (??), Without you .. There's me: ') number, Without you .. There's a number me, JGN NEVER FORGET THE ORGANIZING ORGANIZE! , GMT, Byk Pr? (??), E_? ? _? ? _ G! ! !</t>
+  </si>
+  <si>
+    <t>Wtf ..: v, laugh teamwork: v, laugh, laugh, sad: v, laugh true, LOLOL his face demanded to be hit, wkakakkaka laugh Michael Setiawan Dharma Tunggal Agus Aditya Pramana Andhika Prawira, true! ! Michael Setiawan Dharma Tunggal, Uaaaa cool Michael Setiawan, LOL, Dharma Tunggal, Dharma Tunggal can not be sister? , LOL, jerk, park ji sung serem ci x_x, we wish you happy merry christmas we wish you happy merry christmas and happy new year: D, azzzz, aaaaa tomorrow take rapottt my value ancurr no yaa T_T, Creepers green things with four legs . They will stalk you and follow you and sneak up on you making the sound number. Then when in range they start to hiss like a bomb and then boom! They blow up, hacked, I'm unyuuuh: 3, woooo xabi alonso is 30 years old today O.o, ahh ... .. zzzzzzz today a lot of problems T_T, crepeer .... ? ? ? ? Oh man ~~~~~, wkakakakka, new friends, ZzZzZzZzZzZZzZzZzZzZzZzZzZzzZzZzZzZzZzZzZzZzZzZzZz, hope there are no more aftershocks amin, more ccd quakes, wow wow more conflict O.o,: D, () (-_-) (),? (??)? (??), LOL! ! , Richardo elder brother Oo, l6'2 3 36, barcelona lost wkwkwkw, wew, playing tekken 6 ~~~, tomorrow pedaling bike to renon (why),:), i just want to be a good man but there are just me : '(,;), * _ *, Makasi all that ucapin survived {(}}, waisak ~ (??? ~) (~???) ~, Money is not everthing, but Money number. Everthing is nothing:), i dont have anything to share: p, hooooaaaaaaaammmmmm ... ... ... ... .., nyepi many days online -_- -_- -_- hope that next year internet Dimatiin: D wkaakkakakakak, many nyepi days online -_- -_- -_-, FB? You are closed (!!?) / (?!!) /, Aaaaaaa ... .. counter stike long time its download grrrrr 9 hours modem weaker brain again (and), A, uber twitter can not? I open cuy ... ..., i do not have time for you * talk to the hand *, wew my bb is very weak brain (and), wiw q weak brain (and), oh my cold T_T? You breath hard T_T, bli bayblade ~ (??? ~) (~???) ~ Aquila ~ (??? ~) (~???) ~, Bli bayblade ~ (??? ~) (~? ??) ~ Aquila ~ (??? ~) (~???) ~, My friend there is this cool link useful in open yeah will not syesel this isnty links: fitting, wew on w2w lan all -, loser Remain the loser (and), jfjeddfujerndfjsaugjhqlwqkgjdskgjgfolqloed $ mcv and. Ndkhgolwqoituykmdsjhgflkuj, ??(???) -c &lt;? _? ), (???) -c &lt;? _? ), You now me so well ... ..., oh boringgggg ... ... ...! ! ! ! ! ! ! ! ! , Oiiiii follow twiter q donk di dicky_ankaasa for a while i foolback for sure:): D, WTF ... ... ... ..., wiw ..., m /, m /, in a, forgot, (?? _????), On the way to school: D, hope that's not true? ? ? ? I bolckir. Amen: | , T_____________T, boring time: '(, please follow my twiter: dicky_ankaasa, I wan na to fly: D But I can not fly:' (, Abcdefghijklmnopqrstuwvxyz, What's on your mind?, (!!?) / (?!!) /, What's on your mind ?, what's on your mind ?, at changi airport (kenapa), ngurah rai airport (kenapa), njudfjhdsldfrtuwqklwbfnwlfjiriswqndsq Wkdxejenwjkwjcbf. Wahhh ... ... .. me Gilaaaaaaa T_T, 2 days again I can not wait go to malaysia singapore * dancing *, time to sleep (= |, characteristic of deprisi: sad always, nagis tampa cause, no? You do activity, It's just the same as me who lost 2char in xian, seremmm bali ujan esssss, may be you go, but iget home also;), you may go, but iget home also;), may be you go but iget Home too;), home jak khe pilipin can not win khe, come bantaiii fili, seremmm bali ujan esssss,: '(xian can not be opened asy Uuuuuuu. Dog why else is this? You hunt asuuuuu, gtu mu. Ok fineeeeee! ! ! ! ! , All if I am wrong please forgive him. Miss you all: *, all if i have your pda, now outing: D,? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To the? =))? To? =))? ? ? A? ? = D? A? A? &gt; =) Haa&gt; =)&gt; =) Haa&gt; =). :):):):) HAA:):):) HAA:):):) HAA:) * ... * Haa * ... * * ... * Haa *. ,? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? To? =))? ? ? A? ? = D? A? A? &gt; =) Haa&gt; =)&gt; =) Haa&gt; =). :):):):) HAA:):):) HAA:):):) HAA:) * ... * Haa * ... * * ... * Haa *. , Allo all, i have a new ym there yoo dickyasa in rocketmail.com, +? + (? _?) +? + Fuck you bitc *, add my pin: 232F7A5B, no need yes please bring name ORTU, god help me for this test. &gt;: /, Its a game you now. If win or lose You do not get anything. So do not talk much ..., ahhhhh. General comic, $ eeq, I love mira, no human being lives eternally. Briefly also will be old and died. So do not stick to the world, yeee ... .... , Oiiiiiiiiiiii there is a cool link girl cewek, jit mu,? (?.?) +, Wihhh ... ...,: P, &lt;3, Hadoh .... Do not know what to write status? : (, Hahha, a, my hiks hiks bone crack hits hits T_T, T_T hiks hiks ..., cacaddd ... ...., Cacad ... ...., Aq hate someone ... .., ( Let your friends know that you 've sent a free gift!), ~ _ ~ Aa, dahh start schoolhhh T_T, go spain!!!!!!!!!!!!!!!!!, Hore win, &gt;&gt;&gt;&gt; BRASILLLLL &lt;&lt;&lt;&lt;, wkwkwkwkwk hahahahahh heh</t>
+  </si>
+  <si>
+    <t>How so hell! It's not right! Sworn is not true anyway!</t>
+  </si>
+  <si>
+    <t>? ? ? ? . . # Bangkok # bkk # siamoceanworld # latepost, Thx all .... : D, Thx All ... Hehehe: D, Yakkk ..! ! Up Class ^. ^ V, Ad that maw FUTSAL? ? ? , Sorry there was a TECHNICAL error! ! ! Aaa My national trousers are greatness wkkwkwkwkwkwkwk, AHH! ! ! ! My pants are my national greatness oversize! ! ! ==, Taek Lah .. Near my rmah there are people playing mercun. . . Surprised to continue, long nantungan neh wkakakakaka, Thx Ya All. . . Kwkwkwkwkwkw: D, Thx yes All. . . . Hehehe:, DL children who have graduated junior high school bsok come skull yes? ? ? ? ? ? ? ? ? , Boredom. . . . Tah Mw NgapaeN! ! , BAD MOOD: (, Lonely in internet cafes ... .., Wow .. Tk sbr hri bsk!! ^ O ^, Trobsn physics?? Cpd ... ==, Dead lmpu ... Cpd .. . ==, $, ____, Cpek sX ..., Pgi already mti lamp .. Krng ajar tu Pln ...!!!, Time To Sleep ... ~, ... ... ... .. . ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... .... .. ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... .. . ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... .... .. ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ..., ==, Mmm ... Mw coment what is it??, Mmm ..., Plg from trobosan, cpk x!! Skt prut again ..&gt;. &lt;, Wew ,, mlai bsk is busted .. Cpd .... -.-, ZzzZZz ~, No kkkkkkkkkkkkkk ..., great earthquake !, Hri yG mmbsN ... .., Bsann, tah now watching is being What., WeQ bsk da sk skulL, Malez go to school ....&gt;. &lt;, Bored. -_-, zzz ^. ^, Go Home .... ! ! ! Yeah! ! , Padang, i'm coming. . ! ! ! ^ _ ^, Lalalalalala, ^ __ ^, Ea. . . , Oh yeah! ,. . . . . . , UAH. . Kyng. . . . . , TV broadcasts kok all prayer ... Bored already, tah now watching is what. . -_-, Pgi who mmbsnkn. . . , -_-, Bsk mW nGapN yA? , Kok gK aD yG OL? ? ? T_T,. . . , Dark banGeT aWannyA. . . , Bored .. Ntah now watching nGapaEn. . -_-, Bored ..&gt;. &lt;,. . . , Hoamm ..., Ea ... Bntr again liburrr .... ~ XD, I have just adopted a puppy! MypUppY is so cute! , ... .... , Mw nGpN yA In Hum? ? Bosann ... :(, Huh .. Males kaLi hR nE mSk sKulL .., = _ =,.., Bsnnn .....::,,., Weq .. Bsan kle in skull .. .. .. ==, Doh .. Malez bsk to skull .. Bored !, Cpek neH ..!!! Ap again ps upcra .., MeRdeKa!!!, ZzzZzzZ ... ... ~, Ea .. Hri is very menyngkan!!, Hoamm ..., Hoammm ... .. AntuQ ~ tdR dL aH .... ZzzZzZz ... ..., BORING BORING BORING!!!!!!, Hoamm ... ~ , Tumben hri is not dead lights??, Hoamm .. Msi bsn .. Wkwkwk, Dohh .. Bsan neh .. Hoamm .., .. ho ... ho Ne gA maTi LamPu ..!!, I LiKe's ToDay .. !!, NeeD CommenT.!!!, Adohh .. Prh neh ... .Ms as soon as possible seTeBaL tu skull is not at liburkan yes?? Klo holiday it enkkk .. ^ _ ^, Adohh .. Prh neh .... As soon as possible seTeBaL tu skull not in liburkan yes? Klo holiday it enkkk ..., Waa .. Bozan really hri this .. Ga sbr nggu hri bsk.</t>
+  </si>
+  <si>
+    <t>Kev Marc in the future, Alvin Budiman Johan Setiadi Wijaya Athaya Intishar Fernandez Krisantus Liang Hansel Ekaputra, Kev Marc Athaya Intan Fernandez Alvin Budiman Aditya Pratama Hansel Ekaputra, take html table make into an array php, asdf, Athaya Intan Fernandez Kev Marc Krisantus Liang laugh , Metta Litiver resembles you as you laugh, watch this, Nico The result of your temperament analysis is like this: You are not indiscriminately angry, but that does not mean you are not angry. You have a moody personality, also very intelligent, when you experience injustice always be patient, but you secretly remember it, and also looking for ways to know their ugliness. Your anger is usually planned for a long time. Deliberately designing the other party to make mistakes, then you add to it, reporting all the mistakes so that the other side is hard to defend, this makes people feel shudder towards you. Suggestion: This method may make you win in truth, but at the same time also lose friendship. In addition to the person concerned, people around you who know this may also be on the lookout. Truth must be able to forgive others, the truth should not be built on the suffering of others. , Davin BecKs Marco Yani Yugi Tan Kevin Khuang Marten Triyono Hendro Ndod Zhao Audrey Septian Sri Andria Fransiska William Putra Tommy Tandera when is nak go? , Sri Andria Fransiska Lucky Paramita Davin BecKs Hendro Ndod Zhao Marten Triyono Tommy Tandera William Son Xelly N E Churcill Wesly Son Michael Andreas now watching nga? , Sri Andria Fransiska Lucky Paramita Davin BecKs Hendro Ndod Zhao Marten Triyono William Putra Tommy Tandera Mezel, Sri Andria Fransiska Lucky Paramita Vivi Febriana Maretta Huirianto Audrey Septian Yoes Jayanto Kevin Khuang Davin BecKs Marten Triyono Hendro Ndod Zhao Tommy Tandera William Putra Fetrian Lim, Sri Andria Fransiska Lucky Paramita Wesly Son Hendro Ndod Zhao Tommy Tandera Davin BecKs Maretta Huirianto Marten Triyono Michael Andreas, Michael Andreas, laughing, once upon a time .... , Kev Marc Alvin Budiman Naufal Rizaldi Theodorus Andi Gunawan Athaya Intishar Fernandez is new def laugh, Davin BecKs Yoes Jayanto Kevin Khuang Marco Yani Hendro Ndod Zhao cobain, Davin BecKs Sri Andria Fransiska Marten Triyono Tommy Tandera Hendro Ndod Zhao William Son Mezel, Sri Andria Fransiska Wesly Son Marten Triyono Hendro Ndod Zhao Tommy Tandera Davin BecKs Xelly NE Churcill, direct jom, nah! We should try this one, Sri Andria Fransiska Davin BecKs Marten Triyono Hendro Ndod Zhao Yoes Jayanto Audrey Septian Fetrian Lim Tommy Tandera Xelly NE Churcill Kevin Khuang, wkwkwkwkw Kevin Khuang Yoes Jayanto Wesly Son Hendro Ndod Zhao Sri Andria Fransiska Mezel Davin BecKs William Putra Liang Han ? ? ? Marten Triyono Audrey Septian, Sri Andria Fransiska Marten Triyono Wesly Son Hendro Ndod Zhao, Wesly Putra Sri Andria Fransiska what is this dog's name&gt;, Marten Triyono Liang Han? ? ? Hendro Ndod Zhao Wesly Putra, wooah, Sri Andria Fransiska Audrey Septian Vivi Febriana Xelly NE Churcill Marten Triyono Hendro Ndod Zhao Davin BecKs Maretta Huirianto, Marten Triyono Wesly Son Hendro Ndod Zhao Yoes Jayanto Audrey Septian Kevin Khuang Marco Yani William Putra Sri Andria Fransiska Davin BecKs , Kev Marc Athaya Intishar Fernandez wkwkwkwk, please help on like and share, Kevin Khuang Yoes Jayanto Marco Yani Marten Triyono Liang Han? ? ? Davin BecKs Wesly Putra Hendro Ndod Zhao, Sri Andria Fransiska Marten Triyono Marco Yani Kevin Khuang Yoes Jayanto Tommy Tandera William Putra Hendro Ndod Zhao Xelly NE Churcill Davin BecKs, Sri Andria Fransiska, Davin BecKs Marten Triyono Hendro Ndod Zhao Michael Andreas Tommy Tandera Wesly Son William Son, what kind of magic they used? Sri Andria Fransiska Marten Triyono Wesly Son Hendro Ndod Zhao Marco Yani Yoes Jayanto Audrey Septian Kevin Khuang Davin BecKs, laugh, im totally agree with it, WOAH! , Laughing, the smell is sexy apparently, this is Michael Andreas donk in cobain, whoa, this is awesome, laugh Sri Andria Fransiska Wesly Son Hendro Ndod Zhao Tin Triyono% 20Davin BecKs Kevin Khuang Marco Yani Yanto Jayanto, wkwkwkwk, Michael Andreas Wesly Son Kevin Khuang Marco Yani Tin Triyono Hendro Ndod Zhao, Wesly Son Tin Triyono Kevin Khuang Davin BecKs Yoes Jayanto Hendro Ndod Zhao Tommy Tandera Sri Andria Fransiska Liang Han? ? ? Marco Yani, in cobain cuy, Sri Andria Fransiska Tin Triyono Wesly Son Hendro Ndod Zhao Kevin Khuang Marco Yani Yoes Jayanto Davin BecKs, let's go Sri Andria Fransiska Tin Triyono Hendro Ndod Zhao Wesly Kevin Khuang's son Marco Yani Tommy Tandera Michael Andreas William Putra , Vampire? William Putra, Davin BecKs Tin Triyono Kevin Khuang Marco Yani Yoes Jayanto Wesly Son Hendro Ndod Zhao Audrey Septian, Sri Andria Fransiska Tin Triyono Wesly Putra Hendro Ndod Zhao Kevin Khuang Marco Yani Tommy Tandera, ayo2 in try this one, all morning, keep the spirit of the morning yes! ! ! , KINGOFSELFIE # NEWDAYSTARTHERE # GOINGTOSLEEP, # SELFIEOFTHEDAY, Hendro Ndod Zhao Tin Triyono Wesly Son Marco Yani Lucc Paramita Sri Andria Fransiska William Putra Tommy Tandera Davin BecKs Liang Han? ? ? Ardy Wisanata, Hello friends, We of the Information System Student Association (HIMSISFO) will hold a social event with the theme of Embrace people and Create Harmony (EMPATHY). We would like to invite you to care and participate by collecting your unused but still worthy items (can be clothes, stationery, books and others) to be given to our more needy brothers. These items can be collected at the 6th floor HIMSISFO booth. Our booth is open from 09.00 to 17.00 hours. Or suppose you want to take care to donate funds, you can transfer to account number 6630377208 on behalf of Giovani Anggasta. We also sell cakes and pins that the benefits will be given entirely to the orphanage, friends can take a look at our booth. Thank you for your attention . Maybe a little thing that we think is nothing, it can mean very big to others Contact Person: Erni - 083808493661 Naulia - 082211949984, Tommy Tandera honestly I've been keeping this feeling for you .. oh tommy, star moon knows everything about us .. i Love you si much ... * kiss *, watch, learn, do it, the real sonic, i do not know spiderman is exist, but ..., the best flappy bird player ever, unbelievable, wow, aduuh kangen Really the same that the initials V, zero to hero or hero to zero, its hard but it's getting more interesting to do, Show the world we want a phone worth keeping! # Phonebloks, why it should happen? , Questioning life in different perspectives. What work do I have 10 years later! Day = more than 8x bwt stat == Do not get bored? , Seandaina I know how to make status like you guys for TT, nga know why I slalu adrift in the same problem: (, eyes peep orng again bathe -, a lie nga can cover anything, I VERY LOVE HER !!!!! &lt;3; * LIKE KAN PLEASE!!!, We are plotting, the decisive god !, it takes a miracle if indeed the magic exists: (, effort2!!! Just pass up nga may principal na:), accept the bitter reality Nga easy: (already berkali2 feel tetep just nga can get used, there is a brubah from smalam or prasaan wa only but wa also the stupid TT, I'm nga as bad as kaatan na kan: D but enth lah, Jodoh is ta where but love still have to In prjuangkan, not enough brani to do it: (slagi there it is! Zzz, nightmare!! Do not trzdi ne == '', people in the middle of the fuss x!,) 'O') = 3 indeed ssh prtmanan skrng Zz!!, You make me so anxious whahahah!!, 3! 2! 1! Buuuaaa Rrrr! ! My Head has been exploud history win! , The head is already fireworks in on, I want the world see you be with me, Disappointed heartbroken feel lose all the flavors in the jumble TT, Ndeh! Where Mw lies this face again, 9000 laptops hit the virus! Zzzz, MY MAHO</t>
+  </si>
+  <si>
+    <t>I'm playing Valkyrie Crusade! Let's go on an adventure in this world together! # Valkyrie Crusade, Subdued the current archwitch ORIHIME! # Valkyrie Crusade, Come and join us! The Journey # celebration # march24 # 1stanniversary # GBIJ2 # 1pm, Agustina Kris, Evening sky # forfun # cool # view # instalike # instagram # instamood # instaphoto # instacollage, Raindrop # forfun # rain # water # car # phone # instalike # instagramers # Instagram # instafood # instamood # instacollage # instaphoto, Birthday Rizky, Gloom: p, LOL XD, At pv 17 8 2011, XD, Change gear wkakaka, Rizky pregnant wkakaka, 9th grade SMPK Almasih snen: bio agama mate native ingg slasa : Physics ingg tik pemas pkn Wednesday: indo eco chem ingge thursday: geo history mulok (plkj) mate jumat: indo mandarin art mate mulok culture (ket.jasa), Following LYTOGAME Smart Quiz, Following LYTOGAME Smart Quiz, Following LYTOGAME Smart Quiz, Jay chou wkawkwka, on the plow estella, Add this pin 2293005F she is friendly, Mobile Uploads, in bad luck, xory why tha if you mrh: p, Ujan gde really ckckck, malingggggg! ! ! ! , Not the bljr - 'concentration, Narziz on pv xD, Narziz on pv xD (part 2), deh now watching ujan: D, raining:), anh bbm i bsa lost myself ckckkc, boring ...! ! ! , Lma amd sie wktu walking bz ~, biz watch prince 0f persian kren ..., biz watch prince 0f kren splice ..., hjan ge ...: D, finally tgaz selese also .... ! , Audid ilank xwt == ', the slaved slice comes blakangan = D, bxk deh mid trakhir hrx xmangad, ioo, hjan sun draz gledeg ckckck .., in sentul city =), Bsennya cencs les moan! , Photo taken in Pet Society. There is asep tbel nga jlz, yeah already smbuh :), gla hbz mta mrh cold also argh! Mg2 cpd smbh dhe, mta my mrah xial ... Fortunately cmn 1, Knp shi bsg no holidays just bear banget byar rbu just msknya argh! , On the way 2 home skid, tired lper == ', tired this bsk is school ge, bt pngen jln2 even in srh ngeles .., on the way 2 my grandma and grandpa house: D, menybalkan game online at no The bs, hbz plg lngsung online laugh ..., complain. . . tired ! &gt;. &lt;, On the way 2 museum zoology: D, knyang. . . , Shyok. . . , Well bsg has school again mlz. . . , Bte, rain agk rda pretty lha than the last, tired xngad: (, hufht ... Hbs from ondangan tired abz, hpmh ..., go to school dated how many shi there say dated 5 and 6 so confused o_0 Comment plis , Happy New Year all mg2 years in mnjd lbh baek again GBU: D, mr in jakarta: D, Hufft ... Finally, bandung i am coming ..., pgy ..., our god has been born In our heart so we must thank him with my love merry christmas GBU: D, slamat hri moms .. Love you mom: D, Kren ..., nyam-enam ^. ^, Mlz this now watching bljr. , Bt this zzz, how do i ikt shooting ?, bguz me gq in plh yeah, how to do this??? So the candidate chairman of OSIS .gg2 gq in plh dhe, net at home not bs TT, lm really sampz zzz, plng from Ret2 dhe !, thank you bu ..., sleepy bt, bt sleepy!! !, yesh bsk retreat :)), eat friends lmpu. . . Why should lights? Dah bsk and deer repeat many more huh ~, Bt. . . Dead lights again! Cpe dhe gq bs online dhe must be from hp TT, tkr if any, Cp dhe restaurant friends lights so pnz dhe. . . . T.T, Plg school is also ~ _ ~, [Object object], that there is a tuker why! Plissssssssss, there is a tuker yes! ! ! ! , Aduhh .... Again this pain ... huhuhuhuhu ... T_T, make a new facebook niehhhh ... for those who know add yaaaa .... Thx .. ^^</t>
+  </si>
+  <si>
+    <t>keep a smile on your face</t>
+  </si>
+  <si>
+    <t>Goodbye Palm 55 so much memories at there, # pekanbarubutuhahok eh jakarta deng # jakartabutuhahok, It has been a great study year, it has been very cool, but challenging as well. Thanks for everything, for the inspiration and your awesomeness, and im looking forward to see the better HIMARS in the following years. Thanks to all people who always support me, teach me, guide me, help me, you all are awesome! Have a bunch of luck for the next challenges that are waiting for us! , Moon full of obstacles, Deer Vape Shop Logo - On Going Check out more at mrtnlogos # logo # logos # graphicdesigns # graphicdesigncentral # graphicdesign # branding # illustration # logodesign # logodesigner # designinspiration # vector # photoshop # illustrator # illust # freelance # premium # Premiumquality # jakarta # logoinspirations ration # company # designgraphic # deer # vape # vapor # vaporize # shop # mrtnlogos, Deer Vape Shop Logo - On Going Check out more at mrtnlogos # logo # logos # graphicdesigns # graphicdesigncentral # graphicdesign # branding # illustration # Logodesigner # logodesigner # designinspiration # vector # photoshop # illustrator # illust # freelance # premium # premiumquality # jakarta # logoinspirations ration # company # designgraphic # deer # vape # vapor # vaporize # shop # mrtnlogos, Deer Vape Shop Logo (On ​​Going) Culinary ivory # jjigaehouse # biardapatfree, Terra Compost logo on terragrow_farm, Sri Andria Fransiska Davin BecKs Nico Wilson To Mmy Tandera Hendro Ndod Zhao Lucky Paramita and more, try this! , Happy Vesakh Day, How well does your logo represent who you are? Does your logo stand out? Yes, because a great logo is more than images or words. Sucks, cool brother, Lenny Wu, Wesly's son Marco Yani Liang Han? ? ? Sri Andria Fransiska Lucc Paramita Hendro Ndod Zhao Kevin Khuang Nico Wilson William Putra, Wesly Putra, Marco Yani Sri Andria Fransiska Hendro Ndod Zhao Nico Wilson Lucc Paramita Davin BecKs, Finding for a cheap gift but not CHEAPER? Want to have a Caricature picture with your hubby? Want to have a Silhouette picture? Go follow in tintriyono on mr.art_ Pin: 27ECA1EC, Second place .., Well, I'm ready! ! , Hey, this is not a game! ! , God, please show me the way .., Together we bsa! ! ! More S E M A N G A T again! ! ! ('`?')? :, (Martin Martin TOLOL!, GalauLoka, oi this status we have 3 cm who can read Venyany Listya Setyawan Davin BecKs Anukula Atmaja Abhipraya Wijaya, want to make shift galauloka have twitt ?, never !, waiting .., satisfied with the work Yourself!:), What's in the hide? , Talking to the moon .., badmood! , Apabolebuat .., illnyee! , Pucaaat! , So the first and the last! ! , Dumb x you tin! , Nyesek!</t>
+  </si>
+  <si>
+    <t>For those who have not nnton / who want nnton A Letter For You - Short Film can be opened Link above iaa or can search manual on youtube with keyword dharma loka, A Letter For You - Trailer, Short fiLm - Produced by DL SHS 's XII Science 1, Pro Basket Ball. . . ! ! ! I who Hendro Ndod &amp; Hendro Cau not use ge, now moved to this FB. . . , Just fun, StickMannya good at basketball too. . . Support the Women's Basketball Team by clicking on the Link below. . .</t>
+  </si>
+  <si>
+    <t># Getmimo, Complexity: 94%, neng, mate who trtunda 34 years old Davin BecKs, What does 'Always' means? , Luke Lee, I wuv you &lt;3 Jorge Sunderland, Justin Vato Patricia Hardjono Jeniefer Muliadi Carin Winarta Jodie Utama, guess who am i? Woof woof, Kevin is starting to learn a language on italki, Explain this to me! Shane Hanson Cai Si Peng Fino, Student of today Fetrian Lim Davin BecKs Tin Triyono Nico Wilson Marco Yani Wesly Son, I feel so nervous and shy whenever i see him&gt; /// &lt;&lt;3, Back to Facebook, If you've done out previous Version, YOU WILL LOVE 3D version EVEN MORE! Our well-known Geography The top iTunes app charts all over the world is available now in the 3D version! Try it out! , If you liked out previous version, YOU WILL LOVE 3D version EVEN MORE! Our well-known Geography The top iTunes app charts all over the world is available now in the 3D version! Try it out! , Kevin Khuang is using mig33 for Facebook. , Indonesia's internet connection can destroy a Relationship =)), Emang again flu season! Eeks nose (? _?) +? +! , Learn ? Hm, no deh. Just sleep . , Kurnia Meiga PATENT! (Why), lose again, lose again .., Taik! My teeth crack (-? -), Lbih important exercise dripada blajar for repetition bsok .. Ckckc .., Restore my wallet if you want to take his money, take his wallet TT, I WILL NOT LOST! ! , Finishing cam cirik! ! (? _?) +? +! , Do not believe high school already bsa nge-dunk! Ckckck ~, I'm bald! I'm bald! ! , Want ptong rmbut what model is it? Any suggestion ? , Olang: This is Madness .. Leonidas: Madness? ? Thiis is SPARTAAAN! , Thanks all for making his utterance. Hahah. : D, If every day practice like gne, a month would feel its mantapp! ! , I'm sure this will bear success! :), Loss was late ekskul: (, Uda satisfied tdur noon: D Anyone want to play basketball later ?, Body has emergency .. Need a rest that ckup: &amp;, Face me menga .. Bntar again so itam this!: (, There are numbers perfect Fathers but a Father will always love perfectly (why), Its visible cyst sufferers should not: Eat instant noodles, wear high heels, eat chicken and eggs! Kmarin 40x Today must be 50x! Want to be crazy !, 3L: Weak, tired, lethargic !, The longer I play the more deformed! Haehh., Bio no Essay no ?, As long as Still Breathing, There Must be a 2nd Opportunity! Kevin whispered to yugi: yug yug bother hendra yok Yugi: what's wrong? Kevin: biasaaa ~ push n na: D Yugi: sep me from left, imitation From the right! Sip? Kevin: okay! Sep! Wkwk * teettott Hendra: ueh! Imitation dog yug! ​​* Geseg yugi, Nyesal I was born in my family Ni! , Trio bitch, Yg to 2, Mobile Uploads, Do you know why i do not let you go? That's because girl like you is impossible to find! , Still not enough! More practice and practice: D, who adha joined HSK can take certificate na msing .., Want to join the club: (, My ank sore: '(72 kg: D, alah .., Add my pin 24B78ECB Tq. , No effort at all! '(, Beginning with Weights Exercise:), Bruce Lee ,?????????????????????????????????? Nothing gon na changed my Love for you :)), hey! ! R eu epy today Agooess Ciapigra? : D, i just want you to love 'sorry' and promise me that you will not do that thing again: '(, aLways Lavd euu??? ~ :), Quiet Lah friend! We are just not bruntung .. betuL right? : D, Did you know that i am waiting you? : (, Rehearse for under ring and Lbh high jumping!:),? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? :), Kmu xma sx does not appreciate me: (, when i open facebook, i just see ur profiLe, if there are not anything new about eu, i wiLL cLose the facebook soon. :), noon i am teringad snyum mu .. maLam maLam my face terbyang mu .. i am sLaLu remember you self wahai my lover ~:), gee agan all. My profiLe facebook.com/4Guz.L0perZz udha is not on Lge. This is my new profession. thank you</t>
+  </si>
+  <si>
+    <t>Hmmmm, I'm just an ordinary folk! Do not equate me with you ..,! , Wew, ('') Create ... ... ... ... ... ... ... ... ... ... ..., I'm from a small thrift taught To give to others, click, he, help me, help me, help me, help me, please one more ... .., help, help, help, help me .., help me .... , Help, help me pliss, Pain my feet o_O, PRance versus SPain, BB missing: - (, pass ... ... ....: D, DaG DiG DuG!!: D, Idiot .... ., Invite: 2960880c</t>
+  </si>
+  <si>
+    <t>Kamisama Suzu, derp face: v, April 13, 2014, please ask for information dong, the title of the song that Ricci's time to the discotheque and kill people wear cyanide spray, it's a disco song, there yanhg know what title? ? , For those who are wondering, this is Misa 2.0, has her own page on Facebook. , Official ENOZ banner! , Not turn off your speakers? , Yeah sure .. A good tip. , Half-naked batman with batman shorts drinking something while rollerskating .. Your argument is invalid. , But .. Does not your phone ring or something? , DAT LEGS .. Lucky panda! , The first one is actually kinda cool. Leopardwoman, maybe? , Teach me master! ! , Still ugly. , Where dafuq is his head in pic 2? , Do not cry because it's over. Smile because it happened. -Dr. Seuss, At SMP 45 for MGMP, At SMP 45 for MGMP, friend2 cb copy this code and paste it in google search: sqrt (cos (x)) * cos (200 x) sqrt (abs (x)) -0.7) * ( 4-x * x) ^ 0.01, sqrt (9-x ^ 2), -sqrt (9-x ^ 2) from -4.5 to 4.5 please see the results! 9gag, Everything is okay in the end. If it's not okay, then it's not the end. ~ ALoNe-SaMa ~, 4/11/11 - Just an usual dinner with friends at Cafe 12; ), Do not expect things to happen. It's better to feel surprised than to feel disappointed. ~ ALoNe-SaMa ~, Deal with what Ive dealt with, feel what Ive felt, survive what I 've survived and overcome what I overcame then you can judge me. ~ ALoNe-SaMa ~, I know life is not easy, but this f *** ing ridiculous! ~ ALoNe-SaMa ~, It's not hard to find the truth ... What it's hard to find from it once you have found it. ~ ALoNe-SaMa ~</t>
+  </si>
+  <si>
+    <t>`` Rip indognesia gaming, Ngok2, Happy CNY Line: oscaredward fuel: 7C5201F8, sadly, the little rain can not surf instantly ... astagfirullah, something about this ..., same, LOL, make your own event, . Logic, Madun overseas, www.seal-infinity.com, Handoko, so fucking fucking true, fastnet pay more expensive Speed slower,: '(, not number Nidji Clear me dong yang baikk baik, Freak Nigga, aw shit nigga , Hugo well fuck you biatch,, Blood lad (kenapa), love is such a sweet illusion, the bosen main pokemon itself&gt; pokemmo.eu &lt;pokemon Online !, happy happy happy cresent, friend on FB grew more and more gajelas - 3 -, biatch, you're fabulous, guren yumiya full number was just repeated 4x?</t>
+  </si>
+  <si>
+    <t>Individualism unfettered by the United States, which does not free health care or higher education? Thoughtful wealth and environmental destruction of modern Chinese style? Economic difficulties and internal tensions in Europe? Mexican-style narcotics war? , Watching, whatever he said still MU in the heart .., Anyone know not MU versus chelsea when? , Her teeth offside, her cheeks kayak ground plane .... Who is it ? Wkwkwk, Finally ... Indonesia won also 2-1 thailand ... YESSS! ! ! ! , Wah steady kalipun this PLN ... He said no da again dead lights ..., I hate everybody ...; (, Indonesia 6-0 laos ... Calling the world!!!, Why is everyone the status of love? Hahahaha, Goool!! Indonesia 5-1 malaysia indonesia win, Gooool!!! 4-1 malaysia, AYOO INDONESIA! ! ,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,, ..., you always make me smile ..., MU touched!!! MU 2-0 Wigan, First half: MU 1-0 WIGAN, MU VS WIGAN, Yesss !!!! Indonesia won ..., Come on! Just stupid already groggy ..., Ouch!! Stupid times too fabregas ... Gara2 him a penalty right!!, Want to cut the ox ..., Go to berastagi, in wajir, Hopefully many ..., in KFC walkot, Ya allah ... Make it easy for me to face the exam tomorrow ...., If i wrong .... talk to me!!!!!!!!!!!!, Today is the least Fun!!!!!, Wa Duh ... Gk bsa watch the ball ...: - (, Dsr adek ugly, Mantaaaap! ! ! MU won .... Bravo! ! , In the dome, Otw to field, Widih ... This really jammed in the way now watching to the long fields ..., Otw to high hill, Hemmmm .... , For all thank you why ... May qaul be a better person and become the pride of both parents, Salute for PLN ... There now watching iftar in there dead lights .... , Nunggu sister keshia pulng college ... in kfc petronas, Waduh! ! ! ! ! ! ! ! ! ! ! ! ! Entry 8-16, Wuih, this beautiful girl bandung ..., jogja I am coming ... .. wkwkwkwkwkwkwk, Ya allah ... .. Give strength and ease our hungry relatives in NTT, finally my hp right as well. .. ... ... ... wkwkwkwkwkwkwk, Mw prayer but no sarong, this kind of mna? , In the journey of rantau prapat, I am a beast of the way, on the way to hell, Aghhhhhhh ... .. Why should you lose, You 're beautiful, Dead lamps! Though now watching to learn mandarin. I think my mama is never late byr electricity is, really like this your service PLN, Do not cry, I open facebook I see my status no one comment, Kalok like this continue .... What the world says! , Severe imitation time so people! ! ! ! ! ! ! ! ! ! ! ! ! , Ma, go yuk ..! , Likes you ... ! , Class not open yet ... no friends .... Complete is my suffering! ! , You're a sissy! Kreak anymore, Huhhh, dtng speed so no friends, Why ... .. You do not care me, Kesiannya adek ku 2 days in hospital quickly heal ca, Want makan2, It's boogie time, Laper. ... , Eat steady fried birds ... .., Eat steady fried birds .... , Go home dead lamp cape deh, How happy to have sister, You give me support, Do not KREAK time to be a person! ! ! ! ! ! ! , Bored waiting, Main facebook disposable HP people do not have capital, WADUH! There is a giant in front of me KABUR, Lg these streets da yG Mau iKut g! ! ! Tp jalan2 antar vla ha. , Ha..ha ..., Eat porridge and ketoprak steady! , Dead lights, Education is war, Finally, CRAZY! Tutoring me on the morning, playing with my brother, my dear brother, my dad is sick, my dear brother is sick, pengen eat pempek, cheating is beautiful, hard times the exam from the mananya planet make this problem, test ... test ... ujiaaaaaan lagiiiiiii, There is a mandarin exam also aduuuuuuuuuuuuuuuuuuuuuuuuuu, Yo gabba gabba, Thanks for all that ngucapin waiting for his gift why hehehehe, I'm thirsty, Woy do not eat in front of me I want this, Laper, Ouch, Do you want to be my girlfriend? Please accept me, Today physics exam Doain why woi! ! ! Gg, Hurry up, Hurry already can not stand this, again in mdn, now watching plg kemedan .., Lg in jogja ..</t>
+  </si>
+  <si>
+    <t>Reebok GL 6000 - New Balance ML 574 COR - Nike Blazer SB Ice Crystal, Waiting for something is definitely much more painful than waiting for something uncertain,, Music - -, Jauhari just enroll! ! Find out more about this organization here! ! Click here how many times late for life. I do not know, the best anti-climax is this. :)))), Shapenya masya god: 3, laugh first, shit mobster # 3, layer cake both shape and taste, Unique layer cake and the taste, I will not let you go again, Please, do n ' T fade away, It really feels like the old times, the moment that I 'll always remember, me want, the meaning behind all the omen,&gt; _ &lt;, Fuck you jar, just fuck you, jokes smp:)), - dreams, ideals, old I have self, Ironically, that answers everything, and I hope you 're the one I share my life with, HOLY SHIT, drunk brother, boooommmmmmmmm, Write something ...,</t>
+  </si>
+  <si>
+    <t>Happy New Year 2017, Easy peasy! # Purwokerto # vacation # beach, Artruckstic # artistic # truck, It's where my demons hide! # Demons # imaginedragons, Every way to the sights, must always be asked the same thing. In Jakarta there is a place like this not? # Jogja # holiday # pure # peaceful, Welcome 2016! , Eliminate a moment of trouble in your mind. Enjoy your life ! # Holidays # top # it # binus, Bitter experience will be a sweet thing to tell. , Fighting for your live! # Reagge # bobmarley, Children today have trouble even being photographed instead of being helped. Happy Idul Adha 1436 H. # iduladha # 1436h, Indonesia is not to be acknowledged, but to be fought for. Merdeka! , Hello Path! # MyfirstPost, Hello Instagram! # MyfirstPost, Hello Facebook! # MyfirstPost</t>
+  </si>
+  <si>
+    <t>? ? ? ? ? ? ? ? , Eighttwenty.hm, can i just ... ... ... asdfghjkl? ? ? ? ? ? ? ? ? ? ? ? , I.know.that.i.shouldn't.do.that.how.crazy.i.am -_-, THE MEANING OF LIFE - HD (Indonesian Subtitle),? ? ? ? ? ? ? ? ? ? ? ? , For how abah ngeupload photos pke facebook his son. Forgot in logout kaaahhhh? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ,? ? ? ? ? ? ? ? ? ? ? ? , Homesick, laugh, FINISH! ! ! ,? ? ? ? ? ? ? ? ? ? ? ? , What do you think ? , Laugh, lolly lol ... ... .. ..)), maybe you could change me ~, give up ... ..., astagfirullah ... ..:), bungas banar pian this, suitable dear friend Ulun tegila-crazy banar opponent pian: *, hypocrite lah, ahay: 3, thanks that already ngucapin. Sorry can not reply one-one yaaa: D, Thanks that already ngucapin. Sorry can not reply one-one yaaaaa: D:), I hate my hair now -_____-, ask for anti-longer effect? Laugh, then wait there, calm down: p, I told you, what the hell ... ... ..., the child is patient, the grave is wide -_-, the science boy is fun, friendly, carefree, and fun . Not stiff and not less the same social -___-, Big bang big bang we 're back again one more time affection No way number neomu swipge tto nami dwae m /, now what date? Inspiration can not -___- kill me mamaaaa T-T, About what it be like in fb -_- cba lngsng behdpan, plng betamparan._. He he -_-, bonjour! , Boomerang! M /, Because I'm not a robot -___- do not ever scold me when my grades fall -_- let's take a very short time -_-, network babsssssss -______-, what's wrong nahh (, Risks gamers ~ lalala -_-, sudden , This lab.komp become hot -___________________________-, die dear gin kam there =)) aahhahahaha, Moon sorry was born and inner, m friends:)), the difference is SMA Banua sma SMA GIBS apadehh? . - -. Heyaaaa, campret sekretret kampretnya kampret this is more kampret drpda the most campret basic campret ... ... ... ... .., thank you for giving a beautiful memory {}:], Alhamdulillah yaAllah:), what the hell Ikut2. Look for his own characteristic lahh. Do not follow me. Which followed me so uncomfortably ~, baby you light up my world like body number else ~, wish me luck yes Allah. Bismillah yes Allah o:)) ._. , Not forever I'm sobbing and laughing because I'm happy! , No longer do you make the lau lau lau because you yourself who do not menuu tuu tuuuuuu ~ (?) -_-, good front, behind nauzubillah busukk. Ha ha . Mana ~ man, RT in lailatlr God ... ... Can I be as strong as keke? Lord, Are there any friends like shbt2 keke? God, msih is there ... in ULYAULYAAA RT in WIWAAAY: RT in syifaaayuniar: '' I want to know after I'm not there, how am I remembered '' -KKUT, UN last. The dilemma between resignation-spirit. 04-001-018-7 InsyaAllah can! O:): -): b, Aaaaa. RT in omgugel Who want to follow where his voice! ! ! ! , You think I'm dumb? ! Not deh gakkk ~ HAHA, in Alfacano -_- | In / HarryPotterIndo # HPIMop # HPIfolback # Slytherin # rzkkyoktvia # ravenclaw thanks sister: -), Cakka-pcar, Draco-fiance, Cedric-Husband. HAHAHAHAA =)), make something extraordinary to be amazing = D, Stalker B-), stupid me, it turns out I'm smiling erratic smile. Unaware of myself, it turns out I was daydreaming for you. Why you, always you fill my brain. Krna you slalu sja you colonize my heart. You are you again. Oh god please. Cant'stop thingking about you, stop talking about you: -b, GOBLOK! TAI! MAMEH! DOGS! PIG! YG MAKE FB KU TADI KABABAK HAHA! IBLIS JUA! , Let's start playing PB again, asekkk ~, kka! I miss you so much {}: * lafyu &lt;3 hahahaa =)), goodluck my brother suksess, the bner, who smangat playing basketnya .. prayer CL 's for you: p lafyu {}: *, tomorrow gone o:) Hwahh. , Dreary evening night x_x HAHA, be patient! , NHADIA PUTRI, INDRI RIANTINA, long did not play Pottermore, once playing cengo, forgot how. HAHAA, who are you happy {} HAHAHA, again bad bm, if there klakuanku who do not deign, mhon dimaklumi -_-, ii, so no PD aku x_x adohh adohh -__-</t>
+  </si>
+  <si>
+    <t>Asik iya speechnya ... Mudah2an all the good that he wants to be realized .., Science .., 3 years ago .., Woohohoho, Aditya Gandhi Pratama mainin ya .. D'mitry Adam N all .., Antania Shinta Yuwono, Nurul Novianti Wijaya hai kecoa fan ..., 8 years ago, 4 years ago, wandering in Frankfurt am Main. , Indonesia exists because of diversity. , Aditya Gandhi Pratama, this kind of bike is cool to teach .. Before rising minimoto ..: D, Uuuuhh ... .., Mia Nur Ikhsanti, Antania Shinta Yuwono, this real MotoGP racer .. Aditya Gandhi Pratama, Aditya Gandhi Pratama , Antania Shinta Yuwono, look how beautiful is this. , Emmmh ... Wat? , Anyone can not see the situation cool ..: (, Adenie Abubakar Alaydrus, Rosita Evillya, and friends everywhere are, especially in Berlin hati2 .. Hope bad incident does not override., 4 years ago .. Ooh how I miss this time ..., Stress, could be the fuel for our progress .., Hoahahaha, 3 years ago .. Beautiful place, beautiful scenery .. Beautiful story .., First blue hour after (very) long time Now I remember why I Love it., This place when it was built = _ = Tau-tau is so .., Today's snapshot Got the chance to get this place during blue hour., Carbon fibeeerr ..., ... OV ... Magnificent Decoration by at 4sdecor, High-speed turning stoppie .., The redaction smoke .. Wawan's signature .., Wawan Tembong ready .., Wawan Tembong, asean freestyle champion ready to go., Cool, beautiful place to hold your events Nice building in Alam Sutra, decorated by at 4sdecor, Explore, What a place .., Old no motret blue hour. Just a motret of any background with the sky like this .. Kok now hard yes .., Aditya Gandhi Pratama It's his line cool guy .. already apal really i think he is the same track .., Wedding Decoration by di 4sdecor Chakra, a wedding hall found at Sister Breeze BSD is one fine lace to hold your wedding. , In between .., Alhamdulillah adik2 and citizens are all enthusiastic with the ceremony and the competitions that exist. Evidently small children can be a ceremony officer with minimal preparation. The competition continued on the stairwell week of August 21, 2016, Teamwork at it's finest .., Anak2 was playing in the field of a school in West Jakarta. Yep, the school field .., Awkward ... Hahaha, Good morning ..? ? ? ? ? ? ? ? ? ? ? ? , Pitstop by Yamaha Racing, Colorful .. Enjoy the beauty .., 2 years ago .. From the window of the boarding room .., Good morning from indonesia? ? ? ? ? ? , Home there is the owner? Empang there his house? In this area each house on average there is one pond and one plot of rice fields. This is a beautiful village and should continue this way. , The house is beautiful and simple. Comfortable, there's always food (: D), next to the rice field, next to the pond. Sleep accompanied by the sound of frogs and crickets. , The trails have been cemented? ? ? ? But the scenery around the tetep refreshing mind, cool and seer the air .., Something I rarely see .., What comedy scenes really the scene .., totality, Lha kok like this ... -, -, There are never been kicked, threatened to be killed it is common . Hopefully more and more moved. , Adenie Abubakar Alaydrus 5 years ago .. hahaha, Enterprises like this, and people who watch sometimes the response .. Just so hard time make it ..: D: D, Do kakean cangkem, There are people there. Though he's cool singing .., Lens toys, lens first buy. Start ngerasain tajemnya motret wear DSLR, start seneng toy depth of field narrow. Now is the time move on? ? ? ? , Frankfurt am Main City where there are tall buildings in germany .. After traveling around finally able to spot a decent photo .. Memory a few years ago .., Money can not buy everything .., Aditya Gandhi Pratama is cool .. Hahaha, start experimenting HDR, subuh2 from windows room .., Dresden .. 4 years ago .., Nemu rest unedited photos in IIMS 2016 folder, Romantic candle and decor, by at 4sdecor. , Art of welding, Let's have dinner Decorations by at 4sdecor, Ducati Scrambler IIMS 2016, This gon na be a long night. In 4sdecor decorated room .., long table, decorated by at 4sdecor, IIMS 2016, Hero, KSM Nyiur booth at Islamic Development Bank 41st annual meeting. Tomorrow will be the last day. Come and visit us if you have a free time ^ _ ^ on ksmnyiur, Can panjaang .... Hahahaha, Drunk and Bike .... Much more interesting than drunk and drive .. ^ _ ^, Aditya Gandhi Pratama enak iya jalanannya .., Sawarna Beach, one of the tourist destination is very interesting, just access that happened to be diutakatik so somewhat complicated when there. But still recommended? ? ? ? , Travel back home from sawarna beach, just happened to fit the sunset fitting on the mountain .. ^ __ ^, Hoo, 4 years ago .., Aditya Gandhi Pratama, modal ..: D, Aditya Gandhi Pratama Level ginian also nyetut ..., D'mitry Adam N, you fit this like, let's whenever I drive you like this yak .. cc. Antania Shinta Yuwono. , Aditya Gandhi Pratama there is also a nudge ... , Ok, so this ship, ships ships to customer who waits for the shpping of their ship ..., Simple but crowded euuuyy .... , Aditya Gandhi Pratama Danielo Petrucci .. Who's that? ? Hahahahaha Take a look at the laughing ..., hahahaha, Aditya Gandhi Pratama this simple ... Can be applied no ya .. hahaha, Okay, he just added more variation skillnya ..., Aditya Gandhi Pratama, De Breeze, BSD. One of many interesting places in South Tangerang. , One fine moment shared! , It's funny ... It's a lot ..., Pamulang this, Antania Shinta Yuwono, Come anytime ..</t>
+  </si>
+  <si>
+    <t>Oo, Free, Like yes like in true is not what can make all your problems disappear, but that will not disappear when you have a problem. : D, DO NOT IN THIRD he (Choki) Intelligent Smart Indonesia VS malaysia Jury: The question consists of 10 questions. Answer correctly. Please try bell .. Malaysia: TEET Indonesia: Krik krik .. * The bell is a bit soak * =============== - === - ======== === - = - === Juror: The first question, what animal is forbidden to Muslims? Malaysia: TEET, dinosaurs ... Jury: Wrong! Indonesia stamps but the bell does not say: Anj * ng, the bell is dead! Jury: Yep right dog answer! The second question, What animals like the mud? Malaysia: TETT, snail poison Juri: Wrong. Indonesia: B * bi is the bell I have no sounds .. Jury: Iyak! Right answer Pig. Third question, the color yellow out of humans? Malaysia: TETT, panties never! On Wash! Jury: Wrong! Indonesia: T * i bel cheap ..! Jury: Wow's right, the answer is T * i. The fourth question, what is the name of a supernatural being symbol of evil? Malaysia: TEET, upin-ipin Jury: Wrong! Indonesia: S * tan bel my bell can not sound Juri: True answer is Satan. The fifth question, What is the name for abnormalities - or damage? Malaysia: TETT, Strange Jury: Wrong! Indonesia: Cacad Nih bel! Juror: Yak! Correct answer is defective. Question after question successfully answered by Indonesia Juri: The last question, which country won the World Cup most? Malaysia: TEET. Country of malaysia! Jury: Wrong! ! Indonesia: TETT. Yes Brazil also this bell sounds, asyiik .. Juri: Wow right The answer is Brazil! Malaysian Score: 0 SCORE OF INDONESIA: 10. # Indonesian must like this status, (o) that shit friend is not a friend we have to stay away ... but we have to embrace and give direction to the bottom chasm for example ... (`), true friend is not that can make all your problem Disappeared, but that will not disappear when you have a problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder if it's horoscope who framed as wikipedia, but i like what it says, for free kakigori,. , 1 Cyber ??World - OFFICIAL PAGE wrote: HI DotA2 Gamers, Blessed are you guys because mimin will share GIVEAWAY 10 Immortal Items for 10 Lucky Winners, so do not miss too well, here are the TERMS AND CONDITIONS that PARTICIPANTS must do; - Like Fanpage: www.facebook.com/Level1cyberworld - SHARE this content to your profile - Comment: # DOTA2Level1 is easy right? Wait ... Watch my awesome Battle Camp Replay! Download Now: my awesome Battle Camp Replay! Download Now: 2 friends who remember my birthday, pfff ..., Thks all, Have great bargaining power, accuracy, and meticulous in calculation. What work do I have 10 years later! Out what color are you according to your birthday and battle, skill, soul, pets, et cetera make me enjoy this game, (5) this prayer will be to mnghpskan dosa2 ssai with jnji Yesus , Still not brrti bhw you do not need to go to the chapel to mngku sin&gt; letters of holy oration&gt; 15 prayer and promise of jesus to st.briggita&gt; pray to st.yudas Thaddaeus, (4) as I remember before antichrist will happen Appointment where only people Both heavenly and sinful ones will live on earth ... truz who lives on earth will face the antichrist, that is the worst of times, ... therefore do not sin from now and Repent! ! ! Continue, (3) because by accepting the chip Your relationship with god will be permanent, so do not accept it but for those who do not accept the chip will be killed! ! ! Remember! Indeed we are open from this world but in heaven, just like Jesus! ! Continue, (2) Antichrist is anti-khirstus, and this is great evidence that the coming of God is near an antichrist moment will offer to us all a Chip to be laid and handed, the name of the chip mondex (if not mistaken) It to your forehead &amp; hand then you WILL NEVER ENTER PARADISE! ! ! Continue, (1) Do not be too busy with your work, do not be anxious your heart and REPENT! ! ! Because the kingdom of God is near, .. maybe you do not prcy bhw his arrival was dkt, but actually signs of the arrival is already visible! ! ! Such as&gt; murder.rape, kidnapping, suicide.terrorists, the emergence of phenomena, and the emergence of ANTIKRIS! ! ! Continue, error all games Fb me swt .., OOOMGG..these friends are visiing my profile? ? : O: Axel Pratama - 1136 views Andre Alogra Cilogi - 983 views Ch Yvonne Noel - 542 views Cornel Sakti - 300 views See who views your profile in can not play,,, bljr only .... Like prison wkwkkw, Komp sealed (pswrd) fortunately I bs open .. laugh, Final battle cpet / slow akn except, FB weak brain really, do you think? , What do you think? , What do you think? , What do you think? , Shit ... UAS mat I must be ugly ... .., ah senin uas mlzzzz, ~~~~~~~~~~~~~~ Merdeka ... ~~~~~~~~~~~ - - - - - - - - - ... ... ... ... ... ... =============== = - === =========== - - ========== - - ======= - ===== - = === - -, 2 days off! ! Yesyesyeysyeses, Play '' Pet Forest Online '' in Facebookm (Advebture Game), - - - - - - SsSsS .... Sngt cape at school ... .... ,, Try to sleep .. Direct tiur deh me ... .. z-z; ; , Gme what yes in Fb again nge TOP? ? ? , Resurrected Apocalypse,,, Hoamm - - Yesterday fainted at home fitting home camping wokokokoko, Kihrnya, ... .. Merdeka Also dechhz .... , Ah soon UAS, yes, ... UAS ... Uh ... ... Zzz ... Need Study Hard, wui I was participating in painting contest of the district .... But lost .. wkwkkwkwk, green burng and red bird ssng laughing, Zzzzzzzzzzzz ... .. Gk delicious not to play on holiday ... .., Finally free from UTS torture! ! ! ! ! , Wa.ini ke2kalinya ku publish blue duck! , Wa! , Widih FB I changed, '' Wow ... Fb owner stolen by a Hacker! ! ! '' And ask for a copy of 1 Milliyar if you want to be restored .. Kalo will not be Included Various Viruses &amp; only once click the virus it will spread throughout Fb trmsk Fb you! , Iw jijai, Buzzz, Please do nothhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhfh Rare loh ... .., Spa cpet he can ... it's 30 sunflowers loh ..., New game on NDS Black Ace &amp; Red Joker! , HOW WANT THIS? ? ? BROWN EGG loh ..., prefect Holiday present, 100/100 ~~! ! ! , Lv.24 (December 25, 2009), how come, my Farm Ville can not be opened yes? , WAA, please who want to ambill, FINALLY FREE OF A MID REVIEW EXPLANATION! ! ! ! ! ! ! ! ! ! ! ! , Broommmm, bullsed ... what is paan This, yes .. Lv 21 (twenty one) XXI, Brommmmmmmmmmm, ... ... ... ... .., kura2 pink! , Wa, Bullsed Collection Arthiqokes lot banget, wa, want to enter his goal crazy! , Zzzz, the marinade I already love POISON RISK! WKWKWKW ... ... .... ,? , Aw, take the kura2ini pity, wii, funny, we, yeesess, yes, YEA! ! , Collection of rasberries! , Lv. 9! ! 1, jedeng! , Of course. I'm a Good Friend! , We,? , Blupp, take this! , 6 TIMES! , 5 TIMES, 4 TIMES! ! ! ,3 times ! ! ! , Twice, jeng2, yea, yes lv.19, ... ... ... ... ... ... ... ... ... ... ... ... .. ... ... ... ... .., bumps again! ! ! , Finally it can also be temporary, big, oioiooioi, jeng2222 lv. 16, zz, For the sake of buying scarycrows is missing green banknote 15 ... .., GroARRRRRRRRRRRR, * CENTER * CENTER * PUSING * PUSING * PUSING * Kero ... .. kro ... kero ..., iwiwiwiwi, Hansen kok , ADA how can cats be? ? ? , ... ... ... ... .... GANAS ... ... ... ... .. ... ... .... ... ... , Hard to get lv.nya already .... * _ *, Yes ultimately not EARTHQUAKE! in ! , Waw, who's gangu my grave! ! ! Wkwkkw ..., we, Para2 animals, yea! , Make me neighbors at farm vile dong ..., Full of Seeds, yes lv.11, FREESS, owwwww yeaaa, yee already many animals thanks to hansen and vincent thkzzzzzzzz ^ _ ^, if there is earthquake I did that klr house then save soul And ... ... ... .. READY TO DEAD! ! ! , Wew, wow! ! ! , My Happy Aquarium! :) Upgrade my aquarium, Aduhh he said in the news there is a quake on Saturday 24-09-2009 in Jakarta with 8.5 scale ritcher (National Earthquake) ... .... ADUH! ! GIMANA NIHHH SEMOGA is not an earthquake ... * _ *, Bring me some Anmals in the Farmville please ... .... , Likes this lag FB, I know lohh ... .... Cheatnya farmville, fndnfhcrcingnjfmc, ^ _ ^ $ _ $ ^ _ ^ '' in _ in $ _ $ '' in _ in ''! _! ''! _! # _ # # _ # '' * _ * * _ * ''% _%% _% '' 0 (oo) 0 ^ _ * $ _%&gt; _ &lt;(&gt; _ &lt;) '' z_z ZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZ, moooooooo grass So beef if cow so ... ... .. RUMputt awakwkakwkwkwkw, yeas! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , Wakkakak, ..., cpetnya I ride lv, ... ... ... ... .. .., ye! ! Ye ! ! ! Yes! , Death .., ow yea silver! ! ! , Is this good? ! ! ! , Wakakkaka lv 7! ! ! , Wew, qwq, ow yea, oww yea! , Yes! ! ! , Ewwer, My Happy Aquarium lv.3 richard alot egh! ! , Yes! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , HELP ME * _ * CAN ELEPHANT, ANGSA, GOAT, RABBISH &amp; UGLY DUVK ..., WARNING! ! ! For those who play Happy aquarium please check the aquarium every day so as not to MATE! ! ! Wkwkwkkwkwkwk ... ... ... warning doang / ..,, w? , Yes! In, i clean all the aquarium, there kucuing him to ..., the more do not understand wkkwkwkw, wew, nice gfak this game? , AKIRnya many animals also deh, BULLSED THERE IS GEMPAAAAAAAAAAAAAA ... ... (LETTER LOH), YES nAIK LV,? ? ? ? , Money dying dehh, free, yes! , Ow yeaaaaaaaaaaaaaaaaaaaaaaaaaa, nice no? ? ? , Finally lv.5, my lucky, I guessed, WA! ! ! ! ! ! ! ! THIS LR LANGE! ! ! ! ! ! ! ! , Ow Monkey! ! ! , SEMOGA! ! ! THE NATURE OF DRAGON DRAGON CHILDREN BIRDS PHONIEX AJA! ! ! ! ! ! ! , Aaaaaaaaaaaaaaaa mlzzzzzz, zzz,? ? ? ? ? ? ? ? , Zsdfgsgfr, dsfs, rabbits yes ... .... , Duck to ... .., Pay View! ! ! ! ! ! ! ! ! !! ! ! , Bgs is not this Game? ? ? ? , Cobain you in jakarta! ! ! ! ! ! ! ! ! BEREMAT DGN ORG JAKARTA! ! ! Org jakarta talk is slang! ! ! , ... ... .., funny, ZzZzZzZzzzzzzzz ... ... ... ... Write what ya? ? ? ? ? ? ? ? , Really nice yes </t>
+  </si>
+  <si>
+    <t>Face Aib when there is a birthday ... HBD Josephine moga2 closely continued though rarely who: v GBU, Heater ...: v, HBD Father ...:) Long life lahh ... Toko Jam Jaya Tetap Berjaya Thug Life. .. Ea .. # thuglife # father # birthday # boss,: s ..., Boom! , ..., Finally get together again ... Long time no ... Anjayy:) # time # friends # quality # monday # holiday, MAGER Silent For Jombs, I HOPE THIS ...: 'v, ., Hmm ..., The Lol's Rabbit ..., How to eat instant noodles but do not want instant ... # intentions, Qq,: v, More quiet time ... suddenly new round comes: v # cumawow, Learning Database is like learning History is already term2nya loh ... -, More cool fun Csgo tiba2 duarrrr ... SiBiru out -, O_O, Tired of this ...: v, RIP Mr. Sarjono, I do not forget with Mr. And messages you have until now ... GBU:), Vacation with Project Task, Quiz, Final Test? In telolet-in alone lahh ... -, The new learn Algo would know ...: v, Gw who tell you speak tep ... Because you bawel ... Stevandi Steve, What are you thinking now? # Facebook # asking, First Bekasi just to meet the leftmost man # bekasi # latepost, Doggy ..., Wow same: v, Asekkk: v, Worth reading:), Duh already midnight still talking about November 4 ... # Keepcalm, Acceptance of Artificial Intelligence ...: Homina ... Homina ... Homina ... # spongebob # artificialintelligence # binus, Hi Indonesia, we from IndoStoryCafe are doing market research about Cafe Konsep Sejarah Indonesia. We ask for a moment to fill our kusioner according to their own opinion. , Ampunn sultan laugh: v, Mending nokia is still more battery saving: v, temptation Nintendo is Coming: '), Aaauuuuu: v, Really? ? ? : O, Khilaf first lahh before UTS: v, Eaa: v, Impossible: v, That's Real? , Wihh definitely this coding again mwlakukan process if else laugh, Finally ... Create Ngoding (Game)? ? : O, So Programmer ajaa laugh ..., Create sharing ajaa ..., Mutually attacking the cage own zzz ..., Abang Adek Winner ...! ! ! , Slow if ow w ..., Ndut sudahhh ..., Kodingan eat master laugh, Hamster can Drift ...: v, Hmm ... Hard yaa nge gotcha laugh ..., There is a horsea on the toll Cikupa laugh PokemonGo ..., the ads are so good ..., Try every sale tablet / tab have age limit usage ..., basketball combined American football is cool ..., Flash is same ..., This is a great new discovery ..., Less valak same kuntilanak this mah ..., Valak and lala galau gara2 dibully orang indonesia: v, Finally barbie choose a new career laugh, Real? , Pokemon ... Eat? , Tampanan Mana ... laugh # warTampvan Bi Fng IGusti Bagus Agung Oka, The only change this phone is bom already if long laughing, It's called Telor (Chicken) Tube laugh</t>
+  </si>
+  <si>
+    <t>Plan want dual boot same ubuntu tb tb windows gone ..., its real ..., should i go 2 flb hmm, wtf, 1 step closer, when god help you get 5 * sorn,,, rip final, testing water team For xeno ifrit, gif when, Mona Glisa, life goal: Solo p Baha done xd, imma use taiko class and change my name to hibiki laughed, ... i prob will not go outside tomorrow, frieza? Gg, i prob should abandon my light and be fire lord, i prob gon na regret this,:), anyone knows g this error why alas. , Thanks tien xd, when gbf want you to farm xeno ifrit, vice mvp using uncomplete fire grid, life goal, sad, day 1 progress sub accord 0% xd, its possible to get 6 chest wut? ? But sadly i got trash xd, fate extra ccc collab event is really annoying, i dont need gun anymore like, Tien really increased my luck xd, my own sub makes me salty, what the fuck i dont need you, done, 2017 XD, Wtb 10 tiamat anima Xd, khilaf occasionally laugh selling gbf account in reddit to fruition, search button in facebook group already g ada why ._. ? , Laugh, man this is suck, disappointed already, another gold moon ... gg im done with this game gacha, gg, it seems stephan chen back in action sadly, typical indo,&gt; ahok lose&gt; try gacha&gt; rainbow&gt; gold moon What the fuck, p5 artbook scan laugh intentions, # ripjakarta house without dp real benif effectiveness, reference, im bored, lol, 10 more levels, holy shit, GG lah, nice, persona 5 plot twist = mind blown, gg, nice train , Huang long train perfect for mage creed farming, yusuke is best, persona 5 is a dating sim game with some rpg in it xd, eng dub nice also kwwk, also question on p5, # ps4share, sad truth behind persona 5, what The fuck seriusan say this? , Rip my luck .., finally bs solo dao xd, finally on sub accord, gg, pretty is bs replacing main accord xd, worth it, pingin ngetroll raid wear dsaru on 1 april xd, very long hair turned out xd, even dragon Studying oop, Steven Pram, best part of the movie, got all zeta, 10 free roll bugs thank you kmr xd, gold moon number ._. And why it always dark chara, rip I was wrong to send sendal orang, so intense, next me my baha will be mlb i hope, wow, alexis open branch XD, which diributin even armpitny, later if taken new malaysia on protest, XD, XD, finally, primal summon number: /, baha hl here i come, dear g can be up XD, Therry Prayogo, Finally, Op, sixxx xd, last step ... hope they give blue crystal as 3rd anniv present laugh, why sub , So close, thank you free 10 draw i dont need to suptix her anymore xd, pacific rim xd, holly ... .. rip my gacha luck, ggwp, rip,&gt; dying money&gt; indomaret grab money&gt; In pekalongan&gt; go home&gt; sudden rain&gt; nyebrang kepleset&gt; loose sandals in the middle of the road&gt; g got take&gt; rip sendal, event unk stat is so bad fml, xd, saeful ramadhan, laugh, just need to wait till 22 then good bye cosmo Ax, okay good bye ifirt must get ding dong girl, what is the possibility of koruk will nuke indo? , Sad, rip,&gt; Collab part 1: -Alisa is the freebie SR (Wind) Luna is gacha SSR (Dark) Character is this month's 5 SSR -Collab main boss is Losaria. Hell special boss is Bell Angel Latter is also playable by getting an achievement in Shadowverse. -Collab part 2: -Play Shadowverse and receive Granblue in-game items. Likewise play Granblue Fantasy and receive coins, elixirs and packs in Shadowverse. -There is the time-limit number for this part., 180 to go, Therry Prayogo, Time for getting sarasa, why erune number, wrong alter, shadowverse collab xd,&gt; dark rate up, not even one dagger: (, when two monsters Met, ez, done laugh, lovin the event summon like, just relaised i had enough money from cny to spark, kinda want to unlock apsara for djeeta smug face, holy, another one unlocked, this literally Caliogstro, finally laugh, koshka still op , If every round like this, solo 90 nm laugh, dat katalina bonus is very effective, when people are lying about phalanx, rip, saber venus laugh, gill probed hate his father, rip luck, how they programmed the girl's consciousness in C???, Dao is so generous laugh, look at this in animation so mixed feeling, laugh, laugh, reroll accord can be between 2 this keeps like, rip i ve failed you musashi, laugh, x), got the chicken but i Dont play earth xd, lancelot got xd, rip luck 2016, laugh , Cant even 2 man rose queen: (, laugh, ez game, Anthony Nguyen</t>
+  </si>
+  <si>
+    <t>Asdf, Hola, Lel, Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ... ..., At LGF 2011, Citraland: D, Say something about this ..., CHU WHAT? ? ! ! If you want to ngeraid know my dolo like -_______-, Si herder wokokok (what Bulldog?), Help, Believe in JesusChrist. One of my facebook friends challenged all believers to put thison their wall. In the Bible it says, If you deny me in front of yourpeers, I will deny you in front of my Father, at the Gates of Heaven.This is a simple test. If you love God, you are not afraid to ... ... ... ... ... ... show it, repost thisSee More, (Let your friends know that you 've sent a free gift!) , (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift!), ( Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift! Friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know That you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 'Ve sent a free gift!), (Let your friends know that you've sent a free gift ! ), (Let your friends know that you've sent a free gift!), Was it an earthquake? , Wee gold fish, I is not afraid of ghosts numbers! Are you? , Party hard; -), My raid unit and I have just entered the Sunken Ship raid location! Let's see ... Bait, check. Mechanism, check. Magic circle, check. Now where did I put my Scuba tank? , Alibi, There is a regular whiskey and there is Nessy's Golden Reserve - it's distilled magic! , My raid unit and I have just entered the Sunken Ship raid location! Let's see ... Bait, check. Mechanism, check. Magic circle, check. Now where did I put my Scuba tank? , I is not afraid of ghosts number! Are you? , Weqs, T_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Santoso Casey Ediana Son Stephanus Sk H-30, Albert just completed level 5 on Angry Gran: Radioactive Runaway. Play for free on iOS and Android. , What social scientist is that. Better writers deh, ouch ugly english lab already, Happy Chinese New Year All, woi the child db 2. For a book bomb already found a blom? If use cs 5 may not? , The egoist is the same all the same! Just like to win alone! If you lose, angry at the winner! , The A team really awesome karate kid nice, better watch which one again yes? , Woi england opponent amrik who wins? , Finally ragnarok graduated, Cardinalnya copo! ! ! ! , Finally ragnarok graduated, Cardinalnya copo! ! ! ! , Tomorrow is a freedom! , 2 day to freedom! , Let me doainnya mat can 100! , Embarrassed you are already crying! Pantesnya you become a child tk ci! Cici me copz si! , Bio what is the material? , Wah i her jtn pkn this! , Wah bsk ulum! Must be learning! Cape! , Mlz been told to make ulum! No intention! , See ruben onsu at mall, plizz, my dream yesterday back and become my dream today. , My hockey really! Kwkwkwkwkwk, warin mandarin get together today yes? , Woi mandarin kerjain not si? , 2 tasks completed! Stay 2 more! , Kwkwkwkwkwkwk! It turns out there is a shameless class sister! The sister of the class just talk BACOD what else ade class his brother taught the class that is not true si! Who is rich so CACAD, wew today is not a working novel! Gara2 scenario, cool Ragnarok I have more and now can download ds own game, follow me dong on twitter. Albert_kocakz, aaaaaa! When yes I can Rp 10,000! Again no matter! Must be concise bi first new konsen! Must be Rp 10,000! ! ! ! ! ! ! ! ! ! ! ! ! Aaaaa also gloomy can not be concentrated! Gara2 Sodara that masi baby Ragnarok who have been far in apus the same BABY! Less acid! Hikz Rp 10.000! , Aaaaa suffering has started! Already want to work bi there are 4 baby children! Grrrrrrrrrr! Every Saturday comes 3 more babies! , Eh who ever played ASG! If got sick how? Sweet? Salty? Acid? Sore? , Ancol I forgot to enter at 7.30. Grrrr me even at 6.30 entry! , Aaaaa. Play BF from the MAG. Already just liatin cici bli stuff! Bli beha again defective! , Sit sma mima ag ag even though ag move! Make friends old. , Again in Bandung! Lots of strange happenings! So confused me! , 3D dragon is cool out! Lucky not to watch hachiko! , Plizz dong so go to bandung or rafting! , Oh Plizz ulg PLKJ, mandarin, JTN and B.Ing thoroughly all nothing red! Plizzzzz! , Aaaaaa! Mad my bad value all! Do not ride my sister class,, why this MID MANDARIN SHOULD BE SISAH! Why? Ngeselin, not my dear! GRRRRR! GOD GIVE ME MIRACLE. , Aaa! CF laptop CF laptop CF laptop CF laptop. Laptop when BUYED! Who you are using my LAPTOP cici, can make a CF play! When LAPTOP is PURCHASED, ancol CF really good! So want to play again, blika TIKOM not yes mlz also blajar! RELIGION also si. Come on last day to freedom, hari akhir2 mid enak dikasi 2 hari buat blajar! 1 day make it relaxing one more day later sks, tae tae tae tae! Pkn pk pkn pkn very hard! , God give me miracle tu my mandarin test! , Aaaa sarin mandarin her this me! , This month its bad month! I know something but blom certainly for sure! That hurt my heart! I have never been rich like this before! , I'm patient enough! When is my patience lost so angry? , I yesterday mampi what is it? Does not there really a heresy? , The diary confused its contents! , Aaaa! Little big soldier is funny but ultimately crummy not funny but make people cry! Loss do not watch percy jackson, kwkwwkwkwkw! I have fismat? Heabt once! If I have my fismat set the rules! Wkwkkwkwkw ngakank I say pinya fismat! Wkkwkwkwkwkwkwkkwk L.O.L, great angpao this year more 1 jt from last year! Hahahaahaha! , Go to sleep all yeah! Already sleepy! , Let's eye! ! Hold up until 2 pm, must be at 12 o'clock! Aghh! All write the status ah! Hahahahaah! , one more hour ! Must be up to 12 o'clock at night! , Novel must be 2 concise daily chapters! Let's fight! , Why I often help him ngehargai in! But she herself did not appreciate me! His son also leak tetep I appreciate but why he does not value me yes? , Your sissy! I'm not wrong you're wrong! Just say do not want the same rival stefanny nastasyah, yanetritien and teresa grace! Sissy you! So it's all wrong to me! Do not have your brain! Lousy! ToLOL! , Yay can! , FB in my hp deviant! ! ! ! ! , This old owl gara2 the old guy really pick him up! , Yay mandarin is done! Hahahahaha! , Woi! Children db 2 kls 7 bahn% 20sjarah for ulg bsk what materials? , Crazy lightning in my house is cool! , Alah resee you are proud of yourself! Your dog is rich in pigs! no shame ! Already know how to play computer dimatiin kompinya dog! , Amin my english is not red! YAY, you are my babu not my babu! Have you told me i coward you own pengcut! ASBUN! , Do not need so your sister! Basic not JANTAN, LEBAY anyway! , Senen much pr! Lazy make! , I'm stupid is not it? , Yay bsj a pretty good day, PR Pkn heretical! It's hard to find! , Ah no ! The physics is rather easy! But last number is not thorough! It should be 0.0015 but I'm 0.015! Shit! Just different zero 1! , Bad luck no isa les gara2 les! , Finally able to tutor english same teacher Mr.Ismet! Steady! , Owed ink print abiz abiz not kluar bi task how is this! , Agh! Bsk sits the same damar again! Bored me! Why not shit unlucky! Bu surta rese! , Steady today skull just a little bit! , Well today school! Lousy! , Well today it is! , Finally can nanganin ********* through out bond! Wkkwwwkwkwkwkw! , OLD LAMA really nyampe villanya wear bli cake mochi everything! , Just make friends wkwkwkwkw, agh computer again in sefis can not play facebook from computer! , Merry Christmas all, oh my cici rese i nungguin her natal sister performances! Rese's been a long time! Grrrrr! , Take the rapot do not fear the but mlz nunggunya! It's been a long time! Agh! , Aaaaa! Want to join LDK osis but can not be osisi agh! , I like ... . ? , Again the same bzt jln2, oh pkn religion very hard! Already mlz again! , Mlz learn history and bio from print! , Oh today ilum ah mlz! , Finally the task pkn finished also has made 2 times again the first one is almost finished eh blom lights in the save again brazen, wado not bring the achievement card made for the task again mlz ah rese! , Finally RED JOKER and BLACK ACE finished black ace yesterday redaksi joker today kwkjwkwkwkwk! , NI CREATE TMEN W DOANK, mlz blajar jtn! Agh not ngafal for OR agi severe! , Agh confused want bli wii or laptop! Give me suggestions! , Agh rain tae, again on the rich shuttle in the net after netes-netes entered the car. Agh! ! , Ah missed geta so geek again this agh! , Know not michael dwitama (aka dede) like who is it? , Happy halloween all, woi who come to the delicious obake can play I was gone 10.000 no longer playing dogs really tu queue! , Crazy yesterday was a brassman wlkwkwkwkwk! , Crazy long time on the bus! Blom to school! , Again at this theater! , Pingin cepet study tour so wake up at 4, finally report raport! , Oh my report card is missing or kebawa that kebawa got my love bk dong! , Skull again malez! , Finally get free even 1 day! , Agh 5 october day that sucks bad luck because of the mid shit! ! ! ! ! ! ! ! ! ! ! , Exciting free class again, again in free class! , Well school again lousy! , Ah want hitsugaya, oh my crazy stress gara want mid time fitting this holiday in order to blajar! Lousy ah! , Who is it, my zodiacs are kluar kwkwkwkwkwk! , Wkwkkwkwkwk, can not if not god yes? Lousy! , Ahhhh 6 more days of school! Males mid! , Who am I supporting this phone, is this quiz correct? Wkwkwkwkkwk I do not think so! Or is it? , Finally nyampe jakarta! , Again in bandung! , Crazy eating at the summit, the name of the anchor restaurant! Very expensive! , exciting ! , Sadistic ah I same room sodara same child baby sleep is lame! Already ds I dipinjem continue if batrenya out gg believe hard villas it's nice but hot! , Cool again at the top! Wkkwkwkwk, again this free in class again maen-maen! exciting ! ! ! ! , Devil text pkn only 4 minutes at least 10 minutes longer would make any invitation to come again lame! , Well do not fit, agh ulg ingris her this is a cacad, lazy bsk a lot of tasks! , Exciting, again dirumahc GE, again this school English lesson teacher again kluar class, tae again play geta earthquake make people lose tae, cacad already her mat 2 times! , How come ya wah muzizat! Surely this boong, oily dizziness BI BI males bangety workman told to mading again already rapot bad value all dimarahin ah capeeeeee! Already mading blom finished pairs day selasanya cacad really cape already to school shy-maluin bad deh lame really make my shy pants * o * e * deformed! , Ooh scoot again-again ulg again-ulg again lucky ah! , I mean what the heck I do not understand, dizzy is the same this quest I do not understand english bhs si pusin g already, dog can not play facebook on my computer! Anjk, pesky kompigw mouse same broken keyboard can not play kmputer, long time! Resentful! Because the grandmother's birthday annoyed all so chaotic, old! Resentful! Nyebei because my grandma birthday grandmother so chaotic, shit, tae, DOG my house, yay can kalahin ge, lucky to pass even hockey to trophies, in ojo white knight so what ya ya? Wkwkwkwkw, crazy wow sby who made this quest insulting his name, the plizz that i invite to play happy farm thank ya! ! ! ! ! Plizz, my plizz Invite play happy farm thank ya! ! ! ! I really like to play basketball, wow kwren it ax, wow kok answer krempeng very different it is my body, wow sure dong, I memeng great first rank, wow me joe sandy wwkkwkwwkwk, wow I am strong loh balanced opponent chris john (before the opponent opponent crhis john must ask forgiveness first) wkwkwkwk, kwkwkwkwkwk my nature rock wkwkwkkwkwk, yes finally finish mid, happy finally can make facebook
+</t>
+  </si>
+  <si>
+    <t>He is back, whose sick,, Who Sleeps .., This student is VERY SPIRIT learning Chemistry Eka Teguh D'SilverLance Acai Chandra Richie Ryan DjBilly Gautama, this movie, Infinity ... Infinity .. AldiFaiz, This is my WeChat QR code. Scan it and chat with me! Just download WeChat at is our WeChat QR code. Scan it and chat with me! Just download WeChat at Albertus Alexander, Cape not because of nambang, because shout Albertus Alexander Winston Marco Sofian Winardi Jonathan, first school, First day of school, Tuh K C enterkkk, She Love me! , Wait 5 seconds because the image number? Is not Nobody Got Time for That, Tuh K C Results from last Friday, Denger News Entering the long holiday ... ... Tomorrow I am school Oh god why? , First Day on the internet kid just the same as readyboost, rape of someone, Ry, Hariman Sugara kyaaaaaaaaaa Wkwkk, Hariman Sugara proud of yourself really cool cuyy, Hariman Sugara crazy, chef ken, LOLOLOLOLOLOL, PON Not started, roof field Tennis Udah Collapsed LOL, meme: jackie_chan - Character of the old Virgin: Kalo talk can not stop until the spread of scatter, sure if selling facebook account or just a trap, Jackson, I just ngucapin Happy 2nd Birthday of LivingSocial Indonesia and can chance to win iPod Nano &amp; IPad 3! Cool oath! ! Pack. Leave. Find your Vaastu &amp; win The new iPad! , That's money laughing, Crazy bunch laugh just like playing the tires look no helpless times, Woohoo! I managed Check-In and added score! Want to dapetin Toshiba New Satellite M840 worth Rp 8 million with only Rp 1 million? Just queue here! , Dog .. Dead lights -_-, annoying message ..., ckckckck, Nothing Different skipper,, Same as IDM speednya. , Stress if there is no pulse -__-, still another world is really excessive, grass in zoom -__-, can not, sleep open facebook laugh, Which character would you be in the Avengers? Find it out at Indonesian Life Roleplay [0.3e] Address: 210.247.242.83:7777 Players: 25/75 Ping: 55 Modes: IL: RP V3.99 Updated! Map: ILRP MAP,, He's The lord ... Fucking cool .. Oh My god .. Me Gusta He's Not A Gay ...: D</t>
+  </si>
+  <si>
+    <t>(Y),, test, (Y), no alazka, miami any so: p, Good, Better, Best. Never let it rest. Until your good is better, and your better is best. # 21 Duncan, (Y), ngung, wakuncarOOO wakuncarOOOwakuncar OOOOO, ALAY, T_T, Thanks for all .., Enjoying the last day of vacation, SSG-69 [TH], Thai sniper game, Type a question right here, Enter your text Here, Fireflies, Type a question right here, Sleep mode on, slow download? Use idm (sori is not promotion) directly to TKP in PB, Rain wind = cold, Practice makes perfect, Earthquake, Akhrinya also skk, Ooo, download time, Funatastic, Two Birds, what's on your mind? , Running in circle, Hooam, facebook chat is less accurate! ! , Work on vacation: - sleeping -make -main computer-eat again -to sleep again -denger song -no forget the solat, Abs fasting month really laper only yes? , Holiday bored, go to school lazy? ? , Apologize to be born &amp; inner, a few hours to the day of victory, Heat jakarta ajib already, What 's on your mind? , Right, short, &amp; solid, Heat bung .., Another holiday. Ajib true, Coming Clean, Earth, the most comfortable waiting for breaking the fast while drinking ice mix:), most comfortable waiting for breaking the fast while drinking ice mix. , Cool, wake up, terawih, facebook chat kok often error ..? , O_o, type your question right here, I like to make myself believe That planet earth turns slowly It 's hard to say that I' d rather stay awake when I 'm asleep Cuz everything is never as it seems, Naked and completely clean, Download bntar again finished, computer off. Fate, waiting to break the fast on the internet! , Type a question right here, fasting a lot of trials,, The heaviest competitor yahoo &amp; msn: Google! , Search Engine ane just GOOGLE, Little wonders, Thinking forward, soon fasting, very fast? ? Hhe, Waduh, ane kira bsk holiday, our twists &amp; turns of fate time falls away, but these small hours, these small hours still remain, Gerah uy, Merdeka! ! ! ,., 15.40, Waking up, Vulnerable, Body aches. , Yeah, is basket time. , One word: Optimistic ..! , * &amp;%! '! ! *? ! *, Flu season struck, ESMOSI. , _, Slow but sure, O_o, Morning directly denger brother fight. Wkwkwk, Jakarta is hot. , Yesterday is history tomorrow is mystery but today is a gift, Tomorrow is a new day,, Mbah surip, goodbye. , Not carrying,. , Ngerjain pr bhs arab, O_o, Glides on to jakarta, In bandung ..,? , Tired, Reachable, Buset cri hanger question mark very hard, because ane also wrong talking to say keychain form of question mark. Pantes is not there. O_o, From First to Last, Out of the dark debt, O_o, I lop you pul. O_o, Ask me why? , I lop you pul. Nice dong, light 's theme,? *** # # 3,, Regards super .., Entering a complicated day,? , Tomorrow go to school, O_o, Want cepet plng. I'm buueetee. ,? ! ? ! , He, Ojan, alhamdulliah. Ehb finished, bsk ehb. Hopefully run well, well lose again, wah facebook I can send the sentence is not clear, impatient with transformers 2, holiday again, uuooo ..., unlucky: (, lm bosen joegaa holiday .., the task a lot .. forgive dehhh, I want to shout ... (ALIIIII ...) Udh not sbr him meet, tuyeng, ngapa2in not</t>
+  </si>
+  <si>
+    <t>? ? ? ? ? ? ? ? . . . . ? ? ? ? : In putrijaniviani, Tesya The result of your temperament analysis is as below: You are a serious type of friend, you are also very concerned about how people are around you. Then you easily feel sad because little things, sometimes can sometimes be stored long in the heart, and can not let it. When you are angry, often reluctant to hurt people, often take other small things that are not concerned to blame others. Although you mean good, but others do not appreciate your kindness, even say you are childish, immature. Suggestion: Humans have the right to anger, not anger does not mean you are kind, or a success. On the one hand want to hold back, on the one hand losing control will only make you look cynical. Angry is also one way to express yourself. , Tesya Your financial concept analysis is as follows: For people who choose a fish stomach (middle) including shoppers when they get a monthly salary, they are very popular as big buyers when there are sales in department stores, especially on food and clothes, as long as they like, Do not hesitate to spend, then they often get into debt. , Tesya The result of your logic ability analysis as below: You choose Number 4 The driver of the car in front of number 4 has seen him, will stop. Moreover the number 4 will be called stop by number 1,2 because the number 1,2 stares at it, so it's fine. Congratulations, you guessed wrong! , I am lucky to have a friends like you guys. , Trip to belitung, XII IA 3? ? ? ? ? ? ? ? ? ? ? ? , With B'6 at prom night, Prom Night SMA Santo Yosef 2015, Prom night 2015, The story just want to go mkn. Ehh hbs mkn even to pantaii. Feeling again in the private beach. Ga no one's problem. Wkakakak .., Tomorrow UN? ? ? ? , Pink! ! ? ? ? ? ? ? ? ? B'6, Sinmung kadonyaa. Luvv youu gaiiss, Paraii, Swim at aston, Always be friends forever, Nal 's bday party, 25%, My cutie niece, New hair. , New hair, My cute dogie black vie, We are young and we are be friends forever, We can stay forever young. , Full to the max. Wish a miracle tomorrow. Fighting GBM, The moment when tired of learning, Akyuu adorable beudds .. Fans dephii celalluee her cunning polepell muachhh: *, We call us LTC ..., You 're not my FUCKING friend! ! , Thanks friends. Especially B'7, nd my bestie Dessy Ling, kesiah, bella, aldo, atung, Dhanesa Prisilia, My cute nephew, B'7 crazy club, # studyhard # test # tomorrow # history # mandarin # WML, Mading mandarin .., Instaa: TesyaFebbyL, Study hard for bio .., Thanks mom: *, Task numpukk (?????) (????) # Tepukjidat, (????? _?????), Nothing To doo .. Lalalalalalaaa .. (~???) ~, It turns out the world is narrow yahh&gt; &lt;, Sick! ! , Welcome XI-IPA 2 ~ (??? ~) ~ (???) ~ (~???) ~, (? _?)? -? ? ? - - (SOS), Oversize Shoe (?? `???), You 've got ta get up and try *, Tomorrow last day at sabang. : '(So sadihh (???) (????), Babii fangin tuu okk Throw a sponge again with my uma! Ka think what we are going to do ?! Brother pak otak mang !!!! My sister dcd ngjar kakak e Fuck!!, Bye XB I will love nd miss the moment with you guys .. Thanks for evrything (? '??) Welcomee XI IPA (??)? (~? ??) ~, Biology surrender (????) B.indo original ngarang ~ (??? ~) Ntah what a tomorrow's results Hahahahh .. Let it flow alone .., First day .. B.inggris, mtk , OR Wish me luck., (???) (????), Dwea, Goodbye Dwean Well ok right there So a good dog We love you: (, Hey loo!) Behind my dog ??donk. Shy!! (!) /. (?? `???), Flu melandaa!!! (`) / (?? `?? If you want to buy a dog donk, do not throw people p. ?), Class party ~ (??? ~) ~ Eat .. Nge'diskoo Hahahahh .., Nothing to do, Rainy night: D Economy (?? ? ? ? ? ) (????), Everything is on stress. Child XB on crazy oii. Org again UTS even ngechat in group. Ahahahh .. Funny .. Biology mandarin = high stress, I wish I could do the best today. ~ (??? ~) ~ (???) ~ (~???) ~, Materials Geo bnyak bnerr. Bljr just stngah. Blm learn religion. Blm memorized the chemical formula. (??) / (???) (.??) Aduhh .., Santo Yosef High School, Saint Joseph Senior High School, Happy Brithday Saint Joseph Senior High School 50th, Wechat, line nd whatsup ID: Tesya_Cenn, Still want tidurr . Hoamm .. Holiday effect. Hahahh ..: D: 3, Smue stuff is gone. Gatau kmnaaa. Ringemm. , Bntar agc was killed. ? A? A? = D? A? A? = D = D Geo is like a socio. Ohh noo! ! , Chocolate betambun. Cmne ah? ? Kek melku kuu nee. Hahahh .. Thank's her chocolate friends. : D, Happy chocolate day:) overcast. Lazy Wake up: o, Gong xi fa chai. Happy chinese year. Yeeyy .., Tired. , Smua on stress. Hahahh .. (`?) -s (._.`) Dazed by physics, Biologyi (???) (.???), Hahahh .. Lo think it's my lucu? ? Gag there is the slightest hilarious! ! Fuck! ! , Be strong: D, Back to school, Last day: (, Miracle: D, Pasrahh .. (????) B.English,, Physics Wish some miracle .., Pray for physics and history tomorow., UAS on Before the eyes!! Study Hard!!, This feeling stops again. Hell !, Ngpe sich ikak ngte ku d'rear Mang what's wrong with me? Just because of spele g so complicated cmnii a Kuu dc ngrtii what ade d 'Brain ikak too, what g always i slah a, Penku kuku cmne care a clarify like ikak Mn ikak g agc cmtuu like kuu, Not running as planned: (# nyesek, Learning sambill accompanied by KITKAT!! (O? (???) -c &lt;? _?), In the hanging garden, Lintass alamm, Create the d'sna HBD yaa: D Moga pnjng age, shat always Nd more suksess .GBU, Sanyo's expoo.</t>
+  </si>
+  <si>
+    <t>M, Work is not about money but about the pleasure or not doing the job, When not know people well he will be surprised when the person shows himself the truth. , The thing that makes people grow is the dissatisfaction of something positive. Examples dissatisfied with technology and try to develop it again, with this man continues to grow more because they want new ones continue. , Yuli rich kid missing! Laugh, a game is when seorg create creations masing2 hahhah, Org successful people who can think ahead, ANDIKA, Small funny, gedenya cute cool laugh again, mudah2an this incident does not happen again! , Gara2 yesterday I had a bad night right -, ouch it's like to play time! , Must add the champion from now on, in order to win! , Oh my goodness, today there are many numbers that i do not know my sms! ! ! , Beautiful dreams laugh, gosh my hands! , It turns out you do not change, still the same as the old hahhah, Gw just human! Hahhah, my Nyesel! , Sweet taste mixed with bitterness, sweet taste lost due to bitah hahhah, Hope the past incident does not repeat hahhah, May tomorrow the best that win laugh, Gk much hope, Will the previous incident will be repeated again? Hahhah, my greatest regret when I make you angry, Klo diinget2 seneng also yh, Apes - gara2 yesterday keinget past, Can only hope hahaha, Gw realized, my movement faster than before, Am I better than the first? , From the birth of the world to the end, the hereafter opens the way that hearing his call, throw yourself on destiny, and surrender yourself to all, Gara2 forget in the save until now not maen2 hahhah, nothing impossible: p, oh good relaxing diranjang while playing wkWkwk, In save -, Yei, finally:), What is miribnya -, Original I was made curious -, Tumben I can stay up wkwkwkwk, Ko today I can not sleep yh in, Renungi kata2 me! Hahhah, This incident will be my most memorable experience! Hahhah, Gw nyesel! Why can i be so dumb! , Ah shit I'm a dumb emank! , If only I can control the time, surely all will not happen hahhah, oh have not yet yh in laughing, Forgetting all that has happened and start a new laugh, ko two days this my dreams oh y2 laugh, must seneng what sad yh -, Jdi lazy, sorry, What if I could change for the better? Wkwkwkwk, There is an equally elephant monkey WKAKAKAK. . . , Happy memories hahhah, pengen changed but difficult hahhah, Finally ulum finished hahhah, pengen as before, but can not hahhah, today now watching jogging is not yh in, Ah rese friday not so holiday -, Wkwkwk, Gw and Yuli, my face is bleak future laughing, want to laugh lecture, wkwkwkwk, i'm ordinary man :)), hahhah buy basketball again hurray:), i need honesty from you hahhah, Gw need honesty not lie hahhah, Repeat the time hahhah, Wkwkwk past, oh mop, laugh my photo is still small: p, thank fate just deh haha, Klo alone I can set the time, I change now so the date 21 hahhah, Mending open facebook laugh, Tranquility and loneliness, You and me: p, Buset play game monternya call friends solely, so do not finish2 - if finished can expnya rpa this, crazy dikamar rich in kutup north, nyolot wrong, not nyolot wrong wrong baek, not wrong baek Apasi mwnya - laugh, Bsk ko no holiday laugh, die, riot -, ouch foot not heal2 Wkwkwk, it turns out I am useful too laugh, Njis homo laughing movie, Bosen, Shit it turns out it has been engineered by 3 people it, Ujan stop donk , Udh lma do not play dota so want to play again, z contrived sttS, pp lma deh laugh, this guy one bt again, Gw be patient hehheh, Oon is also garbage 6 letters instead of 6 words laugh, why my life is rich like this, Smp trinity is now watching school? , I'm so confused there is a saying that there is a holiday that is true what holiday is in the day senen, Gila, my stay doank who have not laughed, now watching watch but lazy tv nyetel laugh, oh now watching bgn 4 hours even bgn 1 hour, Apes2 I wait for one piece movie from 2 o'clock was the beginning of this hour zzz chaotic, Gw willing to hook this time just to watch wkwkwkwk, Jam 3 it turns out there is a cartoon - bad luck, wwkwkwkw seneng also, may not da not care ma you hahhah, Apes2 I play cross fire dikatain ngecheat just gara2 ngekill merely emank basically I jgo now watching diapain? Wkwkwkwk, Oh dear ma my comp score - can only 90 dua2nya, xl severe zzz, Wew smsnya new to send, Gw often fancy but the fantasy never materialize even though I have tried hehheh, Diajakin but ditinggalin -, Nina bobo if Not bobo in my bite wkwkwkk, short fat laugh again laugh, Damn I have cape2 to school his teacher not da rese banget, today sparing is tired of losing apes2 just 6 more Si albert again pke body I made through zzzz ..., Easy to win, Life is emank all wrong yh if you talk wrong do not talk wrong laugh ..., Ccd banget, a team that so just zzz ... Damn me dikacangin david, unlucky dota 5 kli win only 4 kli Wkkwkwkw, Cacad, Senen holiday senengnya hehheh ..., today practice for the web ... kirain exciting twnya bsn, Yes Thursday is not so replicate bio it holiday wkwkwk .., pengen cepet2 on 3 laughs ..., Gw confused me Not pke sms package but ko pulse i live 108 can still sms? Why that? , Than to learn better online laugh .... , Malez learn ..., Space 1 akn be a room to be crushed laugh ..., Bio iseng, Today I'm really happy hehheh ..., Iseng ... fun ... fun ... laugh ..., my dream Only one thing and I believe my dream will be real but ko dream it never come true? , Tdi repeat mat ngasal all laugh ... can rpa kh? , Ah ... ko people yh already lma did not meet me say i'm thin, not rich used to be fat -_-, elephant nge dunk laugh ..., Ko after i know him my job smsan mlu laugh ..., knp yh da Who knows no why? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Start this hri, start bljr serious again deh huh ..., ah ... 4 today I'm just plain zzz ..., Strange today .. Seneng mixed sick, Bahagianya hehheh ..., Time to stay up, Bsk mlz School, lgian not da pljran bsk, why? , Yes ps my chances of meeting laugh .... Added bonus can be my old basketball but deflated si huh ... laughing ..., Gw cynk really ma him, I memank the perfect human and never laugh wrong .... , Yeh senin Holiday, My legs really sick, tired huh ... must tdur first this zzz, CAMPUS BROTHERS HEHHEH ..., Cpe zzz, Udh home cool! ! ! , Zzz a cold to attack me, this Kli must be 100 I can 93 again, if today I am in love now hp or basketball choice I choose basketball so I can practice myself so I can compete with bejo and berto ability: -) , Gw lose out laughing ..., why is that big? If gara2 I often waste water what kh because I am naughty? If rich so I have to apologize laugh .... , The same angry weather I laugh ..., Gw now my basketball intentions have to practice every day MUST! ! ! Laughing ..., Tomorrow my exkul tortured his teacher laughs .... , Adu sertes I ngerjaiin physics pr 25 number, Ah first repeat not 100 even 93 ah not exciting just wrong little zzz, Ah it's my value not 100 gara2 forget a little zzz, unlucky there is not yet memorize isa can 100 deh zzz, huh ... luckily he did not realize laughing ..., Hahhah ... my feet are calloused all! ! ! , Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Not a person who really likes seseorg not from looks and treasure? Wkwkw ..., Gw feel guilty gara2 earlier: (, confirm bio very serious seriously wkwwkwkwk .... I will not confirm my lifetime if I do not remove again wwkwkwkw, confirm bio very serious, swear wkwkwkwwkwkwkkwkwkwkkwkw .., canfirm bio mahal Really laugh ..., confrim bio expensive, Before januari I must have good at basketball wkwlwk ... mandatory</t>
+  </si>
+  <si>
+    <t>Thanks. Greetings Diecaster:), With H2 garage, thanks ya who already ngucapin, owh yeahh, Dragon city birthday! ! ! , This new greget, thank you all ..., Just follow this FIND THE PRIZE:) How to play very easy, live temuin only gift is where &amp; immediately become our property deh! Come on follow-up, just click the link below,. , There is alfian, ah, last day ehb, help, Singapure steady ... ..., showroom bentley, retreat, cape, final tense, pin bb ku. 2626DE34, Ol at the house of monang ............. , Horee, ground ball, fireball, cloud balls, thanks for all my friends ... GBU you too: D, phantomm, PINATA ..., snow hiddeni, Bird, wow, hidenni octo, hidenni monkey, chicken, Audi Zero ... .... ! ! ! : D, 1 1/2 hours in trasa car bored with dead HP ... ... jammed again -_-, costum, phoenix, google crome lage heng .... Cape sister wear mozilla again ... weak brain, hiddeni fruit, laugh ..., ahahahahhaha, fsdfsdfsf, horayyy, Oh Nella 'Tsukiyomi I miss your face, your voice ... .. why not move to samaria again ... .. there are many memories steven robin .... , Ahaaa, laughing style hideni, insect, crazy, fragie, thanks buwat that help space rocket me ...; D, weww, wew ...&gt; &lt;, kgjls, BOTTLE GW BROKEN SIDE .... ! ! ! ! ! , ha ha ha ha</t>
+  </si>
+  <si>
+    <t>O, i, 9, i9, O, Steady, Hello everyone! The first video of Fabtatoes has been so. May be checked yes Fabers Challenge | FabTatoes: Do not forget to subscribe and share, Sell SMTOWN INA ticket! Interests? , HOAM .., Today so ga ..? ? 10 o'clock ..? ? , Hack The Ghost Mode 'til U Get Banned .., Lecture can cause sleepiness, go home night, strez and end na crazy .., Interned me again lag brat .. so gx can OL CF .. TT, CF again maintenance .. Cape in waiting lgi .., jlan2 to peak huh ... pnaz bnget! , Harve's pet '' Wolly '' is da bestzZ 4ever 'n ever ... ... ... Ok. , Harve's Pet is da best 4ever 'n ever, addduuuuhhh ... .... Die light teruzzz me so mlzzz ..., again mlz niccchhhh ... .... , Busssseeetttt! ! ! ! ! Ujan na gede buaaanggeeet g again go to marriage ampe can not plng, in open space sicch ..., asssyyikkk ... ... .. just red 1, 9 na there are 6 and 100 na atu, asssyyikkk ... .. ... just red 1, 9 na there are 6 and 100 na atu, P'ling malz if it turns off the light&gt;. &lt;Huhh ..., in khirnya already ammppe jooggjaa asyikkkk ...! -.-,, come on, come on</t>
+  </si>
+  <si>
+    <t>#? # Moonspoetry,? ? ? ? ? ? ? ? , And the light that you left, it helps me to see a way through all the bitterness, a way to who I really want to be .. - Visit and read more:? Moons-poetry.blogspot.com. . #? ? ? # Moonspoetry, Disney feels! ! ! ! Tinker bell wohoooooo, HAPPENING NOW? ? ? ? ? ? ? ? , It was # WorldPoetryDay yesterday, so today I like to share my first ever and my favorite poetry, which was written three years ago. -? ? ? ? ! Visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, Minioooon? ? ? ? ? ? ? ? ,? ? ? ? ? ? ? ? ,? ? ? ? ? ? ? ? ? ? ? ? ! - Visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry,? ? ? ? ? ? ? ? , Today - last year. # Happywhiteday? ? ? ? , Happy white day? ? ? ? ! - Visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, * Help me to fill this questionnaire about E-Commerce for my final project. God Bless? ? ? ? ,? ? ? ? ? ? ? ? ? ? ? ,? ? ? ? ? ? .. - Visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, H-4! ! ! ! , Happy # IntenationalWomensDay! - Visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, I can not? ? ? ? , The world seems to belong to the sixth? ? ? ? , Happy sunday! - Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, Ig: in hashclothid Line: Mr. President? ? ? ? ? ? ? ? , # Samyangchallenge again! Work two o'clock in the morning with makeshift equipment? ? ? ? ? ? ? ? - full video is on youtube: know i need you but i wanna see you but i wan na stay with you until we 're grey and old .. - visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry,? ? ? ? Peace! - visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, # goals,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Cause what if I never loveeeee again .. - visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry #? , Happy Valentine's Day? - visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, and YOU ...,? ? ? ? ? ? ? ? , You leave me breathless .. you 're everything good in my life .. - # repost visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, H-1 year CNY, can not wait? ? ? ? , CAN NOT WAIT! ! , It 's as if my heart knows you are the missing piece .. - # repost visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, International Marketing 2017! , And I can not reach out to tell you, that I always wonder what you 're up to ... - # repost visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, Oh these times are hard, they are making us crazy, do not give up on me baby ... - # repost visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, Things to do when you are already 'stepped'? ? ? ? , It's got ta be youuu..uu..uuu .. - Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, It's been a while since I had so much fun like today? ? ? ? ? ? ? ? , Let me go home ... Oh, I miss you, you know. - Visit and read more:? Moons-poetry.blogspot.com (web version might be better). . . # Moonspoetry,? , Please do not go ... Addicted to this song by Joel Adams? ? ? ? - Visit and read more:? Moons-poetry.blogspot.com (web version might be better). . . # Moonspoetry, Pekanbaru? ? ? ? ,? ? ? ..every part of my life that is fated to cross the same path with you, I hopelessly turn my back on you. - Lesson learned: too much inspiration to write, but I will continue to watch them anyway. Happy holiday! - Visit and read more:? Moons-poetry.blogspot.com (web version might be better). . . # Moonspoetry, Is it me or her that you see through my eyes ... - Visit and read more:? Moons-poetry.blogspot.com (web version might be better). . . # Moonspoetry, Tell me how to get this job! , The most intense drama I've ever watched so far. , Follow satori_planner on instagram, Pekanbaru and Jakarta based wedding planner. - Visit and read more:? Moons-poetry.blogspot.com (web version might be better). . . # Moonspoetry,? ? ? ? ? ? ? ? ? ? ? ? , Just updated my blogspot. Visit and read more:? Moons-poetry.blogspot.com (web version might be better). . . . . # Moonspoetry, I always wish that it was all enough. Because you are eternally enough for me ... Moon Poetry see your true colors ..., Siblings (????) # Throwback,? ? ? ? I could never thank 2016 enough for shaping me into a better person, who is the number of feeling feeling terrified about opening the door to the world. I have been keeping my own world to myself. Well I like to observe people, I feel what others feel, I absorb surrounding people 's emotions, I do not tell them, I did not socialize much. I had a small, a really small circle of friend. Sometimes I even pushed them away by turn off my phone or deleted the chat application. I really did gosh, sorry friends! This year, I learned a lot. I learned to express my feelings instead of bottling them up. I learned to be stronger even when everything was falling apart. This year, I gain so much things more than I expected. Love, is the most. I feel loved by the world. People started to listen to listen to my stories, laughed, smiled, cared. It feels so amazing. Well, I did not care it was all easy through the whole year. What I mean is, this year I really synchronize the black and the white melody of this life. And that is all thanks to people who do not give up on me number matter how difficult I am to deal with? ? ? ? Thank you everyone! ? ? ? ? ? ? ? ? ? ? ! ? ? ? ? ? ? ! HAPPY NEW YEAR? ? ? - Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, Japanese at its best! 2:07 and up? ? ? ? , A day, a month, a year ... how time flies as loneliness has become my best friend. - Written by one-truly-artistic friend? ? ? ? , Check him out Tommy Tandera, LOL look at someone's phone and be like so bright you could die. ? ? ? ? ? ? ? ? * Or laptop, 2017 is coming soon, and well I have been writing since 2009. Wow! I still can not believe that I 've made it this far. I used to write fiction stories instead of poetry like I do now. There is a lot of supportive readers and comments, ups and downs, and still I have a lot of fun at that time! And this one is from If There 's Still One More Chance (2010), short story about someone felt regret over something she' s too late when she finally realized it? ? ? ? . For some people, writing might sound boring. But it's fine, everyone will get their own right place in the right time eventually, and I believe that I've found that right place :)! ! Wish everyone a blissful new year! Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry,? ? ? ? ? ? ? ? ? ? ? ? , ... And maybe, just maybe, it is all enough. - So? ? ? ? , Before we move on to 2017, I would like to clarify something. My initial moon is not what you think it is. It is not the moon that shines in the night sky. It is a childish story but ok, back then when I was 14, I liked Korea so much and just like the other fans, I tried to find my own korean name. It appeared to be Moonri (??). Also, I already started to write and then I used the first name of my korean name as my initial. Moon. So, yeah, that is all? ? ? ? . I am not getting emotional orsentimental when it is full moon or else. I am not getting the inspiration by watching the moon up there. No, I am not! LOL? ? ? ? ! Inspiration can come from anywhere and also the number, it is not based on the true story of mine. Laugh okay thank you for reading:) Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, You deserve to be loved .. # repost - It is almost the end of the year and people need to believe how blessed they are to watch the world spinning until today! And I know I would not make it with the support of people who matter the most to me! So I will soon post about people I am thankful for in 2016! # Peopleiamthankfulforin2016 Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, This farewell is going to hurt you and you will feel like you are not ready yet. Things are going to change, things around you and things inside yourself. But you have to believe that is going to be beautiful. It is going to be one of your most precious memories to be remembered. So just keep going on! ? ? ? ? . . . . . # Moonspoetry,? ? ? ? ? ? ? , HAS Christmas Celebration, Agliophobia The fear of being hurt. - Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, ... all the colors of the day and all the rhythms of the night. - Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, ... as she could be there and listen to you for hours. - Well, what could be much harder than to find inspiration for your writing? ! Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, Thank you for your emak till the end of year? ? ? ? , I was only 10 years old back then when I wrote my first fiction stories. Then I decided to become a writer when I was 14. I did not know that I could make it this far. And today, I realized something about the concept of sharing and also about the art-of-teaching? ? ? ? By the time we share about things we know that what matters here is not just about everyone in the room is getting a new knowledge. It is actually about you knowing yourself even more. About what you can do and the things you should improve for the next day. That is what matters the most. I just love this feeling. Thank you for the opportunity given. See you next week? ? ? ? , Did they stalk me because this is so me? ? ? ? , November babies' party? ? ? ? , ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ... - Visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, What right do I have ... - Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, number need to consume vitamin c or b or blablabla ... just having them is enough for me? ? ? ? # Failedsweetwordsdetected,? Const? Llation - Visit and read more:? Moons-poetry.blogspot.com. . # Moonspoetry, who was still awaited in front of his kindergarten, now can walk his own tour. Safe flight? ? ? ? ? ? ? ? , Happy birthday two neighbors little childhood? ? ? ? ? ? ? ? ? , My sunday ... ... ... ... ... ... ..., My October would be very very tough. - Visit and read more:? Moons-poetry.blogspot.com, mother of advertising? ? ? ? , Visit and read more:? Moons-poetry.blogspot.com. . . # Moonspoetry, Visit and read more:? Moons-poetry.blogspot.com. # Moonspoetry,? ? ? ? ? ? ? ? ? ? ? ? , Visit and read more:? Moons-poetry.blogspot.com, ..another day of me missing you. - Visit and read more:? Moons-poetry.blogspot.com, Happy 8th Anniversary our beloved school, Dharma Loka SHS. - HAS Family, # SING 2016, I knew that you are the first time since the first time. - Visit and read more:? Moons-poetry.blogspot.com, august already? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Everything is beautiful ... in a writing. - Visit and read more:? Missmoondaily.blogspot.com, Are you okay, my child? - Visit and read more:? Missmoondaily.blogspot.com,? ? ? ? ? ? ? ? , Birthday and pony? ? ? ? , This is how we spend our holiday! - HAS JKT? Check the full video on youtube: - Do% 20not avoid cameras during your years in holiday. You might not want to know, but you will appreciate it later. ? ? ? ? , Faroe Islands? ? ? ? , [Tap for the sound! ] HAS JKT Goes To Bandung? ? ? ? Full video: an hour, the discourse is three years? ? ? ? ? ? ? ? , Visit and read more:? Missmoondaily.blogspot.com, So much happiness in one picture? ? ? ? ? ? ? ? , I barely remember the last thing I heartfully smile and laugh at. - First collaboration! Someone just decided to re-discover his hidden talent, well actually since 2 weeks ago I guess. Am waiting for the next writing! ? ? ? ? - Visit and read more:? Missmoondaily.blogspot.com,? ? ? ? ? ? ? ? ? , Have a blissful sunday and Happy Father's Day? ? ? ? - Visit and read more:? Missmoondaily.blogspot.com, And at last I see the light? ? ? ? , Happy birthdayy aneng? ? ? ? ? ? ? ? ? ? ? ? , Ciee that anniv 5 months served! Wrinkles only 1/3 face kok? ? ? ? , Say No Fear To AFTA, Do not give up on me, on us. - All I can do now is keep on reposting my old writing because of hectic days, and right now I am not in a good condition. Please do stay tuned for new writing soon. - Visit and read more:? Missmoondaily.blogspot.com, maloves? ? ? ? , BNMC 'S NEW LOGO? ? ? ? , Happy Mother's Day? - Reposting old writing. Visit and read more:? Missmoondaily.blogspot.com, When I come back to the light, it is your arms that I want to run into. - Write this on behalf of fellow INFJs? ? ? ? Solitude matters the most for this old souls. That is the reason why it is so hard to find companion who could understand this. I could not agree more with one of my relatable quote - life is hard, and it is even harder when you are an INFJ. When you are an INFJ, you are highly sensitive to loud noises, bright lights, strong smells, large crowds and everything. Party and social interactions drain you. You dislike and at the same time, fear about having a phone call. You can not possibly be available for all the time. You also can not handle a surprise schedule because you have to get your mental ready before you do something outside your room. Perfectionist could kills you slowly. But you get to understand other people more than you understand your own self. So complicated! But you know when you find someone who can understand the whole situation, the number one could ever beat your loyalty. - Visit and read more:? Missmoondaily.blogspot.com, Blessed? ? ? ? ,? ? ? ? ? . - Visit and read more:? Missmoondaily.blogspot.com, Happy Birthday BNMC? , My pleasure ... Visit and read more:? Missmoondaily.blogspot.com, Solitude matters, and for some people, it is the water that they breathe. , More information about Red Silk Dance Group can directly contact:? ? ? ? 085349898666 (Sardiana)? ? ? ? Rsdg.redsilk on gmail.com Subscribe RSDG on youtube:? ? ? ? Red Silk Dance Group,? ? ? ? ? ? ? ? , What an honor? ? ? ? , S o r r o w Visit and read more:? Missmoondaily.blogspot.com,? ? ? ,? ? ? ? ? ? ? ? ? ? . ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? . Visit and read more:? Missmoondaily.blogspot.com Dance Group? ? , Anyer with HAS JKT? Mezel Lucky Paramita Lucky Angellikaa Xelly N E Churcill Debby Acvionita Wesly Son Tommy Tandera Marten Triyono Nico Wilson William Putra Hendro Ndod Zhao Jacksen To Davin BecKs Willy Oktaviano, friendship. - visit and read more:? Missmoondaily.blogspot.com, Happy white day? , Flash LOL, If I ever fall in love again, it would still be you. - Repost one of my favorite old writing. Visit and read more:? Missmoondaily.blogspot.com, Emptiness hurts more than I thought it would be. - Visit and read more:? Missmoondaily.blogspot.com, YEYYY first watch the trial! Congratulation Frenky, S.Kom? ? ? ? ? ? ? ? ? ? ? ? , I am sorry that I still feel lonely even when we are together. ? ? ? ? ? ? ? ? % EB? ? ? ? ? ? ? ? ? ? ? ? ? ? ? . - Visit and read more:? Missmoondaily.blogspot.com, Sometimes, it is okay not to be okay. Visit and read more:? Missmoondaily.blogspot.com, Like, eternally, everlastingly. Visit and read more:? Missmoondaily.blogspot.com writer crush! , You will find the one. - Visit and read more:? Missmoondaily.blogspot.com, Huge Coca-Cola? ? ? ? ? ? ? ? Because, I always did. - Visit and read more:? Missmoondaily.blogspot.com, Great one! , International Marketing? ? ? ? Final presentation of Product and Project. Thanks, team! , Tell me where have that time gone. - # repost the old writing Visit and read more:? Missmoondaily.blogspot.com,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , You are my Seventh Heaven :) Visit and read more:? Missmoondaily.blogspot.com struggle was REAL? ? ? ? ? ? ? ? # Damnproud # damntouched, I miss you ... Today, January 2nd 2016, is World Introvert Day. So I 'd like to greet my awesome introvert fellas all over the world! Silence is precious, but also do not be afraid to speak your mind and know your worth? ? ? ? Visit and read more:? Missmoondaily.blogspot.com, Our kind of New Year Celebration and our 2015 BEST Moments &lt;3 HAPPY NEW YEAR:) Mezel Lucky Paramita Lucky Angellikaa Xelly NE Churcill Debby Acvionita Maretta Huirianto Nico Wilson Fetrian Lim William Putra Hendro Ndod Zhao Tommy Tandera Wesly Son Jacksen To Liang Han? ? ? Marco Yani, HAPPY NEW YEAR 2016? , When a woman loves even she could not understand herself. Visit and read more:? Missmoondaily.blogspot.com, Merry Christmas everyone? ? , Twenty It is about me loving my own self? ? ? ? Feels like it was just yesterday I turned twenty. Well, 2015 is great !!! Visit and read more:? Missmoondaily.blogspot.com, Silence does hurt her silently. - Visit and read more:? Missmoondaily.blogspot.com, Community Service - Garage Sale with TFI? ,? ? ? ? , Reminiscence you are the love and the pain at the same time. Visit and read more:? Missmoondaily.blogspot.com, reposting the old writing. - Visit and read more:? Missmoondaily.blogspot.com,? ? - Visit and read more:? Missmoondaily.blogspot.com, Life is hard. It's even harder when you are an INFJ. , Complicated Am wondering where it all went wrong. - Visit and read more:? Missmoondaily.blogspot.com, I just appreciate silence in a world that never stops talking. , Happy Teacher's Day:), CAN NOT WAIT! ! ! , Source of happiness,? ? ? ? Pinangsia? ? ? ? Menteng CB DONE! ! ? ? ? ? ? ? ? ? , [Kemusisan Binus Region] SINGKONG THAILAND is here to fill your emptiness! ? ? ? ? ? ? ? ? Only with Rp 10.000, you can get cassava guaranteed delicious, sweet and satiety also make sure! Hurry up on the order yes! ? ? ? ? Close PO: October 29, 2015 Ready: October 30, 2015 Contact: Younger 0819946378655 Line: Youngerwu7, I can totally relate! , Haiiii, who kindly spends a few minutes, help contents of the questionnaire for the project dong:) Thank you very much? ? ? ? ? ? ? ? , Rejection - Visit and read more:? Missmoondaily.blogspot.com, Yes, you? ? ? ? - Visit and read more:? Missmoondaily.blogspot.com, Leh uga! LOL, I always love the brokenness of you. - So, for me, this is one damn-deep-meaning poetry! - Visit and read more:? Missmoondaily.blogspot.com (goo.gl/xd9e3M) Moon Poem, How do you feel when you are falling in love? - Visit and read more:? Missmoondaily.blogspot.com, B N M C? , What's so great about watching a camera? ? ? ? ? ? ? ? At the 21st BNMC Membership Intimacy Meeting, My Inspiration as always? , Re-post my old writing. Visit and read more:? Missmoondaily.blogspot.com # moon | # Poem # poetry # writing # poetsociety # art # illustration # picsart, Red Silk Dance Group - Fa Ru Xue My favorite one! # Throwback, Click now to get # BaiduDeals 50% OFF! , Stay right there .. Visit and read more:? Missmoondaily.blogspot.com, TO LOVE% 20SOMEONE I want to love- more than the sunflower wants the sun of spring day when it is winter. - Visit and read more:? Missmoondaily.blogspot.com, Great deals from # Baidu only at (Bhinneka.com), RETURN Hold the umbrella for you when it rains, wrap the scarf around your neck when it is cold- and all those small things ... Read more:? Missmoondaily.blogspot.com, BINUS JOB EXPO 26 COMMITTEE? ? ? ? ? ? ? ? , Day-2 BINUS JOB EXPO With BCA, Mandiri, Bii, Indomaret Group, Astra Group, H &amp; M, Charles &amp; Keith, Kaskus, Sinar Mas, MNC Group, Panin Bank, Samsung, Tokopedia, Matahari Dept. Store and more. At Anggrek Campus, Binus University 09.00 - 16.00 Open To GENERAL! Follow Instagram at binuscareer to see more! , Day-1 BINUS JOB EXPO at Anggrek Campus, Binus University 09.00 - 16.00 Open to GENERAL, Safe flight, nikk! Good luck for your study and take care! ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , She waits for a long time, but the home- him -never let the door open for her. Visit and read more:? Missmoondaily.blogspot.com, I just know how does it feel! Especially # 1 # 2 # 4 # 13 # 15, Great deals for you from Baidu :), WOW! Wait let alone, check this out! , .. And you choose to be the star in someone else's sky. - Visit and read more: missmoondaily.blogspot.com, People gilo? ? ? ? ? ? ? ? , The Reason You know I have scars and you are not trying to leave - My holiday is over. Had so much fun and what I cherished the most is the time with big family. Such a precious moment for me. Thank you? - Visit and read more:? Missmoondaily.blogspot.com, I will free myself from this unrequited feeling. - Visit and read more:? Missmoondaily.blogspot.com, Tim riot? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Silent Farewell All these long walks and I still could not forget you. - Well, here comes holiday session. I 'll be away for few days but I already wrote some poems, so I will keep updating my page. Everyone please take care and I hope everyone has a quality time with family and friends? - Visit and read more: missmoondaily.blogspot.com # poems # puisilover # collectorofpoetry # theblackandwhitequote # writing # moon, Even if I have to choose again, I still choose to fall for you. - visit and read more: missmoondaily.blogspot.com, Because when I leave, all the road I take will just lead me back to you again. - Visit and read more: missmoondaily.blogspot.com, So grateful to be one of the Baidu Campus Ambassador. Thank you so much for giving me such a great opportunity in this great company alongside incredibly great people. ,? ? ? ? ? ,? ? ? ? ? . ? ? ? ? ? ,? ? ? ? ? ? ,? ? ? ? ? ? ? ? . ? ? ? ? ? ? ? ? ? ? . ? ? ? ? ? ? ? ? ? ? ? ? ,? ? ? ? ? ? ? ? ? ? ? ? ? . ? ? ? ? ? ? ? ? ? ,? ? ? ? . - Visit and read more: missmoondaily.blogspot.com, Maybe the time could heal it. - Visit and read more: missmoondaily.blogspot.com, The truth that we are growing seperately, does not make us grow apart from each other. Because at the end of the long way we take, we exactly know where to be HOME? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , W o r t h The empty space in your heart, am I worth it? - Visit and read more: missmoondaily.blogspot.com, Bleh Bleh Bleh: p, LOVE TOO MUCH Did I scare you away with that love? - Hi, it has been a long time right? Sometimes, there will come a day or a week when I have inspiration at all, and now I am still inspiration-less laugh. Do not you friends mind to give me some inspiration? Would you like to express your feeling with a writing? Kindly tell me and I'll write it for you friends. - Visit and read more: missmoondaily.blogspot.com, Red Silk Dance Group Today's theme: half of soul is dancing, but the other half is still in dreamland? ? ? ? ? ? ? ? , Last Day Production? ? ? ? ? ? ? ? Thank you so much for a very great talk show time! And I feel soooooo lucky to be able to chit-chat with you friends as your Liaison Officer. We are very pleased to have you friends in our event! Hope to you friends again? ? , Quoted from one of my old writings, 'Lose My Dream'. I actually wrote this writing 2 years ago and now that I read it again I can not believe how depressed I was back then. I can clearly remember how I wrote this with tears run down my face LOL? ? ? ? ? ? ? ? Well, I do feel a little bit ashamed to think about it, but I will not write to write it. - Visit and read more: missmoondailyblogspot.com, Featured on Panda Magazine April Edition. '7 Years Later' is one of my favorite writing as well? Thank you:):)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTB shaman new so in PS or Gold, gear ijo is not anything important lvl 80 the intention WM dalem game nick me Ducbeuregard amp horde! ! , WTB shaman new so in PS or gold gear ijo is not anything important lvl 80 wm the intention! ! , Anjer neh IDGS .. taxable sunami or what? ? WoW's dingy play amad his lag! ! ! , Maen-maen yah ye njng ..., speedy anjeng .... Cacaddddddddddd .... Just bankrupt you .... , 'Last world when i leave singapore .... '' Mencretttttt, ENE NEW HIS NAME PALLY RETRIBUTION ... ..., WTS char pally horde lvl 80 eq complete .. already reputable ashen verdict .... Which interests me post .... (WoW AMPM), This is preposterous! Am I to assault the undead with nothing but sticks and harsh language? Kael'thas, Log in server down ... LOL, FOR THE HORDEEEEE! ! ! ! ! ! ! ! ! ! , Ricky 2, new year new problem, dog money in burn .... , Study from mistake, how ever I still love Indonesia, dog ... stupid word, GANYANG GANYANG GANYANG MALAYSIA, GANYANG MALAYSHIT NOW, All under control, Indonesia gloomy! ! ! , WHICH WILL IN TAG ... TAG IN OWN ... WHICH GK WANT TO TAG PLEASE IN REMOVE, Bahlul ... .. Just my own doank who go to school? ? ? ? ? , Bangs * TTTTT .... The haircut ... taek ... ... .... , Stresssssssssss ... ... ... ... ... ... ... ... ... ... ... ... ... ... .., Hey Baby, Asek .. like gene ae every day .., bahlul ... .. alma mater lag in ancol .... ? , One Last Drink, Please ... ... ... ...? , Computer anjrot already a lot of viruses ... - a disk cleaner incense ..., child X-infinite if there is no surem teacher - a? , I need a hitman for a special job ... ... ..? , I need pro Executor now .., anjrot wrong package address - a? , Your silence is slowly killing me? ,? See the great testimony yoo .... , Yes God pray my second orantua order that they survived until the goal in running the pilgrimage .. and lancarkan is the process of their pilgrimage and give ease in the pilgrimage .. and make both my parents become haj yag mabrur amin ..., hufh .. fate .... HP lost .... Servant neh who took the ... from the cursed him .. surem .... Maid campret .... , Taek .. gene neh speedy if the day of the week .... Weak crazy brain ... ... ... ... ... .. play PB pink cmn 2 .. surem ~ _ ~, the school does not need to clever .. the important thing is to make money ... ... . , -Pride Is a Weapon- Adolf Hitler, WORK IT OUT .... , Aaaaaaaaaaaaaa. Main L4D 2 play its expert on kunti kejuntu 3 bleak ~ _ ~, I SWEAR BY GOD THIS SACRED OATH: THAT I SHALL RENDER UNCONDITIONAL OBEDIENCE TO Adolf Hitler FDRER OF THE GERMAN REICH AND PEOPLE SUPREME COMPANY OF THE ARMED FORCES AND THAT I SHALL AT ALL TIMES BE READY, AS A BRAVE SOLDIER, TO GIVE MY LIFE FOR THIS OATH ... ... - PROMISE NAZI SOLDIER -, pretty gloomy (ms.crystal), Can anybody provide me with a decent challenge? ? , SWT ... .. Alaysia looking for aja .. looking for gara i call nazi from moon bwt nge-nuke you ... .. hohohohoh, Important .... , Taek ... like a wishy-washy ... .. if you're confused what to accept? ? ? , GAN DATE 27 AUGUST IS BEEN BECAUSE THERE ARE 2 MONTHS, NOT THE 2 MONTHS BECAUSE, BUT ONLY IS THE PLANET MARS WHILE WHEN THE PLANET MARS REACH OF THE DISTANCE 34.65 million miles of earth. Do not forget to see yes skipper ... Date August 27 at 12:30 am IST ... Hope in Indonesia appear skipper ... ^ _ ^, oh plin plan already ~ _ ~, hadoh .. so can not wait for 2011 .. Want to watch Iron Sky .... , fun ... . ! Alamater so 3 more weeks ...! Will be more handsome I make a nature! ! , Najesss .. the last airbender ugly movie ... ... WHICH BLOM WONDERING PLEASE JGN IN TONTON! ! , ASTAGA! ! ! ! ! ! MORE DAY BULE MORE! ! , ORRRRRRRRRRRRRRAAAAAAANGGGGGGGGGGG GIIIIIIIIILLLLLLLLLLAAAAAAAAAAAAAAAAA ... ... ... ...! ! Hohohoho! , My washing snorkling skin so black! ! , Gloomy! ! ! Friday will diving again! Where I can not swim! ! Sink already at sea! ! Bruakakakakaka, Weleh! ! ! Gw Learn Japanese Language! ! ha ha.. ! , Sour! Lose another tarohan kevin! ! ! , German will repeat his victory in his own country! ! World Cup 2014 will be held at Bayern Muenchen! Derrrr panzerrrr team will repeat his victory at Bayern Munich, awkakwkwa mantabb gann! ! Germany will be World Cup Winner 2010! ! ! , J&gt;&gt; CHAR 56 boredom, AAAAAAAAAAASURAMLATOZZZZZ! ! ! CHAR NYANGKUTTT .... , Ea ... .... BELS AMA CORA ALLY KGK REDHO GW ALLY AMA NATIONAL CEBOL .., SWT ... ... ... ... ... ! MAINLY THE STRIKER! ! ~ _ ~, WASTE ISRAEL AT HIS PLACE! ! , ASEK BELS AMA ACC FROZEN ALLY! ! AKWKA IN ELAN DAH KYK KATING AMA DOG! ! Akwakwka, WEEEE,,,, DUPE TEMBUS! ! , Ich bin Single Ich freue mich sehr! ! , YESS .... FINALLY THERE ARE RAZIA! ! ! MAMPUS YOU CHEATER! ! ! CORA WILL RAISE AGAIN IN LYRA! ! , Dieses Gefhl begann, wieder zu kommen! SELL CHAR PB (POINT BLANK) DEVICE DIAMOND 2 QUOTE 2! ! ! KD 64% HS 29% FULL TITLE! ! ! FULL WEATHER POINTS? ? HUB. 081386973980! THX ~~~, How Lucky Lord If His People Can not Think -Mein Kampf-, huh a tiring day! ! ! , If within a person there is still shame and afraid to do a good, then the guarantee for that person is not going to meet him with the progress of one step. , Justin Bieber-One time, Men and women are as two wings as a bird. If two wings are equally strong, then the bird flies to the highest peak; If it broke one of the two wings, then it can not fly the bird at all.-Bung Karno-, your defects are made ... make scroll you! ! I kalahin you cmn make 3 skli .. doank ..., BELIEVE OR NO WORLD WORLD III WILL HAPPEN IN 2010! ! ! , Song kahitna will not be replaced german version, MAAFKAN MY SMUA FRIENDS IF WRONG ARE PLEASED IN FORGIVING! ! THE HUMAN MAKLUM IS NOT FORGETED OF SINS! ! AND ALSO DOA'IN MY VALUE FOR MY GOOD VALUE ^^! ! IF THERE WERE LONGER WELCOME TO PLEASE AT WRONG I WRONG WASSALAM ... WR.WB, The crowd assumes Adolf Hitler Menwiggal in bunker yes it is in berlin but at the time of scrutinizing bodies found in the Russian army is the body of Women under 40 Year! ! Many Historical Observers say that Hitler went to Brazil, Argentina, South America and surprisingly anyone thought he lived in Indonesia! , Wah angel net is open again! ! In the same name as Imanuel net. Hhe main teruz nig! ! , Ein guter Freund ist ein treuer Freund! ! ! , Wenn er wei, wie ich mich fhle! ! , KEEP YOUR PROMISSE! ! ! BECAUSE YOUR MOUTH IS YOUR TIGER, go home rain! ! Raining deh in the street together Yudha Ardiana ride OJEK HOLIK! ! Kwokwowkokw! ! ! WET ALL! ! ! Kwokwwo, crazy, in my live have a two choice! ! Sad or happy! And i choice happy! ! , Damn it! ! This afternoon I was throwing the same bottle book with someone in my class! ! Hu Hu Hu ! ! Just for trivial things! ! ! Kwokwowk, Wedding pla (follow-up), I believe IN you! ! ! , Every day it's raining! ! Is not there a snowfall? ? , LAgu saHabAt! ! From Chagcut, there is no work in my house! ! ! , Happy New Year 2010! ! Forgive me if there is any wrong! ! Then from that sata say minal aidzin walfaidzin apologize born and inner! ! , Merry Christmass and Happy new year! ! ! , The long holiday has arrived let's fill it with meaningful stuff! ! ! ! ! Kwokwokowkkw! ! , Ea, ea, ea, ea, ea, ea, ea, ea, ea, 1 day before division of report cards! ! Wow! ! , Ea, ea, Paloma Faith - Technicolour, Should the Nazis have to be there again to combat the LAKE Jews! ! ! ! In the event the Nazis have massacred 6 million Jews, In the hands of Adolf Hitler! ! ! ! , I, m Alone Please Accompany me! ! ! , Tq For my all friend! ! ! ! ! Say meeee Happy B'Day! ! , Two days to grown up! ! ! ! ! , Lee So Jung (One) Rf Theme Song, Waduh UN In advance to March zzzz! ! , Number coment in my mind! ! , Keep United Youth Indonesia! ! ! ! , For jowo people might know its meaning! ! , LOVE! ! ! , Selamat Hari Raya Idul Fitri, for those who run it! ! ! Forgive me body and soul ! ! ! , Slamat Hari Idul fitri, sorry to be born and inner! , Finally Holiday Has Arrived! ! ! ! I, m Coming Holidays! ! ! ! , Haus Mendera during the day! ! As throat is dry! ! ! ! Looks like soon! ! ! ! ! (Open fasting) hhe! ! , 30 DAYS AGAINST Lebaran HOREEEEEEEEEE ... ... ... ... ... ... ...&gt;. &lt;! , 2 more days before Fasting! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , Dpo, For Who Found Phone 991 ok! ! ! ! , Ready for Fasting! ! ! ! For YG Do it! ! ! ^ _ ^ Hold The Thirst And Hungry! ! ! HHe, well ... michael jackson as a child ...&gt;. &lt;, Bosen kgk no work at home ~ _ ~, Finally go home also to jakarta ~ _ ~, I, m Freeee Now HAHAHAHAHAHAHA Remember That, Hore 1 day again Free! ! ! ! ! ! ! ! I FREEEEEEEEEEE, Wadohhh Senen Matek Again azzzzzzz, Holare o0oo000o00 Jambane o0o00o0o00o0o, I Have Told Do not Fight Your Death In eat Nak Worm, zzzzzzzzz Rf Dah worms again zzzzzzzz, I told you not to fight your god In the meal Worm, 5 already exists! ^^, For The Lich King DotA MODE: ON
+</t>
+  </si>
+  <si>
+    <t>Instagram ; Triladias xxx, follow! Mention for fllwingback, heart my page, I heart your back, yes allaaa: 3, follow and ask, FOLLOW, who want to difollow comment # jfb yes, &amp; follow iya thank you: D, Farida Taskia Fira laughed at la tia video Haha: D, trias_ias at hotmail.com; ) Add yes thank you &lt;3, follow friends, thankkkyou, badly apply that cheat! If so how well I will be good value -, - Alia Nabila, there is not any perfect people, D, bored, when I make one look at looklet, there Are people who like mine. But not long afterwards, she's copying my style. All the same, but only just a different model: (, i want his peace :), iyaaaaaa:) i am i aware ko! But if the problem is, it must be because of karma you used to ninggalin me. So, not because we are grudging. That's karma yahh! ! Please understand: D: p, jin kazama: jon foo: D jahahaha &lt;3 Veda Ocvira Maharani Hunnie Anggraeny Arina Tiara Adriana, in fact, crying is just a useless thing because the world only briefly. Why waste time just to cry for a thing? Better to work and worship is more important for the future:), ngalangin just siiihhh hmm -_-, never diceritain what, when should i know: p who try that during this dibicarain? I just do not know -, -, if lazy, yasudah: p, cook with Veda Ocvira Maharani Tiara Adriana hihi although rada destroyed initially, but delicious to add hihhihi. Dear sister Hunnie Anggraeny Arina did not come. Hhihihihihi: D, trias, please heart this: D yaaa: D, follow yaaa: D, Veda Ocvira Maharani may you like its edite yaaaa; ), Values ??change, attitude changes. But do not turn into a bad .., &lt;3 god, hayo hayo hayooo learn to to .. open open the book 4th grade yoo again! ! ! KEEP YOUR SPIRITS UP . :)), Lalala there is a website that can not -__- bosen kan jadinye, make Alissa Nur Ahdia wall to wall just yaaa .. chatnya error, Alissa Nur Ahdia error merely. Ih:), Learn more for TO day week:) he, bosen at home -___-, yes twitter LIMIT, online twitter with Anggun Wikanissa Alissa Nur Ahdia Nabila Zalica? ? ? ? ? ? , Online at school LEMOTY: p, Likes deh same pp gueee .. Hihi, twitter LIMIT gawaaaaatt: (, out PM bawaanya ngantuukkkk ...: o huaaammm, the Alia Nabila why try suddenly angry so? -____- * rich, Ehhhh the sleeping abong is funny abiss;) GEMESS, twitter limit, Alissa Nur Ahdia chatnya on off mulu .. really not asikk, speaking English in school with Alissa Nur Ahdia and Anggun Wikanissa, hmm. Take ahhh: Ahhh Dwike Hereka February is so weird ... ckckckck, working on IPS task .. huffttt, hmmm ipa task must be moved to new computer in print! Hmmm tired back and forth: (, Nabila Zalica?????? Alissa Nur Ahdia Anggun Wikanissa again at the househh! Asikk, Udah nyampe in jakartaaa -___-, Otw ciwalk bandung! Maccet -_-, Otw bandung:) asikkk! , Finished playing bultang in GOR .. back sprained! AAAWWW: (, away sleeping in the morning yes dadahhh:), chat thinning, best friend:) part II, who want to chat, no need to chat first yes errors so wtw aja .. (hmm on indeed anyone would chat with me?) Hahaahaha, Twitter why there should be a limit? Do not write a lot of tweets :)), my twitter limit .. GAWAT, bosen at home yaa? , Internet lemottt ..:), midnight watch avatar lagii .. go home stay at home bi Ina Farlina .. asssiikkk laaahhh, for Anggun Wikanissa happy birthday yaaaa ... hopefully its age berkahhh yaaaa aminnnn .., out of ps watch avatar with Alia Nabila Veda Ocvira Maharani ..:), Alia Nabila Veda Ocvira Maharani be actually going where to go? , Ears gueeeee sakkkiiitttttt! ! ! ! ! Sumpahhh pain really ihh: '(, berautis autis with Alia Nabila Veda Ocvira Maharani .. akhira can foto alsoaaaaa:),: p, want cepet cepet les same Alia% 20Nabila Veda Ocvira Maharani .., ahh want to play but may not yahhh? , Who has skype comment yaahh :)), Alissa Nur Ahdia, Nabila Zalica? ? ? ? ? ? . My crepes so not enakkkk .. hahahhaa:), yahhh. New photos once same Tiara Adriana Alia Nabila I can not play, so on pulanngg! Later when it is finished we repeat photo photo yahh, aduuhhh teraktir chicken noodles Alia Nabila or Tiara Adriana, today again proud of myself. Photo shoot nihh :)), nice deh lights are on .. but the flame lights, bell coslet aduuuhhh noisy nihh belnya sound teruuss. , Hhhhhhhhhhh, off the lights. Not so invisible. I was looking for looking at home there is no it's the elbows, fits down, it turns out he is out .. luckily pager closed .. congratulations:), photo photo with Alia Nabila and Azkal asikk star :)), luckily mang Budi Hermawan home. Instagram ; Triladias xxx, follow! Mention for fllwingback, heart my page, I heart your back, yes allaaa: 3, follow and ask, FOLLOW, who want to difollow comment # jfb yes, &amp; follow iya thank you: D, Farida Taskia Fira laughed at la tia video Haha: D, trias_ias at hotmail.com; ) Add yes thank you &lt;3, follow friends, thankkkyou, badly apply that cheat! If so how well I will be good value -, - Alia Nabila, there is not any perfect people, D, bored, when I make one look at looklet, there Are people who like mine. But not long afterwards, she's copying my style. All the same, but only just a different model: (, i want his peace :), iyaaaaaa:) i am i aware ko! But if the problem is, it must be because of karma you used to ninggalin me. So, not because we are grudging. That's karma yahh! ! Please understand: D: p, jin kazama: jon foo: D jahahaha &lt;3 Veda Ocvira Maharani Hunnie Anggraeny Arina Tiara Adriana, in fact, crying is just a useless thing because the world only briefly. Why waste time just to cry for a thing? Better to work and worship is more important for the future:), ngalangin just siiihhh hmm -_-, never diceritain what, when should i know: p who try that during this dibicarain? I just do not know -, -, if lazy, yasudah: p, cook with Veda Ocvira Maharani Tiara Adriana hihi although rada destroyed initially, but delicious to add hihhihi. Dear sister Hunnie Anggraeny Arina did not come. Hhihihihihi: D, trias, please heart this: D yaaa: D, follow yaaa: D, Veda Ocvira Maharani may you like its edite yaaaa; ), Values ??change, attitude changes. But do not turn into a bad .., &lt;3 god, hayo hayo hayooo learn to to .. open open the book 4th grade yoo again! ! ! KEEP YOUR SPIRITS UP . :)), Lalala there is a website that can not -__- bosen kan jadinye, make Alissa Nur Ahdia wall to wall just yaaa .. chatnya error, Alissa Nur Ahdia error merely. Ih:), Learn more for TO day week:) he, bosen at home -___-, yes twitter LIMIT, online twitter with Anggun Wikanissa Alissa Nur Ahdia Nabila Zalica? ? ? ? ? ? , Online at school LEMOTY: p, Likes deh same pp gueee .. Hihi, twitter LIMIT gawaaaaatt: (, out PM bawaanya ngantuukkkk ...: o huaaammm, the Alia Nabila why try suddenly angry so? -____- * rich, Ehhhh the sleeping abong is funny abiss;) GEMESS, twitter limit, Alissa Nur Ahdia chatnya on off mulu .. really not asikk, speaking English in school with Alissa Nur Ahdia and Anggun Wikanissa, hmm. Take ahhh: Ahhh Dwike Hereka February is so weird ... ckckckck, working on IPS task .. huffttt, hmmm ipa task must be moved to new computer in print! Hmmm tired back and forth: (, Nabila Zalica?????? Alissa Nur Ahdia Anggun Wikanissa again at the househh! Asikk, Udah nyampe in jakartaaa -___-, Otw ciwalk bandung! Maccet -_-, Otw bandung:) asikkk! , Finished playing bultang in GOR .. back sprained! AAAWWW: (, away sleeping in the morning yes dadahhh:), chat thinning, best friend:) part II, who want to chat, no need to chat first yes errors so wtw aja .. (hmm on indeed anyone would chat with me?) Hahaahaha, Twitter why there should be a limit? Do not write a lot of tweets :)), my twitter limit .. GAWAT, bosen at home yaa? , Internet lemottt ..:), midnight watch avatar lagii .. go home stay at home bi Ina Farlina .. asssiikkk laaahhh, for Anggun Wikanissa happy birthday yaaaa ... hopefully its age berkahhh yaaaa aminnnn .., out of ps watch avatar with Alia Nabila Veda Ocvira Maharani ..:), Alia Nabila Veda Ocvira Maharani be actually going where to go? , Ears gueeeee sakkkiiitttttt! ! ! ! ! Sumpahhh pain really ihh: '(, berautis autis with Alia Nabila Veda Ocvira Maharani .. akhira can foto alsoaaaaa:),: p, want cepet cepet les same Alia% 20Nabila Veda Ocvira Maharani .., ahh want to play but may not yahhh? , Who has skype comment yaahh :)), Alissa Nur Ahdia, Nabila Zalica? ? ? ? ? ? . My crepes so not enakkkk .. hahahhaa:), yahhh. New photos once same Tiara Adriana Alia Nabila I can not play, so on pulanngg! Later when it is finished we repeat photo photo yahh, aduuhhh teraktir chicken noodles Alia Nabila or Tiara Adriana, today again proud of myself. Photo shoot nihh :)), nice deh lights are on .. but the flame lights, bell coslet aduuuhhh noisy nihh belnya sound teruuss. , Hhhhhhhhhhh, off the lights. Not so invisible. I was looking for looking at home there is no it's the elbows, fits down, it turns out he is out .. luckily pager closed .. congratulations:), photo photo with Alia Nabila and Azkal asikk star :)), luckily mang Budi Hermawan home. . So busy deh, bosen this at home. Alia Nabila Veda Ocvira Maharani Tiara Adriana play ayo: D ayo ayoo, again in sumedang! Hueee really nice atmosphere, want to planting first ahhh: D, yesterday mama birthday, love sureprise dehh! Hheehhee, yesterday, on Monday birthday Alia Nabila. We ngerayain Tiara Adriana, Veda Ocvira Maharani same mardyah. Shouted deh, fitting us out my meal the same veda home fitting out home back all of it bring pudding! ! ! Hueee seneng:), yesterday mid night watch ninja assassin, really cool. Huaaa want to watch again. , Love Logo from my friends, today at home rameee .. asik asikk: D, yippieeyy tomorrow we pray idul adha. Yeeehh. But ko no takbir takbir is yak? , Again video call with Dita Panjul but his voice is ccacatt. :, Dita Panjul you ko off dehh want skype but you do not nge answerr .. huaaa, anyone knows how to make skype? Comment yahh, send photos via bluetooth to laptop ko can not be? Sending filed teus nihh .. ah elah : (, Ahh uploud photo ahh but lemottnyaaa .. yes god, hhh</t>
+  </si>
+  <si>
+    <t>Want to be cuddled and cherished by everyone, because Afif likes everyone, I can not wait to watch this anime,</t>
+  </si>
+  <si>
+    <t>That moment when you meet your first fan? ? ? ? ? ? ? ? Very grateful to be alive! ? ? ? ? ? ? ? ? I 've live for today and you should do it too ~</t>
+  </si>
+  <si>
+    <t>OMG ... ... OMG ... ...: 3: 3, bugil ah, h, ninja tuna, Join RaidCall today and have some fun with your friends doing group activities that go beyond from just simple chats, this includes Playing games, singing karaoke, and much more! Download Link www.raidcall.com, Calvin Fernandes Denny Adinugroho Adrian Setyoyudo, Adrian Setyoyudo Denny Adinugroho Calvin Fernandes, is not genuine, z, check, wut sister hell seoul, if now watching eating tempe not usa responsibility, wah, wih, Dafuq Is a PUK code, isitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisit Isoitisitisitisitisitisitisitisitis, I'm homo, Microsoft Word Write letterz and shit iya ', Mobile Uploads, thanks for the wishes :), perfect record time kenceng lolololol, unfortunately never part 2 &amp; oq = never sayang never part 2 &amp; aq = f &amp; aqi = G4g-m4 &amp; aql &amp; gs_sm = e &amp; gs_upl = 2947l7207l0l7433l22l20l0l7l7l0l233l1844l2.9.2l13l0, Naek motor is right, Hi fren. Want b * kep? , First FPS game on Facebook! I like ... ... ... ... ... ... ... ... ... . ... See more, nor does this open epbe at mac hotel, in See more, in See More, my strike counters are handsome, fetgh, pijio, pijio, er, rty, rty, ghghg, ghghg, ghghg, ghghg, ghghg, Ghghg, ghghg, ghghg, ghgh, ghhhhhh, kgkjn, kgkjn, ukgk, hbjhjnjknkhkj, trbank, hesoyam, Older Posts, ______ ________ ____ _____ ______ _______ ______ _ __? ? ? _____ __ Problem? , __________ _ ______ _______ ____, if you have a rich restaurant hanamasa mnding sdiain live chickens, own bacok, fried yourself, again nge-drug panadol, bitch as a wife is an epic fail, moreover the bitch does not work and only be Able to waste money. Ironic, every ladies crazy when her daddy's not around, try to type google rainbow on google.co.id keep clicking im feeling lucky. Not just calm trap, friendly, what is english horned? , Assh asd asd, i want chicken, enrico style: devin, enrico style, pak yu mahoan sama pak mi, titig, today on writing setatus bed dei, thanks for all the wishes, SM # SH: seven homo As seven homo, facebook bsok not close? ? ? , Today's conference table binatankny discuss pretty weird, Tower blocks beuh, viktri ..., Random with happy to spend 6 bowl of rice hainam, Uuuuu steady, Mobile Uploads, Ea ea NB: DT I forced DT, Wihi rings, random random points See already the name karakterny, bai bai friend, the black fly, Ugh, APAAN! ! ! ! ! ! ! ? ? ? ? ? ? , Happy new year all! , Bite, Made with www.TotalGraffiti.com, anyone knows sbenerny enr *** likes who does not? ? , Made with www.TotalGraffiti.com, join my pack on dogwars! My pack on dogwars! My pack on dogwars! Sirs and Madams, I am an up-and-coming Racer of Pets and I require your assistance. Please help by joining my team: I cak, I won dim, Someone beat you in tennis match on Tennis Mania. Return the loss to Him, play a match now! , Someone beat you in tennis match on Tennis Mania. Return the loss to Him, play a match now! , Is playing Tennis with friends! , Is playing Tennis with friends!</t>
+  </si>
+  <si>
+    <t>For IT student semicolon only exists at the end of line of code; , Elmo Tan, his Mas stray away bgtz, Flazz card fell in the mall 3 years ago just discovered now? ? ? ? , Good luck always bu. God bless? ? ? ? ? ? ? ? # Teamskripsi # binusian2017 in Binus Kijang, Spirit of the pack! Quotes in the video: please help so that someone helps because the length of the former candle, Bosen ahok solely,&gt; ngumpulin money&gt; move to the most tolerant city (if still there), Elmo Tan, Elmo Tan mauuuu,? ? ? ? ? ? ? ? , Elmo Tan you really? ? ? ? ,? ? , Elmo Tan, vanilla, yaudah if nyinkin other times just go alone gausah ngajak me? ? ? ? , So remember the story Andi Muqsith Ashari who chick laugh at 12 pm? ? ? ? ? ? ? ? ? ? ? ? , Suppose this if, if you want to vote must participate citizenship education from the government and have npwp what might be more objective objective? Learning from pilkada that just finished, many acting without thinking. Why the above should be said to have npwp? Because local government projects use apbd whose source of funds from taxes. So that the paslon not as good udel make promises, and people can have a sense of ownership for the region where he lived. Like this: I pay to stay here, work here, and I want my place can be developed properly. If suddenly there are beggars come and then casually protest without thinking or even ask for raw money or downgrade development now should not dong. Another example: the meeting of the director's determination can only be attended by shareholders. Of course they will choose the best to advance his company. Ordinary employees can not impose their choice of director. But believe me the leader is selected for sure to advance the company so that all employees can still enjoy the results. # Random # deletesoon Pilkada is finished but the brain is suddenly unthinkable. Later deleted, first save who knows need later? ? ? ? , Maybe not the time jakarta same level as the capital of another country, back to basic, preach? ? ? ? , Results from google quickdraw (?), Shinvanni Theodore, my whole life has always been doing things to please other people so I'm doing this for me. I do not need to prove it to anybody else, Happy 9th? ? ? ? , Thank you for the treat Bluejack 17-1? ? ? ? , Thank you for the treat Bluejack 17-1? ? ? ? , Elmo Tan come here: D, the mamam is karma, so do not be subjective in choosing to be hit zonk deh: D, Udah a year only? ? ? ? , Pesen go-pet for the former shuttle, Elmo Tan learn this, Bullet journal or watercolor? Both of them cost time and money? ? ? ? Any suggestion? , Shinvanni Theodore Elmo Tan,: *, Shinvanni Theodore, Pengennn but the last day and if the meal itself can not be exhausted? ? ? ? ? ? ? ? , Eargasm, kuroko basuki number, there are willing to give free corgi but I have no place; A; , Which is the correct database or database? , &lt;3 &lt;3, Elmo Tan you nid dis, Friendship is not about who youve known the longest. Its about who walked into your life, said Im here for you and prove it. Officially 21? ? ? ? ? ? ? ? ? ? ? ? Left to right: in alamsyah24 on stefanuscandra at shinvanni.theodore at elmotan95 in noelimani at andi.mqa Missing: in yenyenagustina? ? ? ? By: in fransisco_antoni, Tiba2 keinget collection of five books together trio detective is not complete yet? ? ? ? ? ? ? ? , Sometime it is better to go back to basic, Shinvanni TheodoreAndi Muqsith AshariStefanus Chrismanata CandraNoel ImaniYen Yen Agustina, Cool is so cool That kind of storyboard apple, Congraduation Shinvanni Theodore, S.Kom? ? ? ? ? ? ? ? , Elmo Tan Shinvanni Theodore Mochammad Alamsyah, So i was jokingly said to them do not buy me bucket flowers, bawain me bucket fried chicken just aaaand THEY DO GIVE ME A BUCKET OF CHICKEN? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? THIS IS WHY I LOOOOVE YOU GUYS SO MUCH at shinvanni.theodore in yenyenagustina at andi.mqa in alamsyah24 in noelimani, Thank God for Your grace and Your unending love in our lives. Thank you for Bu Sonya Rapinta Manalu as a good lecturer and very patient during during our thesis work. Thank you for the parents who have full support funds and attention during 3.5 years of college. Thank you also to all my friends who support us in the busy period of stress thundering madness? ? ? ? ? ? ? ? Thanks also to the lecturers and all the parties involved in making our thesis. Thank you partner in thesis Elmo Tan? ? ? ? ? ? ? ? , Congraduation Anthony Tantra, S.Kom? ? ? ? ? ? ? ? , Want s2 but expensive if not scholarship. . . . . . . Ice cream just deh then, Elmo Tan, No matter your action you still gon na die? ? ? ? ? ? ? ? , Cool can also masking wear big company name? ? ? ? ? ? ? ? this The trickor is too good or his company .... Ah I do not waste a little bit Elmo Tan let me sustenance more and more? ? ? ? ? ? ? ? ? ? ? ? , # Friendsday uwoow, Mending pay more for ride garuda Hadeh, Families are like branches on the tree. We grow to different directions yet our roots remain as one. ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? From Yek's Family, Hometown,? ? ? ? ? ? ? ? , Comfort food for a long way. This dorayaki is soft and tasty and not stingy, suitable for snacking on the journey (especially the Sumatran highways that are hard to find their food?)? Variants also taste a lot so definitely not boredin. Current fave: Choco Ovamaltine &amp; Chocolate Almond? ? ? ? Create a newborn child who wishes to peek his ig in celinedorayaki. Can deliv out of town also lohh? ? ? ? ? ? ? ? # Celinedorayaki # pkulaper # pkusedap # pkumurah # kulinerpku # pkulezat # makanpekanbaru # kulinerpekanbaru # endorsement,? ? ? ? ? ? ? ? , Binus square? ? ? ? ? ? ? ? ? ? ? ? Elmo Tan Shinvanni Theodore Andi Muqsith Ashari, Who likes ngespoiler not have common sense what yes, Elmo TanFelix Rukanda, If anyone wants to buy course udemy can chat to me yes .. while already want to finish this sale coursenya? ? ? ? ? ? ? ? 10 $ = 150k, 20 $ = 290k If you buy more and more can be cheaper Thank you? ? ? ? ? ? ? ? ,? ? ? ? , Happy new year! ! ! ? ? ? ? ? ? ? ? ? ? ? ? Finally we can spend new year eve together FOR THE FIRST TIME? ? ? ? Thanks for always being by my side. May the new year be a healthy, success, and prosperos year for us. , Besties? ? ? ? ? ? ? ? , Ew, Just a random thought once there is a suggestion on my YouTube page to contribute on my subscribed channel to have a caption in my language (I can not find that button anymore). It was my first time to do a captioning and it's awesome (and embarrassing too&gt; w &lt;) especially when you rewind the video over and over again to make sure that nobody find it weird oo, and doing captioning work could help me understand Another language too. RIP Francis, Did not you walk for a long time? ? ? ? ? ? ? ? ? ? # Besties? ? ? ? By at elmotan95, Juventia; A; ,: (, # Yearinreview2016, this!, I have google maps or waze, alesan you late gara2 jammed it invalid banget brother, should promise what time clock can predict what time of course you are her that can not respect other times Yah????, Winning the later lately important pose first - Velinda Dwi Puspa????????, Again in the way ringing this verse God Bless???? # Ngungsi, Lama also yes wkwkwm, Lama also yes Wkwkwm, Happy legal age Shinvanni Theodore!!!!?????? Hopefully smoothly skripsinya yaaa ... Lopelope you so muchhhh???? Make memories while we can??????? # Bestfriend # birthday , Happy birthday daddyyyy????????, 3 years and counting: *, 3 years and counting: *, Happy Mid Autumn Festival!?????! Home submissions????? ... The Indomie Not going to be in jakarta, taste soto medan????, Good good time???????? # Highschool # bestfriends # hangout, Tu guarantee the quality of laughing relationship, From the dead of night lights, People who do not know, can only ridicule the People in power, can only demand The wise person, only give advice People who experience, can only try At least before criticize others try position yourself That person first. , Worst ? ? ? ? , Udah gede still juhoh hmm -____-, Street stuck yes yes everyone is easy emotions. The problem is how do we ourselves refrain from triggering other people's emotions as well. Although other drivers are wrong because it makes jams but it is enough to be honked, we will be more wrong if we get out the rough words. Naturally it's still dibogem if you maki2 people first, finished it wearing the name of god all? ? ? ? And do not be embarrassed what do you say the name gods pfftt ^ lesson learned hard way # untungguesabar? ? ? ? , Barokah once nyimeng congregation, pegang but pengen indomie jam segini, first impression for No Man's Sky: fallout its fallout minecraft motion sickness badly, Thanks for the treat 16-1? ? ? ? ? ? ? ? # Treat # slc,? ? ? ? , Happy birthday Mommy? ? ? ? ? ? ? ? May the older the happier? ? ? ? ? ? ? ? . . . . . . . . . . # Homesick # kangenmama, Workmate? ? ? ? , Glasses? ? ? ? ? ? ? ? , Bokeh What we four eyes see without glasses? ? ? ? , Payday feast? ? ? ? , Stefanus Chrismanata Candra this, Thanks Lord it's done! Go thesis go? ? ? ? ? ? ? ? On elmotan95, # deletesoon? ? ? ? ,? ? ? ? ? ? , EES report = professional continuous talk, Elmo Tan bought a haunted house then ... ... ... .., Elmo Tan, toothache and tomorrow started teaching when: '(, See ya home???? Mudik Finished work started?? By # garudaindonesia # garudamiles #garudamilesblu, See you at deddylie94 in sherlon_hong! ! ! When will we get together again? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Struggle will not deny the result of hidden treasure? ? ? ? By on edwin_zh, Shantio's? ? ? ? ? ? ? ? ? ? ? ? , Family time? ? ? ? ? ? ? ? ? ? ,? ? ? ? ? ? ? ? ? Finally sea! ! ! ! , Half sleepy suddenly the president's car through Oh okayy, you guys most of the micin have to drink that under it? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? Elmo Tan Felix Rukanda, Mashed potatoes, mac 'n cheese, meranti, and nutrisari Our cheating day? ? ? ? ? ? ? ? At ariadnejanice, Home sweet home? ? ? ? , Yayayay! ! ! ! ? ? By # garudaindonesia I'm waiting in Pekanbaru Elmo Tan, eliminated facebook friends from 2k to 800s but still there's toxic 'friend' on my list. , If there are people who every time the look is always intense mainin hp ago time in chat long banget in reply and many alesan sign what is ya hmmm, Cogan cogan Shinvanni Theodore, friends? ? ? ? Movie? ? ? ? Food? ? ? ? ? ? ? ? , Hemm hemm, Elmo Tan Felix Rukanda, Be happy? ? ? ? ? ? ? ? ? ? ? ? , Stefano Andrean Salim working hours gaboleh main: '), we ever skinny kok? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? 2 years ago .. * Ignore the last sentence *, file skripsi corrupt hungry but bokek ideas traced hp people into toilet cockroach in wc internet quota exhausted internet has not paid open gacha unlucky igc not sold Elmo Tan, I plan open Cargo goods from jakarta to pekanbaru, goods can be taken 2 july pas nyampe pku&gt; specially computer goods kind of HDD, SSD, keyboard, mouse, motherboard, ram, vga, etc&gt; price of check goods from not included fee&gt; fee cultivated Below the jne YES price and depends on the quantity / quantity of goods&gt; packing bubble wrap per black, cardboard, iket rope&gt; limited slot for baggage plane&gt; anyone interested? May help yesterday also to who need he contact line: felicia.lciious Sherlon Angriawan Deddy Kurniawan Jacky Efendi Ifan Frans Sihombing Vickie Chen Rinaldo Jonathan, Quality time? ? ? ? At elmotan95 happy 9? ? ? ? , Lovely bakcang? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? Thankyou at shintheo410, Want to be a doctor? Judge? Ulama? Stay so dumb netizens just share news share: D, What's harder than marking answers? &gt; Revising it? ? ? ? ? ? ? ? ? ? ? ? , Again the road from the motorcycle park want to ride there is a boy behind the b * nus square that ngoceh eh china already circumcised yet? Miris feels there is still a brain ignorant when it was given free government school with the same government. Kalok do not want status I have tumbuak nyo tu child kampuang The victim: Elmo Tan, impossible thing in binus ep 1, anyone want to play TOS also kah? Join teamnya dong .___. , Wololo, # HuntCookGame, # HuntCookGame,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , In brightest day, in blackest night, evil shall escape my sight number, # HuntCookGame, # HuntCookGame, # HuntCookGame, # HuntCookGame, Pfft, ANYONE? , Ayey, next goals Elmo Tan,? ? ? ? ? ? ? ? ? ? Shinvanni theodore? ? ? ? ? ? ? ? ,? ? ? ? , Love support for Kumamoto,? ? ? ? , Finally the ticket home kebeli also 2 - 10juli? ? ? ? ? ? ? ? , Elmo Tan Felix Rukanda try to see the parking, will this recurrence I think it does not eat macem2? ? ? ? ? ? ? ? ? ? ? ? , 1910, # HuntCookGame, # HuntCookGame, defaq so Venson Wijaya Juventia Sabrina Tan, i am beated. Please dont keep multiplying dear e.coli microbe-atch, Submit lecturer - final revision 4 2May - Research Report on Rapid Authoring Tools to Support Mobile Elactive Tan Mobile Website Based Elmo Tan Application? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Hmmmmm, Shinvanni Theodore, need a snack, anxiety&gt; pain, noted, when to adult if gapernah want mita sorry and prestige keep laughing kasian yah old age but the behavior is more severe than boy, wohoooo, anime season2 just not finished hiks? ? ? ? ? ? ? ? Elmo TanTan, Happy Kartini Day from us, Kartini and Kartono young generation 15-2? ? ? ? ? ? ? ? # Greaternusantara # kartini # binus # slc, do not know happy or sad live prosper until up 20kg in 3 years? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Unproductive first until the migraines disappear, Elmo Tan Shinvanni Theodore, Elmo Tan Venson Wijaya tiati, Andi Muqsith Ashari, ngo ngo tube Elmo Tan, ok fix sem next leave .. closed at 12 krssnya, ermahgerd my college how this sem front, &gt; Forgot pass bcs&gt; reset pass to bin email&gt; forgot pass binary&gt; can not fill krss -_______________-, start over or end? Hmm, wonder why gapernah learn from the past problem, Andi Muqsith Ashari Mochammad Alamsyah, so many deadline and my body decided to be sick, If you are reading this, do not know often, please post a Comment of the 1st memory you have of me that pops up on your mind. When you have finished, post this paragraph as Your own status you will be surprised by what people remember about you. , Who you are who do not take part in my life but ask for invited because of status only, fix this backbone problem -___-, Edwin Zhang, Felix Rukanda Elmo Tan can not ngeng again, group of werewolves, witch, seer, guardian, hunter, And villagers? ? ? ? ? ? ? ? , Eargasm! , # In java iykwim, ntep, meh, Good Luck! , 9/10 is a relative price -__-, whoa, Paulus Robin David Brandon Andi Muqsith Ashari: D: D, Venson Wijaya Santy Chen do not say you do not know this? ? ? ? ? ? ? ? , Andi Muqsith Ashari Stefanus Chrismanata Candra take that intermediate material would not it? Laugh the intermediate: this is advance</t>
+  </si>
+  <si>
+    <t>Start playing Rule The Kingdom on Android: BI this, Sariater swimming pool, New plank futsal cape, lngsung gnti clothes, eh ngliat facebook no ngasi happy bday.thnx all who have ngucapin hppy bday. endnya open facebook after 3 MONTHS not open -Open ! ! ! THNX ALL, Got the JOKES? ? ? ? , UNREG Aldk, BANTUIN to be more ... ... tolerable .... after 1 week can already be 100 dollars more deh ..., Cape dahhhh ... ... .We Tim Kleas w lose anyway? ? But, yeah lets just say lwan same class 2 ... but shy crazy! Class team w lost 5-3! ! That crazy class 2 ... maennya srius really! Si indeed, score 3! But that's cma kara kick off 2 x same ordinary goals.Si andi nendang even hand.ccd loh di! , Cascada-Everytime we touch, Akon-Beautiful, Stop Aldk, Info from kaskuser: You must know the power balance bracelet that is currently rampantly sold is not it? ? ? It turns out as it has been (I) assumed, the bracelet is just a regular bracelet. Many people believe when hearing or seeing: Power balance bracelet, with magnetic hologram that serves to make your body more: balanced, strong, and flexibel.itu only Lie here: Boyz-Tokyo Drift, Akon-Right Now (Na Na Na), Lemon Demon- Ultimate Showdown, Black Eyed Peas- Where Is The Love, Cold- With My Mind, Cage The Elephant-Free Love, Shane Harper-Dance With Me, Mika-Everybody's Gon na Love Today, Evanesence-Bring Me To life, Eminem feat Rihanna- I Love The Way You Lie, Sean Kingston-beautiful girl, LOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOL, WRONG .... , OL D CYBER ... ... BOSEN NIH ... CONNECTION LEMOTTTT BGT, HHikz ... .that is the end, for all the SBM temen2x (ANY STRANGERS WELCOME) who IS seriously MAE games2x on any FB, please see note w Have, that read, HOW TO DETE VIRTUAL DUIT, Blah blah blah blah blah, this is my deh kasi know the link because this way, actually FOUND BY ORIGINAL PEOPLE INDONESIA (bkan w loh ...), until this year, until this month, until This week, until today, until this hour, until this minute, until this very moment, BLOM KNOW THOUGHT BY THIRD PARTIES (GOVERMENT, AND ITS SUPPLIERS), PARTY WEBSITE PROVIDERS, PARTY PAYERS (VIRTUAL MONEY), EVEN MANAGER PARTIES, COUNTRIES , SUPPLIERS, SUCH WEBSITE. , PLEASE CLICK, KLO GK MO GPP, GK AD VIRUS / TROJAN KOK! SUMPAH, HOW TO GET DIRECT VIRTUAL ALIAS DUIT BOONGAN (HOAX MAKE KASKUSERZZ) MAKE NGAPAIN AJ, OK, CREATE YG READ THE STATUS OF GK JLAS DRI GW NEW THIS, PLEASE NOTE GW (OLD RADA IS LATED KYNYA) THEN, AFTER THAT, LU COPY, AND PASTE LINK YG AD.DIJAMIN FREE FALSE CLO, LU BOLEH NGAPAIN AJ DEH! SUPPORT AABIEEZZZ MANTAB ..., Ok, this way can be free money for you all if you want to buy a kind of cash game currency (Token for NS, Playfish cash for playfish game (sort Pet society) and so on. This is cara.kira2x I love the news slanjutnya 5 mnit again. (This is serious not kidding me! I just nemuin this way from internet.klo want to see lgsung, later (10 ask again) just look at my note), On at school diem2x ... .hiihihihihii! Fortunately not master teacher! ! , IS STILL ON &amp; UP TO THE NIGHT &amp; ZZZZZZ ... .... ,? O? ? S? ? I? You? ? ? S? ? ? ? ? ? I? ? :? Si? ? You? ? O? ? S? ? I? You? ? ? S? ? ? ? ? I? ? You? ? ? ? Isn? ? And? ? :? S? ? ? Q ui? ? ? ? :? ? ? ? ? ? ? ? ,? ? ? . ? ? ? ? ? ? ? ? ? ? ? ? ? ? . ? ? ? ? ? ? ? ? ? ? :? ? ? . ? ? ? ? ? ? ? ? ? ? ? ? ? ? . ? ? ? Hahahahahahaha .... Isa read the top bag without dilengin kpala, great ... who read grab the head bent, basic hhhmmmmm ... ... idiot deh.wkwkwkwk .... , AAAAAA kok my own app kluar not jda gtu why? ? ? ? ? , Quote from one of my note = every continent start &amp; end with the same letter in english! (Every bnua begins &amp; ends with the same letters in English!), Sta hmpir not update2X, slama a month, finally on too ... ... ..yeah ... ..., i really hacked people, ip addressnya From US najies ... .. lucky my facebook no ap2x .., is listening to Free Loveby Cage The Elephant ... ..it's pretty good .., is getting bored ... ... zzzzzz V_V. .. .., oh dear this ... kyknya there nge hack my facebook! Friends, if there is a comment / ngomong yang2x please JGN DILADENIN because akhir2x this facebook I kluar own application so ... Aldrian,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? You? And? S you? You? ? ? ? ? I? ? ? You? ? O? ? You? ? X2? ? ? ? ? ? ? ? And? S i? P you? ? ? ? And? ? ? P you? ? S i? Sister 4? S? ? '? ? I? ? Q? ? I? You? Sn? ? Q? ? ? ? ? Snq buset ... just look at the news, the time 4 girls SMAN dkeluarkan from school cma gara2x comment on security skulnya? ! Ck..ck..ck..ck .., FREE 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP! ! - 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP! ! - all who already kasi happy b'day especially family &amp; friends.BBU all! 1 more: smi ci2x &amp; ko2x same mami Susy hapy2x just dsana yah ... greetings for ... (what are you calling? While uncle first) uncle Ron .. message: smoga all sentient beings &amp; spirits happy slalu ... Stay in peace; ), Hikz ... kok kasi slamat b'day cma 5 people trmasuk family with school friends yes? Who laen on again busy being anything? , Hikz ... manga already kgk bsa lg .. forced to spend time in FB..T_T, News: for those of you who read manga online, especially manga bleach, naruto, one piece, and others, famous / ud long kayak Kungfu boy, is not going to be able to read manga lagi.dikarenakan now, all manga have patentnya kgk like dlu.setelah in the survey as many as 127 websites, no ONE who allow to read the famous manga, or tidak.thx. , (Let your friends know that you 've sent a free gift!), Guys, ... visit note me dong ... ..COMMENT please! ! , Yeah! ! ! Finally go to junior high school too ... .. the buset already ... .. new 10: 3 comparison! ! ! Very sad yes? ? ? , WOOII, again, who do not know yet, tomorrow to go to school! ! No MOS! ! If not come sukurin do not know guru2xSMP, same class! ! ~~, for those who blom know, Thursday, 8-7-2010, all who enter SMP1, will hold MOS at school. Please come because there will be introduction guru2x, introduction of OSIS, and introduction of MOS own. Please disseminate.oiii brother / cc2x Junior ... want to ask dong ... MOS wear sragam what? ? Continue, we are my friend, if MOS, his MOS is Monday Monday, stay in skull ... right? ? ? Kk / cc2x SMP please comment ... PLIssT_T, Guys, who play ninja saga (dvawah lv 20) pliss raise lvnya dong ... .stress is not isa pass chunin exam, grab the same raport hri this diploma ... ... Ktemu temen2x elementary school last klinya ampe SMP.lumayanlah cup of kompu .... end of junior too ... .. lecturer in elementary school continue! ! Ampe 6 more years! ! , Lma do not update this status ... busy siapin UAN.ternyata not so tense as UAN kayak others say .., pls, bantuin.bangkrut this, See That doll over my pet? It's not somekind of Cheat! ! , 28/03/2010 is sometimes boring yah ... hahh ... .... , WOI SMUANYA ... .. GW HAVE WEBSITE BGUS NIH: www.omongkosong.com djamin laugh deh when it's nge LIAT Note: it may take 2-5 minutes ampe you finished. Note2: if you want, I suggest open in browser laen (not if not!) Note3: better not to use mouse click, but hold enter (key on keyboard loh ..) but hati2x, do not miss too Note4: do not panic so Look at your browser kayak kenaak virus.itu indeed part of the show (Do not close your browser, or briefly you are LOSS) Create this Web site is my friend, His name is Victor Wong (school mafia aka class VI) Data Maker: Age 11 years Occupation: elementary school children class VI (different class.dia A me B) Value: Mat almost smile cepe alias hundred Note: woi Victor you do not my mistake yes for a moment! ! , 25/03/2010 This bored is unlucky for TO &amp; ul.I need some refeshment! ! ! , See that graduate doll on the window? See it? Maybe it's a bug .... Photo taken in Pet Society. Farm, January 1, 2010, easter egg ... .I wonder what that be ...,? ? ? ? ? ? Oq? Ou op os x? ? ? ? O? ? Ui? ? ? Si, is trying to relax so do not bother me! And, ... ... .um ... ... .well ... ... .nothing. , Happy Chinese New Year! ! ! Happy Chinese New Year ! ! , I? ? ? ? Ix? Uo? ? Poq? ? ? ? ? 2? ? ? ? I? ? ? ? I? ? ? ? ? ? ? ? ? S,? ? ? ? ? ? ? ? ? ? ? ? ? Now playing? ? O? You? in ? ? ? P:? ? ? ? -? ? ? ? I? ? Iu you? P you? ? S? And? ? ? (Dn? And?)? ? ? Number? ? ? ? Is it? ? S? ? ,? in ? ? ~~~~~? ? You? Ui? P? ? ? ? ? Uu? ? ? ? ? ? in ? P? You? You? ? ? Q piq? ? ? 63? 11? And? Nd and? Q? S i? ? ? ? ? ? ? ? ? Iu? in ? ? ~~~~~~? ? ? ? , Says: WOI ALL OF mY BUNDA MULIA SCHOOL FRIENDS: HEAR THIS: NATIONAL EXAMINES WILL ARRIVE D BULANN APRIL .. BUT GUY LATH TV THAT UASBN NO (again, NOT) BE A GROUP DETERMINER BUT WOULD REMAIN TO STOPPING YG GIAT TO DEALING UASBN &amp; UAS. DO NOT DISCUSE UAS antaRA UASBN .WE HAZE STUDY LEARNING DGN GIAT FOR BOTH. SPIRIT! Btw, I see that UASBN is not a determinant on TVone, AND that says IS MA, WOI ALL OF mY BUNDA NOBLE SCHOOL FRIENDS: READ THIS: ... ... .NASINOAL (NATIONAL) TESTS WILL ARRIVE D BULANN APRIL..TAPI Gw Liat D TV THAT UASBN NO (again, NO) BE A GROUP DETERMINER BUT WOULD HAVE STAY TO HAVE A GIAT BELOW TO FACE UASBN &amp; UAS.PLEASE SHARE UAS antaRA UASBN .WE HAZE STUDY LEARNING DGN GIAT FOR BOTH! ! ! FAMILY! ! (SPIRIT!), Next Sunday we, (I mean) will enter A hard day where the door of hell will be open because it is already attending school (BAH! (BLOM PUAS GW) &amp; month of April I will go to hell where I will be given very, very, sooooooo ... difficult &amp; heavy test that is UASBN &amp; UAS !!! Somebody!!! Help meeee!!!!!!!!! ... .., Join Me Pirate Clan! PLIZZZZZZZZZ, Arghh ...! My pizza! Help - - -, please accept This plushie!!!!!!!!!!! By arghhh ..., wkwkwkwkwkwkkw Photo taken in Pet Society PC COMPONENTS (my computer device), my friends who is playing roller coaster kingdom, please give me 50 visitors, because My coins (or money, or gold, whatever) is ZERO!!, FREEDOOM! (:)) THE EXAMS ARE DEAD! ! ! BWAHAHAHAHAHAHAHAHAHAHAHAHAAHAAA ... .... , HELPP! ! ! ! I 'M BEING OVERRUN BY MY STUPID EL TUPID SUPAR UN NOT SO EXAMS! ! ARGHHHH! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , From monday till friday, i got to study 4 my exams, YYYYYYYYYYAAAAAAAAAAAAYYYYYYYYYYYYYY! ! ! ! ! ! ! ! ! 8) At last ... ... Who dare to kick me? , HElp! ! ! ! , Muahahahahahahahaahahhahhhhhhhaaaaahaha! ! ! ... .hoekh ... hoekh ... uargh .... X_x, can somebody please tell me why crazy planets (app) is never working! ! ? ? Arghhhhh ... ..! ! ! ! ! , 40 The World's Funniest Facts (last Part!), 40 Funny World Facts (Part 1), blah ... .., blah ... .., stress ... ... Click here to play Pet Society: notes Thirsty..well, ... 4 now. Click here to play Pet Society: need more trophies and neighbors! Click here to play Pet Society: it! ! It's recommended by ME! ! If you try to escape from me ... .... , With hard work &amp; effort, finally save the game overlord again repeats! ! ! YEAHHH ...! ! ! , Computer reinstalled, save the game all gone! ! (TT), bedeeh ... ... .. massive virus protection is this .. ..gawat dong? , Kok? ... ... ... never mrasain tu .... , Everybody, plz help me in mafia wars. , Mostly ... ..jus trus-trusan donkkk ... ....</t>
+  </si>
+  <si>
+    <t>Thanks all, Sorry just open FB GBU all,? , V, FOR ALL: Thanks yes! ! ! ! ! (SPECIAL) NITA: Thanks, the other bgs2 vit, 1 in even the cat,,, but it's okay thanks chicken,,,,,, hahahha ... ... ..., do not know, now, What 'S on your mind? , What's on your mind? , What are you character in harry potter? - My Result: HARRY POTTER. Where are you ... ... ... ... ... ... with prizes! ! ! ! ! ! ! ! ! ! ! Who finds the bag belonging to vito will get a piece of bread and a plate of cwi mi ............. , Gilaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa, if energetic why that stupid far at me, wow afraid. Means i jht once why, play yuuuuuuuuuuukkkkkkkkk! ! ! ! ! ! ! ! , Why ampuuuuuuuuuunun why be a squirrel, wow because, finally I find the right combination, in fact we pny similarity</t>
+  </si>
+  <si>
+    <t>Unity in Diversity charity donation December 17, 2016 at Binus Kampus Anggrek All proceeds from the sale of this pension ticket are donated to Yayasan Anyo Indonesia, a foundation that helps children with cancer or other diseases such as leaky heart. Rumah Anyo serves as a temporary residence for children with cancer, and can bring patients to the hospital for further treatment. Anyo Foundation was established in 2012, with a name derived from the name of the late Andrew Maruli David Manullang, founding son of YAI. Tag instagram: at structuraltfi on pensiamal2016, Check out Shifter: Interactive Graphic Novel in the app store starring Wil Wheaton. I'm hooked! Learning Programming on my iPhone. Join me and get Mimo at getmimo.com/download? ? ? ? Unrica defeated an opponent after an impressive battle! Join Monster Legends now and share your victories together! , Bellatasya Unrica just unlocked the amazing Octocrush in Monster Legends! Join now and gather your own amazing monsters! , Bellatasya Unrica defeated an opponent after an impressive battle! Join Monster Legends now and share your victories together! , Bellatasya Unrica defeated an opponent after an impressive battle! Join Monster Legends now and share your victories together! , Bellatasya Unrica just unlocked the amazing Rodolph in Monster Legends! Join now and gather your own amazing monsters! , Bellatasya Unrica overcomes a fearsome boss in Monster Legends. Join now and conquer the biggest bosses together! , Bellatasya Unrica defeated an opponent after an impressive battle! Join Monster Legends now and share your victories together! , Bellatasya Unrica overcomes a fearsome boss in Monster Legends. Join now and conquer the biggest bosses together! , Bellatasya Unrica defeated an opponent after an impressive battle! Join Monster Legends now and share your victories together! , Bellatasya Unrica just unlocked the amazing Boneticore in Monster Legends! Join now and gather your own amazing monsters! , Bellatasya Unrica just unlocked the amazing Kimmel's Gift in Monster Legends! Join now and gather your own amazing monsters! , Bellatasya Unrica just unlocked the amazing Pandalf in Monster Legends! Join now and gather your own amazing monsters! , Bellatasya Unrica just unlocked the amazing Erpham in Monster Legends! Join now and gather your own amazing monsters! , Bellatasya Unrica just unlocked the amazing Molem in Monster Legends! Join now and gather your own amazing monsters! , Please visit my blog at resepmakanandaribellatasya.blogspot.com and feel free to leave comments.</t>
+  </si>
+  <si>
+    <t>From lucky, we meet again # tm2016 # sayonara, Here's my 2015 Year in Review. See yours at facebook.com/yearinreview. , Number more time to waste:), HMMM; D, times, join with us! # RTS_JAKARTA2014, 8 November 2014. only 20.000 idr and you 'll get Certificate, Lunch, and Snack. See you there: D, LOL, my new apologies post, I just met all these photos, studied diligently and see you again God bless: D, my new friends sorry post, I just met all these photos, diligent Learn and see you again God bless: D, this is what we call TRUE LOVE - true story, Battle of fans has begun. Be the last one to share for a chance to win 50 CP. Promotion can end without warning. Lets get ready to rummmbleeeeeeeeeee! ! ! Claim instant gifts at Join MAA Season 2 - -&gt; Continue Privacy Policy (: O: O: (, I miss 8C: (: (: (Jesus Is the path that leads to the kingdom of heaven, without the shedding of blood there is no forgiveness of Hebrews 9:22. So if there is forgiveness for these, there is no longer a sacrifice for sin. Hebrews 10:18, This is a great friday: D:) ^ _ ^ , I miss all my friend: (: (: (, No word late for Jesus, Happy New Year, yeah !: D, merry christmas to all of you: D, finally free from mid semester, wo i can new game, Hopefully we all saved the LORD, it's so bad now yes mickrochip 666 already exist all over the world where it can be in the bank, the hospital do not want to give the mickrochip in hand and on the forehead because it can not be removed again if we get the chemical reaction. In religion to all religions to be saved also., A Pa it seems yes if we are in the call of god and never see ourselves on earth? ? ? ? ? ? , Say something about this ..., Say something about this ..., ah long jekson has died long, and long time we have not met with jekson, mengagat kenagan in PVDS with jekson be very Menyedikan see him already in the call of God, its nice holiday, What's on your mind? , Say something about this ..., aldi please, Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this .. , Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ..., Say something about this ...</t>
+  </si>
+  <si>
+    <t>Sell ??Account Mobile Legend Rank Glorious Legend x359 * Hero 26 Skins 15, GLORIOUS LEGEND GAMEPLAY, Glorious Legend Gameplay! , Hijacked: v, Lmfao ginter ... What have you done o_o, Neymar In Or Nothing ~ # BRAGER, Full Time (Brazil 1 - 7 Germany) (90 'Oscar) (11' Mller, 13 'Klose, 24' 26 'Kroos, 29' Khedira, 69 'Schrrle), Almost 4 Years Maen AQW ... just realized: V, If you' re an Action RPG Fan, then you 'll love Bad Nerd. Tell your friends. , I just completed 'Safe My HAIR' on MMORPG: School of Chaos! , I just completed 'Mr.Butt's Quest' on MMORPG: School of Chaos! , I just completed 'WAGE A WAR' on MMORPG: School of Chaos! , All Ma Crew, I just completed 'Help us' on MMORPG: School of Chaos! , I just completed 'Gym Gold' on Bad Nerd! , I just completed 'Playground Gold' on Bad Nerd! , I just completed 'Bright Gold' on Bad Nerd! , I just completed 'Pebbleswallys' on MMORPG: School of Chaos! , If you love multiplayer games then you will want to join the MMORPG Project. Tell your friends. , I just completed 'Disorder! ! 'On MMORPG: School of Chaos! , If you love multiplayer games then you will want to join the MMORPG Project. Tell your friends. , I just completed 'Full-Time: END' on MMORPG: School of Chaos! , Laugh, I just completed 'Zombie Teachers' on MMORPG: School of Chaos! , I just completed 'Bloomie ~ part1' on MMORPG: School of Chaos! , I just completed 'Zombies! ! ! ! ! ! 'On MMORPG: School of Chaos! , Leveled up in Global War Online! , Leveled up in Global War Online! , Leveled up in Global War Online! , Is a Global War Soldier! , I'm playing Angry Gran Run! Get it yourself, Reepz ... -_- you embaressed Us Sincerly Stalkz (on YouTube:) (on YouTube Full Version, In The Installation (on YouTube It's Far Cry 3 Trailer Song (on YouTube Best Song FarCry 3, Far Cry 3! (On YouTube Also Dead Lights Edge, Ip Man, This actually lag out in format -, - - Geniusmeme -, Porridge Reupload first yes, minecraft wallpaper, genius I 've just received a free Minecraft Giftcode! One too!&gt;&gt; Minecraftcodes.me (on YouTube I 've just received a free Minecraft Giftcode! You can get one too!&gt;&gt; Minecraftcodes.me (on YouTube I' ve just received a free Minecraft Giftcode! You can get one too !&gt;&gt; Minecraftcodes.me (on YouTube I 've just received a free Minecraft Giftcode! You can get one too!&gt;&gt; Minecraftcodes.me (on YouTube see capacity ?, was it ... .. step up 4? YouTube dude ur the man! (On YouTube my country movie is rock: the raid (on YouTube 1, Number 3 Best !, the only fuckin thing you consume i S time! (On YouTube Is Right (on YouTube record ... maan ... (on YouTube was helping not screw it (on YouTube laugh (on YouTube wayne and em is good better than justingayVEVO ( On YouTube dog but dawg you nigga (on YouTube people like justin bieber (on YouTube grenade noob (on YouTube Best Genius Ever (on YouTube the song is fixed dong, it should be: you better lose it now in the music that moment you owe it you Better never let it go (go) you only get one shot do not miss your chance to blow this oportunity come once in a lifetime ... .., krauser and leon is friend become enemy ... ironic (on YouTube affraid? O_O LOL (on YouTube (on YouTube pro (on YouTube big cheese? O_O it's Chief Mendez (on YouTube i love eminem (on YouTube uploading video on YouTube The Expendable 2 Free, Facebook Plow AAAAARGH!, Tonight it feels empty Knapa xD, My Frost IS ALIVE DUMBASS (on YouTube [Like it?], My Frost IS ALIVE DUMBASS (on YouTube to bad number sgt.derek frost westbrook: (, I liked a on YouTube video Pitbull - International Love ft. Chris Brown [Like it? ], I liked a on YouTube video Pitbull - International Love ft. Chris Brown, I uploaded a video on YouTube Introducing My Self, Will Be happy If like or subsribe (on YouTube uploading videos on YouTube Cs 1.6 Download No survey, LoL, God, kiki god!???????, _-, they using chrome., Most Safe and Cheapest Car Locks [Like it?], - Full Movie Of VGHS -, If Happy Ever After did exist, I would still be holding you like All that fairy tales are Full of shit One more fucking love song, I 'll be sick., Ahhh Waiting for season 2., The Wall [Like it?], Funny Photo [Like it?], God, Why ?, Wall Broke [Like it? ], Funny Photo [Like it?], From Indonesia, LOL my country (on YouTube [Like it?], From Indonesia, LOL my country (on YouTube Funny [Like it ?], First Epic Samurai, Epic Deleted Scene, More Fun, Like It xD, Similar Monkey Results [Like it?], I posted a new photo to Facebook [Like it?], Favorite Character I Basara 2 Hero, Trapping People Wearing Beer [Like it? ], Overslept on Bread [Like it? ], VIP Tickets Football Match [Like it? ], Nationalization of Foreign Companies [Like it? ], Hopeful Wise Men [Like it? ], Drunk Dog [Like it? ], LOL, Funny Photo [Like it? ], The Baby Is Funny, Her Teeth. [Like it? ], Has a lot of experience in life and is able to inspire students in various aspects. What work do I have 10 years later! Funny [Like it? ], Instant noodle cooler [Like it? ], Funny Photo [Like it? ], The Love Story of a Dog and [Like it? ], Success makes a stressful morning with ICE WOLF O_O Muhammad Arif Basalama, The Love Story of a Dog and [Like it? ], Paranormal Messages [Like it? ], Foto Lucu it? ], The Many People Who Want to Eat Magnum ... Gk Die What Nelen Magnum ... (Magnum Sniper Riffle), Funny Photo [Like it? ], Because it's too tense [Like it? ], Get your Name Cover on Lecet Diplester [Like it? ], Funny Photo [Like it? ], Funny Photo [Like it? ], Funny Photo [Like it? ], Why women do not want to be a mechanic [Like it? ], Main dairy [Like it? ], Once Farts Fly Fly [Like it? ], The Cruelest Crime Is Letting People Who Love Is Silenced, New banknotes [Like it? ], Similar Monkey Results [Like it? ], You are now one of us [Like it? ], Sakti Boy, Can Make Stone [Like it? ], Instant noodle cooler [Like it? ]</t>
+  </si>
+  <si>
+    <t>Gather (at Marscity Hotel) Got Sodara xD ..., Retweeted {H} Risnandar (on Hari_Risnandar): Bapao rainbow mini .. healthy steady .. price Rp.1500 / bapao .. special price Rp. 5000 can 4 bapao .. interest ..? # L4nthink Capricornous (in CapricornAddict): # capricorn does not like the same complicated pair, hooked a simple but incredible. , Find Out Your Facebook Profile Analyzer Result. , O, Wow, My anger score: 20 - 80% Brave and 20% Coward. - this is My happy experience ... Hope to enjoy it, though it's a bit late .. X-Mia 4, Retweeted Facts WOW! (In WOWFakta): Only 70 percent of people will understand this: 2 2 = Fish. 3 3 = Eight. 7 7 = Triangle. | Retweet if you understand. , Retweeted Facts WOW! (In WOWFakta): 1 x 2 x 3 x 4 x 5 x 6 x 7 x 8 x 9 x 10 seconds = 6 weeks, Retweeted true! (On damnitstrue): CLICK ON THE PICTURE? ? ? ? ? ? ? ? Facts WOW! (In WOWFakta): The crazy brain's equations and geniuses are both equally inferior in filtering the information it receives. , Retweeted Facts WOW! (In WOWFakta): Smart people talk more often to themselves. , Retweeted Body Language (in Body Language): Wiggling your feet in a sitting position indicates someone is comfortable, calm and enjoying the situation, Retweeted Facts WOW! (In WOWFakta): In America, professional gamers are considered equivalent to professional athletes. , It's my first song .. on # SoundCloud, Retweeted true! (On damnitstrue): I love sleep. You forget about pain, problems, stress, everything for a while. , I just defeated Amar in a challenge! In poolbyminiclip AMEY (in Amelevans): happy new year ma bestiehhh at randyraa at lindogatotp &amp; Oscar! # Amelindoscarandy, Retweeted Nathasya Priskila (in nathasyasudaly): Happy New Year at 9aUited in AlvienGunawan01 on alvien_gunawan at samuel_goodboy on rondadrian at shandyfranky at Chrisna_Stark at lindogatotp in randyraa, Retweeted Dea Baptista (in DeaBpattinson): Happy new year 2014 at shandyfranky at rondadrian in Randyraa, Thanks yes ... Create the already ucapin ...:), Task: Uncle John Chika (in chikarema): Kangen randy yak? Wwkw ... .. in Amelevans: in randyraa laugh at MentionTo: # MentionTo your friends who always recycle their used papers. , Retweeted Dedy Corbuzer (in DedyCorbuzer): Your future does not depend on your school's value, your future is in your own hands. , Retweeted Story Of My Life! (On Derpey): Mom: Come down it's dinner time Me: In a few minutes Mom: NOW! ! Me: Ok * downstairs * Me: Where's dinner? Mom: It will be ready in 10 minutes! , Retweeted Story Of My Life! (In Derpey): I pretend i dont care but deep down i really still do not care, Retweeted Story Of My Life! (In Derpey): Home is where you can poop peacefully. , Retweeted Story Of My Life! (In Derpey): I'm not lazy, I'm on energy saving mode. , Retweeted Story Of My Life! (In Derpey): If I do not text back it 's because I replied in my mind but was too lazy to physically reply and I' m really sorry. , Retweeted Story Of My Life! (In Derpey): how do people even fucking sleep with night lights my room needs to be as dark as my soul, Retweeted Story Of My Life! (In Derpey): It's always fun listening to someone's lie when you already know the truth. , Retweeted Ramalan Indonesia (in TweetRAMALAN): # Capricorn has a serious and cautious and not prone to display emsional, Retweeted Divination Indonesia (in TweetRAMALAN): # Capricorn may not want to obey rules if they see no reason or disagree. , Retweeted Dea Baptista (in DeaBpattinson): Happy Eid al-Adha. GBU:) in Kris_CMathijs at Amelevans in DanuDeswara at evie_noviani di randyraa di dery_julia, Mom: Why is your room always so messy? Me: So that if someone comes in and tries to kill me, theyll trip over something and die. , When I hear myself eating crunchy food, I wonder if people can hear it too. , Retweeted Story Of My Life! (In Derpey): It's funny bc people think im quiet but im just listening to everyones converse and figuring out ur weaknesses to destroy you later in life, theres a hutRAMALAN): # Capricorns are those who are quite patient and tend not to rush- Hurry to do everything. , Retweeted Divination of Indonesia (in TweetRAMALAN): Capricorn man: has a keen eye appealing, calm, friendly &amp; sociable, Me, Retweeted Indonesian Forecast (in TweetRAMALAN): # Capricorn usually dependent, cautious, firm and not Deterred in the face of adversity. Retweeted Anime &amp; Cartoons (in CartoonWords): There is nothing wrong with this world, that is wrong Is an arrogant human who feels it has it. -Near (Death Note), Retweeted Anime &amp; Cartoon (in CartoonWords): Fear is not evil, he just tells you what's your weakness. -Gildarts (Fairy Tail), Retweeted Anime &amp; Cartoons (in CartoonWords): Beautiful memories of the past just to be remembered, not to be remembered. -Sasuke (Naruto), Retweeted Anime &amp; Cartoons (in CartoonWords): I do not need to follow other people's way, just do it my own way. -Ouma Shu (Guilt Crown), White Beard, Hibari .., Hibari Kyouya. , Retweeted Adult Dictionary (in Dictionary Adult): Only a weak person who thinks that everything should be easy to do but HARD. , See the KO ... God Valdi Japar Giraldo Alexander Macho, Anime Logic, am i just dreaming? ? Valdi Japar Giraldo Alexander Handi Hasan, Uchiha Spongebob</t>
+  </si>
+  <si>
+    <t># Friendsday, Congratulation to MOBIUS FINAL FANTASY for hitting 8,888,888 registered users worldwide! , Albertus Anga here see dong: V, what the hell is this life? What a fucking crazy life XD, yeye, No one knows me. No one trust me. , Rate! , See all the way you like, but, sun always stands alone. Unfortunately whatever you want but not anyone want to close with sun. Feel whatever you like, but sun is so bright, that number one can see it with bare eyes. Even sun is the center, but your egoism is the one that make you think about the most crucial thing for this galaxy. , Why I sell corare just in bid 30k -_-, what an odd way to live .... MY LIFE IS SO ODD - Trolling life: D, realizing that 'he' has arrived, just waiting for his 'house' to be built, his 'army' gathered, and soon 'he' will 'sit' up there and say That 'he' is the 'king', where that same day I will leave everything, none of which I regret. , Forgot again - added senile .. wkawka, HBD us XD be better us XD wkawka # ngomongdewe, wogh == cool, william rank 12 .. XDXD I win cuy .. wkawkawa be happy yes XD again i can in the middle .. Sperti that not predicted .., waiting in silence .. alone without reaction .. silent without expression .., aaaaaaa - - alone XD, dikacangin level god .. XD, this is cool .. XD, hoammzz .. bosen play so people Baek .., how come out do not see again .. it feels like this again -, time keeps running bring us all into the same end, the end of life. , Hmmm ... can not I make him happy? , Indeed I am an example of people FAIL:), everything is wrong ~ this world is my enemy ~, so something to be alone in this world ..., Gini i think designe .. later if anyone does not agree comment aja .., FONTTT ! ! ! ! What is i love happy ..-_-, Feel like I am nothing .. And you 're right that I always alone ... Haha, try to die with smile just trying to get what you wanted, arek x - 4, please If there is already a group, I am in the join, if no one, someone for dong .., duty there task here .. endless .., What do you call an forever friendship? Is it really exist? , EDMODO very quiet .., Most hate the new period of entry skolah .., sabar yoo .. -, full of bullshit! , Starting to hate myself .., open this if you dare! ! ! , Wah exclaim .. laugh, All I ever tried to do for him was the right thing, and it only ever made things worse. Rachel - The Ring [2002], i want to forget someone, but i can not .. i want to delete all of my memories someone, still can not .. when i realize, my memories is so full of someone .. - '' then .. just get out of my mind .., lonely ~ = D, everytime someone add me, just confirm it, but whenever you have one-sided meaning, i just think ooh, just like That? Just being kind to me for him / her self .. shit .. status gj ~, if i hulk .. surely will not calm this world ..-_-, who likes yuri-genre? Comment plz .., What do you think? Nothing .. really no .., teach me logarithms again! ! I forgot .., sword art online infinity moment! ! Ok daa ~, then I off ajah ... night slamat .. he, almost all my status is destroyed by them .., when people lie they always think about other lies when they are caught .. when humans are honest, they never think about honesty In their future .., facebook g iso dbuka .. - '', Kamen Rider! ! &gt; _ &lt;, I never confident with my looks .. But, I confident with my honest .., emotion! ! ! , The past is the part of us that makes us able to be what we are today .., true story .. laugh, the best! , I wish my dream come true ..., so remember the past .. - '', azz .. dizziness .. -, kah ... download not mari2 .., ayooo ... download less 7 hours .., fate .. - '', upset .. - '' laughing, what is the movie happy happy? , The tasks ... kok sekok aok .. - '' when kon matine .., life is tiring ..., cool coy, terrible ... finished playing corpse party ghost make creeps ..., why let's light yes ? Feeling okay okay ajah .... , Friendz Kite all go to school date brpa zich? , Oi rek isa love knowing not a happy greeting class ... (T_T) P.s. Create a naek: I miss U, Go for EURO 2012! ! , Deus created SmartMF on Freerice. , I just earned 2000 grains of rice to feed the hungry on Freerice.com, I just answered 75 questions in a row on% 20Freerice.com, I earned 500 Grains of rice to feed the hungry on Freerice.com, pretty holiday ..., lazy ... .., AHHHHH! ! ! ! Lelet! ! ! Download not mari-mari! ! ! ! , Handsome me ... .... Wkwkwkwk, '' Mbajidin '' ... I love you ..., ninja saga forever ... .., Is this your favorite fish so far? , Yess, aduchhh .... Delicious ujan ... .. cool ... ... exciting ... .., hehehe, ok, Congratulations</t>
+  </si>
+  <si>
+    <t>Talk show Data Science with pak Risman from Samsung and Pak Dipta from Amartha with moderator Sir Alexander Agung and mother Yulyani Arifin, Pouring that has been studied and tried during the last 1.5 years into one whole writing is not very easy? ? ? ? ? ? ? ? ? ? ? ? Keep the spirit ! , Congratulations for the achievement Rafael Herman Yosef, Willson Wijaya, Albert Darmawan &amp; Felix Orange coach. Proud of you! ? ? ? ? ? ? ? ? ? ? ? ? , Whatever the situation, condition, and bad atmosphere around you, stay calm and keep positive. None of negative things will win. , Meet up with junior high school seatmate yet U.S. citizen already hahaha ... 11 years since last time we met, is not it? At 333lucas # bestfriend # highschool # nostalgic # childhood, What is Data Science? Let's learn more about science happening lately. For all SoCS students, please participate in this talk show, limited seat, please register as soon as possible. , Binus &amp; BCA Funtastic Moment. PPTI BCA Appreciation Day. , 1st, 2nd, and 3rd Winner. Extraordinary ! Congratulations Jollybee BINUS! ? ? ? ? ? ? ? ? ? ? ? ? , My NLP (natural language processing) class today; They were learning about computational semantics specifically by using lambda calculus. # Lecturer # student # education # binus # campus # learning # class, Jollybee BINUS goes to U.S. for World Final ACM-ICPC 2017. Good luck, team! ! ! Albert Darmawan Willson Wijaya Rafael Herman Yosef Felix Orange Yen Lina Prasetio, BINUS UNIVERSITY presents .. iOS Foundation Program The iOS Foundation Program is a special Binus active student program designed to help you create applications as well as explore the software development process on iOS. This collaboration program with Apple is designed using Swift with a unique innovation framework that certainly helps you realize brilliant ideas become real. So .. kosongin when you start 19-21 June continued 3-28 July 2017, Monday s.d. Friday, 09.00 am at BINUS University Alam Alam Sutera Campus Register Soon! ! Limited space ! ! Waves 1: 17 26 May 2017 Wave 2: 29 May 2 June 2017 Take your registration form and register yourself at one of these locations: 1. BINUS UNIVERSITY Admission Room, 1st Floor, Campus BINUS University Alam Sutera 2. BINUS CENTER Syahdan 3. BINUS CENTER FX Sudirman Ga usa worried .. For you who are qualified, active and fully committed to the end of the program, this program is FREE and we also lend Macbook Pro and iPhone during the program For more information, please contact Ms. Natalia / Ms. Natasha / Mr. Kelvin Tel. : 088801008385 WA: 088212273919 Email: iosprogram at binus.edu, 2nd Call for Paper! Due date: 20 June 2017 Venue: Bali Dynasty Resort, Bali, Indonesia, Maliq &amp; D'Essentials at Binus Employee Award 2017 # binusemployeeaward2017 # binusuniversity, Minister of Research and Technology Dikti: Do not Worry, if Not Able, State Will Fee Menristekdikti Mohamad Nasir asked prospective students from the community can not afford not to worry about the cost of continuing education. , Binus Employee Award 2017, Do not worry about the depth of the sea, just learn how to swim. . # Swimming # relaxing # weekend # home # pool # casual # end of home # house, do u have a friend in FB before i meet ya? ? ? ? , Happy Birthday Meiliana Kheng! : D, Sampe on the desk, touched there is a cation like this? ? ? ? Abis touched, immediately sad, I'm so fat it is yes? ? ? ? , HIMTI Farewell 2017. They are the students who have more responsibility than they have to. Success will surely follow all of your pathways. Good luck, friends! . At himti_binus in socsbinusuniv # himtibinus # himtifarewell # binus # binusuniversity, Dear all SoCS students, Monday and Tuesday, May 8-9 there are 2 international seminar agenda at Orchid Campus and Alam Sutera Campus, please to follow. thanks. , Go go go! ! , Original - old - female - young # faceapp # kekinian # hahaha, Ngobrol2 at lunch with friends who served in the border area of ??Indonesia with other countries, recalled to this movie: Land of Paradise (2012) cc: Muhsin Shodiq, Core association INACL (Indonesian Association for Computational Lingustics) # lecturers # education # university # Indonesia, INACL regular meeting (Indonesian Association for Computational Lingustics), Happy national education day! # Smartlahs my age, Happy national education day! ? ? ? ? # Smartlah my age, Mrs. nosy lecturer, when actively teach again? Hahaha ..., Happy labor day. ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Snapshot of my research papers with students, lecturers and colleagues. , It was. . . ? ? ? ? , Happy long weekend, everythingaaaa ... Who is still UTS, who patiently yaaaaa ..., In quietness and trust is my strength. # Isaiah # bible # Scenery # view # garden # cloud, Run! ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Meeting today:. University of Padjadjaran (top) Catholic University of Parahyangan (below). # Meeting # collaboration # university, Steady! , Posts from Prof. Tirta N. Mursitama? ? ? ? , Do not know anymore dahhh ... the impression kok really long PhD yes yes kelarnya ...? ? ? ? ? ? ? ? , Morning! # Hosh, Aryo Pradipta Gema, Suhendro Winton, Theodorus David This is another lab playing at Argumentation Mining in addition to Darmstadt, Facebook is building brain-computer interfaces for typing and skin-hearing. Call for Paper: Deadline for full paper submission: May 01, 2017 Notification of paper acceptance: July 31, 2017 Deadline for Registration: August 31, 2017 Conference: October 13-14, 2017 cc: School of Computer Science - BINUS University Fredy Purnomo Yen Lina Prasetio Evawaty Tanuar Gabriella Jeklin Violitta Yesmaya Novita Hanafiah Meiliana Kheng Yulyani Arifin Bayu Kanigoro Dewi Suryani Ferdinand Ariandy Azani Cempaka Sari Hanry Ham Hady Pranoto Rini Wongso Afan Galih Salman Michael Yosep Andry Chowanda Rojali Saleh Aditya Kurniawan Widodo Budiharto Lili Ayu Wulandhari Natalia Chandra Sonya Rapinta Manalu Aswin Wibisurya Yogi Udjaja Yohan Muliono Syarifah Diana Permai Ohyver Etha Rhio Sutoyo Edy Irwansyah Irene An Indaputri Iswanto Alexander the Great Santoso Gunawan, Count me in! ? ? ? ? , Why are many NLP-specific conferences not indexed by Scopus? ? ? # Kesel # sebel # wonder, My forever thinner and taller best brother? ? ? ? ? ? ? ? ? ? ? ? # 88and89, Happy Good Friday! God bless. , Congratulation for the School of Computer Science team - BINUS University, Michelle Nesya (Cyber ??Security Program) and Eric (Software Laboratory Center) who achieved the 1st rank of Line Dev Challenge Indonesia! MoU of cooperation between Esri Indonesia and Binus University for the submission of ArcGIS software license, attended by Tangerang Mayor, Mr. Arief Rachadiono, Dear all Computer Science students, please be present at today's seminar from Coventry University, U.K. Which Dr. Maurice Hendrix, Welcome to PhD life, friends! Keep the spirit ! , Come and join the 2nd ICCSCI 2017! , Ong Anneke Dwi Sesarika Rahmanto Williem Lex The first paper from your thesis is online yes? ? ? ? ? ? ? ? , Guidance 3 1 internship today,? ? ? ? ? ? ? ? ? ? ? ? , Is this a true story (again)? ? ? ? ? ? ? ? ? ? ? ? ? , Six months later, only God understands? ? ? ? ,? ? ? ? , Minister of Industry stated,? For the early stages Apple will work with Bina Nusantara University (Binus) for train of trainers, because the company needs teachers. # ProudtobeBinusian, HIMTI is my favorite! : D, Occasionally share thread kaskus ahhh ... cc: Alexander the Great Andry Chowanda,? Congrats in BINUS_BGP for having new Master degree program: Master of Strategic Marketing Communication # S2CommunicationsBINUS? , Dear all students, here are the steps to take advantage of Google Scholar and Mendeley in the writing of scientific papers such as thesis and others. All these guidelines are neatly documented by Mr. Rhio Sutoyo. Thank you sir ? ? ? ? , The current Sembrani Railway? ? ? ? ? ? ? ? ? ? ? ? , Go Go Power Rangers! : D, Alexander Agung Santoso Gunawan Andry Chowanda Here are some resources for playing games ...: D, Wow, steady! , Dear SoCS students, Please be present at this event:), you keep going, one day you will look back and be thankful for not giving up. # Selfbooster, Finally, all is done. To all my NLP thesis topic students, congrats for finishing all the bachelor degree journey. Be more than good and always be fruitful out there! NB: 2 of them have perfect GPA, guess who? : D, 2 taon ago? ? ? ? , Titan X Pascal GPU from NVIDIA Corp. has been completing the tools already owned by the research labs in SoCS BINUS (Y) (Y) (Y), aduhhh, adem really denger voice ... &lt;3, I do have opportunity as thesis examiner Takes place outside the campus; They are Samsung RnD and Blibli.com office. Congratulation for all interns who have finished the bachelor degree journey in BINUS. See you on July! # Latepost # graduate # bachelor # thesis # binusuniversity # binanusantarauniversity # socsbinus, Working desk at Kampus Alam Sutera. . . This day is great, from security, cafeteria attendants, Starbucks baristas, secretaries and maybe some students here think I'm still a student, HaHaHa! ! Seems to be using jumper? ? ? ? ? ? ? ? ? ? ? ? . ? ? ? ? : In jani_thamrin, Jakarta Creative Hub! ? ? ? ? , The keynote speakers of ICCSCI2017 - BINUS University Presentation: ICCSCI2017 held by School of Computer Science - BINUS University Bali, 13-14 October 2017 Published at Procedia Computer Science - Elsevier Take a look at our previous conference here: Latest YouTube Celebrity? Its President '? ? ? ? ? ? ? ? , Handover of BINUS Internship 3 1 students in Polytron for the period of 2016 and 2017. -top: 2016, Under: 2017-, Meeting with the leadership of PT. Pura Barutama Kudus, Description of the Convolutional Neural Network by Dewi Suryani's mother, live in the world where: We follow up all job issues via Whatsapp, Line, email and many others in our gadget and unconsciously it has already consumed us 2 hours. , And great in their faces fun, no pressure, can laugh Villagers greatly appreciate the presence and work of PPSU. , Congratulation in veronbero in ann_eke at williem_lex at albertalrisa on aland_cho? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? See you soon at the graduation ceremony! # Thesis # thesis # lecturer # lecturer # dosenbinus # socsbinus, # keep learning, Congratulation in velizyathasya in yundadesilia in ceciliaarta? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? See you soon at the graduation ceremony! # Thesis # skripsi # lecturer # lecturer # dosenbinus # socsbinus, Wow already 2 years temenan on Facebook with Mr. Vice Rector? ? ? ? , It 's been 3 years:'), We and elder sister ice bargained? ? ? ? ? ? ? ? ? ? ? ? Cc: at meiliana0987 in andrychowanda # dosenbinus # binusuniversity, Hello JT, hopefully smoothly its S3 study? ? ? ? , Hello JT, good luck yes his S3 study? ? ? ? , Dear all friends, please in view then in like then in the comment then on share This video is my guidance student video that is being contested in the national application competition. Please help yes. Thanks . Cc: School of Computer Science - BINUS University Veronica Ong Anneke Dwi Sesarika Rahmanto Williem Lex Fredy Purnomo Yen Lina Prasetio Gabriella Jeklin Violitta Yesmaya Rini Wongso Hanry Ham Hady Pranoto Azani Cempaka Sari Ferdinand Ariandy Novita Hanafiah Meiliana Kheng Yulyani Arifin Bayu Kanigoro ===== ========================= Hello all friends! We (Anneke, Williem, and Veronica) are developing an app that can predict the personality through a Twitter account called '' TWIPPER ''. Currently we are following the software development competition and want to ask friends for sharing, like and comment on our video link below: Share, like, and friends comments will help us in the selection process of this race. Thanks for the help, have a great day! ? ? ? ? , Collection of corpus for Argumentation Mining: cc: Aryo Pradipta Gema Theodorus David Suhendro Winton, An article on the introduction of collision detection in 2-dimensional game by: Mr. Nikolas Stark, BINUS in Bandung, Recurrent Neural Network (RNN) and Gated Recurrent Unit (GRU) cc: Aryo Pradipta Gema, School of Computer Science BINUS will move forward to World Final Programming Contest in Rapid City, South Dakota, USA, 20- May 25, 2017. Go Go Go! Rafael Herman Yosef, Willson Wijaya, &amp; Albert Darmawan. Proficiat, coach Felix Orange! : D God bless. , That's why sleep is enough # ngomongamadirisendiri, Achievement Unlocked! # Banggabener? ? ? ? ? ? ? ? ? ? ? ? Create a new SIM C (due to renewal 2 days), without using brokers, without service (which supposedly reportedly cost 600-750rb), although it must repeat the practice exam once. The normal route, the price is just 100rb plus 25rb for eye health check. # Gratispungli, sharing session by Professor Sheldon Lee Glashow, Nobel Prize in Physics in 1979. Mr. Widodo Budiharto's session on Doctoral Studies, Video for this deep learning material ... Widodo Budiharto Alexander Agung Santoso Gunawan, Some of the major Technologies and trends that are likely to have an impact on IT professionals in the coming year: 1. Artificial Intelligence 2. Internet of Things 3. Augmented Reality 4. Automation 5. Cyber ??Crime, a course of text processing at the time of research and products in the field of text processing is growing a lot will be a separate keseruan? ? ? ? , Instead of trying to be the best on the team, be the best for the team. . . . . . In the batikmart in batikmartpekalongan in batikmartpekalongan2 at the winningjayabatik in the winning_jaya_pekalongan in the soccer of kolonbin # socials # education # binusuniversity # binanusantarauniversity, Opening Forum Indonesia Rector 2017 by President Joko Widodo, FRI) 2017, Temen nulis paper = D Many proverbs say do not ask what you can do for you, ask what you can do for your country. For LPDP you do not do anything, serious school thinking and your own personal career , Happy Chinese New Year, everyone! ? ? ? ? , Still a birthday edition? ? ? ? # Grateful # hbd # happybirthday, Wishing you a Happy Chinese New Year. Happy Chinese New Year ! , Our lunch today? ? ? ? , Cloudy Friday morning? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , When will jogging together again? , Iyoo paora oo Sekarepku oo Free oo eittss ojo karo sing aa lhur (for those who understand): p, yes ora aa iki aa udu aa? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , 49 out of 4455 universities across Indonesia (why), Artificial Intelligence! , # Rakerbinus2017, Saturday morning workout! ? ? ? ? ? ? ? ? , It's been 1 year pack, hopefully I'm fine = D, Implementation Work Program 2017, Dear all students SoCS BINUS, please if you want to participate. , Stijab management of HIMTI 2016 to 2017. Thank you at jonathanzgo &amp; at cucunyaakong, congratulations on hacit97, in khariskaban &amp; satriyawibowo? ? ? ? ? ? ? ? ? ? ? ? . . . In socsbinusuniv in himti_binus # binusuniversity # socsbinus # greaternusantara, Friday morning run? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , The ability to naturally communicate with Google has been presented by giants like Google and Facebook. In this context, 2016 was all about innovation in Natural Language Processing (NLP) problems which are crucial to reach this goal. ,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , * White flag kibarin * Javanese I still seem to lose the same Mister Pete is laughing, Dear student SoCS BINUS, please see the latest articles made by lecturers to broaden the horizons of Computer Science,? ? ? ? ? ? ? ? ? ? ? ? , Happy New Year! ? ? ? ? Hopefully the year 2017 will be a much better year than the previous year. , Suddenly be remembering the age still in elementary &amp; junior high school: the afternoon to play ball with friends sekampung, bike dibalikin make goalkeeper, body kerempeng play ball balls wearing t-shirts, if ngegolin his style is like winning the world cup? ? ? ? ? ? ? ? ? ? ? ? # Nostalgila # masakecil # fieldmatarampekalongan, Run ... run ... run ..., Congratulation BINUS who has reached the institution accreditation with the value of A., Good morning! Exists really sun this morning ..., Family members are like branches on a tree; Grow in different directions, yet the root remains one. # Family # holiday # dayoff, Arise, shine, for your light has come, and the glory of the LORD has risen upon you. Merry Christmas from us, be blessed as always :), Good morning! , Spending the day with your loved ones is priceless. It is Christmas in the heart that puts Christmas in the water. Merry Christmas ! , School of Computer Science - BINUS University - Mannequin Challenge Thanks Yohan Muliono who is willing to sacrifice not sticking out as a cameraman = D, Run ... run ... run ..., Happy Friendversary, A Yong! ? ? ? ? , Happy Friendversary, A Yong! ? ? ? ? , SoCS Gathering before Christmas 2016 and New Year 2017,? ? ? ? ? ? ? ? ? ? ? ? , Lunch today, Happy Friendversary, Fika Anna: D, Happy Friendversary, Fika Anna: D, Young and energetic lecturer a la BINUS Malang at binus_malang # binusmalang # binusuniversity, Indonesia! ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , Teaching students of BINUS Malang majoring in Informatics first class, Happy Friendversary, Novi? ? ? ? ? ? ? ? ? ? ? ? , Happy Friendversary, Novi? ? ? ? ? ? ? ? ? ? ? ? , Happy Friendversary, ci Wenda? ? ? ? ? ? ? ? ? ? ? ? , Happy Friendversary, ci Wenda? ? ? ? ? ? ? ? ? ? ? ? , One afternoon in the waiting room of the AOC alias lecturer. Binus Jakarta, Binus Semarang, Binus Bandung and Binus Malang? ? ? ? , Hi friends in arms, already 2 years ago we took this photo. Keep the spirit of it all: D, Aryo Pradipta Gema Theodorus David Suhendro Winton, Preparatory Meeting UAS Computer Science, Odd Semester 2016-2017, # yearinreview2016, BINUS alumni who now live in Semarang, let join in Alumni Gathering event at Aston Hotel Semarang, December 7, 2016. After waiting for less than 1 hour, finally the sky wakes up. Happy weekend, fellas! # Morningworkout # saturdaymorning # jogging, Your real identity is reflected through your actions, not your photo! = D # new kart # lupas smile # doublechin # allstyle # binuscard # D3690, Happy Friendversary, cici? ? ? ? ? ? ? ? ? ? ? ? , Happy Friendversary, cici? ? ? ? ? ? ? ? ? ? ? ? , ICSEBS2016, 28 Nov - 1 Dec 2016, Bandung, 3rd International Conference on Science, Engineering, Built Environment, and Social Science (ICSEBS) 2016, Board of Inauguration School of Computer Science, Bina Nusantara University # Wisuda55Binus, Congraduation, BINUSIAN! Always success ! ... and so the adventure begins ... # wisuda55Binus # binusuniversity # binanusantarauniversity # greaternusantara, Happy Graduation Day! ! Congratulation! ! Create all the BINUSIAN who at graduation today, success always for next step and hopefully bring very good benefit for society. Especially for thesis tutorial children: Reanita Puspitasari, Tania Chen, John Halim, Indra Budiman, Herlianto? ? ? ? ? ? ? ? ? ? ? ? # Graduation55binus # binusuniversity, Thunderbird Frank is very handsome (why), Because the future really exists, and your hope will not disappear. O my son, hear, and be wise, and guide your heart to the right way. [Proverbs], Well done, students! ? ? ? ? ? ? ? ? ? ? ? ? At veronbero at ann_eke at williem_lex International Conference on Industrial Internet of Things (ICIIOT 2016), Aston Hotel, Bandung, Indonesia, 23-25 ??November 2016, Word Vectors, Happy Teacher's Day for all educators across the archipelago. May always be the best inspiration and director for all being educated. # Repost on najwashihab with on repostapp # NotesNajwa Happy Teacher's Day! At Regrann from at kemdikbud.ri - # HariGuruNasional2016 # AcceptTeachers # AyoHormatGuru # GuruMuliaKarenaKkas # HGN2016, Happy Teacher's Day for all educators across the archipelago. , Example of real technology utilization: Online thesis guidance via FB messenger same child who again apprenticeship in Polytron Semarang, FBLearner Flow, DeepText, Graduation 55 BINUS:), Congratulations to attend international conference, my students ...? ? ? ? After a visit to BCA Learning Center: D, (why) (why) (why), It has been 5 years ago graduated S2, which is now when is it graduated? ? ? ? Cc: Lydia Theodore, Guest Lecture from Inha University, South Korea: Professor In Kyu Park All Binusians, you are invited% 20to come. , Jevon Averill Theodorus David Hindra Sanjaya? ? ? ? ? ? ? ? ? ? ? ? , Wah, it's been a year since it turned out: D, Starting from his desire to give alms to the less fortunate ..., a small scholarship recipient lectures at BINUS from Semarang Computer Science program. 1 person free tuition, 4 people get 50% college tuition at socsbinusuniv # greaternusantara # binusuniversity, She was dean at a college. , Happy Hero's Day! : -), Web interface created by BINUS students to cut the word berib in Indonesian into the basic form. Cc: pak Danu Widhyatmoko and team, thanks for help for migrating to web SoCS: D, Tomorrow have started UTS, happy exam for all Binusian. Learning diligent, sleeping enough, smile a lot. Do not lie here and there, danger lho ...: D Good luck, students! , Photo with Minister of Communications and Information Technology (Menkominfo), Pak Rudiantara at kemenkominfo # acmicpc2016 # binusuniversity # greaternusantara, Speech from Pak Rudiantara at The 2016 ACM-ICPC Regional Contest Asia Jakarta? ? ? ? , Colorful ACM ICPC today at BINUS Orchid Campus, Welcome to BINUS Jakarta! Have an awesome brain battle tomorrow! Cc: ICPC News ACM ICPC Asia Jakarta Regional Contest stays near Semarang, kindly come to this free session. Saturday, 12th November 2016 at BULC Semarang, Bank Jateng Building, Jln. Youth, Semarang in binussemarang # socsbinus # infosession # binusuniversity,? ? ? ? ? ? ? ? ? ? ? ? ,? ? ? ? ? ? ? ? ? ? ? ? , Already or just 6.5 years? ? ? ? ? , Word Embedding &amp; Deep Learning at NLP cc: Jessica Handojo Velizya Thasya Utami Yunda Desilia Cecilia Arta Alan Darmasaputra Chowanda Albert Richard Sanyoto Veronica Ong Williem Lex Anneke Dwi Sesarika Rahmanto, Comparison of several architectures Recurrent Neural Network cc: Alexander Agung Santoso Gunawan Widodo Budiharto Lili Ayu Wulandhari, HIMTI President Election 2016, National Coordination Meeting of Indonesian Computer Science Higher Education Association (Rakornas Aptikom) &amp; International Conference on Informatics and Computing, There is always a good thing behind every opportunity, responsibility and events that God gives. Our part is realizing it. , Read RNN again ..., Figures that accrue at our age have meaning that our duty in this world is not finished yet. Hopefully more brilliant and victorious, Bina Nusantara! # Celebrationnight # 35yearsofbinus # greaternusantara # batik # batikindonesia # formalsuit, Happy 35th, Bina Nusantara! # Greaternusantara # binusuniversity # lustrum7binus, Agenda seminar on Big Data by Professor Jennifer Widom from Stanford University, Monday, October 31, 2016, 8:30 to 17:00, at Auditorium Anggrek Campus. Place is available for 150 people. SoCS students can join this event by registering at the following GoogleDocs link: Registration Form is closed on Monday, October 24, 2016 at 12.00. , Agenda briefing of PKM-KC Proposal for all students of School of Computer Science. , The Long Short-Term Memory</t>
+  </si>
+  <si>
+    <t>Please yes its name facebook Adeliana Yuwonno it's not me but do not know who, do not accepty acceptyou, ABSURD, Sofi's bday surprise! , Thankyou Kara Floral Headband? , Missyousodamnmuch: (, Happy Chinese New Year: D, playing free rice again: D 7a: '(, # FORWARD success!: D (Y) GREAT, # PrayForReportCard O:), miss ch: (, Thank you for this day !;) Craziest fieldtrip! Sounds out nice: D, We'll show you what we 're made of! Let see !, MarioMaurer &lt;3, AFRAID!: (, Solo The Spirit of Java (:, At GI with Ivan, Tasia, kim, ko bozra, andrew, ko sammy:), listen my heello di delchocolatos:), lalalala ~, Its my last day on 12 years: P, I'm addicted and I just can not get enough: P , Why at every meeting there should be a farewell, I hate it :(, thanks!: D, pray for my sister:), I'm wrong what?: (, Whatever, tomorrow school:) hope will get same class .. complain without Miss jovelyn; (wish me luck, want to school: (with 7a, with Miss Jovelyn: '(, kpan yaa meet sisca again?:' (, At MAG, byebye sisca: (, at Gading with michelle sisca:), black Out! Grr, byee anyer: (, Bye miss Jovelyn Delos Santos: (miss you, Arrived Jakarta, now eating -&gt; spicy rice! ! Hahh, just arrived! Bali; D, omwt Soetta, tomorrow! ; D Bali with michelle; ) , thank you ! : D it's finish, great! , Stay at tasia's with preysi stella: D, eh all, add my new bb pin yaa:) who want to ask messages to me: D, science fail; (, Bisma; p, nice barca (why), home instantly quiet -, -, every moment with you, is the sweetest one, 7a &lt;3, we love you jovelyn: '' (you are the best teacher I've ever : '(, Book launching:) success!:') I'm going to miss you, Miss Jov: (, my hp is too good -, - ccd, today gamasuk sekolah -___-, big girls do not cry : '), Happy birthday Jeremy Yts: p, nyesek:'), Preysi's party birthday at alma's! ; D fun, happy birthday my beloved brother; D brother adry :)), OOOMGG..these friends are visiing my profile? ? : O: Agatha Verencia - 1136 views 'Nita' Jeanita - 983 views Agung Kurniawan - 542 views Adam Ravansya - 300 views See who views your profile on &lt;3, Frankestein! ; D, Jessica Vanelisa Stella Ella Preysi Reveni from yesterday at the turn not enter -___- go in all like, lonely .., replica ipa sma science ._. Aaaaaa, Happy birthday Mr. Romeo! ; D, on the way bandung:), With al x) in tasik, RIP Pak Frans: (mathematics is? Easy! :) ') we love you .., curious .., play with Stella Ella Jessica Vanelisa: p prepare something. .,: (Just stay: '(huah, they are lucky:' (2months more :(, sorry my rifky: '(, &lt;3 kids company &lt;3 sm * sh &lt;3 secondhand &lt;3 jb &lt;3 michael buble &lt;3 Taylor swift &lt;3, number more mellow, honey number to hell (why), wanna fixie hoam, miss mr.jusber: '(, mellow number dear number smile: D smash smile spirit:), yes! Success: D Thank you, yesterday play sma preysi ci bel ko hansel ivan XD, bismaaa morgaan &lt;3, yah: (want to join bsok, aaa i melt dngernya TT, curious; (, # nw - goat the movie:), aaaaaaa&gt; &lt;, Fruit tea crazy! XD, &lt;3 bm: p, makasi&gt; &lt;, lebai banget disgust wkkw, lebai really disgust wkkw, very painful jatoh pas handstand (: i close my eyes and i can see a better day :)): D yeay, my love: ( , My love: (, my love: (, &lt;3 basket:), michael buble &lt;3, Felicia Layrensius we have new mama: D, pray for doraemon, miiko, shinchan, and japan O:), high level badmood -_____________ - grr, you know that i love you: p, new turtle &lt;3:), freerice, ym:), thanks ^^, I'm feeling good today ^^, Ka ola's birthday party: D, freerice: ), Calm down: (, please: (i want to meet you one more, please: (i want to know your name: '(, dynasty! Yea, know kok jps lose, sober. But phi gausah ngata2in also, uleadnya can not on my lap x_x az, woy girl lebai ngaca plisss: D, woy girl lebai ngaca plisss: D, poster jb it hit the water! ! : '(, Gapeduligapeduligapeduligapeduligapedulokokokokgapeduli, gaikutan phi jps problem point, ko Francis Hansel cheerful: D, defect == my name is so Stevie Liardi potatoes??? Sam far kick = _______ =, yesterday jps play same ceha XD, basketball? ??????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????? , I give up her deh nyarinya: (, yesterday ivory same stella jeve kelvin albert, today jesaya preysi albert kelvin aldo rifky, just go home akwka: D, sick: (, indeed facebook want to be blocked?,? Glee&gt; &lt;!, Oaths amused Same as you ~, Abu Merapi, chat w / Stella Ella viking bebah sama sama ~ ~ ulalala, proud kok same indo (why) play fair, Sportsmanship. , Lose lost lalala, argh! 3-0! Unclean! From the beginning has made indo down. Cheat! Copo! Unclean, tacky malay! ! Use laser firecrackers! ! guess what ! Cheat! Geeky! , In jogja, tomorrow jogjaa: D, sampeeeeeee, on the way solo :), tomorrow on ivory yes? I am solo, bbye: D, party, facebook plow sii adel: D wkkw, make pudding with stella jeve:), on the way cempaka mas with stella celine jeve monic gitta: D, make that feel copycat, ? , Michael Akas Wicaksono makasi: DD I'm sorry wkkaa # apabanget, nyebelin _ HAHA, still at school: D practice, i will be right here waiting for you: '), thanks for this day Theresia Renata Shania Junianatha Felita Dewitama agnes: DD &gt; &lt;, Seru xD, play the same tere shania fefe agnes: D, hope this day be:) amin, try the best for you you guys: '), study study study!</t>
+  </si>
+  <si>
+    <t>No! , It's not Over.as long as someone remembers, it's never over, - - - - -? ? ? ? '? '? ? ? ? ? = (??) = E /? ? ? ? / '? '? ? - - - - - -, First FPS game on Facebook! FPS game on Facebook! In., His GM is very intense Maintenance ampe this hour from 9 am, Lag, DISAAT DAKU OLD PLEASE READ ..., OOOMGG..these friends are visiing my profile? ? : O: Daud Kurniawan - 1136 views Aldy Pratama - 983 views Febriana Tindaon - 542 views Brandon Lee - 300 views See who views your profile on wait and see.I am going to show you what is really there , There's No Win Or Lose In This, No Higher Or Lower There Is Always Only One Truth, Hoo. So many also who have awake the same nggk sleep semalem good good wakakakakaka, monkey BB i can not matot nggk in cas nggk can di nyalain zzz gloomy, Friend FB 100 Pas wkwkkwkwkwkw, Friend FB 100 Pas wkwkkwkwkwkw, Pissing Top Banner yang IDIOT, i saw you For the first time i know you are the one you did not love a word to me but love was in the air then you held my hand pulled me into your world from then on my life has change for me now i never feel lonely Again cause you 're. In my life Love how can i explain to you the way i feel inside when i think of you, then you held my hand pulled me into your word .. from then on my life has changed for you now i never feel lonely again cos you 'Re in my life, When i saw you for the first time i knew you were the one ...:), On the wings of death by the hands of doom By silent seas over mountains high For we stand as one tonight On the black wind forever we ride on together Destroying your evil with freedom our guide When the master will storm us He 'll stand high before us Our hearts filled with splendor. Our swords will shine over the light, I Want To Get Back The Strength I Lost, Physicx, share it for you, wkwkkwkw gohlok, woi riki, keffas di call ws</t>
+  </si>
+  <si>
+    <t>HT: MADRID 0-0 MUNCHEN # halamadrid, Want to CS: Free GO Skin without Deposit / JUDY SkinSilo is a hint xd Link: Login via Steam Continue to REWARDS Tab. Fill in email, trade url, and others follow the instructions just use my referral code: SAMUELHALIM (can 250poluru / coin) runs out, if it is finished all, you will be able to 350,000 if you want to look for another coin, to tab EARN CREDITS, Just follow it all, then coin. # AntiJUDY # 0ToSKIN Hery Franky Victor Franky Kevin Tj Dimas Arsaya Mi Chael Daniel Supreme permit tag boss, Wtb gamesteam rate lowest, new video is up friends, pingin see gans people dota, csgo, and others tlg on subs Yes Youtube.com/channel/UCzmZnH993iw_vAWa0BBKkHQ Makasiiii, go, Steady soul, Photos same former Fnatic 8k mmr in one picture, Noob am Steven Bonny Oriel Mihawk Victor Franky Hery Franky, Hery Franky not for you? , Yg selling gold dragon nest servee void PM,? ? ? ? ? ? ? ? ? ? ? ~~, Just one last dance, Hery Franky, Hery Hery Franky's Teachings, 1 more God pls # indonesia, Chroma for the win, Behavior of your child miss Nana Podungge Pake sandals on campus: D, Wts csgo games at 100k stock lot Line sam .2107, Djing Tj, WTS Adidas NMD R1 size US 9.5 native UK. Certainly not in Asia New merchandise up to indo 30 setember PM for price thank you? ? ? ? , 777, The one and only, Cant wait, Joki pokemon go Lvl 1-15 100 rb Lvl 1-20 150rb Lvl 1-25 200 rb Lvl 1-30 275 rb No softban Aman Line sam.2107 No hp 082226119865 Pake google bsa Wear ptc can, Wts off on dusty Interest in pm only, Lunchhh, WTS ATHREOS GOD at 100k, Todays draft keep Nb: if to semarang search Lumpia make by2 to icipy yes: p, Wts Scg x10, pre Todays, WTB Nissa PW origins Lilliana PW origins Thunderbreak regent Gameday promo (Korean), Shit got real, Pending first, Erick Widjaya Rinto KUr Dea Vania, Vito Alexander Harliyanto, Canceled? Shit, Must read, Aji aji .. you used to be a hero now? , What the fuck .... , RONALDOO JUVENITI WE CANT HEAR YOU NOWWW, PENALTY, ISCOO! ! 1 MOREE, WE ARE STILL ALIVE, Mei Chen, Font number milan (nocerino) 20k exc postage, FOR SALE JEREMY SCOTT FOIL WINGS sizs 43 1/3 BNIB (Brand New In Box) Cp: 082226119865 / 7CA4568F , Vito Alexander Harliyanto, Mx, Wkwkwk $ 51 you how much Alex Snow Devin Christian, Save read later, Haha Devin Christian Alex Snow, Devin Christian, Annoyed, Devin Christian, Narsis used to be Alex Snow, Beautiful not vin? Devin Christian, Devin Christian Alex Snow, Jeff Choi my girlfriend, Sleepover in Alex Snow's room, I catch myself looking at your pictures, sharing jokes and news , As well as support during good times and bad times. I am also happy to have you among my friends. We will see who will take the time to read this message until the end. I'm going to be watching to see who takes care of the friendship, just like me. So if you are reading this, then thank you for being a part of my life. So, leave ONE WORD on how we met. DO NOT SHARE. Once you respond, I will inbox you this copy, then paste on your wall so I can leave one word for you. , Ronaldoooooo # halamadrid, Steady this pitt Fia Kreuz, Sad hahah, May be conscious. , Fia Kreuz, Hopefully the goal was indeed a good sign and allowed, why oh why ..., All i can sayang is i was enchanted to meet you ..., be thankfull of what you have:) Never get back, but there are manythings you can learn for what you have done in the past. , Its over. , Mantap lah captain ferdinand 1-0,3 goals to go Come on guysss 2-2,800k pm only, Sfccc Persija 3-5 sfc Next sfc opponent arema yoo hajar, Ready 1. Male minipom. Snow white. Stb cotton fur. Glamor. 3.2M. 2. Male minipom. Non stb. White. Unyu2. 1.7m. 3. Husky elephant. Top. Blue eyes . 2.5 months. Gede. 7 jt 4. Male Doberman. Non stb. Cut the tail. Vaccines. 2M. 5. Male / non stb female Pitbull. Prospect sporting. Price 1.2 - 1.6 jt. 6. Male / female Pitbull. Stb. Prospect sporting. Price 1.950 7. Chh man. 7 months . Stb. The colors are interesting. 1,050 rb. 8.Golden manly. Granddaughter import USA. 2 bln. 2.4 free shipping Java. 9. Bully 3 males. 1 female. 3 months . Stb. Couple. 3.7m. M 10. Malamute females. 6 months . Children import. Price 6.5 - 8.5M. 11. Male pug. 2 months . Stb. 2jt 12. Chh. Males. 3 months . Stb. 1.8 free shipping Java. 13. Husky mother. 3 years . Stb. Bntr again loop. 2.050 free shipping 14. Male Corgi. 4 months . Children import. 3.7M. 15. Bully indukan 1 year. Stb. 3.2M. 082226119865 / 7CA4568F, Decrease the price just putig it, Rvp, Mata, Wazza, Smart monkey This cave of cave is Nanna Lee, Barca are you? Yuhu, Wtf, For sale gucci belt made in italy Special who knows only, great Uda yeah now you:), Hurt Lekndelok profile e wong kui, BU kok canal, at 125k free shipping take all at 100k, Jatidiri alone is much better than this stadium: v, MAY GOD BLESS INDOBESIA # NOTHINGISIMPOSSIBLE, Loss maning loss maning ..., 1-1 end Ny, Pssi asuuuu, Seneng e meet people tuany:), Evan dimas josss, Van dijk! ! ! ! 1-0, Right, Gymnastics morning with mother Ida Jokam Safitri Shofia Yusuf teacher, Congratulations fast persib 19 final year ny finished: v, Mental champion, then vladimir in what in tuhh? , Diving oh diving, PERSIPURA! ! ! ! , German 1986 jaspo M Muluss 300k excl postage 7CA4568F / 082226119865, Had smalling, Reussssssa, Herpes meneh auuuu, Nanna Lee, Tyas Putri Anjarini Ida Jokam Safitri, Shofia Yusuf do you miss us? , Tyas Princess Anjarini Devin Christian Vito Alexander Harliyanto Alexis Snow, Tyas Princess Anjarini Ryan Hartley Alexis Snow Devin Christian, Benzemaaa, Pepe 2-1 Kroos still the best, Ronaldoooooooo 1-1, Ea pique goalkeeper 2x, Come on benzemaaa, Classico time , 3 oh 3.2-0 broo benzema, kroos class, looserpool soup? 1-0 CR7! ! , Wallet oh wallet ... kimpet, Not sack yes: v, Since i dont go to gym my weight loss 3 kgs? Weird, Semeru oh semeru, Classic style is: v, Lonely gilaa, Ngakak see Fia Kreuz fears watching annabelle Alexis Snow Nanna Lee, Vito Alexander Harliyanto Alexis Snow Devin Christian Samuel Johan, 16 days to go, Same who hayo, Ea lost, Freak , Minhooooo, Asikkkkk, 3-1, Even reall madrid c wkakakak, Real madrid b kirain castilla: v, Asu kabeh, All the shit that you do, Kere hore, at 250k inc special postage today, 2-1 nah lohh Kuwait: v, Tiboooo 1-1, Low class, This night madrid lost could be crazy,? ... .., Vito Alexander Harliyanto, Wednesday - friday - saturday - sunday futsal josssss (why), Look at me, do i look affraid? , Madrid play what time yes,? ? ? ? ? ? ? ? , Agreed, Meet mr bob at s2 it awkward wkakakakak,? ? ? ? ? ? ? ? ? ? ? ? , Im forever yours? , When the emotions beat everything, Fia Kreuz Andy Kim, Happy birthday my girl? ? ? Wish you all the best May all your dreams come true God bless you, this anjrit next aroma perfume ala arab body kira2 110 kg still make up keep just self-conscious oittttt, Bs facebook an chat not in reply # sakitati, candid story, Budal, Time to gamble coy, Lanang know self, Clever monkey, Bee ~, Enakkkk, Sooo saddd, Welcoming party! ! There is a telo, Time for taking restart, Hk, Suttle suwi plane delay seriauuu, GOOD LUCK IN MARIA, Kudu Patient: D, Hawa2 in live turu, Laper want mcd malem2 # modar, Miss you already? ? ? ? , Haduuu 1-0</t>
+  </si>
+  <si>
+    <t>Wow, best moment ever, I 'll go to china if this is true, It' s me, take 3rd place in death - match in 'Outpost' level! , Check out this performance of This Love on Sing! , Take 2nd place (by score) in zone-control in 'Trainyard' level! , Check out this performance of Baby on Sing! , Check out this performance of Gangnam Style on Sing! , Great! Filzxhintz has enough experience to reach a new level. , Hoho, Great! Filzxhintz has enough experience to reach a new level. , Great! Filzxhintz has enough experience to reach a new level. , Yeah, have fun, yeah, Great! Filzxhintz has enough experience to reach a new level. , You make me falling in love with you,? (???)? &lt;3, Crazy, &lt;3 adorable (&gt; _ &lt;), I'm so lonely broken angel, &lt;3 her so much (&gt; _ &lt;), With tutut, Mas po and vincent wkawka, Ryan. I love you, Me, Mr Adi, Edward and Vincent, You 're the Only One ... .. (&gt; _ &lt;), Never give up! No matter how weak you are! , Crazy ... ... ... ... ...,: P, cute,: (, &lt;3 her: D, You 're My Ice Cream You' re My Dreams, ngeseli in china, Nest already Appear in gemscool! Let's play together again Create guild again continue to hajar manticore and apocalypse Who now watching in the guild briefly can add my FB Stay Nunggu patchnya course Go DN Gamerz, One In A Million, Double Protection from the insects, On Again RezpectorZz, is such a drag ...., Need volunteers to play DN and help me with my quest. ^ _ ^, Need it, Heroes, how to cash cherry credits, Party Time!!, Please play DN and join my guild [HunterDazz]] This is a link to download DN file, discotheque, crazy!!!! Gods skillnya, Members in my guild to Fwar every day, Love number one, Trust number one, Believe number one (LTB), Just For Gamerz,, dino fashion! !, race hahahaha, promotion promotion, what is delicious ?, oh ... crazy, I copo, I wan na be free, So sad ... many tests next week and tomorrow ..., NeCheez Man Necheezzz, For people who are retired from PB there is a fun DinoMode .... , These are the people who will represent surabaya in LS championship .. Slamat bwt Hydro Thunder .... , Dropdropdropdropdropdorp bassbassbassbassbassbass, wow, ah, just go home later mlm all stacked tasks, TQ, Put Your Hands Up, Ge Ge Ge number Kitaro klek klek klek klok, what a bad day, Wow cool man, , I love Fairy Tail, Ferarri in front of hotel jw marrot jakarta, want holiday tros! ! ! ! ! ! , Delicious street streets in mall jakarta same office employees who are also gamers .... , Already in jakarta 4 days, filz, Golf Stick accidentally to throw up to the roof. Embarrassing! , Zzzzz, play, hear music, watch tv, study and have fun ... Like it like it .... , Just play and have fun, Hmmm .... In school that play lost saga only 2 people .... Any more want to come? ? ? If there are many, directly bwt the guild itself. , Oh ... Crazy FBku got a virus of words. , Bus from jakarta yesterday from JB back at 1.2 days again I will go to Jakarta. At Saturday, I will watch Justin Bieber's Concert. If you want to find me there, I sit at VIP chair ... Happy Holiday all ^^, Check this out my friends! ! ! I'm in trouble .. but in the end I survive. , Lost Saga fun and fun .. hehehe, CPU is dibetulin .. hahahaha seep ^^, download the grand chase hard ... error keep pdahal internet flame continue 12jam. , Zzzzz, Remix music with bassdrop is my favorite, Poo yes people have to hack mine ... Emange orange who ngehack g have capital? ,? 2PM? , Why many problems come to me? ? ? Am I the chosen one? ? , My RO TT ID is hacked by everyone! ! ! ! ! ! ! ! ! ! ! ! ! ! ! Pdhal already a lot ngecash ... .. aaaaaaaaaaaaaaaaahhhhhhhhhhhhhhhhhhhhhhhhhhhh! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , So Fun ^^, I love to watch animax movie because it is [COOL], Baune buffalo ask for ampoen! ! ! , I? YUI, Add Jefferson Utomo why ... , Hahaha, why can not I stop playing in ordinary days? ? Is this thing cause me to get a bad mark? ? , Abraham ojok ngehack FBku .... , Wew .. gone home from rumahe chrisna bsk gathered again laughing, oh Utsnya pek hard2 kabeh ... TT, Down the distant road, anyone who ngehack FBku will be beaten if nemu, oi bertjj nackhack FBku ... ... buandotz Iki .... ZZZZZZZZZZ say what ae statuse iki ... ..., play RO that can make me so happy and enjoy but i dont know why my GF worse than ... ... oh man ... ... ..., Wew out of UTS at Chrisna's house albert mbe win.s. Chrisna play tekken jago pek all dikalahno .. great2, Tsunami tsunami ... who now watching free swim to Japan why ... Sad Mode, i miss you very much. Where are you now? ? , Sour pek. Papa mbe mama same ae if blanja lama banget .... Want to ngamok pek, Am I faded like a shadow? , I have to do something, Dizzy bus tricked people in the game. Zzzzzz lost 25 jt zeny. AHHHH, Do not Punk with My Heart? , I feel like a bird fly on the sky everytime I hear music:), Today is cape poll, Is this Love?</t>
+  </si>
+  <si>
+    <t># Sellyeezy # adidasyeezy # yeezyboost # sellyeezywhite # adidas # yeezyboost350 # yeezynesia # yeezyjakarta # sellingyeezyboost # topitem # topshoes # yeezyputih, it, New pin, PS4, Apache, do not translate dong. , This should download the ma client patch? , Mobile Uploads, i got free, Gw More movies, Clothes angie funny yes? , I need, Mobile Uploads,? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? ? , FREE 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP! ! - like it, FREE 450 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP! ! -, FREE 450 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP! ! - 450 FB Points That you can use for everything, (Let your friends know that you 've sent a free gift!), Now watching eating, (Let your friends know that you' ve sent a free gift! Friends know that you 've sent a free gift!), (Watch your friends know that you' ve sent a free gift!), Now watching watch INCEPTION! ! ! ! ! , (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift!), ( Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift! Friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know That you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 'Ve sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've Sent a free gift!), (Let your friends know that you 've s Ent a free gift! ), (Let your friends know that you've got a free gift!), Inazuma 11! ! ! ! ! ! , (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift!), ( Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift! Friends know that you've got a free gift!), Help me, (Let your friends know that you've sent a free gift!), Wkwkwkwwk, (Let your friends know that you 've sent a free gift!), (Let your friends know that you' ve sent a free gift!), (Let your friends know that you 've sent a free gift!), (Let Your friends know that you've got a free gift!), Hhhhhhhhhhooooorrrrrrrrrr eee, hahaha, Click the cute pet below to own it now! Do not forget to make a decent offer. , Eeeeetttttttt, aiaiaiai, Can you be my neighbor? , Oooooooooooooooooooooo, wow, money! ! ! Money! ! ! And money! ! ! , A, money! ! ! Money! ! ! And money! ! ! / Mami, can be a clown fish! ! ! ! ! ! ! ! ! , Applefish! ! ! ! ! ! ! , I caught a crab! ! ! ! ! ! ! ! , Oh number ...! , I get ! ! ! ! ! ! ! ! ! ,! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , Please be my neighbor in FarmVille! , Please be my neighbor in FarmVille!</t>
+  </si>
+  <si>
+    <t>Telekinetik? ? Why not? , Life is full of blindness, VIRUS is fucked, bored when it's kelkom, on the way solo, Yeah, back to jakarta, back to solo in 7 days ^^, back to asssalam ter cinta -_-, good bye jakarta T_T, Make a moment night, now playing rf memories, on the way bandung, Just installed ChatSend that allows me to send files up to 2GB for free on Facebook chat. Check it out, his virus recurrence -, -, Freak. ! , Males learn -, -, treat direct classmates laugh, solo - jakarta 28h, on the way solo, tomorrow can meet brother cihuyyy! ! ! ! ! ! ! ! ! ! , Finally holiday also huh! ! ! ! ! ! ! ! ! ! ! ! , Finally my head is delicious, live BARCA! ! ! , Beh $ 16.000 ajib, 2 more days SD reunion is good to the island tidung, wkwkkwk on ngerjain the Mochammad Fadhilah Nuris ampek crying make laugh: D wkwkwkwkkw, so missed pb again this -_-, my hand is getting more kok kok swell yes - _-, beutiful girl, my hand is swollen not lost - lost again fits the ball zzzzzzzzzzzz -__-, # now playing bruno mars - just the way you are ilill | _? _ | _ = _ | _? _ | Llili, 4l4yerzzz -, -, pingin nightly nightly where is it? : D, good night: D, I'm just ordinary people who just want to be loved and I was not perfect like you I was just a weak man without love love that you gave me that made me strong with the love that I live And i die that love can make me feel the taste of a lover 's affection, Oh her eyes, her eyes Make the stars look like they' re not shining Her hair, her hair Falls perfectly without her trying She 's so beautiful And I tell her every day, this fucking ahk who fucked my FB is not clear this azzzzzzzzzzzzzzzzzzzzzz! , # Now playing us forever, why is TL on twitter not running yes? , Badly I dikerjaiin Muhammad Fadil Al Katiri again fucking -___-, ngeladenin boy ngmong make me laugh, its not nice yes if the person we love has gone far menainggal kan we, ahk blom online also it kid -__-, online dong Plisss me pingi talk ma you! ! , Tired of her ngurusin kid V.V, yesterday japan tsunami hit the same earthquake! Keep her news miyabi how dong this? , Aiueo BABIbubebo cacicuceco, you are not the right heart for me but you deserve for others .., yey end up buying Hp too :)), In this life we ??can not always do great things. But we can do many small things with great love. In this life we ??can not always do great things. If you want something you've never had, you have to be willing to do something you've never done before. If you want something you've never had, you must be willing to do something youve never done. , Yuhu tomorrow is the best repeat week:) but .... (Yes, god just learn hard! Very feeling!! -__-, moaning! Cis is thin again with the father bangke!! -__-, hopefully the average score of 9 or not he over kkm all! !!, Malesss really not da excited to chat -___-, DEWA!!, Lonely her tonight crowded little dong tomorrow can not go online again hiks hiks: '(, why you go to me ?, Hard to find a way To get through It 'sa tragedy Pulling at me like the stars do You' re like gravity Even if the wind blows It makes it hard to believe How iya gon na love How iya gon na feel How you gon na live your life like the dream You have is real And if you lost your way I will keep you safe I see it come alive tonight I see it is a rada song Rada rokest!!, Words - * _ * _ * _ * _ * - can not be friends eat friends so confused I mean how ?, flying without wings, sepiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii ... ... ... .... ,,,,,,,,,,,,,,! ! ! ! ! ! ! ! ! ! ! ! ! , I want to have i nice dream, help me kelaparaannn ... ...,,,,,! ! ! ! ! ! ! , All: tomorrow in school there is no badminton? , I just waiting, pingin bakar maize: (but most delicious with mas mas in jawa:) when will go to jakarta mas ganang, wildan, safiq, mada, and other brother, laughing see vidio song tenteng a name wakkakakkakakkakakakkaka! ! ! ! ! ! ! ! ! , We will not go down! ! ! ! , My friend is very sorry already in two-in continue in ... .... , Huh anget! ! ! :), Dogs make this curious child two huahhhhhhhhhhhj! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! Next month:! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , Tired really exhausted arcici, have a nice dream all good night! ! , I love you my heart 4 I can, I need love to much, Sometimes God meets you with some improper people so you can be grateful when meeting the right people. , I waiting you, perfect ... ... ... ...! ! ! , Perfect, ahk ill its behh ajib ..! ! , Ui 8th graders make someone's group dong! ! ! , She is so beutiful! ! Ahahahahhaha, a rather melodious song that softens a wounded heart! ! ! Hehehe .., huh not satisfied with yourself! ! :(, why is this seventh grader ?!, I am weak without you I err without you the love that you give so much to me, so quiet this morning yeah!!, Today is a blessing day where is now the day of our Prophet Muhammad muhammad SAW, i wonder who and i wonder why, go to monas with my friends cuyyyyyyyyyyy friends what else srek nye kawokawokaowkawokawokawokoawkoawkoawkoawkokwoakoakwo, laugh see srek falling nye pants hollow also awkowkoakwokawokawokawokawokawokawo, kenape tomorrow not holiday aje anyway!!, To all: good night Have a nice day tomorow:), preparation tomorrow road way with hafidz gamal srek rafki firli emir abdrogba, lonely banged tonight, I'm weak without you I'm vulnerable because Love is gone from you Who is able to flatter me During the eyes open Until the heart does not beat Over That too I am able to remember you From you ... I found my life To me ... You are my true love at that moment not now, for you and me , Oh my lapar.com, why ye i sick or dying my ye? If sick really do not even recover kloudah dead knape not dead dead yes? But hopefully dead sahid! Aminnnnnnnnnnnnnnnnnnnnnnnnnnnn, it's so quiet this afternoon! ! , Bismillahhirrohmannirrohim yeah god hope this day is a good day! Amen! , It's sad that once today hopefully tomorrow will be a better day ..! ! ! Aaaaaaminnnnnnnnnnnnnnnnnnnnnnnnnn! ! ! , Behh ujan molo so can not cool my shoes again really bad luck hah: (, he's just the past is not my future future I must be brighter! :):), night like this is delicious what is it? , Bon jovi it's my life, its complicated person this guy huaaaaaaaaaaaaaaaaaah, this quiet night, my samurai, ouch pursued dog ... ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! Where the unfortunate again see that aje your dying dog is near njing! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , Good night all ... ... ... ... ... ...! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! I want to sleep hoaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaammmmmmmmmmmmmmmmmmmmmmmmmmmmmmm, hoaaaaaaaaaaaaaammmmmmmmmmmmmmmmmmmmmmmmm nice night its ngapian yeah? Sleep what does this stay? ? ? ? Confused, ahk bosen this is not da online weqs, silent amad this feeling nothing can be invited chat, astagfirulloh agin night really cold, facebook emoticon: smile: -) frown: - (tongue: -P grin: -D gasp: -O wink; -) glasses 8-) sunglasses 8- | Grumpy&gt;: (unsure: / cry: '(devil 3:) angel O:) kiss: - * heart &lt;3 kiki ^ _ ^ squint -_- confused o.O upset&gt;: O pacman: v curly lips: 3 robot: | ] Chris Putnam: putnam: Shark (^^^) Penguin &lt;(), rainy shit maker! ! , Morning morning pale shit fuck fuck, good night all, Faqih Chaerul Rachman: your dog ye noisy you sene tod, nice at 9 o'clock, ngak may sport two weeks dizzy, happy birthday brother sarah, yay, owwwwwwwwwww, yay, battle has finished , Slamat afternoon world, gilalo mir, yay, hoho, hmmmmmm, laughing, hmmmmmmm, must learn all out, soon the war is same book pencil ma, grrrrrr, wow, yay, Hi all my frieds. I just wan na introduce a kind of American Football at Florida State University to you all. My Dad and Mom are very happy to watch this video to enjoy your previous study at graduate program ata FSU. The song is so nice. So many young black become the role model in learning and sports. Warrick Dunn is the most favorite player in the 1993. He run like 'deer', cepet and lively. Congretulation Ded and keepon pray for me and all friends to follow your successful studying in America and making da'wah in the USA. Munif Faisol AR. , American football at my father's school Abdul Rahman, narrated from Abu Musa ra. : The Prophet once said, the parable of the remembrance of Allah and the one who does not remember Allah is like a person living with the dead. , Damn w dikatain mad, earthquakeiiiiiiiiiiiiiiiiiiii ... ... ... ... ... ... ... ... .... ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , Crazy yesterday open the vice conquer seizure place Grab food! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , A bright and beautiful morning ................................................ ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! ! , Fasting ... ... ... ... ... malem-malem digebukin same thugs ouch, yooooooooooooo, ughhhhhhhhhh lapeeeeeeeeeeeeeeeeeeer also yes, moon romadon full of blessings, ouch ... ... miss the friends SD, yah pretty lazy, because mikirin belajaaaaaaaaar but delicious too ... ... ...</t>
+  </si>
+  <si>
+    <t>Fitting since Fear the Walking Dead premiers tonight!
+Because I fucking should win this fucking fuckity fucking thing!
+Lucille, give me fucking strength.....
+Lucille &lt;3
+Fuck are these fuckers called?
+Who the fuck are these fools?
+Is that Raj from The Big Bang Theory?
+A lot of you know I proudly write for this awesome magazine. Show some love and subscribe!!
+Show some love for my Challenger and vote in Eagle One's online Car Show!
+Roberto's IE 392 #315 and Galvatron at Speedlogix!</t>
+  </si>
+  <si>
+    <t>The last few days have been an emotional roller coaster, and so I haven't gotten around to posting. My mom lost her long battle to Alzheimers monday night. She died peacefully at home surrounded by her family. Even though her physical appearance at five- foot-nothing did not reflect this, she was one of the strongest people I've ever known in my life. She gave the disease a run for it's money, having been on hospice for five years due to also falling and breaking her hip. After that, her life took place stuck in a bed with a feeding tube. In the end, it was the evil disease of Alzheimers that physically took her from us, but we have victory in Jesus knowing that today, mom is running, playing, talking to Jesus, and catching up with loved ones who have gone on before her. So Alzheimers....we get the last laugh! Mom I love you! Thank you for always putting your family first!
+Baby its cold outside!!!!!
+We were freezing cold, but a little hot chocolate and a parade of lights made for a fun night at Dollywood
+Got the errands done today, and now enjoying a lazy afternoon in front of the fire. Merry Christmas everyone!
+Yes I'm a Star Wars nerd and proud of it! So excited right now!!!
+This is too good not to share!
+Moving is exhausting!!!!
+Yep, I had one!
+Tennessee football!
+Wow, what a voice!</t>
+  </si>
+  <si>
+    <t>#GOAT
+Today's barbacoa quesadilla is simply the best in the world!
+Yes, that is a rogue pig being carried away.</t>
+  </si>
+  <si>
+    <t>We are failing. People adopt children in foreign countries but can not bother to apply for citizenship for their children. What are they thinking???
+Oh my! Facebook just told me people have liked my posts 58,000 times! Maybe I need to get off Facebook for awhile.
+Justin Elam, Blair Skillman, Jeffrey Boudreaux &amp; Lori Anderson and every other DIY person I know - have you seen this?
+Going to take 4 years for the US to withdraw completely. There's going to be another election so we need to make sure we elect a president who represents the future, new technology and a clean environment.
+This is horrible and so it continues.
+Florida friends who have dogs - might want to check this article. Just a heads up.
+And this is what Making America Great Again is all about?
+So they served our country, put their life on the line and we throw them out.
+So German auto makers are part of the trade problem? Maybe they should pull out of US markets and shut down all the manufacturing plants they built here? Plants that actually export half of the cars made to overseas markets? Yup, that will solve the problem! His degree is in real estate and he's made his fortune off using bankruptcy laws and shell companies. His knowledge of the global marketplace is non-existent.
+To my Florida friends - heads up if you wear a vest or jacket with patches. Don't know what these characters may do.</t>
+  </si>
+  <si>
+    <t>Dear Entergy friends, please please help get a crew out for a transformer outage at a Pleasure Island. I'll owe you big. This spring fling is a major thing for Port Arthur. Food trucks are shut down, band can't play and no boat has much needed AC. Please help!
+Please help me find my friends fur baby. Missing from the Fannett area. No tags, faded blue collar. Not chipped. Not altered. May have traveled for a lady friend. Please keep eye out.
+Huge favor. Let's put the power of Facebook to work. To all of our family and friends, would you please take less than 30 seconds to go to the link below and sign the petition to assist US as well as millions of people get the cost of insulin and supplies down. We appreciate you and your support. Brooklyn Ballenger Shaine Danielle Sahualla Michael Johnston Carina Kitcher Kirk https://m.facebook.com/AmericanDiabetesAssociation/photos/a.10150296362989033.333554.43005439032/10154092471594033/?type=3
+Any of my Nursing Home Friends hiring new LVN's? Paulette Sahualla
+2 of my 4 babies. They love me unconditionally and expect nothing from me. They're spoiled and they deserve it. Its just mutual love.
+Help! We are looking for pasture/cover in case of Bad weather to place, Apollo, Brooklyn's horse. Even for short period of time until we find permanent housing . He is currently living at the BISD AG barn and pasture location, but since she has graduated, he has to be moved. She will come and feed and clean up after. Just need a place! Preferably a decent drive from Beaumont and affordable. Thank you in advance! Feel free to share or tag! Brooklyn Ballenger. Michael Johnston
+Anyone in Beaumont able to do this style on Friday, May 6th after 3 pm and before 6pm? If so, location and price please!
+I NEVER post food porn, but this is super deserving! Seafood Queso!
+Everybody is at Mardi Gras. Just got off work. This is me. But I'm happy to be home.  ;) I need a picture of what I look like at this moment when I just realized that I forgot to buy coffee this evening for the Kureig for morning. (Insert exploitive words)
+Even though there is no fighting in my home *at the moment* this is a must read for parents (moms) and their kids. It's a good read for both.</t>
+  </si>
+  <si>
+    <t>Anyone in minnesota know of places for rent that don't do criminal background checks???
+Let's go LeBron show them who is the greatest
+Perfection lmao
+You got a friend in me...
+Put that frozen hearted child in the microwave on defrost
+I just had to</t>
+  </si>
+  <si>
+    <t>To those people who keep sending me friend requests. Stop sending me them. I don't know who you are. I'm taken. And I just don't add people who I've never spoken to. Nor who aren't mutual friends with.
+Any metro pcs users know how to get a phone bill?
+Well. I guess this how I'm sleeping tonight. She's for sure protecting me after what has happened to me. Lol. Gotta rest up now.
+That moment when you're trying to get comfy.
+Amanda Ratliff Karla Zamora Jasmin Chairez Lisa Marie Rios .. and other moms out there :)
+Anxiety is acting up suddenly from what has happened to me last week.. I guess it decided to finally slap me in the face. Trying to stay positive. Also reconnecting with long lost friends can be hard. :/
+Happy birthday Loretta Harmon. We miss you. Hope you have a wonderful cake in heaven!
+Gotta love my hometown!! #thatbrowngrassthough #womensmarch #equality</t>
+  </si>
+  <si>
+    <t>This is not my story, but it is a local story. Domestic violence and sexual assault is real. Contrary to what alot of people think, sexual assault and rape CAN happen from somebody you are in a relationship with. If you aren't in an abusive situation, it is important to remember to try to be a support system for those who need it, help when you can, and not to criticize. If you are in an abusive situation, it is important to remember that you are NOT alone, it is NOT your fault, and there IS hope. Please check out the #nomore campaign at www.nomore.org
+Thank you Sarah Burdyshaw
+This is serious people. Something terrible could have happened here if she wasn't a law abiding, armed citizen. Good thing she had her gun because nobody else was able to protect her at the moment. #righttobarearms #secondamendment #selfdefense #freedom #mylife #mysafety #truetalk #serious #election Know the bad parts of all candidates. A world with unarmed law abiding citizens only leaves a world with armed criminals. #nothanks #unsafe #thinkandrealize #gunsarenottheproblem
+Anybody looking for last minute #Roverfest tickets???
+Got three of these! They've got to go. $45 per ticket. I can meet in Lake County. #Roverfest</t>
+  </si>
+  <si>
+    <t>"We're gonna branch out in college"....
+LA
+Look who I ran into!!</t>
+  </si>
+  <si>
+    <t>Great! Been trying to get something like this myself for years.
+"Wyan"after catching his first striped bass.
+Merely another ordinary sunset at an ordinary location on an insignificant planet in a self-made universe; photons illuminating and being filtered by mere dirt particles.... Sorry, but I know the Artist. The above "merely" describes His palate.
+Harvey, a.k.a. "the Bean" scared us this week. A hard, fleshy cyst appeared suddenly under his lower jaw. Starting the size of an almond it rapidly grew to the size of a golf ball. Vet first feared the worse ("c"), but held out that it could be a salivary duct issue. Turned out to be the second. Whew! The Bean had me worried. ...And the beat goes on....
+Nothing like a warm rock after a big meal.
+This makes sense. Always has. And but for man's hubris, would work. We need such a wakeup call. Read "Common Sense" by Thomas Paine.... And, come quickly, Lord Jesus.
+Ever feel like you're being watched?
+Ah, good fam and food at Desoto's in Gulf Shores. A good vacation it was!
+Another water line break. Ahh. Home ownership is such fun!
+...so, should I start a band or what?</t>
+  </si>
+  <si>
+    <t>Anyone know if Vegas books the spread on presidential impeachments?
+Ohio weather be like...
+Oh how we can all relate to this...
+Companies stop hiring undocumented workers = no need for a stupid ass wall
+Ok, this one had me quacking up
+Yeah you know you wish your S's were this good...
+Great John Lennon tribute by Elton John
+Love the new Donald Trump inspired Dolphins uniforms!
+Hey Bengals fans, at least we still have last season!
+I believe it was Eddie from Barbershop who said it the best..."Colin Kaepernick ain't do nutin' but sit his biracial ass down"</t>
+  </si>
+  <si>
+    <t>Shawn Kaufman</t>
+  </si>
+  <si>
+    <t>Chris Bruce</t>
+  </si>
+  <si>
+    <t>Paul Mcarthur</t>
+  </si>
+  <si>
+    <t>Theresa Reimer</t>
+  </si>
+  <si>
+    <t>Kelly Kitcher Johnston</t>
+  </si>
+  <si>
+    <t>Damian Swenson</t>
+  </si>
+  <si>
+    <t>Elizabeth Roam</t>
+  </si>
+  <si>
+    <t>Katelyn Kluk</t>
+  </si>
+  <si>
+    <t>Jenny Rokhman</t>
+  </si>
+  <si>
+    <t>Tom Williams</t>
+  </si>
+  <si>
+    <t>Travis Emmons</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1460,6 +1602,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1767,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="AG135" sqref="AG135"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="92.25" x14ac:dyDescent="0.25"/>
@@ -1796,22 +1944,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1.02084967776092E+16</v>
       </c>
@@ -1819,25 +1967,25 @@
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1558335764186290</v>
       </c>
@@ -1845,22 +1993,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -1871,25 +2019,25 @@
         <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1603666146318970</v>
       </c>
@@ -1897,22 +2045,22 @@
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -1923,25 +2071,25 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1503013389711870</v>
       </c>
@@ -1949,22 +2097,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1975,22 +2123,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
@@ -2001,25 +2149,25 @@
         <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1710934792254580</v>
       </c>
@@ -2027,22 +2175,22 @@
         <v>12</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -2053,25 +2201,25 @@
         <v>13</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1776931975657530</v>
       </c>
@@ -2079,22 +2227,22 @@
         <v>14</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2105,25 +2253,25 @@
         <v>15</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1302754253095590</v>
       </c>
@@ -2131,22 +2279,22 @@
         <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -2157,25 +2305,25 @@
         <v>17</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1.02091179329768E+16</v>
       </c>
@@ -2183,22 +2331,22 @@
         <v>18</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -2209,77 +2357,77 @@
         <v>19</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1827383970608790</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>188</v>
+      <c r="C18" t="s">
+        <v>230</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>1484998054856710</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>189</v>
+      <c r="C19" t="s">
+        <v>231</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1.0203393929885E+16</v>
       </c>
@@ -2287,25 +2435,25 @@
         <v>22</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1674814679200770</v>
       </c>
@@ -2313,22 +2461,22 @@
         <v>23</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -2339,25 +2487,25 @@
         <v>24</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>1476126192451280</v>
       </c>
@@ -2365,25 +2513,25 @@
         <v>25</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1285238954857510</v>
       </c>
@@ -2391,22 +2539,22 @@
         <v>26</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -2417,25 +2565,25 @@
         <v>27</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>1499947146722760</v>
       </c>
@@ -2443,22 +2591,22 @@
         <v>28</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2469,25 +2617,25 @@
         <v>29</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>1.02069225664212E+16</v>
       </c>
@@ -2495,25 +2643,25 @@
         <v>30</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>1695970123754140</v>
       </c>
@@ -2521,25 +2669,25 @@
         <v>31</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>1581273871884460</v>
       </c>
@@ -2547,22 +2695,22 @@
         <v>32</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2573,25 +2721,25 @@
         <v>33</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>1.02073219384417E+16</v>
       </c>
@@ -2599,22 +2747,22 @@
         <v>34</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2625,25 +2773,25 @@
         <v>4</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>1412803912120300</v>
       </c>
@@ -2651,22 +2799,22 @@
         <v>35</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2677,1520 +2825,1520 @@
         <v>36</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="330" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="300" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="D92" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="D97" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>164</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>1.02103312393397E+16</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4198,51 +4346,51 @@
         <v>1357219091028340</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>1.02069874632846E+16</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4250,25 +4398,25 @@
         <v>1.02134517511523E+16</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4276,51 +4424,51 @@
         <v>465079827171159</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>2110354235646890</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4328,51 +4476,51 @@
         <v>1.01552980934163E+16</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>1163935713712990</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4380,103 +4528,103 @@
         <v>1457917717563260</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>1360716674016200</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>1943117612600890</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>1.02087985644214E+16</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4484,25 +4632,25 @@
         <v>1.02098377519691E+16</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -4510,51 +4658,51 @@
         <v>1.02093544692382E+16</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>1.02095049188757E+16</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,25 +4710,25 @@
         <v>1440698202640690</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4588,25 +4736,25 @@
         <v>1435002576559350</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4614,77 +4762,77 @@
         <v>1711262692223430</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>1443459105674990</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>243</v>
+        <v>191</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>1770467019635090</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4692,25 +4840,25 @@
         <v>1882983061919320</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4718,25 +4866,25 @@
         <v>1.02033259701875E+16</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4744,25 +4892,25 @@
         <v>1.02096458777252E+16</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4770,25 +4918,25 @@
         <v>1336085826498680</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4796,51 +4944,51 @@
         <v>381700002231380</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>1662936723746930</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4848,25 +4996,25 @@
         <v>1.02096573370991E+16</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4874,25 +5022,25 @@
         <v>1522703281081240</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4900,51 +5048,51 @@
         <v>1700772203273890</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>1009323859204590</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="225" x14ac:dyDescent="0.25">
@@ -4952,25 +5100,25 @@
         <v>1377408809009750</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4978,25 +5126,25 @@
         <v>1516256621779680</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5004,51 +5152,51 @@
         <v>1485465054838930</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>1488270041245150</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5056,25 +5204,25 @@
         <v>1.01548411845644E+16</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5082,51 +5230,51 @@
         <v>1530212696991970</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>1395089483905200</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5134,77 +5282,77 @@
         <v>1327834690646130</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>1477063715647040</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>1.02069403765479E+16</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5212,24 +5360,277 @@
         <v>1754618417886780</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>287</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H140" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B141" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="B142" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B144" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="B145" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B147" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="B148" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="B150" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B151" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H151" s="5" t="s">
         <v>170</v>
       </c>
     </row>
